--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14933,6 +14933,12 @@
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45517</c:v>
                 </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45519</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -15064,6 +15070,12 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15282,6 +15294,12 @@
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45517</c:v>
                 </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45519</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -15410,6 +15428,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>339.7745003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>373.1898976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15628,6 +15649,12 @@
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45517</c:v>
                 </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45519</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -15756,6 +15783,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>71.3598897312198</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>48.5221059736753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15974,6 +16004,12 @@
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45517</c:v>
                 </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45519</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -16099,6 +16135,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>54.3349414197105</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41.1028237147036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16317,6 +16356,12 @@
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45517</c:v>
                 </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45519</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -16439,6 +16484,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>40.9323225361819</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34.2770840364495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16657,6 +16705,12 @@
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45517</c:v>
                 </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45519</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -16776,6 +16830,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45.6413507925568</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32.9416132298346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16993,6 +17050,12 @@
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45517</c:v>
                 </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45519</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -17109,6 +17172,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>35.4988283942109</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.7158285521431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17327,6 +17393,12 @@
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45517</c:v>
                 </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45519</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -17443,6 +17515,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>38.7589248793935</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.9093261334233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17658,6 +17733,12 @@
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45517</c:v>
                 </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45519</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -17768,6 +17849,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2001.69924190214</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1919.66509168635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18118,10 +18202,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$42</c:f>
+              <c:f>日活跃2!$B$2:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18244,16 +18328,22 @@
                 </c:pt>
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$2:$C$42</c:f>
+              <c:f>日活跃2!$C$2:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1550</c:v>
                 </c:pt>
@@ -18376,6 +18466,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>264.409598479448</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>298.133971291866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18412,10 +18505,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$42</c:f>
+              <c:f>日活跃2!$B$2:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18538,16 +18631,22 @@
                 </c:pt>
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$D$2:$D$42</c:f>
+              <c:f>日活跃2!$D$2:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="1" c:formatCode="0_ ">
                   <c:v>170</c:v>
                 </c:pt>
@@ -18631,10 +18730,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$42</c:f>
+              <c:f>日活跃2!$B$2:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18757,16 +18856,22 @@
                 </c:pt>
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$E$2:$E$42</c:f>
+              <c:f>日活跃2!$E$2:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="2" c:formatCode="0_ ">
                   <c:v>100</c:v>
                 </c:pt>
@@ -18847,10 +18952,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$42</c:f>
+              <c:f>日活跃2!$B$2:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18973,16 +19078,22 @@
                 </c:pt>
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$F$2:$F$42</c:f>
+              <c:f>日活跃2!$F$2:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="3" c:formatCode="0_ ">
                   <c:v>110</c:v>
                 </c:pt>
@@ -19060,10 +19171,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$42</c:f>
+              <c:f>日活跃2!$B$2:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19186,16 +19297,22 @@
                 </c:pt>
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$G$2:$G$42</c:f>
+              <c:f>日活跃2!$G$2:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="4" c:formatCode="0_ ">
                   <c:v>60</c:v>
                 </c:pt>
@@ -40854,8 +40971,8 @@
   <sheetPr/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -42293,9 +42410,17 @@
         <v>2001.69924190214</v>
       </c>
     </row>
-    <row r="43" spans="3:11">
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>2638</v>
+      </c>
+      <c r="B43" s="5">
+        <v>45518</v>
+      </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="8"/>
+      <c r="D43" s="8">
+        <v>4</v>
+      </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -42304,16 +42429,40 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="3:11">
-      <c r="C44" s="6"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>2642</v>
+      </c>
+      <c r="B44" s="5">
+        <v>45519</v>
+      </c>
+      <c r="C44" s="6">
+        <v>373.1898976</v>
+      </c>
+      <c r="D44" s="8">
+        <v>4</v>
+      </c>
+      <c r="E44" s="6">
+        <v>48.5221059736753</v>
+      </c>
+      <c r="F44" s="6">
+        <v>41.1028237147036</v>
+      </c>
+      <c r="G44" s="6">
+        <v>34.2770840364495</v>
+      </c>
+      <c r="H44" s="6">
+        <v>32.9416132298346</v>
+      </c>
+      <c r="I44" s="6">
+        <v>30.7158285521431</v>
+      </c>
+      <c r="J44" s="6">
+        <v>35.9093261334233</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1919.66509168635</v>
+      </c>
     </row>
     <row r="45" spans="3:11">
       <c r="C45" s="6"/>
@@ -42514,8 +42663,8 @@
   <sheetPr/>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -43382,13 +43531,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="3:9">
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>2638</v>
+      </c>
+      <c r="B43" s="5">
+        <v>45518</v>
+      </c>
       <c r="C43" s="8"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="3:9">
-      <c r="C44" s="8"/>
-      <c r="I44" s="6"/>
+      <c r="I43" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>2642</v>
+      </c>
+      <c r="B44" s="5">
+        <v>45519</v>
+      </c>
+      <c r="C44" s="8">
+        <v>298.133971291866</v>
+      </c>
+      <c r="I44" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="3:9">
       <c r="C45" s="8"/>

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14939,6 +14939,9 @@
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45519</c:v>
                 </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45520</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -15075,6 +15078,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -15300,6 +15306,9 @@
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45519</c:v>
                 </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45520</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -15430,7 +15439,10 @@
                   <c:v>339.7745003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>373.1898976</c:v>
+                  <c:v>392.4398953</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>385.5791327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15655,6 +15667,9 @@
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45519</c:v>
                 </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45520</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -15785,7 +15800,10 @@
                   <c:v>71.3598897312198</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>48.5221059736753</c:v>
+                  <c:v>52.6219249781913</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>68.2166539522328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16010,6 +16028,9 @@
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45519</c:v>
                 </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45520</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -16137,7 +16158,10 @@
                   <c:v>54.3349414197105</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41.1028237147036</c:v>
+                  <c:v>42.9566734515848</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35.9687811748137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16362,6 +16386,9 @@
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45519</c:v>
                 </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45520</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -16486,7 +16513,10 @@
                   <c:v>40.9323225361819</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>34.2770840364495</c:v>
+                  <c:v>35.899505670253</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36.8990082741623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16711,6 +16741,9 @@
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45519</c:v>
                 </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45520</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -16832,7 +16865,10 @@
                   <c:v>45.6413507925568</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>32.9416132298346</c:v>
+                  <c:v>34.9790055248619</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.6665101813274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17056,6 +17092,9 @@
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45519</c:v>
                 </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45520</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -17174,7 +17213,10 @@
                   <c:v>35.4988283942109</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>30.7158285521431</c:v>
+                  <c:v>32.6777551613841</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37.0540461240538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17399,6 +17441,9 @@
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45519</c:v>
                 </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45520</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -17517,7 +17562,10 @@
                   <c:v>38.7589248793935</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>35.9093261334233</c:v>
+                  <c:v>38.3541727246293</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30.6974942785048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17739,6 +17787,9 @@
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45519</c:v>
                 </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45520</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -17851,7 +17902,10 @@
                   <c:v>2001.69924190214</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1919.66509168635</c:v>
+                  <c:v>2008.07106717069</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2020.9183733349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18202,10 +18256,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$44</c:f>
+              <c:f>日活跃2!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18334,16 +18388,19 @@
                 </c:pt>
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$2:$C$44</c:f>
+              <c:f>日活跃2!$C$2:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1550</c:v>
                 </c:pt>
@@ -18468,7 +18525,10 @@
                   <c:v>264.409598479448</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>298.133971291866</c:v>
+                  <c:v>303.840039741679</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>297.719087635054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18505,10 +18565,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$44</c:f>
+              <c:f>日活跃2!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18637,16 +18697,19 @@
                 </c:pt>
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$D$2:$D$44</c:f>
+              <c:f>日活跃2!$D$2:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="1" c:formatCode="0_ ">
                   <c:v>170</c:v>
                 </c:pt>
@@ -18730,10 +18793,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$44</c:f>
+              <c:f>日活跃2!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18862,16 +18925,19 @@
                 </c:pt>
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$E$2:$E$44</c:f>
+              <c:f>日活跃2!$E$2:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="2" c:formatCode="0_ ">
                   <c:v>100</c:v>
                 </c:pt>
@@ -18952,10 +19018,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$44</c:f>
+              <c:f>日活跃2!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19084,16 +19150,19 @@
                 </c:pt>
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$F$2:$F$44</c:f>
+              <c:f>日活跃2!$F$2:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="3" c:formatCode="0_ ">
                   <c:v>110</c:v>
                 </c:pt>
@@ -19171,10 +19240,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$44</c:f>
+              <c:f>日活跃2!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19303,16 +19372,19 @@
                 </c:pt>
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$G$2:$G$44</c:f>
+              <c:f>日活跃2!$G$2:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="4" c:formatCode="0_ ">
                   <c:v>60</c:v>
                 </c:pt>
@@ -29147,8 +29219,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8836660" y="473710"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9762490" y="450850"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29177,8 +29249,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8806180" y="589280"/>
-        <a:ext cx="11431905" cy="5311140"/>
+        <a:off x="9732010" y="554990"/>
+        <a:ext cx="12696190" cy="4979670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29207,8 +29279,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8811260" y="6186170"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9737090" y="5808980"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29242,8 +29314,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3373120" y="20403820"/>
-        <a:ext cx="12246610" cy="6044565"/>
+        <a:off x="3729990" y="19135090"/>
+        <a:ext cx="13565505" cy="5667375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29277,8 +29349,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23703915" y="275590"/>
-        <a:ext cx="8799830" cy="5819140"/>
+        <a:off x="26319480" y="260350"/>
+        <a:ext cx="9759950" cy="5321935"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29312,8 +29384,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6589395" y="133350"/>
-        <a:ext cx="8778875" cy="5020945"/>
+        <a:off x="7298690" y="133350"/>
+        <a:ext cx="9730105" cy="4700905"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29347,8 +29419,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6337935" y="117475"/>
-        <a:ext cx="6707505" cy="5530850"/>
+        <a:off x="6979920" y="117475"/>
+        <a:ext cx="7485380" cy="5187950"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29382,8 +29454,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8887460" y="170180"/>
-        <a:ext cx="5092065" cy="6658610"/>
+        <a:off x="9860280" y="170180"/>
+        <a:ext cx="5621655" cy="6235700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29417,8 +29489,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6602095" y="109220"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7328535" y="109220"/>
+        <a:ext cx="9937115" cy="4862830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29447,8 +29519,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6851015" y="5410200"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7577455" y="5078730"/>
+        <a:ext cx="10005060" cy="4865370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -30131,7 +30203,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -30142,9 +30214,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="12.8888888888889"/>
+    <col min="14" max="14" width="15.225" customWidth="1"/>
+    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34557,26 +34629,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="11.775" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556"/>
-    <col min="14" max="14" width="12.8888888888889"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="17.5583333333333"/>
+    <col min="14" max="14" width="12.8916666666667"/>
+    <col min="15" max="15" width="11.775" customWidth="1"/>
+    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="11.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37444,7 +37516,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D156">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D156" etc:filterBottomFollowUsedRange="0">
     <sortState ref="A1:D156">
       <sortCondition ref="C1"/>
     </sortState>
@@ -37466,32 +37538,32 @@
       <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889"/>
-    <col min="2" max="2" width="17.5555555555556"/>
+    <col min="1" max="1" width="12.8916666666667"/>
+    <col min="2" max="2" width="17.5583333333333"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889"/>
-    <col min="5" max="5" width="17.5555555555556"/>
-    <col min="6" max="6" width="11.7777777777778"/>
-    <col min="7" max="7" width="17.5555555555556"/>
-    <col min="8" max="8" width="11.7777777777778"/>
-    <col min="9" max="9" width="12.8888888888889"/>
-    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778"/>
+    <col min="4" max="4" width="11.8916666666667"/>
+    <col min="5" max="5" width="17.5583333333333"/>
+    <col min="6" max="6" width="11.775"/>
+    <col min="7" max="7" width="17.5583333333333"/>
+    <col min="8" max="8" width="11.775"/>
+    <col min="9" max="9" width="12.8916666666667"/>
+    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.775"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444"/>
+    <col min="13" max="13" width="16.4416666666667"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5555555555556"/>
-    <col min="20" max="20" width="12.8888888888889"/>
-    <col min="25" max="26" width="12.8888888888889"/>
+    <col min="19" max="19" width="10.5583333333333"/>
+    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="25" max="26" width="12.8916666666667"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="2:28">
+    <row r="1" ht="15" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -40953,7 +41025,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D89">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D89" etc:filterBottomFollowUsedRange="0">
     <sortState ref="A1:D89">
       <sortCondition ref="B1:B89"/>
     </sortState>
@@ -40971,11 +41043,11 @@
   <sheetPr/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -42437,43 +42509,67 @@
         <v>45519</v>
       </c>
       <c r="C44" s="6">
-        <v>373.1898976</v>
+        <v>392.4398953</v>
       </c>
       <c r="D44" s="8">
         <v>4</v>
       </c>
       <c r="E44" s="6">
-        <v>48.5221059736753</v>
+        <v>52.6219249781913</v>
       </c>
       <c r="F44" s="6">
-        <v>41.1028237147036</v>
+        <v>42.9566734515848</v>
       </c>
       <c r="G44" s="6">
-        <v>34.2770840364495</v>
+        <v>35.899505670253</v>
       </c>
       <c r="H44" s="6">
-        <v>32.9416132298346</v>
+        <v>34.9790055248619</v>
       </c>
       <c r="I44" s="6">
-        <v>30.7158285521431</v>
+        <v>32.6777551613841</v>
       </c>
       <c r="J44" s="6">
-        <v>35.9093261334233</v>
+        <v>38.3541727246293</v>
       </c>
       <c r="K44" s="6">
-        <v>1919.66509168635</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11">
-      <c r="C45" s="6"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+        <v>2008.07106717069</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>2646</v>
+      </c>
+      <c r="B45" s="5">
+        <v>45520</v>
+      </c>
+      <c r="C45" s="6">
+        <v>385.5791327</v>
+      </c>
+      <c r="D45" s="8">
+        <v>4</v>
+      </c>
+      <c r="E45" s="6">
+        <v>68.2166539522328</v>
+      </c>
+      <c r="F45" s="6">
+        <v>35.9687811748137</v>
+      </c>
+      <c r="G45" s="6">
+        <v>36.8990082741623</v>
+      </c>
+      <c r="H45" s="6">
+        <v>26.6665101813274</v>
+      </c>
+      <c r="I45" s="6">
+        <v>37.0540461240538</v>
+      </c>
+      <c r="J45" s="6">
+        <v>30.6974942785048</v>
+      </c>
+      <c r="K45" s="6">
+        <v>2020.9183733349</v>
+      </c>
     </row>
     <row r="46" spans="3:11">
       <c r="C46" s="6"/>
@@ -42663,14 +42759,14 @@
   <sheetPr/>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="12.8888888888889"/>
-    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="3" max="3" width="12.8916666666667"/>
+    <col min="10" max="10" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -43551,15 +43647,25 @@
         <v>45519</v>
       </c>
       <c r="C44" s="8">
-        <v>298.133971291866</v>
+        <v>303.840039741679</v>
       </c>
       <c r="I44" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="3:9">
-      <c r="C45" s="8"/>
-      <c r="I45" s="6"/>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>2646</v>
+      </c>
+      <c r="B45" s="5">
+        <v>45520</v>
+      </c>
+      <c r="C45" s="8">
+        <v>297.719087635054</v>
+      </c>
+      <c r="I45" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="3:9">
       <c r="C46" s="8"/>
@@ -43587,13 +43693,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="20" max="20" width="12.8916666666667"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -44909,10 +45015,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8888888888889"/>
-    <col min="7" max="8" width="12.8888888888889"/>
+    <col min="2" max="5" width="12.8916666666667"/>
+    <col min="7" max="8" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -14942,6 +14942,9 @@
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45520</c:v>
                 </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45521</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -15081,6 +15084,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -15309,6 +15315,9 @@
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45520</c:v>
                 </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45521</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -15443,6 +15452,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>385.5791327</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>382.9393112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15670,6 +15682,9 @@
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45520</c:v>
                 </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45521</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -15804,6 +15819,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>68.2166539522328</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>56.8569603345142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16031,6 +16049,9 @@
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45520</c:v>
                 </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45521</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -16162,6 +16183,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>35.9687811748137</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40.4145420756141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16389,6 +16413,9 @@
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45520</c:v>
                 </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45521</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -16517,6 +16544,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>36.8990082741623</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.4238341367094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16744,6 +16774,9 @@
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45520</c:v>
                 </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45521</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -16869,6 +16902,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>26.6665101813274</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35.0361809628898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17095,6 +17131,9 @@
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45520</c:v>
                 </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45521</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -17217,6 +17256,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>37.0540461240538</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30.7334920727104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17444,6 +17486,9 @@
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45520</c:v>
                 </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45521</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -17566,6 +17611,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>30.6974942785048</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.1164992159824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17790,6 +17838,9 @@
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45520</c:v>
                 </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45521</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -17906,6 +17957,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2020.9183733349</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2035.47917997561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18256,10 +18310,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$45</c:f>
+              <c:f>日活跃2!$B$2:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18391,16 +18445,19 @@
                 </c:pt>
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$2:$C$45</c:f>
+              <c:f>日活跃2!$C$2:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1550</c:v>
                 </c:pt>
@@ -18529,6 +18586,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>297.719087635054</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>295.627300766092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18565,10 +18625,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$45</c:f>
+              <c:f>日活跃2!$B$2:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18700,16 +18760,19 @@
                 </c:pt>
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$D$2:$D$45</c:f>
+              <c:f>日活跃2!$D$2:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1" c:formatCode="0_ ">
                   <c:v>170</c:v>
                 </c:pt>
@@ -18793,10 +18856,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$45</c:f>
+              <c:f>日活跃2!$B$2:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18928,16 +18991,19 @@
                 </c:pt>
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$E$2:$E$45</c:f>
+              <c:f>日活跃2!$E$2:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="2" c:formatCode="0_ ">
                   <c:v>100</c:v>
                 </c:pt>
@@ -19018,10 +19084,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$45</c:f>
+              <c:f>日活跃2!$B$2:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19153,16 +19219,19 @@
                 </c:pt>
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$F$2:$F$45</c:f>
+              <c:f>日活跃2!$F$2:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="3" c:formatCode="0_ ">
                   <c:v>110</c:v>
                 </c:pt>
@@ -19240,10 +19309,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$45</c:f>
+              <c:f>日活跃2!$B$2:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19375,16 +19444,19 @@
                 </c:pt>
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$G$2:$G$45</c:f>
+              <c:f>日活跃2!$G$2:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="4" c:formatCode="0_ ">
                   <c:v>60</c:v>
                 </c:pt>
@@ -41043,8 +41115,8 @@
   <sheetPr/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -42571,16 +42643,40 @@
         <v>2020.9183733349</v>
       </c>
     </row>
-    <row r="46" spans="3:11">
-      <c r="C46" s="6"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>2650</v>
+      </c>
+      <c r="B46" s="5">
+        <v>45521</v>
+      </c>
+      <c r="C46" s="6">
+        <v>382.9393112</v>
+      </c>
+      <c r="D46" s="8">
+        <v>4</v>
+      </c>
+      <c r="E46" s="6">
+        <v>56.8569603345142</v>
+      </c>
+      <c r="F46" s="6">
+        <v>40.4145420756141</v>
+      </c>
+      <c r="G46" s="6">
+        <v>32.4238341367094</v>
+      </c>
+      <c r="H46" s="6">
+        <v>35.0361809628898</v>
+      </c>
+      <c r="I46" s="6">
+        <v>30.7334920727104</v>
+      </c>
+      <c r="J46" s="6">
+        <v>32.1164992159824</v>
+      </c>
+      <c r="K46" s="6">
+        <v>2035.47917997561</v>
+      </c>
     </row>
     <row r="47" spans="3:11">
       <c r="C47" s="6"/>
@@ -42759,8 +42855,8 @@
   <sheetPr/>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -43667,9 +43763,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="3:9">
-      <c r="C46" s="8"/>
-      <c r="I46" s="6"/>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>2650</v>
+      </c>
+      <c r="B46" s="5">
+        <v>45521</v>
+      </c>
+      <c r="C46" s="8">
+        <v>295.627300766092</v>
+      </c>
+      <c r="I46" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="9:9">
       <c r="I47" s="6"/>

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14945,6 +14945,9 @@
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45521</c:v>
                 </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45522</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -15088,6 +15091,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15318,6 +15324,9 @@
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45521</c:v>
                 </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45522</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -15455,6 +15464,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>382.9393112</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>388.2156028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15685,6 +15697,9 @@
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45521</c:v>
                 </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45522</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -15822,6 +15837,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>56.8569603345142</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55.931914893617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16052,6 +16070,9 @@
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45521</c:v>
                 </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45522</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -16186,6 +16207,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>40.4145420756141</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>38.3404255319149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16416,6 +16440,9 @@
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45521</c:v>
                 </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45522</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -16547,6 +16574,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>32.4238341367094</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.4836879432624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16777,6 +16807,9 @@
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45521</c:v>
                 </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45522</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -16905,6 +16938,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>35.0361809628898</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.3716312056738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17134,6 +17170,9 @@
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45521</c:v>
                 </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45522</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -17259,6 +17298,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>30.7334920727104</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31.1234042553191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17489,6 +17531,9 @@
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45521</c:v>
                 </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45522</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -17614,6 +17659,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>32.1164992159824</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28.4170212765957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17841,6 +17889,9 @@
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45521</c:v>
                 </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45522</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -17960,6 +18011,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2035.47917997561</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2041.06382978723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18310,10 +18364,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$46</c:f>
+              <c:f>日活跃2!$B$2:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18448,16 +18502,19 @@
                 </c:pt>
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$2:$C$46</c:f>
+              <c:f>日活跃2!$C$2:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1550</c:v>
                 </c:pt>
@@ -18589,6 +18646,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>295.627300766092</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>299.398548563475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18625,10 +18685,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$46</c:f>
+              <c:f>日活跃2!$B$2:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18763,16 +18823,19 @@
                 </c:pt>
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$D$2:$D$46</c:f>
+              <c:f>日活跃2!$D$2:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="1" c:formatCode="0_ ">
                   <c:v>170</c:v>
                 </c:pt>
@@ -18856,10 +18919,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$46</c:f>
+              <c:f>日活跃2!$B$2:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18994,16 +19057,19 @@
                 </c:pt>
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$E$2:$E$46</c:f>
+              <c:f>日活跃2!$E$2:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="2" c:formatCode="0_ ">
                   <c:v>100</c:v>
                 </c:pt>
@@ -19084,10 +19150,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$46</c:f>
+              <c:f>日活跃2!$B$2:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19222,16 +19288,19 @@
                 </c:pt>
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$F$2:$F$46</c:f>
+              <c:f>日活跃2!$F$2:$F$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="3" c:formatCode="0_ ">
                   <c:v>110</c:v>
                 </c:pt>
@@ -19309,10 +19378,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$46</c:f>
+              <c:f>日活跃2!$B$2:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19447,16 +19516,19 @@
                 </c:pt>
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$G$2:$G$46</c:f>
+              <c:f>日活跃2!$G$2:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="4" c:formatCode="0_ ">
                   <c:v>60</c:v>
                 </c:pt>
@@ -29291,8 +29363,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9762490" y="450850"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8836660" y="473710"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29321,8 +29393,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9732010" y="554990"/>
-        <a:ext cx="12696190" cy="4979670"/>
+        <a:off x="8806180" y="589280"/>
+        <a:ext cx="11431905" cy="5311140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29351,8 +29423,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9737090" y="5808980"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8811260" y="6186170"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29386,8 +29458,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3729990" y="19135090"/>
-        <a:ext cx="13565505" cy="5667375"/>
+        <a:off x="3373120" y="20403820"/>
+        <a:ext cx="12246610" cy="6044565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29421,8 +29493,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26319480" y="260350"/>
-        <a:ext cx="9759950" cy="5321935"/>
+        <a:off x="23703915" y="275590"/>
+        <a:ext cx="8799830" cy="5819140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29456,8 +29528,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7298690" y="133350"/>
-        <a:ext cx="9730105" cy="4700905"/>
+        <a:off x="6589395" y="133350"/>
+        <a:ext cx="8778875" cy="5020945"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29491,8 +29563,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6979920" y="117475"/>
-        <a:ext cx="7485380" cy="5187950"/>
+        <a:off x="6337935" y="117475"/>
+        <a:ext cx="6707505" cy="5530850"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29526,8 +29598,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9860280" y="170180"/>
-        <a:ext cx="5621655" cy="6235700"/>
+        <a:off x="8887460" y="170180"/>
+        <a:ext cx="5092065" cy="6658610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29561,8 +29633,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7328535" y="109220"/>
-        <a:ext cx="9937115" cy="4862830"/>
+        <a:off x="6602095" y="109220"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29591,8 +29663,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7577455" y="5078730"/>
-        <a:ext cx="10005060" cy="4865370"/>
+        <a:off x="6851015" y="5410200"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -30275,7 +30347,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -30286,9 +30358,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.225" customWidth="1"/>
-    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
-    <col min="17" max="17" width="12.8916666666667"/>
+    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34701,26 +34773,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.775" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5583333333333"/>
-    <col min="14" max="14" width="12.8916666666667"/>
-    <col min="15" max="15" width="11.775" customWidth="1"/>
-    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556"/>
+    <col min="14" max="14" width="12.8888888888889"/>
+    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.775" customWidth="1"/>
+    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37588,7 +37660,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D156" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="A1:D156">
     <sortState ref="A1:D156">
       <sortCondition ref="C1"/>
     </sortState>
@@ -37610,32 +37682,32 @@
       <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.8916666666667"/>
-    <col min="2" max="2" width="17.5583333333333"/>
+    <col min="1" max="1" width="12.8888888888889"/>
+    <col min="2" max="2" width="17.5555555555556"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8916666666667"/>
-    <col min="5" max="5" width="17.5583333333333"/>
-    <col min="6" max="6" width="11.775"/>
-    <col min="7" max="7" width="17.5583333333333"/>
-    <col min="8" max="8" width="11.775"/>
-    <col min="9" max="9" width="12.8916666666667"/>
-    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.775"/>
+    <col min="4" max="4" width="11.8888888888889"/>
+    <col min="5" max="5" width="17.5555555555556"/>
+    <col min="6" max="6" width="11.7777777777778"/>
+    <col min="7" max="7" width="17.5555555555556"/>
+    <col min="8" max="8" width="11.7777777777778"/>
+    <col min="9" max="9" width="12.8888888888889"/>
+    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4416666666667"/>
+    <col min="13" max="13" width="16.4444444444444"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5583333333333"/>
-    <col min="20" max="20" width="12.8916666666667"/>
-    <col min="25" max="26" width="12.8916666666667"/>
+    <col min="19" max="19" width="10.5555555555556"/>
+    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="25" max="26" width="12.8888888888889"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:28">
+    <row r="1" ht="16.2" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -41097,7 +41169,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D89" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="A1:D89">
     <sortState ref="A1:D89">
       <sortCondition ref="B1:B89"/>
     </sortState>
@@ -41115,11 +41187,11 @@
   <sheetPr/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -42678,16 +42750,40 @@
         <v>2035.47917997561</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
-      <c r="C47" s="6"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>2655</v>
+      </c>
+      <c r="B47" s="5">
+        <v>45522</v>
+      </c>
+      <c r="C47" s="6">
+        <v>388.2156028</v>
+      </c>
+      <c r="D47" s="8">
+        <v>5</v>
+      </c>
+      <c r="E47" s="6">
+        <v>55.931914893617</v>
+      </c>
+      <c r="F47" s="6">
+        <v>38.3404255319149</v>
+      </c>
+      <c r="G47" s="6">
+        <v>35.4836879432624</v>
+      </c>
+      <c r="H47" s="6">
+        <v>30.3716312056738</v>
+      </c>
+      <c r="I47" s="6">
+        <v>31.1234042553191</v>
+      </c>
+      <c r="J47" s="6">
+        <v>28.4170212765957</v>
+      </c>
+      <c r="K47" s="6">
+        <v>2041.06382978723</v>
+      </c>
     </row>
     <row r="48" spans="3:11">
       <c r="C48" s="6"/>
@@ -42853,16 +42949,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="12.8916666666667"/>
-    <col min="10" max="10" width="12.8916666666667"/>
+    <col min="3" max="3" width="12.8888888888889"/>
+    <col min="10" max="10" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -43777,11 +43873,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="9:9">
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="9:9">
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>2655</v>
+      </c>
+      <c r="B47" s="5">
+        <v>45522</v>
+      </c>
+      <c r="C47" s="8">
+        <v>299.398548563475</v>
+      </c>
+      <c r="I47" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9">
+      <c r="C48" s="8"/>
       <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -43799,13 +43943,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="20" max="20" width="12.8888888888889"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -45121,10 +45265,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8916666666667"/>
-    <col min="7" max="8" width="12.8916666666667"/>
+    <col min="2" max="5" width="12.8888888888889"/>
+    <col min="7" max="8" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -16942,6 +16942,9 @@
                 <c:pt idx="45">
                   <c:v>30.3716312056738</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>28.3537832310838</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17301,6 +17304,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>31.1234042553191</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.6947852760736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17663,6 +17669,9 @@
                 <c:pt idx="45">
                   <c:v>28.4170212765957</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.2423312883436</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18014,6 +18023,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2041.06382978723</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2055.64928425358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18364,10 +18376,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$47</c:f>
+              <c:f>日活跃2!$B$2:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18505,16 +18517,19 @@
                 </c:pt>
                 <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$2:$C$47</c:f>
+              <c:f>日活跃2!$C$2:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1550</c:v>
                 </c:pt>
@@ -18649,6 +18664,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>299.398548563475</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>288.834857031705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18685,10 +18703,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$47</c:f>
+              <c:f>日活跃2!$B$2:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18826,16 +18844,19 @@
                 </c:pt>
                 <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$D$2:$D$47</c:f>
+              <c:f>日活跃2!$D$2:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="1" c:formatCode="0_ ">
                   <c:v>170</c:v>
                 </c:pt>
@@ -18919,10 +18940,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$47</c:f>
+              <c:f>日活跃2!$B$2:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19060,16 +19081,19 @@
                 </c:pt>
                 <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$E$2:$E$47</c:f>
+              <c:f>日活跃2!$E$2:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="2" c:formatCode="0_ ">
                   <c:v>100</c:v>
                 </c:pt>
@@ -19150,10 +19174,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$47</c:f>
+              <c:f>日活跃2!$B$2:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19291,16 +19315,19 @@
                 </c:pt>
                 <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$F$2:$F$47</c:f>
+              <c:f>日活跃2!$F$2:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="3" c:formatCode="0_ ">
                   <c:v>110</c:v>
                 </c:pt>
@@ -19378,10 +19405,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$47</c:f>
+              <c:f>日活跃2!$B$2:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19519,16 +19546,19 @@
                 </c:pt>
                 <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$G$2:$G$47</c:f>
+              <c:f>日活跃2!$G$2:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="4" c:formatCode="0_ ">
                   <c:v>60</c:v>
                 </c:pt>
@@ -41188,7 +41218,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -42785,16 +42815,40 @@
         <v>2041.06382978723</v>
       </c>
     </row>
-    <row r="48" spans="3:11">
-      <c r="C48" s="6"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>2659</v>
+      </c>
+      <c r="B48" s="5">
+        <v>45523</v>
+      </c>
+      <c r="C48" s="6">
+        <v>377.7990798</v>
+      </c>
+      <c r="D48" s="8">
+        <v>4</v>
+      </c>
+      <c r="E48" s="6">
+        <v>69.3762781186094</v>
+      </c>
+      <c r="F48" s="6">
+        <v>40.1175869120654</v>
+      </c>
+      <c r="G48" s="6">
+        <v>27.5996932515337</v>
+      </c>
+      <c r="H48" s="6">
+        <v>28.3537832310838</v>
+      </c>
+      <c r="I48" s="6">
+        <v>26.6947852760736</v>
+      </c>
+      <c r="J48" s="6">
+        <v>26.2423312883436</v>
+      </c>
+      <c r="K48" s="6">
+        <v>2055.64928425358</v>
+      </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" s="6"/>
@@ -42951,8 +43005,8 @@
   <sheetPr/>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -43887,9 +43941,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="3:9">
-      <c r="C48" s="8"/>
-      <c r="I48" s="6"/>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>2659</v>
+      </c>
+      <c r="B48" s="5">
+        <v>45523</v>
+      </c>
+      <c r="C48" s="8">
+        <v>288.834857031705</v>
+      </c>
+      <c r="I48" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="8"/>

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -41218,7 +41218,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -42850,16 +42850,40 @@
         <v>2055.64928425358</v>
       </c>
     </row>
-    <row r="49" spans="3:11">
-      <c r="C49" s="6"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>2663</v>
+      </c>
+      <c r="B49" s="5">
+        <v>45524</v>
+      </c>
+      <c r="C49" s="6">
+        <v>358.783733</v>
+      </c>
+      <c r="D49" s="8">
+        <v>4</v>
+      </c>
+      <c r="E49" s="6">
+        <v>62.1933474377057</v>
+      </c>
+      <c r="F49" s="6">
+        <v>45.3167606958157</v>
+      </c>
+      <c r="G49" s="6">
+        <v>32.1905265632346</v>
+      </c>
+      <c r="H49" s="6">
+        <v>25.0023507287259</v>
+      </c>
+      <c r="I49" s="6">
+        <v>30.1590855665256</v>
+      </c>
+      <c r="J49" s="6">
+        <v>28.4401739539257</v>
+      </c>
+      <c r="K49" s="6">
+        <v>2073.3199341796</v>
+      </c>
     </row>
     <row r="50" spans="3:11">
       <c r="C50" s="6"/>
@@ -43003,10 +43027,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -43955,41 +43979,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="3:3">
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>2663</v>
+      </c>
+      <c r="B49" s="5">
+        <v>45524</v>
+      </c>
+      <c r="C49" s="8">
+        <v>271.814320388349</v>
+      </c>
+      <c r="I49" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9">
       <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="3:3">
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="3:9">
       <c r="C51" s="8"/>
-    </row>
-    <row r="52" spans="3:3">
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="3:9">
       <c r="C52" s="8"/>
-    </row>
-    <row r="53" spans="3:3">
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="3:9">
       <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="3:3">
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="3:9">
       <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="3:3">
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="3:9">
       <c r="C55" s="8"/>
-    </row>
-    <row r="56" spans="3:3">
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="3:9">
       <c r="C56" s="8"/>
-    </row>
-    <row r="57" spans="3:3">
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="3:9">
       <c r="C57" s="8"/>
-    </row>
-    <row r="58" spans="3:3">
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="3:9">
       <c r="C58" s="8"/>
-    </row>
-    <row r="59" spans="3:3">
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="3:9">
       <c r="C59" s="8"/>
-    </row>
-    <row r="60" spans="3:3">
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="3:9">
       <c r="C60" s="8"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="9:9">
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="9:9">
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -37690,7 +37690,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D156">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D156" etc:filterBottomFollowUsedRange="0">
     <sortState ref="A1:D156">
       <sortCondition ref="C1"/>
     </sortState>
@@ -41199,7 +41199,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D89">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D89" etc:filterBottomFollowUsedRange="0">
     <sortState ref="A1:D89">
       <sortCondition ref="B1:B89"/>
     </sortState>
@@ -41217,8 +41217,8 @@
   <sheetPr/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -42885,16 +42885,40 @@
         <v>2073.3199341796</v>
       </c>
     </row>
-    <row r="50" spans="3:11">
-      <c r="C50" s="6"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>2667</v>
+      </c>
+      <c r="B50" s="5">
+        <v>45525</v>
+      </c>
+      <c r="C50" s="6">
+        <v>346.1406395</v>
+      </c>
+      <c r="D50" s="8">
+        <v>4</v>
+      </c>
+      <c r="E50" s="6">
+        <v>71.8812557924004</v>
+      </c>
+      <c r="F50" s="6">
+        <v>35.7863762743281</v>
+      </c>
+      <c r="G50" s="6">
+        <v>36.0948795180723</v>
+      </c>
+      <c r="H50" s="6">
+        <v>32.8555954587581</v>
+      </c>
+      <c r="I50" s="6">
+        <v>25.1430143651529</v>
+      </c>
+      <c r="J50" s="6">
+        <v>26.3770273401297</v>
+      </c>
+      <c r="K50" s="6">
+        <v>2085.63617933272</v>
+      </c>
     </row>
     <row r="51" spans="3:11">
       <c r="C51" s="6"/>
@@ -43029,8 +43053,8 @@
   <sheetPr/>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -43993,9 +44017,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="3:9">
-      <c r="C50" s="8"/>
-      <c r="I50" s="6"/>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>2667</v>
+      </c>
+      <c r="B50" s="5">
+        <v>45525</v>
+      </c>
+      <c r="C50" s="8">
+        <v>269.788322632423</v>
+      </c>
+      <c r="I50" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="51" spans="3:9">
       <c r="C51" s="8"/>

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -18376,10 +18376,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$48</c:f>
+              <c:f>日活跃2!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18520,16 +18520,25 @@
                 </c:pt>
                 <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$2:$C$48</c:f>
+              <c:f>日活跃2!$C$2:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1550</c:v>
                 </c:pt>
@@ -18667,6 +18676,15 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>288.834857031705</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>271.814320388349</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>269.788322632423</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>265.032170013647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18703,10 +18721,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$48</c:f>
+              <c:f>日活跃2!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18847,16 +18865,25 @@
                 </c:pt>
                 <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$D$2:$D$48</c:f>
+              <c:f>日活跃2!$D$2:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="1" c:formatCode="0_ ">
                   <c:v>170</c:v>
                 </c:pt>
@@ -18940,10 +18967,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$48</c:f>
+              <c:f>日活跃2!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19084,16 +19111,25 @@
                 </c:pt>
                 <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$E$2:$E$48</c:f>
+              <c:f>日活跃2!$E$2:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="2" c:formatCode="0_ ">
                   <c:v>100</c:v>
                 </c:pt>
@@ -19174,10 +19210,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$48</c:f>
+              <c:f>日活跃2!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19318,16 +19354,25 @@
                 </c:pt>
                 <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$F$2:$F$48</c:f>
+              <c:f>日活跃2!$F$2:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="3" c:formatCode="0_ ">
                   <c:v>110</c:v>
                 </c:pt>
@@ -19405,10 +19450,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$48</c:f>
+              <c:f>日活跃2!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19549,16 +19594,25 @@
                 </c:pt>
                 <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$G$2:$G$48</c:f>
+              <c:f>日活跃2!$G$2:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="4" c:formatCode="0_ ">
                   <c:v>60</c:v>
                 </c:pt>
@@ -41217,8 +41271,8 @@
   <sheetPr/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -42920,18 +42974,44 @@
         <v>2085.63617933272</v>
       </c>
     </row>
-    <row r="51" spans="3:11">
-      <c r="C51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>2671</v>
+      </c>
+      <c r="B51" s="5">
+        <v>45526</v>
+      </c>
+      <c r="C51" s="6">
+        <v>344.8693794</v>
+      </c>
+      <c r="D51" s="8">
+        <v>4</v>
+      </c>
+      <c r="E51" s="6">
+        <v>62.4686271157463</v>
+      </c>
+      <c r="F51" s="6">
+        <v>49.5493246708839</v>
+      </c>
+      <c r="G51" s="6">
+        <v>38.9098991280561</v>
+      </c>
+      <c r="H51" s="6">
+        <v>36.3260386390836</v>
+      </c>
+      <c r="I51" s="6">
+        <v>24.470678748504</v>
+      </c>
+      <c r="J51" s="6">
+        <v>22.7987690203454</v>
+      </c>
+      <c r="K51" s="6">
+        <v>2085.93537356813</v>
+      </c>
     </row>
     <row r="52" spans="3:11">
       <c r="C52" s="6"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -42942,6 +43022,7 @@
     </row>
     <row r="53" spans="3:11">
       <c r="C53" s="6"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -42952,6 +43033,7 @@
     </row>
     <row r="54" spans="3:11">
       <c r="C54" s="6"/>
+      <c r="D54" s="8"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -42962,6 +43044,7 @@
     </row>
     <row r="55" spans="3:11">
       <c r="C55" s="6"/>
+      <c r="D55" s="8"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -42972,6 +43055,7 @@
     </row>
     <row r="56" spans="3:11">
       <c r="C56" s="6"/>
+      <c r="D56" s="8"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -42982,6 +43066,7 @@
     </row>
     <row r="57" spans="3:11">
       <c r="C57" s="6"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -42992,6 +43077,7 @@
     </row>
     <row r="58" spans="3:11">
       <c r="C58" s="6"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -43002,6 +43088,7 @@
     </row>
     <row r="59" spans="3:11">
       <c r="C59" s="6"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -43012,6 +43099,7 @@
     </row>
     <row r="60" spans="3:11">
       <c r="C60" s="6"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -43020,7 +43108,8 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="5:11">
+    <row r="61" spans="4:11">
+      <c r="D61" s="8"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -43054,7 +43143,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -44031,9 +44120,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="3:9">
-      <c r="C51" s="8"/>
-      <c r="I51" s="6"/>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>2671</v>
+      </c>
+      <c r="B51" s="5">
+        <v>45526</v>
+      </c>
+      <c r="C51" s="8">
+        <v>265.032170013647</v>
+      </c>
+      <c r="I51" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="8"/>

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -29447,8 +29447,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8836660" y="473710"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9762490" y="450850"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29477,8 +29477,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8806180" y="589280"/>
-        <a:ext cx="11431905" cy="5311140"/>
+        <a:off x="9732010" y="554990"/>
+        <a:ext cx="12696190" cy="4979670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29507,8 +29507,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8811260" y="6186170"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9737090" y="5808980"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29542,8 +29542,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3373120" y="20403820"/>
-        <a:ext cx="12246610" cy="6044565"/>
+        <a:off x="3729990" y="19135090"/>
+        <a:ext cx="13565505" cy="5667375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29577,8 +29577,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23703915" y="275590"/>
-        <a:ext cx="8799830" cy="5819140"/>
+        <a:off x="26319480" y="260350"/>
+        <a:ext cx="9759950" cy="5321935"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29612,8 +29612,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6589395" y="133350"/>
-        <a:ext cx="8778875" cy="5020945"/>
+        <a:off x="7298690" y="133350"/>
+        <a:ext cx="9730105" cy="4700905"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29647,8 +29647,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6337935" y="117475"/>
-        <a:ext cx="6707505" cy="5530850"/>
+        <a:off x="6979920" y="117475"/>
+        <a:ext cx="7485380" cy="5187950"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29682,8 +29682,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8887460" y="170180"/>
-        <a:ext cx="5092065" cy="6658610"/>
+        <a:off x="9860280" y="170180"/>
+        <a:ext cx="5621655" cy="6235700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29717,8 +29717,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6602095" y="109220"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7328535" y="109220"/>
+        <a:ext cx="9937115" cy="4862830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29747,8 +29747,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6851015" y="5410200"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7577455" y="5078730"/>
+        <a:ext cx="10005060" cy="4865370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -30431,7 +30431,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -30442,9 +30442,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="12.8888888888889"/>
+    <col min="14" max="14" width="15.225" customWidth="1"/>
+    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34857,26 +34857,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="11.775" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556"/>
-    <col min="14" max="14" width="12.8888888888889"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="17.5583333333333"/>
+    <col min="14" max="14" width="12.8916666666667"/>
+    <col min="15" max="15" width="11.775" customWidth="1"/>
+    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="11.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37766,32 +37766,32 @@
       <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889"/>
-    <col min="2" max="2" width="17.5555555555556"/>
+    <col min="1" max="1" width="12.8916666666667"/>
+    <col min="2" max="2" width="17.5583333333333"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889"/>
-    <col min="5" max="5" width="17.5555555555556"/>
-    <col min="6" max="6" width="11.7777777777778"/>
-    <col min="7" max="7" width="17.5555555555556"/>
-    <col min="8" max="8" width="11.7777777777778"/>
-    <col min="9" max="9" width="12.8888888888889"/>
-    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778"/>
+    <col min="4" max="4" width="11.8916666666667"/>
+    <col min="5" max="5" width="17.5583333333333"/>
+    <col min="6" max="6" width="11.775"/>
+    <col min="7" max="7" width="17.5583333333333"/>
+    <col min="8" max="8" width="11.775"/>
+    <col min="9" max="9" width="12.8916666666667"/>
+    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.775"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444"/>
+    <col min="13" max="13" width="16.4416666666667"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5555555555556"/>
-    <col min="20" max="20" width="12.8888888888889"/>
-    <col min="25" max="26" width="12.8888888888889"/>
+    <col min="19" max="19" width="10.5583333333333"/>
+    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="25" max="26" width="12.8916666666667"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="2:28">
+    <row r="1" ht="15" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -41271,11 +41271,11 @@
   <sheetPr/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -43009,16 +43009,40 @@
         <v>2085.93537356813</v>
       </c>
     </row>
-    <row r="52" spans="3:11">
-      <c r="C52" s="6"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>2675</v>
+      </c>
+      <c r="B52" s="5">
+        <v>45527</v>
+      </c>
+      <c r="C52" s="6">
+        <v>337.216788</v>
+      </c>
+      <c r="D52" s="8">
+        <v>4</v>
+      </c>
+      <c r="E52" s="6">
+        <v>62.734474522293</v>
+      </c>
+      <c r="F52" s="6">
+        <v>42.3799476797088</v>
+      </c>
+      <c r="G52" s="6">
+        <v>40.1014558689718</v>
+      </c>
+      <c r="H52" s="6">
+        <v>30.6836897179254</v>
+      </c>
+      <c r="I52" s="6">
+        <v>30.227991355778</v>
+      </c>
+      <c r="J52" s="6">
+        <v>23.6963148316652</v>
+      </c>
+      <c r="K52" s="6">
+        <v>2102.89604185623</v>
+      </c>
     </row>
     <row r="53" spans="3:11">
       <c r="C53" s="6"/>
@@ -43142,14 +43166,14 @@
   <sheetPr/>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="12.8888888888889"/>
-    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="3" max="3" width="12.8916666666667"/>
+    <col min="10" max="10" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -44134,9 +44158,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="3:9">
-      <c r="C52" s="8"/>
-      <c r="I52" s="6"/>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>2675</v>
+      </c>
+      <c r="B52" s="5">
+        <v>45527</v>
+      </c>
+      <c r="C52" s="8">
+        <v>255.028537689431</v>
+      </c>
+      <c r="I52" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="8"/>
@@ -44198,13 +44232,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="20" max="20" width="12.8916666666667"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -45520,10 +45554,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8888888888889"/>
-    <col min="7" max="8" width="12.8888888888889"/>
+    <col min="2" max="5" width="12.8916666666667"/>
+    <col min="7" max="8" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -29447,8 +29447,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9762490" y="450850"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8836660" y="473710"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29477,8 +29477,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9732010" y="554990"/>
-        <a:ext cx="12696190" cy="4979670"/>
+        <a:off x="8806180" y="589280"/>
+        <a:ext cx="11431905" cy="5311140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29507,8 +29507,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9737090" y="5808980"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8811260" y="6186170"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29542,8 +29542,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3729990" y="19135090"/>
-        <a:ext cx="13565505" cy="5667375"/>
+        <a:off x="3373120" y="20403820"/>
+        <a:ext cx="12246610" cy="6044565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29577,8 +29577,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26319480" y="260350"/>
-        <a:ext cx="9759950" cy="5321935"/>
+        <a:off x="23703915" y="275590"/>
+        <a:ext cx="8799830" cy="5819140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29612,8 +29612,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7298690" y="133350"/>
-        <a:ext cx="9730105" cy="4700905"/>
+        <a:off x="6589395" y="133350"/>
+        <a:ext cx="8778875" cy="5020945"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29647,8 +29647,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6979920" y="117475"/>
-        <a:ext cx="7485380" cy="5187950"/>
+        <a:off x="6337935" y="117475"/>
+        <a:ext cx="6707505" cy="5530850"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29682,8 +29682,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9860280" y="170180"/>
-        <a:ext cx="5621655" cy="6235700"/>
+        <a:off x="8887460" y="170180"/>
+        <a:ext cx="5092065" cy="6658610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29717,8 +29717,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7328535" y="109220"/>
-        <a:ext cx="9937115" cy="4862830"/>
+        <a:off x="6602095" y="109220"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29747,8 +29747,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7577455" y="5078730"/>
-        <a:ext cx="10005060" cy="4865370"/>
+        <a:off x="6851015" y="5410200"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -30431,7 +30431,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -30442,9 +30442,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.225" customWidth="1"/>
-    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
-    <col min="17" max="17" width="12.8916666666667"/>
+    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34857,26 +34857,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.775" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5583333333333"/>
-    <col min="14" max="14" width="12.8916666666667"/>
-    <col min="15" max="15" width="11.775" customWidth="1"/>
-    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556"/>
+    <col min="14" max="14" width="12.8888888888889"/>
+    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.775" customWidth="1"/>
+    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37762,36 +37762,36 @@
   <sheetPr/>
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="W13" workbookViewId="0">
       <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.8916666666667"/>
-    <col min="2" max="2" width="17.5583333333333"/>
+    <col min="1" max="1" width="12.8888888888889"/>
+    <col min="2" max="2" width="17.5555555555556"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8916666666667"/>
-    <col min="5" max="5" width="17.5583333333333"/>
-    <col min="6" max="6" width="11.775"/>
-    <col min="7" max="7" width="17.5583333333333"/>
-    <col min="8" max="8" width="11.775"/>
-    <col min="9" max="9" width="12.8916666666667"/>
-    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.775"/>
+    <col min="4" max="4" width="11.8888888888889"/>
+    <col min="5" max="5" width="17.5555555555556"/>
+    <col min="6" max="6" width="11.7777777777778"/>
+    <col min="7" max="7" width="17.5555555555556"/>
+    <col min="8" max="8" width="11.7777777777778"/>
+    <col min="9" max="9" width="12.8888888888889"/>
+    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4416666666667"/>
+    <col min="13" max="13" width="16.4444444444444"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5583333333333"/>
-    <col min="20" max="20" width="12.8916666666667"/>
-    <col min="25" max="26" width="12.8916666666667"/>
+    <col min="19" max="19" width="10.5555555555556"/>
+    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="25" max="26" width="12.8888888888889"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:28">
+    <row r="1" ht="16.2" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -41271,11 +41271,11 @@
   <sheetPr/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -43044,9 +43044,17 @@
         <v>2102.89604185623</v>
       </c>
     </row>
-    <row r="53" spans="3:11">
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>2678</v>
+      </c>
+      <c r="B53" s="5">
+        <v>45528</v>
+      </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="8">
+        <v>3</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -43055,16 +43063,40 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" spans="3:11">
-      <c r="C54" s="6"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>2682</v>
+      </c>
+      <c r="B54" s="5">
+        <v>45529</v>
+      </c>
+      <c r="C54" s="6">
+        <v>331.4040209</v>
+      </c>
+      <c r="D54" s="8">
+        <v>4</v>
+      </c>
+      <c r="E54" s="6">
+        <v>64.0298727850977</v>
+      </c>
+      <c r="F54" s="6">
+        <v>38.7829395729214</v>
+      </c>
+      <c r="G54" s="6">
+        <v>31.6347114947751</v>
+      </c>
+      <c r="H54" s="6">
+        <v>27.9845524761472</v>
+      </c>
+      <c r="I54" s="6">
+        <v>29.5054520672422</v>
+      </c>
+      <c r="J54" s="6">
+        <v>23.7260336210813</v>
+      </c>
+      <c r="K54" s="6">
+        <v>2129.71569741027</v>
+      </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" s="6"/>
@@ -43166,14 +43198,14 @@
   <sheetPr/>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="12.8916666666667"/>
-    <col min="10" max="10" width="12.8916666666667"/>
+    <col min="3" max="3" width="12.8888888888889"/>
+    <col min="10" max="10" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -44172,13 +44204,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="3:9">
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>2678</v>
+      </c>
+      <c r="B53" s="5">
+        <v>45528</v>
+      </c>
       <c r="C53" s="8"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="3:9">
-      <c r="C54" s="8"/>
-      <c r="I54" s="6"/>
+      <c r="I53" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>2682</v>
+      </c>
+      <c r="B54" s="5">
+        <v>45529</v>
+      </c>
+      <c r="C54" s="8">
+        <v>245.586374695863</v>
+      </c>
+      <c r="I54" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="8"/>
@@ -44232,13 +44282,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="20" max="20" width="12.8888888888889"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -45554,10 +45604,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8916666666667"/>
-    <col min="7" max="8" width="12.8916666666667"/>
+    <col min="2" max="5" width="12.8888888888889"/>
+    <col min="7" max="8" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -41272,7 +41272,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A54"/>
+      <selection activeCell="C54" sqref="C54:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -43098,16 +43098,40 @@
         <v>2129.71569741027</v>
       </c>
     </row>
-    <row r="55" spans="3:11">
-      <c r="C55" s="6"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>2685</v>
+      </c>
+      <c r="B55" s="5">
+        <v>45530</v>
+      </c>
+      <c r="C55" s="6">
+        <v>308.3955467</v>
+      </c>
+      <c r="D55" s="8">
+        <v>3</v>
+      </c>
+      <c r="E55" s="6">
+        <v>64.4660005709392</v>
+      </c>
+      <c r="F55" s="6">
+        <v>41.0377390807879</v>
+      </c>
+      <c r="G55" s="6">
+        <v>33.5345703682558</v>
+      </c>
+      <c r="H55" s="6">
+        <v>30.0126748501285</v>
+      </c>
+      <c r="I55" s="6">
+        <v>26.9501570082786</v>
+      </c>
+      <c r="J55" s="6">
+        <v>28.1751641450186</v>
+      </c>
+      <c r="K55" s="6">
+        <v>2146.21250356837</v>
+      </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" s="6"/>
@@ -43199,7 +43223,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -44230,9 +44254,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="3:9">
-      <c r="C55" s="8"/>
-      <c r="I55" s="6"/>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>2685</v>
+      </c>
+      <c r="B55" s="5">
+        <v>45530</v>
+      </c>
+      <c r="C55" s="8">
+        <v>241.544587552846</v>
+      </c>
+      <c r="I55" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="8"/>

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -18376,10 +18376,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$51</c:f>
+              <c:f>日活跃2!$B$2:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18529,16 +18529,31 @@
                 </c:pt>
                 <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$2:$C$51</c:f>
+              <c:f>日活跃2!$C$2:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>1550</c:v>
                 </c:pt>
@@ -18685,6 +18700,18 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>265.032170013647</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>255.028537689431</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>245.586374695863</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>241.544587552846</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>226.727072486984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18721,10 +18748,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$51</c:f>
+              <c:f>日活跃2!$B$2:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -18874,16 +18901,31 @@
                 </c:pt>
                 <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$D$2:$D$51</c:f>
+              <c:f>日活跃2!$D$2:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="1" c:formatCode="0_ ">
                   <c:v>170</c:v>
                 </c:pt>
@@ -18967,10 +19009,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$51</c:f>
+              <c:f>日活跃2!$B$2:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19120,16 +19162,31 @@
                 </c:pt>
                 <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$E$2:$E$51</c:f>
+              <c:f>日活跃2!$E$2:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="2" c:formatCode="0_ ">
                   <c:v>100</c:v>
                 </c:pt>
@@ -19210,10 +19267,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$51</c:f>
+              <c:f>日活跃2!$B$2:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19363,16 +19420,31 @@
                 </c:pt>
                 <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$F$2:$F$51</c:f>
+              <c:f>日活跃2!$F$2:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="3" c:formatCode="0_ ">
                   <c:v>110</c:v>
                 </c:pt>
@@ -19450,10 +19522,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$51</c:f>
+              <c:f>日活跃2!$B$2:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45477</c:v>
                 </c:pt>
@@ -19603,16 +19675,31 @@
                 </c:pt>
                 <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$G$2:$G$51</c:f>
+              <c:f>日活跃2!$G$2:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="4" c:formatCode="0_ ">
                   <c:v>60</c:v>
                 </c:pt>
@@ -41271,8 +41358,8 @@
   <sheetPr/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:D54"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -43133,16 +43220,40 @@
         <v>2146.21250356837</v>
       </c>
     </row>
-    <row r="56" spans="3:11">
-      <c r="C56" s="6"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>2689</v>
+      </c>
+      <c r="B56" s="5">
+        <v>45531</v>
+      </c>
+      <c r="C56" s="6">
+        <v>294.881713</v>
+      </c>
+      <c r="D56" s="8">
+        <v>4</v>
+      </c>
+      <c r="E56" s="6">
+        <v>59.9654636504921</v>
+      </c>
+      <c r="F56" s="6">
+        <v>45.4377482300121</v>
+      </c>
+      <c r="G56" s="6">
+        <v>34.4646865826282</v>
+      </c>
+      <c r="H56" s="6">
+        <v>27.8190295285788</v>
+      </c>
+      <c r="I56" s="6">
+        <v>25.9644275600069</v>
+      </c>
+      <c r="J56" s="6">
+        <v>25.6553272319116</v>
+      </c>
+      <c r="K56" s="6">
+        <v>2169.11155240891</v>
+      </c>
     </row>
     <row r="57" spans="3:11">
       <c r="C57" s="6"/>
@@ -43222,8 +43333,8 @@
   <sheetPr/>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -44268,9 +44379,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="3:9">
-      <c r="C56" s="8"/>
-      <c r="I56" s="6"/>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>2689</v>
+      </c>
+      <c r="B56" s="5">
+        <v>45531</v>
+      </c>
+      <c r="C56" s="8">
+        <v>226.727072486984</v>
+      </c>
+      <c r="I56" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="8"/>

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -41359,7 +41359,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -43255,16 +43255,40 @@
         <v>2169.11155240891</v>
       </c>
     </row>
-    <row r="57" spans="3:11">
-      <c r="C57" s="6"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>2691</v>
+      </c>
+      <c r="B57" s="5">
+        <v>45532</v>
+      </c>
+      <c r="C57" s="6">
+        <v>285.9820459</v>
+      </c>
+      <c r="D57" s="8">
+        <v>2</v>
+      </c>
+      <c r="E57" s="6">
+        <v>60.4252387214821</v>
+      </c>
+      <c r="F57" s="6">
+        <v>36.1321402024129</v>
+      </c>
+      <c r="G57" s="6">
+        <v>41.9747841500372</v>
+      </c>
+      <c r="H57" s="6">
+        <v>29.981988678598</v>
+      </c>
+      <c r="I57" s="6">
+        <v>28.5982045857396</v>
+      </c>
+      <c r="J57" s="6">
+        <v>25.061867459546</v>
+      </c>
+      <c r="K57" s="6">
+        <v>2178.69117731145</v>
+      </c>
     </row>
     <row r="58" spans="3:11">
       <c r="C58" s="6"/>
@@ -43333,8 +43357,8 @@
   <sheetPr/>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -44393,9 +44417,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="3:9">
-      <c r="C57" s="8"/>
-      <c r="I57" s="6"/>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>2691</v>
+      </c>
+      <c r="B57" s="5">
+        <v>45532</v>
+      </c>
+      <c r="C57" s="8">
+        <v>221.778414140416</v>
+      </c>
+      <c r="I57" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="8"/>

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -41358,8 +41358,8 @@
   <sheetPr/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -43290,16 +43290,40 @@
         <v>2178.69117731145</v>
       </c>
     </row>
-    <row r="58" spans="3:11">
-      <c r="C58" s="6"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>2695</v>
+      </c>
+      <c r="B58" s="5">
+        <v>45533</v>
+      </c>
+      <c r="C58" s="6">
+        <v>295.328359</v>
+      </c>
+      <c r="D58" s="8">
+        <v>4</v>
+      </c>
+      <c r="E58" s="6">
+        <v>44.454845814978</v>
+      </c>
+      <c r="F58" s="6">
+        <v>37.3420704845815</v>
+      </c>
+      <c r="G58" s="6">
+        <v>34.0820484581498</v>
+      </c>
+      <c r="H58" s="6">
+        <v>32.3038546255507</v>
+      </c>
+      <c r="I58" s="6">
+        <v>29.3401982378855</v>
+      </c>
+      <c r="J58" s="6">
+        <v>23.2647026431718</v>
+      </c>
+      <c r="K58" s="6">
+        <v>2190.73480176211</v>
+      </c>
     </row>
     <row r="59" spans="3:11">
       <c r="C59" s="6"/>
@@ -43357,8 +43381,8 @@
   <sheetPr/>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -44431,9 +44455,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:9">
-      <c r="C58" s="8"/>
-      <c r="I58" s="6"/>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>2695</v>
+      </c>
+      <c r="B58" s="5">
+        <v>45533</v>
+      </c>
+      <c r="C58" s="8">
+        <v>224.447092469018</v>
+      </c>
+      <c r="I58" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="8"/>

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -29534,8 +29534,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8836660" y="473710"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9762490" y="450850"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29564,8 +29564,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8806180" y="589280"/>
-        <a:ext cx="11431905" cy="5311140"/>
+        <a:off x="9732010" y="554990"/>
+        <a:ext cx="12696190" cy="4979670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29594,8 +29594,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8811260" y="6186170"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9737090" y="5808980"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29629,8 +29629,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3373120" y="20403820"/>
-        <a:ext cx="12246610" cy="6044565"/>
+        <a:off x="3729990" y="19135090"/>
+        <a:ext cx="13565505" cy="5667375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29664,8 +29664,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23703915" y="275590"/>
-        <a:ext cx="8799830" cy="5819140"/>
+        <a:off x="26319480" y="260350"/>
+        <a:ext cx="9759950" cy="5321935"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29699,8 +29699,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6589395" y="133350"/>
-        <a:ext cx="8778875" cy="5020945"/>
+        <a:off x="7298690" y="133350"/>
+        <a:ext cx="9730105" cy="4700905"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29734,8 +29734,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6337935" y="117475"/>
-        <a:ext cx="6707505" cy="5530850"/>
+        <a:off x="6979920" y="117475"/>
+        <a:ext cx="7485380" cy="5187950"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29769,8 +29769,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8887460" y="170180"/>
-        <a:ext cx="5092065" cy="6658610"/>
+        <a:off x="9860280" y="170180"/>
+        <a:ext cx="5621655" cy="6235700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29804,8 +29804,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6602095" y="109220"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7328535" y="109220"/>
+        <a:ext cx="9937115" cy="4862830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29834,8 +29834,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6851015" y="5410200"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7577455" y="5078730"/>
+        <a:ext cx="10005060" cy="4865370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -30518,7 +30518,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -30529,9 +30529,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="12.8888888888889"/>
+    <col min="14" max="14" width="15.225" customWidth="1"/>
+    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34944,26 +34944,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="11.775" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556"/>
-    <col min="14" max="14" width="12.8888888888889"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="17.5583333333333"/>
+    <col min="14" max="14" width="12.8916666666667"/>
+    <col min="15" max="15" width="11.775" customWidth="1"/>
+    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="11.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37849,36 +37849,36 @@
   <sheetPr/>
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView topLeftCell="W13" workbookViewId="0">
+    <sheetView topLeftCell="W19" workbookViewId="0">
       <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889"/>
-    <col min="2" max="2" width="17.5555555555556"/>
+    <col min="1" max="1" width="12.8916666666667"/>
+    <col min="2" max="2" width="17.5583333333333"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889"/>
-    <col min="5" max="5" width="17.5555555555556"/>
-    <col min="6" max="6" width="11.7777777777778"/>
-    <col min="7" max="7" width="17.5555555555556"/>
-    <col min="8" max="8" width="11.7777777777778"/>
-    <col min="9" max="9" width="12.8888888888889"/>
-    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778"/>
+    <col min="4" max="4" width="11.8916666666667"/>
+    <col min="5" max="5" width="17.5583333333333"/>
+    <col min="6" max="6" width="11.775"/>
+    <col min="7" max="7" width="17.5583333333333"/>
+    <col min="8" max="8" width="11.775"/>
+    <col min="9" max="9" width="12.8916666666667"/>
+    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.775"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444"/>
+    <col min="13" max="13" width="16.4416666666667"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5555555555556"/>
-    <col min="20" max="20" width="12.8888888888889"/>
-    <col min="25" max="26" width="12.8888888888889"/>
+    <col min="19" max="19" width="10.5583333333333"/>
+    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="25" max="26" width="12.8916666666667"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="2:28">
+    <row r="1" ht="15" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -41358,11 +41358,11 @@
   <sheetPr/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -43325,27 +43325,75 @@
         <v>2190.73480176211</v>
       </c>
     </row>
-    <row r="59" spans="3:11">
-      <c r="C59" s="6"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="3:11">
-      <c r="C60" s="6"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>2699</v>
+      </c>
+      <c r="B59" s="5">
+        <v>45534</v>
+      </c>
+      <c r="C59" s="6">
+        <v>292.4988454</v>
+      </c>
+      <c r="D59" s="8">
+        <v>4</v>
+      </c>
+      <c r="E59" s="6">
+        <v>61.5423102581208</v>
+      </c>
+      <c r="F59" s="6">
+        <v>37.4785754605634</v>
+      </c>
+      <c r="G59" s="6">
+        <v>29.7339251808898</v>
+      </c>
+      <c r="H59" s="6">
+        <v>28.7658438959306</v>
+      </c>
+      <c r="I59" s="6">
+        <v>29.7339251808898</v>
+      </c>
+      <c r="J59" s="6">
+        <v>24.8935187560938</v>
+      </c>
+      <c r="K59" s="6">
+        <v>2187.72540668138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>2702</v>
+      </c>
+      <c r="B60" s="5">
+        <v>45535</v>
+      </c>
+      <c r="C60" s="6">
+        <v>305.2892515</v>
+      </c>
+      <c r="D60" s="8">
+        <v>3</v>
+      </c>
+      <c r="E60" s="6">
+        <v>58.5448406405075</v>
+      </c>
+      <c r="F60" s="6">
+        <v>34.7955184938865</v>
+      </c>
+      <c r="G60" s="6">
+        <v>28.7201105028905</v>
+      </c>
+      <c r="H60" s="6">
+        <v>25.8204839617333</v>
+      </c>
+      <c r="I60" s="6">
+        <v>25.26817414437</v>
+      </c>
+      <c r="J60" s="6">
+        <v>26.0966388704149</v>
+      </c>
+      <c r="K60" s="6">
+        <v>2192.53189747787</v>
+      </c>
     </row>
     <row r="61" spans="4:11">
       <c r="D61" s="8"/>
@@ -43382,13 +43430,13 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="12.8888888888889"/>
-    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="3" max="3" width="12.8916666666667"/>
+    <col min="10" max="10" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -44469,12 +44517,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="3:9">
-      <c r="C59" s="8"/>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>2699</v>
+      </c>
+      <c r="B59" s="5">
+        <v>45534</v>
+      </c>
+      <c r="C59" s="8">
+        <v>218.710804515319</v>
+      </c>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="3:9">
-      <c r="C60" s="8"/>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>2702</v>
+      </c>
+      <c r="B60" s="5">
+        <v>45535</v>
+      </c>
+      <c r="C60" s="8">
+        <v>229.70572640509</v>
+      </c>
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="9:9">
@@ -44505,13 +44569,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="20" max="20" width="12.8916666666667"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -45827,10 +45891,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8888888888889"/>
-    <col min="7" max="8" width="12.8888888888889"/>
+    <col min="2" max="5" width="12.8916666666667"/>
+    <col min="7" max="8" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -29534,8 +29534,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9762490" y="450850"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8836660" y="473710"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29564,8 +29564,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9732010" y="554990"/>
-        <a:ext cx="12696190" cy="4979670"/>
+        <a:off x="8806180" y="589280"/>
+        <a:ext cx="11431905" cy="5311140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29594,8 +29594,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9737090" y="5808980"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8811260" y="6186170"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29629,8 +29629,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3729990" y="19135090"/>
-        <a:ext cx="13565505" cy="5667375"/>
+        <a:off x="3373120" y="20403820"/>
+        <a:ext cx="12246610" cy="6044565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29664,8 +29664,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26319480" y="260350"/>
-        <a:ext cx="9759950" cy="5321935"/>
+        <a:off x="23703915" y="275590"/>
+        <a:ext cx="8799830" cy="5819140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29699,8 +29699,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7298690" y="133350"/>
-        <a:ext cx="9730105" cy="4700905"/>
+        <a:off x="6589395" y="133350"/>
+        <a:ext cx="8778875" cy="5020945"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29734,8 +29734,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6979920" y="117475"/>
-        <a:ext cx="7485380" cy="5187950"/>
+        <a:off x="6337935" y="117475"/>
+        <a:ext cx="6707505" cy="5530850"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29769,8 +29769,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9860280" y="170180"/>
-        <a:ext cx="5621655" cy="6235700"/>
+        <a:off x="8887460" y="170180"/>
+        <a:ext cx="5092065" cy="6658610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29804,8 +29804,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7328535" y="109220"/>
-        <a:ext cx="9937115" cy="4862830"/>
+        <a:off x="6602095" y="109220"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29834,8 +29834,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7577455" y="5078730"/>
-        <a:ext cx="10005060" cy="4865370"/>
+        <a:off x="6851015" y="5410200"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -30518,7 +30518,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -30529,9 +30529,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.225" customWidth="1"/>
-    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
-    <col min="17" max="17" width="12.8916666666667"/>
+    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34944,26 +34944,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.775" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5583333333333"/>
-    <col min="14" max="14" width="12.8916666666667"/>
-    <col min="15" max="15" width="11.775" customWidth="1"/>
-    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556"/>
+    <col min="14" max="14" width="12.8888888888889"/>
+    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.775" customWidth="1"/>
+    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37853,32 +37853,32 @@
       <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.8916666666667"/>
-    <col min="2" max="2" width="17.5583333333333"/>
+    <col min="1" max="1" width="12.8888888888889"/>
+    <col min="2" max="2" width="17.5555555555556"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8916666666667"/>
-    <col min="5" max="5" width="17.5583333333333"/>
-    <col min="6" max="6" width="11.775"/>
-    <col min="7" max="7" width="17.5583333333333"/>
-    <col min="8" max="8" width="11.775"/>
-    <col min="9" max="9" width="12.8916666666667"/>
-    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.775"/>
+    <col min="4" max="4" width="11.8888888888889"/>
+    <col min="5" max="5" width="17.5555555555556"/>
+    <col min="6" max="6" width="11.7777777777778"/>
+    <col min="7" max="7" width="17.5555555555556"/>
+    <col min="8" max="8" width="11.7777777777778"/>
+    <col min="9" max="9" width="12.8888888888889"/>
+    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4416666666667"/>
+    <col min="13" max="13" width="16.4444444444444"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5583333333333"/>
-    <col min="20" max="20" width="12.8916666666667"/>
-    <col min="25" max="26" width="12.8916666666667"/>
+    <col min="19" max="19" width="10.5555555555556"/>
+    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="25" max="26" width="12.8888888888889"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:28">
+    <row r="1" ht="16.2" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -41356,13 +41356,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -43395,17 +43395,43 @@
         <v>2192.53189747787</v>
       </c>
     </row>
-    <row r="61" spans="4:11">
-      <c r="D61" s="8"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="5:11">
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>2705</v>
+      </c>
+      <c r="B61" s="5">
+        <v>45536</v>
+      </c>
+      <c r="C61" s="6">
+        <v>293.201641</v>
+      </c>
+      <c r="D61" s="8">
+        <v>3</v>
+      </c>
+      <c r="E61" s="6">
+        <v>58.6126153846154</v>
+      </c>
+      <c r="F61" s="6">
+        <v>37.5508717948718</v>
+      </c>
+      <c r="G61" s="6">
+        <v>26.6043076923077</v>
+      </c>
+      <c r="H61" s="6">
+        <v>24.9415384615385</v>
+      </c>
+      <c r="I61" s="6">
+        <v>24.6644102564102</v>
+      </c>
+      <c r="J61" s="6">
+        <v>23.5558974358974</v>
+      </c>
+      <c r="K61" s="6">
+        <v>2212.03733333333</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11">
+      <c r="C62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -43414,8 +43440,54 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="5:5">
+    <row r="63" spans="3:5">
+      <c r="C63" s="6"/>
       <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -43427,16 +43499,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="12.8916666666667"/>
-    <col min="10" max="10" width="12.8916666666667"/>
+    <col min="3" max="3" width="12.8888888888889"/>
+    <col min="10" max="10" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -44527,7 +44599,9 @@
       <c r="C59" s="8">
         <v>218.710804515319</v>
       </c>
-      <c r="I59" s="6"/>
+      <c r="I59" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
@@ -44539,19 +44613,59 @@
       <c r="C60" s="8">
         <v>229.70572640509</v>
       </c>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="9:9">
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="9:9">
+      <c r="I60" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>2705</v>
+      </c>
+      <c r="B61" s="5">
+        <v>45536</v>
+      </c>
+      <c r="C61" s="8">
+        <v>226.535264145883</v>
+      </c>
+      <c r="I61" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9">
+      <c r="C62" s="8"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="9:9">
+    <row r="63" spans="3:9">
+      <c r="C63" s="8"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="9:9">
+    <row r="64" spans="3:9">
+      <c r="C64" s="8"/>
       <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="8"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="8"/>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="8"/>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -44569,13 +44683,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="20" max="20" width="12.8888888888889"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -45891,10 +46005,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8916666666667"/>
-    <col min="7" max="8" width="12.8916666666667"/>
+    <col min="2" max="5" width="12.8888888888889"/>
+    <col min="7" max="8" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -41359,7 +41359,7 @@
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:B61"/>
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -43430,37 +43430,69 @@
         <v>2212.03733333333</v>
       </c>
     </row>
-    <row r="62" spans="3:11">
-      <c r="C62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>2708</v>
+      </c>
+      <c r="B62" s="5">
+        <v>45537</v>
+      </c>
+      <c r="C62" s="6">
+        <v>250.2619121</v>
+      </c>
+      <c r="D62" s="8">
+        <v>3</v>
+      </c>
+      <c r="E62" s="6">
+        <v>87.9674796747967</v>
+      </c>
+      <c r="F62" s="6">
+        <v>43.9837398373984</v>
+      </c>
+      <c r="G62" s="6">
+        <v>32.5702377276937</v>
+      </c>
+      <c r="H62" s="6">
+        <v>26.5851085726047</v>
+      </c>
+      <c r="I62" s="6">
+        <v>20.8783575177524</v>
+      </c>
+      <c r="J62" s="6">
+        <v>24.9148399711845</v>
+      </c>
+      <c r="K62" s="6">
+        <v>2217.00319028507</v>
+      </c>
     </row>
     <row r="63" spans="3:5">
       <c r="C63" s="6"/>
+      <c r="D63" s="8"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="3:4">
       <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="3:3">
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="3:4">
       <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="3:3">
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="3:4">
       <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="3:3">
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="3:4">
       <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="3:3">
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="3:4">
       <c r="C68" s="6"/>
-    </row>
-    <row r="69" spans="3:3">
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="3:4">
       <c r="C69" s="6"/>
+      <c r="D69" s="8"/>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="6"/>
@@ -43502,7 +43534,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -44631,9 +44663,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="3:9">
-      <c r="C62" s="8"/>
-      <c r="I62" s="6"/>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>2708</v>
+      </c>
+      <c r="B62" s="5">
+        <v>45537</v>
+      </c>
+      <c r="C62" s="8">
+        <v>197.072412261217</v>
+      </c>
+      <c r="I62" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="3:9">
       <c r="C63" s="8"/>

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -41359,7 +41359,7 @@
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+      <selection activeCell="A63" sqref="A63:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -43465,10 +43465,40 @@
         <v>2217.00319028507</v>
       </c>
     </row>
-    <row r="63" spans="3:5">
-      <c r="C63" s="6"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="6"/>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>2711</v>
+      </c>
+      <c r="B63" s="5">
+        <v>45538</v>
+      </c>
+      <c r="C63" s="6">
+        <v>246.3209826</v>
+      </c>
+      <c r="D63" s="8">
+        <v>3</v>
+      </c>
+      <c r="E63" s="6">
+        <v>44.9501002106994</v>
+      </c>
+      <c r="F63" s="6">
+        <v>58.7273755074773</v>
+      </c>
+      <c r="G63" s="6">
+        <v>37.7135515699676</v>
+      </c>
+      <c r="H63" s="6">
+        <v>34.0952772496017</v>
+      </c>
+      <c r="I63" s="6">
+        <v>21.4313171283211</v>
+      </c>
+      <c r="J63" s="6">
+        <v>20.0396731589496</v>
+      </c>
+      <c r="K63" s="6">
+        <v>2242.21676345136</v>
+      </c>
     </row>
     <row r="64" spans="3:4">
       <c r="C64" s="6"/>
@@ -43534,7 +43564,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -44677,9 +44707,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="3:9">
-      <c r="C63" s="8"/>
-      <c r="I63" s="6"/>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>2711</v>
+      </c>
+      <c r="B63" s="5">
+        <v>45538</v>
+      </c>
+      <c r="C63" s="8">
+        <v>195.595901492</v>
+      </c>
+      <c r="I63" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" spans="3:9">
       <c r="C64" s="8"/>

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -29534,8 +29534,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8836660" y="473710"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9762490" y="450850"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29564,8 +29564,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8806180" y="589280"/>
-        <a:ext cx="11431905" cy="5311140"/>
+        <a:off x="9732010" y="554990"/>
+        <a:ext cx="12696190" cy="4979670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29594,8 +29594,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8811260" y="6186170"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9737090" y="5808980"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29629,8 +29629,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3373120" y="20403820"/>
-        <a:ext cx="12246610" cy="6044565"/>
+        <a:off x="3729990" y="19135090"/>
+        <a:ext cx="13565505" cy="5667375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29664,8 +29664,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23703915" y="275590"/>
-        <a:ext cx="8799830" cy="5819140"/>
+        <a:off x="26319480" y="260350"/>
+        <a:ext cx="9759950" cy="5321935"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29699,8 +29699,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6589395" y="133350"/>
-        <a:ext cx="8778875" cy="5020945"/>
+        <a:off x="7298690" y="133350"/>
+        <a:ext cx="9730105" cy="4700905"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29734,8 +29734,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6337935" y="117475"/>
-        <a:ext cx="6707505" cy="5530850"/>
+        <a:off x="6979920" y="117475"/>
+        <a:ext cx="7485380" cy="5187950"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29769,8 +29769,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8887460" y="170180"/>
-        <a:ext cx="5092065" cy="6658610"/>
+        <a:off x="9860280" y="170180"/>
+        <a:ext cx="5621655" cy="6235700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29804,8 +29804,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6602095" y="109220"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7328535" y="109220"/>
+        <a:ext cx="9937115" cy="4862830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29834,8 +29834,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6851015" y="5410200"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7577455" y="5078730"/>
+        <a:ext cx="10005060" cy="4865370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -30518,7 +30518,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -30529,9 +30529,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="12.8888888888889"/>
+    <col min="14" max="14" width="15.225" customWidth="1"/>
+    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34944,26 +34944,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="11.775" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556"/>
-    <col min="14" max="14" width="12.8888888888889"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="17.5583333333333"/>
+    <col min="14" max="14" width="12.8916666666667"/>
+    <col min="15" max="15" width="11.775" customWidth="1"/>
+    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="11.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37853,32 +37853,32 @@
       <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889"/>
-    <col min="2" max="2" width="17.5555555555556"/>
+    <col min="1" max="1" width="12.8916666666667"/>
+    <col min="2" max="2" width="17.5583333333333"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889"/>
-    <col min="5" max="5" width="17.5555555555556"/>
-    <col min="6" max="6" width="11.7777777777778"/>
-    <col min="7" max="7" width="17.5555555555556"/>
-    <col min="8" max="8" width="11.7777777777778"/>
-    <col min="9" max="9" width="12.8888888888889"/>
-    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778"/>
+    <col min="4" max="4" width="11.8916666666667"/>
+    <col min="5" max="5" width="17.5583333333333"/>
+    <col min="6" max="6" width="11.775"/>
+    <col min="7" max="7" width="17.5583333333333"/>
+    <col min="8" max="8" width="11.775"/>
+    <col min="9" max="9" width="12.8916666666667"/>
+    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.775"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444"/>
+    <col min="13" max="13" width="16.4416666666667"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5555555555556"/>
-    <col min="20" max="20" width="12.8888888888889"/>
-    <col min="25" max="26" width="12.8888888888889"/>
+    <col min="19" max="19" width="10.5583333333333"/>
+    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="25" max="26" width="12.8916666666667"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="2:28">
+    <row r="1" ht="15" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -41356,13 +41356,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:B63"/>
+      <selection activeCell="A64" sqref="A64:B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -43500,56 +43500,221 @@
         <v>2242.21676345136</v>
       </c>
     </row>
-    <row r="64" spans="3:4">
-      <c r="C64" s="6"/>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="3:4">
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>2713</v>
+      </c>
+      <c r="B64" s="5">
+        <v>45539</v>
+      </c>
+      <c r="C64" s="6">
+        <v>278.0655991</v>
+      </c>
+      <c r="D64" s="8">
+        <v>2</v>
+      </c>
+      <c r="E64" s="6">
+        <v>32.9435147520725</v>
+      </c>
+      <c r="F64" s="6">
+        <v>25.4055918850729</v>
+      </c>
+      <c r="G64" s="6">
+        <v>53.3238247258123</v>
+      </c>
+      <c r="H64" s="6">
+        <v>31.8267854384429</v>
+      </c>
+      <c r="I64" s="6">
+        <v>25.9639565418877</v>
+      </c>
+      <c r="J64" s="6">
+        <v>22.4741774367952</v>
+      </c>
+      <c r="K64" s="6">
+        <v>2240.15900314093</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11">
       <c r="C65" s="6"/>
       <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="3:4">
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="3:11">
       <c r="C66" s="6"/>
       <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="3:4">
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="3:11">
       <c r="C67" s="6"/>
       <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="3:4">
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="3:11">
       <c r="C68" s="6"/>
       <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="3:4">
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="3:11">
       <c r="C69" s="6"/>
       <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="3:3">
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="3:11">
       <c r="C70" s="6"/>
-    </row>
-    <row r="71" spans="3:3">
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="3:11">
       <c r="C71" s="6"/>
-    </row>
-    <row r="72" spans="3:3">
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="3:11">
       <c r="C72" s="6"/>
-    </row>
-    <row r="73" spans="3:3">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="3:11">
       <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="3:3">
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="3:11">
       <c r="C74" s="6"/>
-    </row>
-    <row r="75" spans="3:3">
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="3:11">
       <c r="C75" s="6"/>
-    </row>
-    <row r="76" spans="3:3">
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="3:11">
       <c r="C76" s="6"/>
-    </row>
-    <row r="77" spans="3:3">
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="3:11">
       <c r="C77" s="6"/>
-    </row>
-    <row r="78" spans="3:3">
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="3:11">
       <c r="C78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="5:11">
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="5:11">
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="5:11">
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="5:11">
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -43564,13 +43729,13 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="12.8888888888889"/>
-    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="3" max="3" width="12.8916666666667"/>
+    <col min="10" max="10" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -44721,9 +44886,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="3:9">
-      <c r="C64" s="8"/>
-      <c r="I64" s="6"/>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>2713</v>
+      </c>
+      <c r="B64" s="5">
+        <v>45539</v>
+      </c>
+      <c r="C64" s="8">
+        <v>226.662156066756</v>
+      </c>
+      <c r="I64" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="8"/>
@@ -44765,13 +44940,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="20" max="20" width="12.8916666666667"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -46087,10 +46262,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8888888888889"/>
-    <col min="7" max="8" width="12.8888888888889"/>
+    <col min="2" max="5" width="12.8916666666667"/>
+    <col min="7" max="8" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -29534,8 +29534,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9762490" y="450850"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8836660" y="473710"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29564,8 +29564,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9732010" y="554990"/>
-        <a:ext cx="12696190" cy="4979670"/>
+        <a:off x="8806180" y="589280"/>
+        <a:ext cx="11431905" cy="5311140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29594,8 +29594,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9737090" y="5808980"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8811260" y="6186170"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29629,8 +29629,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3729990" y="19135090"/>
-        <a:ext cx="13565505" cy="5667375"/>
+        <a:off x="3373120" y="20403820"/>
+        <a:ext cx="12246610" cy="6044565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29664,8 +29664,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26319480" y="260350"/>
-        <a:ext cx="9759950" cy="5321935"/>
+        <a:off x="23703915" y="275590"/>
+        <a:ext cx="8799830" cy="5819140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29699,8 +29699,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7298690" y="133350"/>
-        <a:ext cx="9730105" cy="4700905"/>
+        <a:off x="6589395" y="133350"/>
+        <a:ext cx="8778875" cy="5020945"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29734,8 +29734,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6979920" y="117475"/>
-        <a:ext cx="7485380" cy="5187950"/>
+        <a:off x="6337935" y="117475"/>
+        <a:ext cx="6707505" cy="5530850"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29769,8 +29769,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9860280" y="170180"/>
-        <a:ext cx="5621655" cy="6235700"/>
+        <a:off x="8887460" y="170180"/>
+        <a:ext cx="5092065" cy="6658610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29804,8 +29804,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7328535" y="109220"/>
-        <a:ext cx="9937115" cy="4862830"/>
+        <a:off x="6602095" y="109220"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29834,8 +29834,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7577455" y="5078730"/>
-        <a:ext cx="10005060" cy="4865370"/>
+        <a:off x="6851015" y="5410200"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -30518,7 +30518,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -30529,9 +30529,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.225" customWidth="1"/>
-    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
-    <col min="17" max="17" width="12.8916666666667"/>
+    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34944,26 +34944,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.775" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5583333333333"/>
-    <col min="14" max="14" width="12.8916666666667"/>
-    <col min="15" max="15" width="11.775" customWidth="1"/>
-    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556"/>
+    <col min="14" max="14" width="12.8888888888889"/>
+    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.775" customWidth="1"/>
+    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37853,32 +37853,32 @@
       <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.8916666666667"/>
-    <col min="2" max="2" width="17.5583333333333"/>
+    <col min="1" max="1" width="12.8888888888889"/>
+    <col min="2" max="2" width="17.5555555555556"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8916666666667"/>
-    <col min="5" max="5" width="17.5583333333333"/>
-    <col min="6" max="6" width="11.775"/>
-    <col min="7" max="7" width="17.5583333333333"/>
-    <col min="8" max="8" width="11.775"/>
-    <col min="9" max="9" width="12.8916666666667"/>
-    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.775"/>
+    <col min="4" max="4" width="11.8888888888889"/>
+    <col min="5" max="5" width="17.5555555555556"/>
+    <col min="6" max="6" width="11.7777777777778"/>
+    <col min="7" max="7" width="17.5555555555556"/>
+    <col min="8" max="8" width="11.7777777777778"/>
+    <col min="9" max="9" width="12.8888888888889"/>
+    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4416666666667"/>
+    <col min="13" max="13" width="16.4444444444444"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5583333333333"/>
-    <col min="20" max="20" width="12.8916666666667"/>
-    <col min="25" max="26" width="12.8916666666667"/>
+    <col min="19" max="19" width="10.5555555555556"/>
+    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="25" max="26" width="12.8888888888889"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:28">
+    <row r="1" ht="16.2" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -41359,10 +41359,10 @@
   <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:B64"/>
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -43535,16 +43535,40 @@
         <v>2240.15900314093</v>
       </c>
     </row>
-    <row r="65" spans="3:11">
-      <c r="C65" s="6"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>2715</v>
+      </c>
+      <c r="B65" s="5">
+        <v>45540</v>
+      </c>
+      <c r="C65" s="6">
+        <v>258.8856027</v>
+      </c>
+      <c r="D65" s="8">
+        <v>2</v>
+      </c>
+      <c r="E65" s="6">
+        <v>54.1237444196429</v>
+      </c>
+      <c r="F65" s="6">
+        <v>21.9522879464286</v>
+      </c>
+      <c r="G65" s="6">
+        <v>16.2749720982143</v>
+      </c>
+      <c r="H65" s="6">
+        <v>48.8249162946428</v>
+      </c>
+      <c r="I65" s="6">
+        <v>38.6057477678572</v>
+      </c>
+      <c r="J65" s="6">
+        <v>26.494140625</v>
+      </c>
+      <c r="K65" s="6">
+        <v>2247.08161272321</v>
+      </c>
     </row>
     <row r="66" spans="3:11">
       <c r="C66" s="6"/>
@@ -43728,14 +43752,14 @@
   <sheetPr/>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="12.8916666666667"/>
-    <col min="10" max="10" width="12.8916666666667"/>
+    <col min="3" max="3" width="12.8888888888889"/>
+    <col min="10" max="10" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -44900,29 +44924,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="3:3">
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>2715</v>
+      </c>
+      <c r="B65" s="5">
+        <v>45540</v>
+      </c>
+      <c r="C65" s="8">
+        <v>203.907766990291</v>
+      </c>
+      <c r="I65" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9">
       <c r="C66" s="8"/>
-    </row>
-    <row r="67" spans="3:3">
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="3:9">
       <c r="C67" s="8"/>
-    </row>
-    <row r="68" spans="3:3">
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="3:9">
       <c r="C68" s="8"/>
-    </row>
-    <row r="69" spans="3:3">
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="3:9">
       <c r="C69" s="8"/>
-    </row>
-    <row r="70" spans="3:3">
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="3:9">
       <c r="C70" s="8"/>
-    </row>
-    <row r="71" spans="3:3">
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="3:9">
       <c r="C71" s="8"/>
-    </row>
-    <row r="72" spans="3:3">
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="3:9">
       <c r="C72" s="8"/>
+      <c r="I72" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -44940,13 +44982,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="20" max="20" width="12.8888888888889"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -46262,10 +46304,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8916666666667"/>
-    <col min="7" max="8" width="12.8916666666667"/>
+    <col min="2" max="5" width="12.8888888888889"/>
+    <col min="7" max="8" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14718,7 +14718,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0432551051508686"/>
+          <c:y val="0.0929878048780488"/>
+          <c:w val="0.943334349283755"/>
+          <c:h val="0.729643527204503"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -14806,294 +14816,218 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃!$B$2:$B$47</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>日活跃!$B$37:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45477</c:v>
+                  <c:v>45512</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45478</c:v>
+                  <c:v>45513</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45479</c:v>
+                  <c:v>45514</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45480</c:v>
+                  <c:v>45515</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45481</c:v>
+                  <c:v>45516</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45482</c:v>
+                  <c:v>45517</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45483</c:v>
+                  <c:v>45518</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45484</c:v>
+                  <c:v>45519</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45485</c:v>
+                  <c:v>45520</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45486</c:v>
+                  <c:v>45521</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45487</c:v>
+                  <c:v>45522</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45488</c:v>
+                  <c:v>45523</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45489</c:v>
+                  <c:v>45524</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45490</c:v>
+                  <c:v>45525</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45491</c:v>
+                  <c:v>45526</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45492</c:v>
+                  <c:v>45527</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45493</c:v>
+                  <c:v>45528</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45494</c:v>
+                  <c:v>45529</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45495</c:v>
+                  <c:v>45530</c:v>
                 </c:pt>
                 <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45496</c:v>
+                  <c:v>45531</c:v>
                 </c:pt>
                 <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45497</c:v>
+                  <c:v>45532</c:v>
                 </c:pt>
                 <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45498</c:v>
+                  <c:v>45533</c:v>
                 </c:pt>
                 <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45499</c:v>
+                  <c:v>45534</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45500</c:v>
+                  <c:v>45535</c:v>
                 </c:pt>
                 <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45501</c:v>
+                  <c:v>45536</c:v>
                 </c:pt>
                 <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45502</c:v>
+                  <c:v>45537</c:v>
                 </c:pt>
                 <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45503</c:v>
+                  <c:v>45538</c:v>
                 </c:pt>
                 <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45504</c:v>
+                  <c:v>45539</c:v>
                 </c:pt>
                 <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45505</c:v>
+                  <c:v>45540</c:v>
                 </c:pt>
                 <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45506</c:v>
+                  <c:v>45541</c:v>
                 </c:pt>
                 <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45507</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45508</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
+                  <c:v>45542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃!$D$2:$D$47</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>日活跃!$D$2:$D$98</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>日活跃!$D$37:$D$98</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>1550</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="41">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15185,288 +15119,212 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃!$B$2:$B$47</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>日活跃!$B$37:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45477</c:v>
+                  <c:v>45512</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45478</c:v>
+                  <c:v>45513</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45479</c:v>
+                  <c:v>45514</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45480</c:v>
+                  <c:v>45515</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45481</c:v>
+                  <c:v>45516</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45482</c:v>
+                  <c:v>45517</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45483</c:v>
+                  <c:v>45518</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45484</c:v>
+                  <c:v>45519</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45485</c:v>
+                  <c:v>45520</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45486</c:v>
+                  <c:v>45521</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45487</c:v>
+                  <c:v>45522</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45488</c:v>
+                  <c:v>45523</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45489</c:v>
+                  <c:v>45524</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45490</c:v>
+                  <c:v>45525</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45491</c:v>
+                  <c:v>45526</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45492</c:v>
+                  <c:v>45527</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45493</c:v>
+                  <c:v>45528</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45494</c:v>
+                  <c:v>45529</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45495</c:v>
+                  <c:v>45530</c:v>
                 </c:pt>
                 <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45496</c:v>
+                  <c:v>45531</c:v>
                 </c:pt>
                 <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45497</c:v>
+                  <c:v>45532</c:v>
                 </c:pt>
                 <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45498</c:v>
+                  <c:v>45533</c:v>
                 </c:pt>
                 <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45499</c:v>
+                  <c:v>45534</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45500</c:v>
+                  <c:v>45535</c:v>
                 </c:pt>
                 <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45501</c:v>
+                  <c:v>45536</c:v>
                 </c:pt>
                 <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45502</c:v>
+                  <c:v>45537</c:v>
                 </c:pt>
                 <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45503</c:v>
+                  <c:v>45538</c:v>
                 </c:pt>
                 <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45504</c:v>
+                  <c:v>45539</c:v>
                 </c:pt>
                 <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45505</c:v>
+                  <c:v>45540</c:v>
                 </c:pt>
                 <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45506</c:v>
+                  <c:v>45541</c:v>
                 </c:pt>
                 <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45507</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45508</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
+                  <c:v>45542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃!$C$2:$C$47</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>日活跃!$C$2:$C$108</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>日活跃!$C$37:$C$108</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>414.3823378</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1052.29643</c:v>
+                  <c:v>405.1486658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1041.560384</c:v>
+                  <c:v>366.2605976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1008.808936</c:v>
+                  <c:v>367.862349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>940.8499332</c:v>
+                  <c:v>346.565179</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>916.2189064</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>894.270477</c:v>
+                  <c:v>339.7745003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>861.2989655</c:v>
+                  <c:v>392.4398953</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>852.9476751</c:v>
+                  <c:v>385.5791327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>839.5043537</c:v>
+                  <c:v>382.9393112</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>827.9044737</c:v>
+                  <c:v>388.2156028</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>801.79164</c:v>
+                  <c:v>377.7990798</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>785.9933757</c:v>
+                  <c:v>358.783733</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>739.3861893</c:v>
+                  <c:v>346.1406395</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>713.5194028</c:v>
+                  <c:v>344.8693794</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>685.2734375</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>662.1490481</c:v>
+                  <c:v>337.216788</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>638.8276996</c:v>
+                  <c:v>331.4040209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>595.6094876</c:v>
+                  <c:v>308.3955467</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>583.4088988</c:v>
+                  <c:v>294.881713</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>603.9120569</c:v>
+                  <c:v>285.9820459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>577.9313557</c:v>
+                  <c:v>295.328359</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>554.6487047</c:v>
+                  <c:v>292.4988454</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>559.1287531</c:v>
+                  <c:v>305.2892515</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>556.6940277</c:v>
+                  <c:v>293.201641</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>543.9670491</c:v>
+                  <c:v>250.2619121</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>513.9953987</c:v>
+                  <c:v>246.3209826</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>481.494987</c:v>
+                  <c:v>278.0655991</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>491.6227983</c:v>
+                  <c:v>258.8856027</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>462.0004212</c:v>
+                  <c:v>260.4473441</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>491.1205195</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>482.2541609</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>431.0094772</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>439.9144087</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>426.9592043</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>414.3823378</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>405.1486658</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>366.2605976</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>367.862349</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>346.565179</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>339.7745003</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>392.4398953</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>385.5791327</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>382.9393112</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>388.2156028</c:v>
+                  <c:v>279.9629154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15558,288 +15416,212 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃!$B$2:$B$47</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>日活跃!$B$37:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45477</c:v>
+                  <c:v>45512</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45478</c:v>
+                  <c:v>45513</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45479</c:v>
+                  <c:v>45514</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45480</c:v>
+                  <c:v>45515</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45481</c:v>
+                  <c:v>45516</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45482</c:v>
+                  <c:v>45517</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45483</c:v>
+                  <c:v>45518</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45484</c:v>
+                  <c:v>45519</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45485</c:v>
+                  <c:v>45520</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45486</c:v>
+                  <c:v>45521</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45487</c:v>
+                  <c:v>45522</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45488</c:v>
+                  <c:v>45523</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45489</c:v>
+                  <c:v>45524</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45490</c:v>
+                  <c:v>45525</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45491</c:v>
+                  <c:v>45526</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45492</c:v>
+                  <c:v>45527</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45493</c:v>
+                  <c:v>45528</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45494</c:v>
+                  <c:v>45529</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45495</c:v>
+                  <c:v>45530</c:v>
                 </c:pt>
                 <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45496</c:v>
+                  <c:v>45531</c:v>
                 </c:pt>
                 <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45497</c:v>
+                  <c:v>45532</c:v>
                 </c:pt>
                 <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45498</c:v>
+                  <c:v>45533</c:v>
                 </c:pt>
                 <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45499</c:v>
+                  <c:v>45534</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45500</c:v>
+                  <c:v>45535</c:v>
                 </c:pt>
                 <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45501</c:v>
+                  <c:v>45536</c:v>
                 </c:pt>
                 <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45502</c:v>
+                  <c:v>45537</c:v>
                 </c:pt>
                 <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45503</c:v>
+                  <c:v>45538</c:v>
                 </c:pt>
                 <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45504</c:v>
+                  <c:v>45539</c:v>
                 </c:pt>
                 <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45505</c:v>
+                  <c:v>45540</c:v>
                 </c:pt>
                 <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45506</c:v>
+                  <c:v>45541</c:v>
                 </c:pt>
                 <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45507</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45508</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
+                  <c:v>45542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃!$E$2:$E$47</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>日活跃!$E$2:$E$105</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>日活跃!$E$37:$E$105</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>77.9266220391349</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>497.70357</c:v>
+                  <c:v>77.4548919949174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>257.4350682</c:v>
+                  <c:v>85.5385684503127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>243.3573193</c:v>
+                  <c:v>72.7549979175344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>258.861214190292</c:v>
+                  <c:v>80.2663499779054</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>191.448737671191</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>183.821694505937</c:v>
+                  <c:v>71.3598897312198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>190.384709801859</c:v>
+                  <c:v>52.6219249781913</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>159.578692493947</c:v>
+                  <c:v>68.2166539522328</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>146.551406563965</c:v>
+                  <c:v>56.8569603345142</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>158.540955262589</c:v>
+                  <c:v>55.931914893617</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>157.385712979054</c:v>
+                  <c:v>69.3762781186094</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>141.617628116662</c:v>
+                  <c:v>62.1933474377057</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>146.131713554987</c:v>
+                  <c:v>71.8812557924004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161.127590523436</c:v>
+                  <c:v>62.4686271157463</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>146.9846875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>145.708794197643</c:v>
+                  <c:v>62.734474522293</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>142.918326329253</c:v>
+                  <c:v>64.0298727850977</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>150.313160961713</c:v>
+                  <c:v>64.4660005709392</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>137.894581888979</c:v>
+                  <c:v>59.9654636504921</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>102.618567403233</c:v>
+                  <c:v>60.4252387214821</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>145.158853903007</c:v>
+                  <c:v>44.454845814978</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>120.722625215889</c:v>
+                  <c:v>61.5423102581208</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>110</c:v>
+                  <c:v>58.5448406405075</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>103.212567223323</c:v>
+                  <c:v>58.6126153846154</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>110.93914639743</c:v>
+                  <c:v>87.9674796747967</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>112.748192344643</c:v>
+                  <c:v>44.9501002106994</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>121.911622725585</c:v>
+                  <c:v>32.9435147520725</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>101.485586120456</c:v>
+                  <c:v>54.1237444196429</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>120.923897781522</c:v>
+                  <c:v>46.771944216571</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>85.3936071518934</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>108.446834799041</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>116.977071232039</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>90.3738756139286</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>86.212916246216</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>77.9266220391349</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>77.4548919949174</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>85.5385684503127</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>72.7549979175344</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>80.2663499779054</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>71.3598897312198</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>52.6219249781913</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>68.2166539522328</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>56.8569603345142</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>55.931914893617</c:v>
+                  <c:v>40.9659309636853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15931,2101 +15713,212 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃!$B$2:$B$47</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>日活跃!$B$37:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45477</c:v>
+                  <c:v>45512</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45478</c:v>
+                  <c:v>45513</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45479</c:v>
+                  <c:v>45514</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45480</c:v>
+                  <c:v>45515</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45481</c:v>
+                  <c:v>45516</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45482</c:v>
+                  <c:v>45517</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45483</c:v>
+                  <c:v>45518</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45484</c:v>
+                  <c:v>45519</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45485</c:v>
+                  <c:v>45520</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45486</c:v>
+                  <c:v>45521</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45487</c:v>
+                  <c:v>45522</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45488</c:v>
+                  <c:v>45523</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45489</c:v>
+                  <c:v>45524</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45490</c:v>
+                  <c:v>45525</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45491</c:v>
+                  <c:v>45526</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45492</c:v>
+                  <c:v>45527</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45493</c:v>
+                  <c:v>45528</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45494</c:v>
+                  <c:v>45529</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45495</c:v>
+                  <c:v>45530</c:v>
                 </c:pt>
                 <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45496</c:v>
+                  <c:v>45531</c:v>
                 </c:pt>
                 <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45497</c:v>
+                  <c:v>45532</c:v>
                 </c:pt>
                 <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45498</c:v>
+                  <c:v>45533</c:v>
                 </c:pt>
                 <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45499</c:v>
+                  <c:v>45534</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45500</c:v>
+                  <c:v>45535</c:v>
                 </c:pt>
                 <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45501</c:v>
+                  <c:v>45536</c:v>
                 </c:pt>
                 <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45502</c:v>
+                  <c:v>45537</c:v>
                 </c:pt>
                 <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45503</c:v>
+                  <c:v>45538</c:v>
                 </c:pt>
                 <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45504</c:v>
+                  <c:v>45539</c:v>
                 </c:pt>
                 <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45505</c:v>
+                  <c:v>45540</c:v>
                 </c:pt>
                 <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45506</c:v>
+                  <c:v>45541</c:v>
                 </c:pt>
                 <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45507</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45508</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
+                  <c:v>45542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃!$F$2:$F$47</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>日活跃!$F$2:$F$108</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>日活跃!$F$37:$F$108</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>61.5386199794027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.9466327827192</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>421.0045478</c:v>
+                  <c:v>50.2863099374566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>199.1816131</c:v>
+                  <c:v>50.9557476051645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>193.372420958884</c:v>
+                  <c:v>50.1302474591251</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>190.727067776337</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>132.708794526062</c:v>
+                  <c:v>54.3349414197105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>119.127476766614</c:v>
+                  <c:v>42.9566734515848</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136.370419009316</c:v>
+                  <c:v>35.9687811748137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105.661754855995</c:v>
+                  <c:v>40.4145420756141</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>102.752755565161</c:v>
+                  <c:v>38.3404255319149</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>101.394676666972</c:v>
+                  <c:v>40.1175869120654</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>104.840555708897</c:v>
+                  <c:v>45.3167606958157</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.3324808184143</c:v>
+                  <c:v>35.7863762743281</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>92.2250452037647</c:v>
+                  <c:v>49.5493246708839</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>104.67875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>101.974977334542</c:v>
+                  <c:v>42.3799476797088</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>94.2744381509227</c:v>
+                  <c:v>38.7829395729214</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>102.089826045668</c:v>
+                  <c:v>41.0377390807879</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>101.744147395413</c:v>
+                  <c:v>45.4377482300121</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>85.3366948440358</c:v>
+                  <c:v>36.1321402024129</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>72.2721474131822</c:v>
+                  <c:v>37.3420704845815</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>97.5067357512953</c:v>
+                  <c:v>37.4785754605634</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>83</c:v>
+                  <c:v>34.7955184938865</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77.2926691197283</c:v>
+                  <c:v>37.5508717948718</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>87.655621844883</c:v>
+                  <c:v>43.9837398373984</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>77.9010466703747</c:v>
+                  <c:v>58.7273755074773</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>78.8510954326031</c:v>
+                  <c:v>25.4055918850729</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>78.5265518833696</c:v>
+                  <c:v>21.9522879464286</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>66.5081437798371</c:v>
+                  <c:v>44.6839109926169</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>78.7423462933288</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>60.3514063522058</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>74.1901559156221</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>82.4038960322278</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>67.5521118639181</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>61.5386199794027</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>54.9466327827192</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>50.2863099374566</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>50.9557476051645</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>50.1302474591251</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>54.3349414197105</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42.9566734515848</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>35.9687811748137</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>40.4145420756141</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>38.3404255319149</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>日活跃!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3天没登录</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>日活跃!$B$2:$B$47</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45479</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45487</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45490</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45491</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45493</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45494</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45495</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45496</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45497</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45498</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45499</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45500</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45501</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45502</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45503</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45504</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45505</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45506</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45507</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45508</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>日活跃!$G$2:$G$47</c:f>
-              <c:numCache>
-                <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="3">
-                  <c:v>368.6521319</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>182.085201128099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>177.662175796783</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170.581605956933</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120.041031036297</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>108.188944063693</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>120.618441616432</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>93.2649665009725</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>83.2739412786975</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>89.9225319716625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100.031969309463</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>76.9961982474848</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>79.9571875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>87.6794197642792</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>78.9925086789695</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>82.2874778780161</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>74.8018424426611</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>81.9995056601908</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>68.3389693226688</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>64.6879101899827</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>70.7543164449476</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>62.3176686553465</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>61.8663093492441</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>62.8199034533977</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>60.7249818589617</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>69.886899747262</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>52.5664164628489</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>49.0239116214841</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>51.2265362274534</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>67.8871475084156</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64.1931670751045</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>53.177394438723</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>50.7539178314274</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45.6205698401668</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>41.1460849645981</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43.7553026955369</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40.9323225361819</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>35.899505670253</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>36.8990082741623</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>32.4238341367094</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>35.4836879432624</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>日活跃!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4天没登录</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>日活跃!$B$2:$B$47</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45479</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45487</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45490</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45491</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45493</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45494</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45495</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45496</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45497</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45498</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45499</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45500</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45501</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45502</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45503</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45504</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45505</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45506</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45507</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45508</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>日活跃!$H$2:$H$48</c:f>
-              <c:numCache>
-                <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="47"/>
-                <c:pt idx="4">
-                  <c:v>354.831230518035</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>166.551130630898</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>159.599517005434</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150.736454497633</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>107.665449173062</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>92.9968184862693</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>105.883725956343</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>86.3279978048111</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>77.1800533627749</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>87.7237851662404</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>86.0483100746442</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>64.751875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>69.2540344514959</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>74.4725013703636</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>73.3610307765356</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>75.824967947196</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>66.0286717089327</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>72.6408828591678</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>58.1452504317789</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>70.9878290404755</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>60.7197797154658</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60.4774738332406</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>58.1596732268845</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>56.8984761527805</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>52.6374613872508</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>55.9993252930758</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42.1531361290791</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>53.1892387649037</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>39.4229347166271</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>67.9253279515641</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>61.2041709577755</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42.3684879288437</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>50.8047255038221</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>37.603706788838</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>34.4826557666814</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45.6413507925568</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>34.9790055248619</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>26.6665101813274</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>35.0361809628898</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>30.3716312056738</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>28.3537832310838</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>日活跃!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5天没登录</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>日活跃!$B$2:$B$47</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45479</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45487</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45490</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45491</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45493</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45494</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45495</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45496</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45497</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45498</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45499</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45500</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45501</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45502</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45503</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45504</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45505</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45506</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45507</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45508</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>日活跃!$I$2:$I$48</c:f>
-              <c:numCache>
-                <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="47"/>
-                <c:pt idx="5">
-                  <c:v>335.937295981957</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>161.241698530892</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>152.380852183062</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>136.981163048385</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>101.922583165885</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>84.6310784525611</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>101.394676666972</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>75.5224951697488</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>69.8209718670077</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>73.3753535166211</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>83.8878125</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>64.7006346328196</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>68.876301845423</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>74.2844563387577</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>69.3451730851418</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>69.8426022047556</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>62.8079376328845</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>67.7481865284974</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>51.6062836116615</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>65.2851766865535</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>55.048389543409</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>54.2450798366134</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>50.4100534336038</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>53.170949171581</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>37.3328835287172</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44.5671923831674</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>35.3286456741058</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>46.6813089785332</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>38.0680409398876</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>53.8462924819773</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>58.9186785260483</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43.2876997915219</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43.5985006247397</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42.5962218294299</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>35.4988283942109</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>32.6777551613841</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>37.0540461240538</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>30.7334920727104</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>31.1234042553191</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>26.6947852760736</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>日活跃!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6天没登录</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>日活跃!$B$2:$B$47</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45479</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45487</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45490</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45491</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45493</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45494</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45495</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45496</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45497</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45498</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45499</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45500</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45501</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45502</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45503</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45504</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45505</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45506</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45507</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45508</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>日活跃!$J$2:$J$48</c:f>
-              <c:numCache>
-                <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="47"/>
-                <c:pt idx="5">
-                  <c:v>11.454685738026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>337.776212517609</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>151.650008767316</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>144.833586407847</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>132.318430453226</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>98.1986168143505</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>85.7171864995884</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>95.1024013248688</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>75.6393861892583</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>66.6661412211971</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>63.924375</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>72.8543970988214</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>59.8362872282112</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>61.0486899469072</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>68.0946863573769</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>60.7845172771763</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>60.5955249569707</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>58.9894645941278</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>46.702519105576</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43.8278109224415</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>65.9065581230722</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>50.7033048644634</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42.2579325813048</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>54.5935832631283</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44.4132579910601</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43.2673159386583</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44.3570773463772</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>37.8574030130788</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>46.6520109557446</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43.4783728115345</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>51.857263871241</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>54.1744266851981</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>41.6910662224073</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44.0450729120636</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>38.7589248793935</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>38.3541727246293</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>30.6974942785048</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>32.1164992159824</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>28.4170212765957</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>26.2423312883436</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>日活跃!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>超过7天</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>日活跃!$B$2:$B$47</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45479</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45487</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45490</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45491</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45493</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45494</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45495</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45496</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45497</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45498</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45499</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45500</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45501</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45502</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45503</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45504</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45505</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45506</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45507</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45508</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>日活跃!$K$2:$K$48</c:f>
-              <c:numCache>
-                <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="47"/>
-                <c:pt idx="7">
-                  <c:v>338.380501490444</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>479.346821520909</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>621.426211207859</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>723.823427706938</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>808.714168114882</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>881.820958689852</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>960.933503836317</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1027.04195836617</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1087.541875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1131.67869446963</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1197.80193678056</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1238.00587041913</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1282.88570207512</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1340.47738395373</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1368.25432823732</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1421.55112262522</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1462</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1497.74978771582</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1512.28774667279</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1549.05663144056</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1601.81433345711</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1640.0736196319</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1653.27864363943</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1698.43164375474</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1724.93604186351</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1761.72179761541</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1774.4590254401</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1791.43722070059</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1832.44618949537</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1863.55146124524</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1915.02710215427</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1961.38754685548</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1981.15897039328</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2001.69924190214</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2008.07106717069</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2020.9183733349</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2035.47917997561</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2041.06382978723</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2055.64928425358</c:v>
+                  <c:v>33.8186834338509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18043,6 +15936,1278 @@
         <c:overlap val="100"/>
         <c:axId val="821976991"/>
         <c:axId val="582454797"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>3天没登录</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:numFmt formatCode="General" sourceLinked="1"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="0"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$B$37:$B$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m"月"d"日"</c:formatCode>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45512</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45513</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45514</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45515</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45516</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45517</c:v>
+                      </c:pt>
+                      <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45518</c:v>
+                      </c:pt>
+                      <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45519</c:v>
+                      </c:pt>
+                      <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45520</c:v>
+                      </c:pt>
+                      <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45521</c:v>
+                      </c:pt>
+                      <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45522</c:v>
+                      </c:pt>
+                      <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45523</c:v>
+                      </c:pt>
+                      <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45524</c:v>
+                      </c:pt>
+                      <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45525</c:v>
+                      </c:pt>
+                      <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45526</c:v>
+                      </c:pt>
+                      <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45527</c:v>
+                      </c:pt>
+                      <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45528</c:v>
+                      </c:pt>
+                      <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45529</c:v>
+                      </c:pt>
+                      <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45530</c:v>
+                      </c:pt>
+                      <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45531</c:v>
+                      </c:pt>
+                      <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45532</c:v>
+                      </c:pt>
+                      <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45533</c:v>
+                      </c:pt>
+                      <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45534</c:v>
+                      </c:pt>
+                      <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45535</c:v>
+                      </c:pt>
+                      <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45536</c:v>
+                      </c:pt>
+                      <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45537</c:v>
+                      </c:pt>
+                      <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45538</c:v>
+                      </c:pt>
+                      <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45539</c:v>
+                      </c:pt>
+                      <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45540</c:v>
+                      </c:pt>
+                      <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45541</c:v>
+                      </c:pt>
+                      <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45542</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>日活跃!$G$2:$G$47</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$G$37:$G$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0_ </c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>53.177394438723</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50.7539178314274</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45.6205698401668</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>41.1460849645981</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>43.7553026955369</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40.9323225361819</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>35.899505670253</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>36.8990082741623</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>32.4238341367094</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>35.4836879432624</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>4天没登录</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:numFmt formatCode="General" sourceLinked="1"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="0"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$B$37:$B$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m"月"d"日"</c:formatCode>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45512</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45513</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45514</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45515</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45516</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45517</c:v>
+                      </c:pt>
+                      <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45518</c:v>
+                      </c:pt>
+                      <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45519</c:v>
+                      </c:pt>
+                      <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45520</c:v>
+                      </c:pt>
+                      <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45521</c:v>
+                      </c:pt>
+                      <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45522</c:v>
+                      </c:pt>
+                      <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45523</c:v>
+                      </c:pt>
+                      <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45524</c:v>
+                      </c:pt>
+                      <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45525</c:v>
+                      </c:pt>
+                      <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45526</c:v>
+                      </c:pt>
+                      <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45527</c:v>
+                      </c:pt>
+                      <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45528</c:v>
+                      </c:pt>
+                      <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45529</c:v>
+                      </c:pt>
+                      <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45530</c:v>
+                      </c:pt>
+                      <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45531</c:v>
+                      </c:pt>
+                      <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45532</c:v>
+                      </c:pt>
+                      <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45533</c:v>
+                      </c:pt>
+                      <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45534</c:v>
+                      </c:pt>
+                      <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45535</c:v>
+                      </c:pt>
+                      <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45536</c:v>
+                      </c:pt>
+                      <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45537</c:v>
+                      </c:pt>
+                      <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45538</c:v>
+                      </c:pt>
+                      <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45539</c:v>
+                      </c:pt>
+                      <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45540</c:v>
+                      </c:pt>
+                      <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45541</c:v>
+                      </c:pt>
+                      <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45542</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>日活跃!$H$2:$H$48</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$H$37:$H$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0_ </c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>61.2041709577755</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42.3684879288437</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50.8047255038221</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>37.603706788838</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34.4826557666814</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45.6413507925568</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>34.9790055248619</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>26.6665101813274</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>35.0361809628898</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>30.3716312056738</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>28.3537832310838</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>5天没登录</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:numFmt formatCode="General" sourceLinked="1"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="bg1">
+                              <a:lumMod val="95000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="0"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$B$37:$B$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m"月"d"日"</c:formatCode>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45512</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45513</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45514</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45515</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45516</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45517</c:v>
+                      </c:pt>
+                      <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45518</c:v>
+                      </c:pt>
+                      <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45519</c:v>
+                      </c:pt>
+                      <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45520</c:v>
+                      </c:pt>
+                      <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45521</c:v>
+                      </c:pt>
+                      <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45522</c:v>
+                      </c:pt>
+                      <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45523</c:v>
+                      </c:pt>
+                      <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45524</c:v>
+                      </c:pt>
+                      <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45525</c:v>
+                      </c:pt>
+                      <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45526</c:v>
+                      </c:pt>
+                      <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45527</c:v>
+                      </c:pt>
+                      <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45528</c:v>
+                      </c:pt>
+                      <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45529</c:v>
+                      </c:pt>
+                      <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45530</c:v>
+                      </c:pt>
+                      <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45531</c:v>
+                      </c:pt>
+                      <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45532</c:v>
+                      </c:pt>
+                      <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45533</c:v>
+                      </c:pt>
+                      <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45534</c:v>
+                      </c:pt>
+                      <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45535</c:v>
+                      </c:pt>
+                      <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45536</c:v>
+                      </c:pt>
+                      <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45537</c:v>
+                      </c:pt>
+                      <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45538</c:v>
+                      </c:pt>
+                      <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45539</c:v>
+                      </c:pt>
+                      <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45540</c:v>
+                      </c:pt>
+                      <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45541</c:v>
+                      </c:pt>
+                      <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45542</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>日活跃!$I$2:$I$48</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$I$37:$I$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0_ </c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>53.8462924819773</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>58.9186785260483</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>43.2876997915219</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43.5985006247397</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42.5962218294299</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35.4988283942109</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32.6777551613841</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>37.0540461240538</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>30.7334920727104</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>31.1234042553191</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>26.6947852760736</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>6天没登录</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:numFmt formatCode="General" sourceLinked="1"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="bg1">
+                              <a:lumMod val="95000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="0"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$B$37:$B$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m"月"d"日"</c:formatCode>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45512</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45513</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45514</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45515</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45516</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45517</c:v>
+                      </c:pt>
+                      <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45518</c:v>
+                      </c:pt>
+                      <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45519</c:v>
+                      </c:pt>
+                      <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45520</c:v>
+                      </c:pt>
+                      <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45521</c:v>
+                      </c:pt>
+                      <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45522</c:v>
+                      </c:pt>
+                      <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45523</c:v>
+                      </c:pt>
+                      <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45524</c:v>
+                      </c:pt>
+                      <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45525</c:v>
+                      </c:pt>
+                      <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45526</c:v>
+                      </c:pt>
+                      <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45527</c:v>
+                      </c:pt>
+                      <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45528</c:v>
+                      </c:pt>
+                      <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45529</c:v>
+                      </c:pt>
+                      <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45530</c:v>
+                      </c:pt>
+                      <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45531</c:v>
+                      </c:pt>
+                      <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45532</c:v>
+                      </c:pt>
+                      <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45533</c:v>
+                      </c:pt>
+                      <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45534</c:v>
+                      </c:pt>
+                      <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45535</c:v>
+                      </c:pt>
+                      <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45536</c:v>
+                      </c:pt>
+                      <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45537</c:v>
+                      </c:pt>
+                      <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45538</c:v>
+                      </c:pt>
+                      <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45539</c:v>
+                      </c:pt>
+                      <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45540</c:v>
+                      </c:pt>
+                      <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45541</c:v>
+                      </c:pt>
+                      <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45542</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>日活跃!$J$2:$J$48</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$J$37:$J$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0_ </c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>43.4783728115345</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>51.857263871241</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>54.1744266851981</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>41.6910662224073</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44.0450729120636</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>38.7589248793935</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>38.3541727246293</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>30.6974942785048</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>32.1164992159824</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>28.4170212765957</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>26.2423312883436</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$K$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>超过7天</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:numFmt formatCode="General" sourceLinked="1"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="bg1">
+                              <a:lumMod val="95000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="0"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$B$37:$B$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m"月"d"日"</c:formatCode>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45512</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45513</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45514</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45515</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45516</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45517</c:v>
+                      </c:pt>
+                      <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45518</c:v>
+                      </c:pt>
+                      <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45519</c:v>
+                      </c:pt>
+                      <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45520</c:v>
+                      </c:pt>
+                      <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45521</c:v>
+                      </c:pt>
+                      <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45522</c:v>
+                      </c:pt>
+                      <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45523</c:v>
+                      </c:pt>
+                      <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45524</c:v>
+                      </c:pt>
+                      <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45525</c:v>
+                      </c:pt>
+                      <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45526</c:v>
+                      </c:pt>
+                      <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45527</c:v>
+                      </c:pt>
+                      <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45528</c:v>
+                      </c:pt>
+                      <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45529</c:v>
+                      </c:pt>
+                      <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45530</c:v>
+                      </c:pt>
+                      <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45531</c:v>
+                      </c:pt>
+                      <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45532</c:v>
+                      </c:pt>
+                      <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45533</c:v>
+                      </c:pt>
+                      <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45534</c:v>
+                      </c:pt>
+                      <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45535</c:v>
+                      </c:pt>
+                      <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45536</c:v>
+                      </c:pt>
+                      <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45537</c:v>
+                      </c:pt>
+                      <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45538</c:v>
+                      </c:pt>
+                      <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45539</c:v>
+                      </c:pt>
+                      <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45540</c:v>
+                      </c:pt>
+                      <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45541</c:v>
+                      </c:pt>
+                      <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45542</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>日活跃!$K$2:$K$48</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$K$37:$K$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0_ </c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1832.44618949537</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1863.55146124524</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1915.02710215427</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1961.38754685548</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1981.15897039328</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2001.69924190214</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2008.07106717069</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2020.9183733349</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2035.47917997561</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2041.06382978723</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2055.64928425358</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:dateAx>
         <c:axId val="821976991"/>
@@ -18376,1368 +17541,198 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$2:$B$56</c:f>
+              <c:f>日活跃2!$B$37:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45477</c:v>
+                  <c:v>45512</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45478</c:v>
+                  <c:v>45513</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45479</c:v>
+                  <c:v>45514</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45480</c:v>
+                  <c:v>45515</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45481</c:v>
+                  <c:v>45516</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45482</c:v>
+                  <c:v>45517</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45483</c:v>
+                  <c:v>45518</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45484</c:v>
+                  <c:v>45519</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45485</c:v>
+                  <c:v>45520</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45486</c:v>
+                  <c:v>45521</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45487</c:v>
+                  <c:v>45522</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45488</c:v>
+                  <c:v>45523</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45489</c:v>
+                  <c:v>45524</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45490</c:v>
+                  <c:v>45525</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45491</c:v>
+                  <c:v>45526</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45492</c:v>
+                  <c:v>45527</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45493</c:v>
+                  <c:v>45528</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45494</c:v>
+                  <c:v>45529</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45495</c:v>
+                  <c:v>45530</c:v>
                 </c:pt>
                 <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45496</c:v>
+                  <c:v>45531</c:v>
                 </c:pt>
                 <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45497</c:v>
+                  <c:v>45532</c:v>
                 </c:pt>
                 <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45498</c:v>
+                  <c:v>45533</c:v>
                 </c:pt>
                 <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45499</c:v>
+                  <c:v>45534</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45500</c:v>
+                  <c:v>45535</c:v>
                 </c:pt>
                 <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45501</c:v>
+                  <c:v>45536</c:v>
                 </c:pt>
                 <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45502</c:v>
+                  <c:v>45537</c:v>
                 </c:pt>
                 <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45503</c:v>
+                  <c:v>45538</c:v>
                 </c:pt>
                 <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45504</c:v>
+                  <c:v>45539</c:v>
                 </c:pt>
                 <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45505</c:v>
+                  <c:v>45540</c:v>
                 </c:pt>
                 <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45506</c:v>
+                  <c:v>45541</c:v>
                 </c:pt>
                 <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45507</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45508</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45523</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45524</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45525</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45526</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45527</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45528</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45529</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45530</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45531</c:v>
+                  <c:v>45542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$2:$C$56</c:f>
+              <c:f>日活跃2!$C$37:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1550</c:v>
+                  <c:v>307.240555796786</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1052.29643000401</c:v>
+                  <c:v>295.801526717557</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>946.510719071014</c:v>
+                  <c:v>272.570798711209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>884.237352126856</c:v>
+                  <c:v>280.989304812834</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>806.735531081381</c:v>
+                  <c:v>261.669474078233</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>777.937723045062</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>740.868934599156</c:v>
+                  <c:v>264.409598479448</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>700</c:v>
+                  <c:v>303.840039741679</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>673.706102395176</c:v>
+                  <c:v>297.719087635054</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>656.219192852742</c:v>
+                  <c:v>295.627300766092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>646.848163712772</c:v>
+                  <c:v>299.398548563475</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>632.516660133281</c:v>
+                  <c:v>288.834857031705</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>610.135044792085</c:v>
+                  <c:v>271.814320388349</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>579.936535410356</c:v>
+                  <c:v>269.788322632423</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>555.546028261764</c:v>
+                  <c:v>265.032170013647</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>531.758600039923</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>503.659624091096</c:v>
+                  <c:v>255.028537689431</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>491.722642037503</c:v>
+                  <c:v>245.586374695863</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>455.597312757749</c:v>
+                  <c:v>241.544587552846</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>454.219190271392</c:v>
+                  <c:v>226.727072486984</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>456.427859170054</c:v>
+                  <c:v>221.778414140416</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>439.963790931989</c:v>
+                  <c:v>224.447092469018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>410.64221434415</c:v>
+                  <c:v>218.710804515319</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>415.411377886527</c:v>
+                  <c:v>229.70572640509</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>405.050655542312</c:v>
+                  <c:v>226.535264145883</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>395.666912306558</c:v>
+                  <c:v>197.072412261217</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>377.294393278397</c:v>
+                  <c:v>195.595901492</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>355.11235287124</c:v>
+                  <c:v>226.662156066756</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>372.15223657521</c:v>
+                  <c:v>203.907766990291</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>352.143512150389</c:v>
+                  <c:v>210.765269244669</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>365.244572684803</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>346.984655644106</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>317.948717948717</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>322.690892364305</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>315.871493646607</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>307.240555796786</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>295.801526717557</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>272.570798711209</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>280.989304812834</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>261.669474078233</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>264.409598479448</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>303.840039741679</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>297.719087635054</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>295.627300766092</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>299.398548563475</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>288.834857031705</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>271.814320388349</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>269.788322632423</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>265.032170013647</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>255.028537689431</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>245.586374695863</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>241.544587552846</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>226.727072486984</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>日活跃2!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2日账号</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>日活跃2!$B$2:$B$56</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45479</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45487</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45490</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45491</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45493</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45494</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45495</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45496</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45497</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45498</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45499</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45500</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45501</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45502</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45503</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45504</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45505</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45506</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45507</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45508</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45523</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45524</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45525</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45526</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45527</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45528</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45529</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45530</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45531</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>日活跃2!$D$2:$D$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="1" c:formatCode="0_ ">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="0_ ">
-                  <c:v>94.6858359957401</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0_ ">
-                  <c:v>74.5614035087719</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0_ ">
-                  <c:v>55.2261472433146</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0_ ">
-                  <c:v>50.508276207992</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="0_ ">
-                  <c:v>50.6772151898734</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="0_ ">
-                  <c:v>50.5549738219895</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="0_ ">
-                  <c:v>51.1225540679712</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="0_ ">
-                  <c:v>47.9927797833935</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="0_ ">
-                  <c:v>45.4795288839035</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="0_ ">
-                  <c:v>39.5443645083933</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="0_ ">
-                  <c:v>40.9663608562691</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="0_ ">
-                  <c:v>36.7270375161708</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="0_ ">
-                  <c:v>37.7661538461538</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="0_ ">
-                  <c:v>34.2506142506142</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="0_ ">
-                  <c:v>34.2790152403283</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>日活跃2!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3日账号</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>日活跃2!$B$2:$B$56</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45479</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45487</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45490</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45491</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45493</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45494</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45495</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45496</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45497</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45498</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45499</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45500</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45501</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45502</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45503</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45504</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45505</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45506</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45507</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45508</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45523</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45524</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45525</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45526</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45527</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45528</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45529</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45530</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45531</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>日活跃2!$E$2:$E$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="2" c:formatCode="0_ ">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0_ ">
-                  <c:v>49.6078431372549</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0_ ">
-                  <c:v>31.6538233550682</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0_ ">
-                  <c:v>28.8565725691474</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="0_ ">
-                  <c:v>27.9749478079332</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="0_ ">
-                  <c:v>28.0762564991335</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="0_ ">
-                  <c:v>30.5749128919861</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="0_ ">
-                  <c:v>30.4452466907341</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="0_ ">
-                  <c:v>27.6303751143641</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="0_ ">
-                  <c:v>25.4620123203285</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="0_ ">
-                  <c:v>23.9107332624867</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="0_ ">
-                  <c:v>19.1142191142191</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="0_ ">
-                  <c:v>18.6234817813765</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="0_ ">
-                  <c:v>17.9119754350051</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="0_ ">
-                  <c:v>17.720207253886</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>日活跃2!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4日账号</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>日活跃2!$B$2:$B$56</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45479</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45487</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45490</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45491</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45493</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45494</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45495</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45496</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45497</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45498</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45499</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45500</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45501</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45502</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45503</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45504</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45505</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45506</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45507</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45508</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45523</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45524</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45525</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45526</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45527</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45528</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45529</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45530</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45531</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>日活跃2!$F$2:$F$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="3" c:formatCode="0_ ">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0_ ">
-                  <c:v>47.2004186289901</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0_ ">
-                  <c:v>34.1181081787301</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="0_ ">
-                  <c:v>32.5809523809524</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="0_ ">
-                  <c:v>28.3505154639175</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="0_ ">
-                  <c:v>28.7901234567901</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="0_ ">
-                  <c:v>29.6710526315789</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="0_ ">
-                  <c:v>30.2761000862813</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="0_ ">
-                  <c:v>26.5009560229445</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="0_ ">
-                  <c:v>25.3376503237743</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="0_ ">
-                  <c:v>19.9157894736842</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="0_ ">
-                  <c:v>17.9310344827586</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="0_ ">
-                  <c:v>19.2708333333333</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="0_ ">
-                  <c:v>18.4909264565425</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>日活跃2!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5日及之后注册账号</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>日活跃2!$B$2:$B$56</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45479</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45487</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45490</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45491</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45493</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45494</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45495</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45496</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45497</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45498</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45499</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45500</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45501</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45502</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45503</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45504</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45505</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45506</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45507</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45508</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45523</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45524</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45525</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45526</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45527</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45528</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45529</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45530</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45531</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>日活跃2!$G$2:$G$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="4" c:formatCode="0_ ">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0_ ">
-                  <c:v>75.0273224043716</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="0_ ">
-                  <c:v>84.5625</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="0_ ">
-                  <c:v>96.9867310012063</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="0_ ">
-                  <c:v>102.246861924686</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="0_ ">
-                  <c:v>107.371951219512</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="0_ ">
-                  <c:v>107.674123788218</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="0_ ">
-                  <c:v>102.473537604457</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="0_ ">
-                  <c:v>108.681075888569</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="0_ ">
-                  <c:v>105.14588688946</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="0_ ">
-                  <c:v>103.033615901783</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="0_ ">
-                  <c:v>100.468194070081</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="0_ ">
-                  <c:v>108.987778958555</c:v>
+                  <c:v>215.458253087119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19872,98 +17867,6 @@
       <c:legendPos val="b"/>
       <c:legendEntry>
         <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
@@ -29534,8 +27437,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8836660" y="473710"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9762490" y="450850"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29564,8 +27467,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8806180" y="589280"/>
-        <a:ext cx="11431905" cy="5311140"/>
+        <a:off x="9732010" y="554990"/>
+        <a:ext cx="12696190" cy="4979670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29594,8 +27497,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8811260" y="6186170"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9737090" y="5808980"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29629,8 +27532,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3373120" y="20403820"/>
-        <a:ext cx="12246610" cy="6044565"/>
+        <a:off x="3729990" y="19135090"/>
+        <a:ext cx="13565505" cy="5667375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29664,8 +27567,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23703915" y="275590"/>
-        <a:ext cx="8799830" cy="5819140"/>
+        <a:off x="26319480" y="260350"/>
+        <a:ext cx="9759950" cy="5321935"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29683,15 +27586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>33655</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -29699,8 +27602,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6589395" y="133350"/>
-        <a:ext cx="8778875" cy="5020945"/>
+        <a:off x="7384415" y="942975"/>
+        <a:ext cx="9032875" cy="6110605"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29734,8 +27637,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6337935" y="117475"/>
-        <a:ext cx="6707505" cy="5530850"/>
+        <a:off x="6979920" y="117475"/>
+        <a:ext cx="7485380" cy="5187950"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29769,8 +27672,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8887460" y="170180"/>
-        <a:ext cx="5092065" cy="6658610"/>
+        <a:off x="9860280" y="170180"/>
+        <a:ext cx="5621655" cy="6235700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29804,8 +27707,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6602095" y="109220"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7328535" y="109220"/>
+        <a:ext cx="9937115" cy="4862830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29834,8 +27737,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6851015" y="5410200"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7577455" y="5078730"/>
+        <a:ext cx="10005060" cy="4865370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -30518,7 +28421,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -30529,9 +28432,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="12.8888888888889"/>
+    <col min="14" max="14" width="15.225" customWidth="1"/>
+    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34944,26 +32847,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="11.775" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556"/>
-    <col min="14" max="14" width="12.8888888888889"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="17.5583333333333"/>
+    <col min="14" max="14" width="12.8916666666667"/>
+    <col min="15" max="15" width="11.775" customWidth="1"/>
+    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="11.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37853,32 +35756,32 @@
       <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889"/>
-    <col min="2" max="2" width="17.5555555555556"/>
+    <col min="1" max="1" width="12.8916666666667"/>
+    <col min="2" max="2" width="17.5583333333333"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889"/>
-    <col min="5" max="5" width="17.5555555555556"/>
-    <col min="6" max="6" width="11.7777777777778"/>
-    <col min="7" max="7" width="17.5555555555556"/>
-    <col min="8" max="8" width="11.7777777777778"/>
-    <col min="9" max="9" width="12.8888888888889"/>
-    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778"/>
+    <col min="4" max="4" width="11.8916666666667"/>
+    <col min="5" max="5" width="17.5583333333333"/>
+    <col min="6" max="6" width="11.775"/>
+    <col min="7" max="7" width="17.5583333333333"/>
+    <col min="8" max="8" width="11.775"/>
+    <col min="9" max="9" width="12.8916666666667"/>
+    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.775"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444"/>
+    <col min="13" max="13" width="16.4416666666667"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5555555555556"/>
-    <col min="20" max="20" width="12.8888888888889"/>
-    <col min="25" max="26" width="12.8888888888889"/>
+    <col min="19" max="19" width="10.5583333333333"/>
+    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="25" max="26" width="12.8916666666667"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="2:28">
+    <row r="1" ht="15" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -41358,11 +39261,11 @@
   <sheetPr/>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -43570,27 +41473,75 @@
         <v>2247.08161272321</v>
       </c>
     </row>
-    <row r="66" spans="3:11">
-      <c r="C66" s="6"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-    </row>
-    <row r="67" spans="3:11">
-      <c r="C67" s="6"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>2717</v>
+      </c>
+      <c r="B66" s="5">
+        <v>45541</v>
+      </c>
+      <c r="C66" s="6">
+        <v>260.4473441</v>
+      </c>
+      <c r="D66" s="8">
+        <v>2</v>
+      </c>
+      <c r="E66" s="6">
+        <v>46.771944216571</v>
+      </c>
+      <c r="F66" s="6">
+        <v>44.6839109926169</v>
+      </c>
+      <c r="G66" s="6">
+        <v>18.3746923707957</v>
+      </c>
+      <c r="H66" s="6">
+        <v>19.2099056603774</v>
+      </c>
+      <c r="I66" s="6">
+        <v>35.496564807219</v>
+      </c>
+      <c r="J66" s="6">
+        <v>26.5876230516817</v>
+      </c>
+      <c r="K66" s="6">
+        <v>2260.36556603774</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>2721</v>
+      </c>
+      <c r="B67" s="5">
+        <v>45542</v>
+      </c>
+      <c r="C67" s="6">
+        <v>279.9629154</v>
+      </c>
+      <c r="D67" s="8">
+        <v>4</v>
+      </c>
+      <c r="E67" s="6">
+        <v>40.9659309636853</v>
+      </c>
+      <c r="F67" s="6">
+        <v>33.8186834338509</v>
+      </c>
+      <c r="G67" s="6">
+        <v>32.9470678814321</v>
+      </c>
+      <c r="H67" s="6">
+        <v>15.1661106120878</v>
+      </c>
+      <c r="I67" s="6">
+        <v>16.7350186064417</v>
+      </c>
+      <c r="J67" s="6">
+        <v>25.6254972411138</v>
+      </c>
+      <c r="K67" s="6">
+        <v>2268.46663672527</v>
+      </c>
     </row>
     <row r="68" spans="3:11">
       <c r="C68" s="6"/>
@@ -43752,14 +41703,14 @@
   <sheetPr/>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="12.8888888888889"/>
-    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="3" max="3" width="12.8916666666667"/>
+    <col min="10" max="10" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -44938,13 +42889,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="3:9">
-      <c r="C66" s="8"/>
-      <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="3:9">
-      <c r="C67" s="8"/>
-      <c r="I67" s="6"/>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>2717</v>
+      </c>
+      <c r="B66" s="5">
+        <v>45541</v>
+      </c>
+      <c r="C66" s="8">
+        <v>210.765269244669</v>
+      </c>
+      <c r="I66" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>2721</v>
+      </c>
+      <c r="B67" s="5">
+        <v>45542</v>
+      </c>
+      <c r="C67" s="8">
+        <v>215.458253087119</v>
+      </c>
+      <c r="I67" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="68" spans="3:9">
       <c r="C68" s="8"/>
@@ -44982,13 +42953,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="20" max="20" width="12.8916666666667"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -46304,10 +44275,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8888888888889"/>
-    <col min="7" max="8" width="12.8888888888889"/>
+    <col min="2" max="5" width="12.8916666666667"/>
+    <col min="7" max="8" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14819,14 +14819,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$67</c:f>
+              <c:f>日活跃!$B$37:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -14919,6 +14919,24 @@
                 </c:pt>
                 <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15028,6 +15046,24 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15122,14 +15158,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$67</c:f>
+              <c:f>日活跃!$B$37:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -15222,6 +15258,24 @@
                 </c:pt>
                 <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15326,599 +15380,23 @@
                 <c:pt idx="30">
                   <c:v>279.9629154</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>日活跃!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1天没登录</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>日活跃!$B$37:$B$67</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45523</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45524</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45525</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45526</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45527</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45528</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45529</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45530</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45531</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45532</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45533</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45534</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45535</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45536</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45537</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45538</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45539</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45540</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45541</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45542</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>日活跃!$E$2:$E$105</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>日活跃!$E$37:$E$105</c:f>
-              <c:numCache>
-                <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="69"/>
-                <c:pt idx="0">
-                  <c:v>77.9266220391349</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>77.4548919949174</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85.5385684503127</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>72.7549979175344</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.2663499779054</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71.3598897312198</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>52.6219249781913</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68.2166539522328</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>56.8569603345142</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.931914893617</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>69.3762781186094</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>62.1933474377057</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71.8812557924004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>62.4686271157463</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>62.734474522293</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>64.0298727850977</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>64.4660005709392</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>59.9654636504921</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>60.4252387214821</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44.454845814978</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>61.5423102581208</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>58.5448406405075</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>58.6126153846154</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>87.9674796747967</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44.9501002106994</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32.9435147520725</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>54.1237444196429</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>46.771944216571</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>40.9659309636853</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>日活跃!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2天没登录</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                    <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>日活跃!$B$37:$B$67</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45523</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45524</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45525</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45526</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45527</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45528</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45529</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45530</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45531</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45532</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45533</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45534</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45535</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45536</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45537</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45538</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45539</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45540</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45541</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45542</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>日活跃!$F$2:$F$108</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>日活跃!$F$37:$F$108</c:f>
-              <c:numCache>
-                <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>61.5386199794027</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54.9466327827192</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.2863099374566</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50.9557476051645</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.1302474591251</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54.3349414197105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42.9566734515848</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35.9687811748137</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40.4145420756141</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>38.3404255319149</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40.1175869120654</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45.3167606958157</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35.7863762743281</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>49.5493246708839</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42.3799476797088</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38.7829395729214</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>41.0377390807879</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45.4377482300121</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>36.1321402024129</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37.3420704845815</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>37.4785754605634</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>34.7955184938865</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37.5508717948718</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43.9837398373984</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>58.7273755074773</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>25.4055918850729</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21.9522879464286</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44.6839109926169</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>33.8186834338509</c:v>
+                <c:pt idx="31">
+                  <c:v>269.6729435</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>255.1102293</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>228.6644489</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>226.8383234</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>213.9532571</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>232.2835603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15938,6 +15416,696 @@
         <c:axId val="582454797"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1天没登录</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="95000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:numFmt formatCode="General" sourceLinked="1"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$B$37:$B$73</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m"月"d"日"</c:formatCode>
+                      <c:ptCount val="37"/>
+                      <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45512</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45513</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45514</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45515</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45516</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45517</c:v>
+                      </c:pt>
+                      <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45518</c:v>
+                      </c:pt>
+                      <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45519</c:v>
+                      </c:pt>
+                      <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45520</c:v>
+                      </c:pt>
+                      <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45521</c:v>
+                      </c:pt>
+                      <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45522</c:v>
+                      </c:pt>
+                      <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45523</c:v>
+                      </c:pt>
+                      <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45524</c:v>
+                      </c:pt>
+                      <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45525</c:v>
+                      </c:pt>
+                      <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45526</c:v>
+                      </c:pt>
+                      <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45527</c:v>
+                      </c:pt>
+                      <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45528</c:v>
+                      </c:pt>
+                      <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45529</c:v>
+                      </c:pt>
+                      <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45530</c:v>
+                      </c:pt>
+                      <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45531</c:v>
+                      </c:pt>
+                      <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45532</c:v>
+                      </c:pt>
+                      <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45533</c:v>
+                      </c:pt>
+                      <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45534</c:v>
+                      </c:pt>
+                      <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45535</c:v>
+                      </c:pt>
+                      <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45536</c:v>
+                      </c:pt>
+                      <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45537</c:v>
+                      </c:pt>
+                      <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45538</c:v>
+                      </c:pt>
+                      <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45539</c:v>
+                      </c:pt>
+                      <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45540</c:v>
+                      </c:pt>
+                      <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45541</c:v>
+                      </c:pt>
+                      <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45542</c:v>
+                      </c:pt>
+                      <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45543</c:v>
+                      </c:pt>
+                      <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45544</c:v>
+                      </c:pt>
+                      <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45545</c:v>
+                      </c:pt>
+                      <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45546</c:v>
+                      </c:pt>
+                      <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45547</c:v>
+                      </c:pt>
+                      <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45548</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>日活跃!$E$2:$E$105</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$E$37:$E$105</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0_ </c:formatCode>
+                      <c:ptCount val="69"/>
+                      <c:pt idx="0">
+                        <c:v>77.9266220391349</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>77.4548919949174</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>85.5385684503127</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>72.7549979175344</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>80.2663499779054</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>71.3598897312198</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>52.6219249781913</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>68.2166539522328</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>56.8569603345142</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>55.931914893617</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>69.3762781186094</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>62.1933474377057</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>71.8812557924004</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>62.4686271157463</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>62.734474522293</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>64.0298727850977</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>64.4660005709392</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>59.9654636504921</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>60.4252387214821</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>44.454845814978</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>61.5423102581208</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>58.5448406405075</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>58.6126153846154</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>87.9674796747967</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>44.9501002106994</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>32.9435147520725</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>54.1237444196429</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>46.771944216571</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>40.9659309636853</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>57.2658427097301</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>76.0559649574852</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>47.3631956263861</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>42.2155688622755</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36.7637991049229</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>27.8740272373541</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>2天没登录</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:numFmt formatCode="General" sourceLinked="1"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:ea typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:cs typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                          <a:sym typeface="Microsoft YaHei UI" panose="020B0503020204020204" charset="-122"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$B$37:$B$73</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m"月"d"日"</c:formatCode>
+                      <c:ptCount val="37"/>
+                      <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45512</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45513</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45514</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45515</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45516</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45517</c:v>
+                      </c:pt>
+                      <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45518</c:v>
+                      </c:pt>
+                      <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45519</c:v>
+                      </c:pt>
+                      <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45520</c:v>
+                      </c:pt>
+                      <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45521</c:v>
+                      </c:pt>
+                      <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45522</c:v>
+                      </c:pt>
+                      <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45523</c:v>
+                      </c:pt>
+                      <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45524</c:v>
+                      </c:pt>
+                      <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45525</c:v>
+                      </c:pt>
+                      <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45526</c:v>
+                      </c:pt>
+                      <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45527</c:v>
+                      </c:pt>
+                      <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45528</c:v>
+                      </c:pt>
+                      <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45529</c:v>
+                      </c:pt>
+                      <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45530</c:v>
+                      </c:pt>
+                      <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45531</c:v>
+                      </c:pt>
+                      <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45532</c:v>
+                      </c:pt>
+                      <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45533</c:v>
+                      </c:pt>
+                      <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45534</c:v>
+                      </c:pt>
+                      <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45535</c:v>
+                      </c:pt>
+                      <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45536</c:v>
+                      </c:pt>
+                      <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45537</c:v>
+                      </c:pt>
+                      <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45538</c:v>
+                      </c:pt>
+                      <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45539</c:v>
+                      </c:pt>
+                      <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45540</c:v>
+                      </c:pt>
+                      <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45541</c:v>
+                      </c:pt>
+                      <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45542</c:v>
+                      </c:pt>
+                      <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45543</c:v>
+                      </c:pt>
+                      <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45544</c:v>
+                      </c:pt>
+                      <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45545</c:v>
+                      </c:pt>
+                      <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45546</c:v>
+                      </c:pt>
+                      <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45547</c:v>
+                      </c:pt>
+                      <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45548</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>日活跃!$F$2:$F$108</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>日活跃!$F$37:$F$108</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0_ </c:formatCode>
+                      <c:ptCount val="72"/>
+                      <c:pt idx="0">
+                        <c:v>61.5386199794027</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>54.9466327827192</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50.2863099374566</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50.9557476051645</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50.1302474591251</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>54.3349414197105</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42.9566734515848</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>35.9687811748137</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40.4145420756141</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>38.3404255319149</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>40.1175869120654</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45.3167606958157</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>35.7863762743281</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>49.5493246708839</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>42.3799476797088</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>38.7829395729214</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>41.0377390807879</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>45.4377482300121</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>36.1321402024129</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>37.3420704845815</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>37.4785754605634</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>34.7955184938865</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>37.5508717948718</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43.9837398373984</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>58.7273755074773</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>25.4055918850729</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>21.9522879464286</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>44.6839109926169</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>33.8186834338509</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>29.1881303562059</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>38.448956454522</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>57.3417917375832</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>29.6916167664671</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>26.0661362506216</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>21.3848357111976</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
             <c15:filteredBarSeries>
               <c15:ser>
                 <c:idx val="4"/>
@@ -16034,16 +16202,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$67</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$73</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="31"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16136,6 +16304,24 @@
                       </c:pt>
                       <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45542</c:v>
+                      </c:pt>
+                      <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45543</c:v>
+                      </c:pt>
+                      <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45544</c:v>
+                      </c:pt>
+                      <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45545</c:v>
+                      </c:pt>
+                      <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45546</c:v>
+                      </c:pt>
+                      <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45547</c:v>
+                      </c:pt>
+                      <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45548</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16286,16 +16472,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$67</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$73</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="31"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16388,6 +16574,24 @@
                       </c:pt>
                       <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45542</c:v>
+                      </c:pt>
+                      <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45543</c:v>
+                      </c:pt>
+                      <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45544</c:v>
+                      </c:pt>
+                      <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45545</c:v>
+                      </c:pt>
+                      <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45546</c:v>
+                      </c:pt>
+                      <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45547</c:v>
+                      </c:pt>
+                      <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45548</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16540,16 +16744,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$67</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$73</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="31"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16642,6 +16846,24 @@
                       </c:pt>
                       <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45542</c:v>
+                      </c:pt>
+                      <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45543</c:v>
+                      </c:pt>
+                      <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45544</c:v>
+                      </c:pt>
+                      <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45545</c:v>
+                      </c:pt>
+                      <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45546</c:v>
+                      </c:pt>
+                      <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45547</c:v>
+                      </c:pt>
+                      <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45548</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16795,16 +17017,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$67</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$73</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="31"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16897,6 +17119,24 @@
                       </c:pt>
                       <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45542</c:v>
+                      </c:pt>
+                      <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45543</c:v>
+                      </c:pt>
+                      <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45544</c:v>
+                      </c:pt>
+                      <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45545</c:v>
+                      </c:pt>
+                      <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45546</c:v>
+                      </c:pt>
+                      <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45547</c:v>
+                      </c:pt>
+                      <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45548</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17047,16 +17287,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$67</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$67</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$73</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="31"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17149,6 +17389,24 @@
                       </c:pt>
                       <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45542</c:v>
+                      </c:pt>
+                      <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45543</c:v>
+                      </c:pt>
+                      <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45544</c:v>
+                      </c:pt>
+                      <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45545</c:v>
+                      </c:pt>
+                      <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45546</c:v>
+                      </c:pt>
+                      <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45547</c:v>
+                      </c:pt>
+                      <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45548</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17541,10 +17799,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$37:$B$67</c:f>
+              <c:f>日活跃2!$B$37:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -17637,16 +17895,34 @@
                 </c:pt>
                 <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$37:$C$67</c:f>
+              <c:f>日活跃2!$C$37:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>307.240555796786</c:v>
                 </c:pt>
@@ -17733,6 +18009,24 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>215.458253087119</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>206.25510620915</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>204.263565891472</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>181.232492997198</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>182.623348611485</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>170.701533087521</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180.229144967332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27437,8 +27731,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9762490" y="450850"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8836660" y="473710"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27467,8 +27761,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9732010" y="554990"/>
-        <a:ext cx="12696190" cy="4979670"/>
+        <a:off x="8806180" y="589280"/>
+        <a:ext cx="11431905" cy="5311140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27497,8 +27791,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9737090" y="5808980"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8811260" y="6186170"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27532,8 +27826,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3729990" y="19135090"/>
-        <a:ext cx="13565505" cy="5667375"/>
+        <a:off x="3373120" y="20403820"/>
+        <a:ext cx="12246610" cy="6044565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27567,8 +27861,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26319480" y="260350"/>
-        <a:ext cx="9759950" cy="5321935"/>
+        <a:off x="23703915" y="275590"/>
+        <a:ext cx="8799830" cy="5819140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27602,8 +27896,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7384415" y="942975"/>
-        <a:ext cx="9032875" cy="6110605"/>
+        <a:off x="6675120" y="1000125"/>
+        <a:ext cx="8149590" cy="6522085"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27626,10 +27920,10 @@
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>169545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -27637,8 +27931,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6979920" y="117475"/>
-        <a:ext cx="7485380" cy="5187950"/>
+        <a:off x="6337935" y="117475"/>
+        <a:ext cx="7248525" cy="5538470"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27672,8 +27966,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9860280" y="170180"/>
-        <a:ext cx="5621655" cy="6235700"/>
+        <a:off x="8887460" y="170180"/>
+        <a:ext cx="5092065" cy="6658610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27707,8 +28001,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7328535" y="109220"/>
-        <a:ext cx="9937115" cy="4862830"/>
+        <a:off x="6602095" y="109220"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27737,8 +28031,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7577455" y="5078730"/>
-        <a:ext cx="10005060" cy="4865370"/>
+        <a:off x="6851015" y="5410200"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28421,7 +28715,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -28432,9 +28726,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.225" customWidth="1"/>
-    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
-    <col min="17" max="17" width="12.8916666666667"/>
+    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -32847,26 +33141,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.775" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5583333333333"/>
-    <col min="14" max="14" width="12.8916666666667"/>
-    <col min="15" max="15" width="11.775" customWidth="1"/>
-    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556"/>
+    <col min="14" max="14" width="12.8888888888889"/>
+    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.775" customWidth="1"/>
+    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -35752,36 +36046,36 @@
   <sheetPr/>
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView topLeftCell="W19" workbookViewId="0">
-      <selection activeCell="AR13" sqref="AR13"/>
+    <sheetView topLeftCell="W34" workbookViewId="0">
+      <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.8916666666667"/>
-    <col min="2" max="2" width="17.5583333333333"/>
+    <col min="1" max="1" width="12.8888888888889"/>
+    <col min="2" max="2" width="17.5555555555556"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8916666666667"/>
-    <col min="5" max="5" width="17.5583333333333"/>
-    <col min="6" max="6" width="11.775"/>
-    <col min="7" max="7" width="17.5583333333333"/>
-    <col min="8" max="8" width="11.775"/>
-    <col min="9" max="9" width="12.8916666666667"/>
-    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.775"/>
+    <col min="4" max="4" width="11.8888888888889"/>
+    <col min="5" max="5" width="17.5555555555556"/>
+    <col min="6" max="6" width="11.7777777777778"/>
+    <col min="7" max="7" width="17.5555555555556"/>
+    <col min="8" max="8" width="11.7777777777778"/>
+    <col min="9" max="9" width="12.8888888888889"/>
+    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4416666666667"/>
+    <col min="13" max="13" width="16.4444444444444"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5583333333333"/>
-    <col min="20" max="20" width="12.8916666666667"/>
-    <col min="25" max="26" width="12.8916666666667"/>
+    <col min="19" max="19" width="10.5555555555556"/>
+    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="25" max="26" width="12.8888888888889"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:28">
+    <row r="1" ht="16.2" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -39259,13 +39553,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -41543,70 +41837,219 @@
         <v>2268.46663672527</v>
       </c>
     </row>
-    <row r="68" spans="3:11">
-      <c r="C68" s="6"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-    </row>
-    <row r="69" spans="3:11">
-      <c r="C69" s="6"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-    </row>
-    <row r="70" spans="3:11">
-      <c r="C70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-    </row>
-    <row r="71" spans="3:11">
-      <c r="C71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-    </row>
-    <row r="72" spans="3:11">
-      <c r="C72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-    </row>
-    <row r="73" spans="3:11">
-      <c r="C73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>2723</v>
+      </c>
+      <c r="B68" s="5">
+        <v>45543</v>
+      </c>
+      <c r="C68" s="6">
+        <v>269.6729435</v>
+      </c>
+      <c r="D68" s="8">
+        <v>2</v>
+      </c>
+      <c r="E68" s="6">
+        <v>57.2658427097301</v>
+      </c>
+      <c r="F68" s="6">
+        <v>29.1881303562059</v>
+      </c>
+      <c r="G68" s="6">
+        <v>24.9050894887192</v>
+      </c>
+      <c r="H68" s="6">
+        <v>30.4571795021279</v>
+      </c>
+      <c r="I68" s="6">
+        <v>16.3390077537457</v>
+      </c>
+      <c r="J68" s="6">
+        <v>17.9253191861482</v>
+      </c>
+      <c r="K68" s="6">
+        <v>2265.72861890048</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>2725</v>
+      </c>
+      <c r="B69" s="5">
+        <v>45544</v>
+      </c>
+      <c r="C69" s="6">
+        <v>255.1102293</v>
+      </c>
+      <c r="D69" s="8">
+        <v>2</v>
+      </c>
+      <c r="E69" s="6">
+        <v>76.0559649574852</v>
+      </c>
+      <c r="F69" s="6">
+        <v>38.448956454522</v>
+      </c>
+      <c r="G69" s="6">
+        <v>29.6085029631538</v>
+      </c>
+      <c r="H69" s="6">
+        <v>23.995516619428</v>
+      </c>
+      <c r="I69" s="6">
+        <v>29.8891522803401</v>
+      </c>
+      <c r="J69" s="6">
+        <v>15.7163617624324</v>
+      </c>
+      <c r="K69" s="6">
+        <v>2250.38654985828</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>2726</v>
+      </c>
+      <c r="B70" s="5">
+        <v>45545</v>
+      </c>
+      <c r="C70" s="6">
+        <v>228.6644489</v>
+      </c>
+      <c r="D70" s="8">
+        <v>1</v>
+      </c>
+      <c r="E70" s="6">
+        <v>47.3631956263861</v>
+      </c>
+      <c r="F70" s="6">
+        <v>57.3417917375832</v>
+      </c>
+      <c r="G70" s="6">
+        <v>36.5413378719893</v>
+      </c>
+      <c r="H70" s="6">
+        <v>22.3464335447935</v>
+      </c>
+      <c r="I70" s="6">
+        <v>22.4869771519934</v>
+      </c>
+      <c r="J70" s="6">
+        <v>30.3574191551911</v>
+      </c>
+      <c r="K70" s="6">
+        <v>2277.64969828253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>2727</v>
+      </c>
+      <c r="B71" s="5">
+        <v>45546</v>
+      </c>
+      <c r="C71" s="6">
+        <v>226.8383234</v>
+      </c>
+      <c r="D71" s="8">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6">
+        <v>42.2155688622755</v>
+      </c>
+      <c r="F71" s="6">
+        <v>29.6916167664671</v>
+      </c>
+      <c r="G71" s="6">
+        <v>54.4580838323353</v>
+      </c>
+      <c r="H71" s="6">
+        <v>31.9431137724551</v>
+      </c>
+      <c r="I71" s="6">
+        <v>21.1077844311377</v>
+      </c>
+      <c r="J71" s="6">
+        <v>20.122754491018</v>
+      </c>
+      <c r="K71" s="6">
+        <v>2297.37125748503</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>2729</v>
+      </c>
+      <c r="B72" s="5">
+        <v>45547</v>
+      </c>
+      <c r="C72" s="6">
+        <v>213.9532571</v>
+      </c>
+      <c r="D72" s="8">
+        <v>2</v>
+      </c>
+      <c r="E72" s="6">
+        <v>36.7637991049229</v>
+      </c>
+      <c r="F72" s="6">
+        <v>26.0661362506216</v>
+      </c>
+      <c r="G72" s="6">
+        <v>26.5181501740427</v>
+      </c>
+      <c r="H72" s="6">
+        <v>54.241670810542</v>
+      </c>
+      <c r="I72" s="6">
+        <v>32.5450024863252</v>
+      </c>
+      <c r="J72" s="6">
+        <v>22.9020387866733</v>
+      </c>
+      <c r="K72" s="6">
+        <v>2311.29786176032</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>2730</v>
+      </c>
+      <c r="B73" s="5">
+        <v>45548</v>
+      </c>
+      <c r="C73" s="6">
+        <v>232.2835603</v>
+      </c>
+      <c r="D73" s="8">
+        <v>1</v>
+      </c>
+      <c r="E73" s="6">
+        <v>27.8740272373541</v>
+      </c>
+      <c r="F73" s="6">
+        <v>21.3848357111976</v>
+      </c>
+      <c r="G73" s="6">
+        <v>21.532317336792</v>
+      </c>
+      <c r="H73" s="6">
+        <v>21.0898724600086</v>
+      </c>
+      <c r="I73" s="6">
+        <v>47.9315283182015</v>
+      </c>
+      <c r="J73" s="6">
+        <v>28.6114353653264</v>
+      </c>
+      <c r="K73" s="6">
+        <v>2327.26005188067</v>
+      </c>
     </row>
     <row r="74" spans="3:11">
       <c r="C74" s="6"/>
+      <c r="D74" s="8"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -41617,6 +42060,7 @@
     </row>
     <row r="75" spans="3:11">
       <c r="C75" s="6"/>
+      <c r="D75" s="8"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -41627,6 +42071,7 @@
     </row>
     <row r="76" spans="3:11">
       <c r="C76" s="6"/>
+      <c r="D76" s="8"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -41637,6 +42082,7 @@
     </row>
     <row r="77" spans="3:11">
       <c r="C77" s="6"/>
+      <c r="D77" s="8"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -41647,6 +42093,7 @@
     </row>
     <row r="78" spans="3:11">
       <c r="C78" s="6"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -41655,7 +42102,8 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
     </row>
-    <row r="79" spans="5:11">
+    <row r="79" spans="4:11">
+      <c r="D79" s="8"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -41664,7 +42112,8 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
     </row>
-    <row r="80" spans="5:11">
+    <row r="80" spans="4:11">
+      <c r="D80" s="8"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -41673,7 +42122,8 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
     </row>
-    <row r="81" spans="5:11">
+    <row r="81" spans="4:11">
+      <c r="D81" s="8"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -41682,7 +42132,8 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
     </row>
-    <row r="82" spans="5:11">
+    <row r="82" spans="4:11">
+      <c r="D82" s="8"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -41690,6 +42141,15 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41701,16 +42161,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="12.8916666666667"/>
-    <col min="10" max="10" width="12.8916666666667"/>
+    <col min="3" max="3" width="12.8888888888889"/>
+    <col min="10" max="10" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -42917,25 +43377,161 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="3:9">
-      <c r="C68" s="8"/>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="3:9">
-      <c r="C69" s="8"/>
-      <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="3:9">
-      <c r="C70" s="8"/>
-      <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="3:9">
-      <c r="C71" s="8"/>
-      <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="3:9">
-      <c r="C72" s="8"/>
-      <c r="I72" s="6"/>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>2723</v>
+      </c>
+      <c r="B68" s="5">
+        <v>45543</v>
+      </c>
+      <c r="C68" s="8">
+        <v>206.25510620915</v>
+      </c>
+      <c r="I68" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>2725</v>
+      </c>
+      <c r="B69" s="5">
+        <v>45544</v>
+      </c>
+      <c r="C69" s="8">
+        <v>204.263565891472</v>
+      </c>
+      <c r="I69" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>2726</v>
+      </c>
+      <c r="B70" s="5">
+        <v>45545</v>
+      </c>
+      <c r="C70" s="8">
+        <v>181.232492997198</v>
+      </c>
+      <c r="I70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>2727</v>
+      </c>
+      <c r="B71" s="5">
+        <v>45546</v>
+      </c>
+      <c r="C71" s="8">
+        <v>182.623348611485</v>
+      </c>
+      <c r="I71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>2729</v>
+      </c>
+      <c r="B72" s="5">
+        <v>45547</v>
+      </c>
+      <c r="C72" s="8">
+        <v>170.701533087521</v>
+      </c>
+      <c r="I72" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>2730</v>
+      </c>
+      <c r="B73" s="5">
+        <v>45548</v>
+      </c>
+      <c r="C73" s="8">
+        <v>180.229144967332</v>
+      </c>
+      <c r="I73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9">
+      <c r="C74" s="8"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="3:9">
+      <c r="C75" s="8"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="3:9">
+      <c r="C76" s="8"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="3:9">
+      <c r="C77" s="8"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="3:9">
+      <c r="C78" s="8"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="3:9">
+      <c r="C79" s="8"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="3:9">
+      <c r="C80" s="8"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="3:9">
+      <c r="C81" s="8"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="3:9">
+      <c r="C82" s="8"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="3:9">
+      <c r="C83" s="8"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="3:9">
+      <c r="C84" s="8"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="3:9">
+      <c r="C85" s="8"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="3:9">
+      <c r="C86" s="8"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="3:9">
+      <c r="C87" s="8"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="3:9">
+      <c r="C88" s="8"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="8"/>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="8"/>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -42953,13 +43549,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="20" max="20" width="12.8888888888889"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -44275,10 +44871,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8916666666667"/>
-    <col min="7" max="8" width="12.8916666666667"/>
+    <col min="2" max="5" width="12.8888888888889"/>
+    <col min="7" max="8" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14819,14 +14819,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$73</c:f>
+              <c:f>日活跃!$B$37:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -14937,6 +14937,15 @@
                 </c:pt>
                 <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15064,6 +15073,15 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15158,14 +15176,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$73</c:f>
+              <c:f>日活跃!$B$37:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -15276,6 +15294,15 @@
                 </c:pt>
                 <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15397,6 +15424,15 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>232.2835603</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>239.5943445</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>260.1033932</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>257.075718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15512,16 +15548,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$73</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$76</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -15632,6 +15668,15 @@
                       </c:pt>
                       <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45548</c:v>
+                      </c:pt>
+                      <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45549</c:v>
+                      </c:pt>
+                      <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45550</c:v>
+                      </c:pt>
+                      <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45551</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15755,6 +15800,15 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>27.8740272373541</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>41.9676092544987</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>41.639050512332</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>53.6445265235942</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15857,16 +15911,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$73</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$76</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -15977,6 +16031,15 @@
                       </c:pt>
                       <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45548</c:v>
+                      </c:pt>
+                      <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45549</c:v>
+                      </c:pt>
+                      <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45550</c:v>
+                      </c:pt>
+                      <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45551</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16100,6 +16163,15 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>21.3848357111976</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>15.0185089974293</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>26.7277689099428</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>29.6089919123734</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16202,16 +16274,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$73</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$76</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16322,6 +16394,15 @@
                       </c:pt>
                       <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45548</c:v>
+                      </c:pt>
+                      <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45549</c:v>
+                      </c:pt>
+                      <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45550</c:v>
+                      </c:pt>
+                      <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45551</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16472,16 +16553,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$73</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$76</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16592,6 +16673,15 @@
                       </c:pt>
                       <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45548</c:v>
+                      </c:pt>
+                      <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45549</c:v>
+                      </c:pt>
+                      <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45550</c:v>
+                      </c:pt>
+                      <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45551</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16744,16 +16834,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$73</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$76</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16864,6 +16954,15 @@
                       </c:pt>
                       <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45548</c:v>
+                      </c:pt>
+                      <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45549</c:v>
+                      </c:pt>
+                      <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45550</c:v>
+                      </c:pt>
+                      <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45551</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17017,16 +17116,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$73</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$76</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17137,6 +17236,15 @@
                       </c:pt>
                       <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45548</c:v>
+                      </c:pt>
+                      <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45549</c:v>
+                      </c:pt>
+                      <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45550</c:v>
+                      </c:pt>
+                      <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45551</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17287,16 +17395,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$73</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$73</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$76</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17407,6 +17515,15 @@
                       </c:pt>
                       <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45548</c:v>
+                      </c:pt>
+                      <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45549</c:v>
+                      </c:pt>
+                      <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45550</c:v>
+                      </c:pt>
+                      <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45551</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17799,10 +17916,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$37:$B$73</c:f>
+              <c:f>日活跃2!$B$37:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -17913,16 +18030,25 @@
                 </c:pt>
                 <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$37:$C$73</c:f>
+              <c:f>日活跃2!$C$37:$C$76</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>307.240555796786</c:v>
                 </c:pt>
@@ -18027,6 +18153,15 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>180.229144967332</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>187.733793353913</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>200.832883126238</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>193.575293056807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27731,8 +27866,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8836660" y="473710"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9762490" y="450850"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27761,8 +27896,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8806180" y="589280"/>
-        <a:ext cx="11431905" cy="5311140"/>
+        <a:off x="9732010" y="554990"/>
+        <a:ext cx="12696190" cy="4979670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27791,8 +27926,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8811260" y="6186170"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9737090" y="5808980"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27826,8 +27961,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3373120" y="20403820"/>
-        <a:ext cx="12246610" cy="6044565"/>
+        <a:off x="3729990" y="19135090"/>
+        <a:ext cx="13565505" cy="5667375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27861,8 +27996,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23703915" y="275590"/>
-        <a:ext cx="8799830" cy="5819140"/>
+        <a:off x="26319480" y="260350"/>
+        <a:ext cx="9759950" cy="5321935"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27896,8 +28031,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6675120" y="1000125"/>
-        <a:ext cx="8149590" cy="6522085"/>
+        <a:off x="7384415" y="942975"/>
+        <a:ext cx="9032875" cy="6110605"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27931,8 +28066,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6337935" y="117475"/>
-        <a:ext cx="7248525" cy="5538470"/>
+        <a:off x="6979920" y="117475"/>
+        <a:ext cx="8094345" cy="5195570"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27966,8 +28101,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8887460" y="170180"/>
-        <a:ext cx="5092065" cy="6658610"/>
+        <a:off x="9860280" y="170180"/>
+        <a:ext cx="5621655" cy="6235700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28001,8 +28136,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6602095" y="109220"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7328535" y="109220"/>
+        <a:ext cx="9937115" cy="4862830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28031,8 +28166,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6851015" y="5410200"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7577455" y="5078730"/>
+        <a:ext cx="10005060" cy="4865370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28715,7 +28850,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -28726,9 +28861,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="12.8888888888889"/>
+    <col min="14" max="14" width="15.225" customWidth="1"/>
+    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -33141,26 +33276,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="11.775" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556"/>
-    <col min="14" max="14" width="12.8888888888889"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="17.5583333333333"/>
+    <col min="14" max="14" width="12.8916666666667"/>
+    <col min="15" max="15" width="11.775" customWidth="1"/>
+    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="11.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -36046,36 +36181,36 @@
   <sheetPr/>
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView topLeftCell="W34" workbookViewId="0">
+    <sheetView topLeftCell="M34" workbookViewId="0">
       <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889"/>
-    <col min="2" max="2" width="17.5555555555556"/>
+    <col min="1" max="1" width="12.8916666666667"/>
+    <col min="2" max="2" width="17.5583333333333"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889"/>
-    <col min="5" max="5" width="17.5555555555556"/>
-    <col min="6" max="6" width="11.7777777777778"/>
-    <col min="7" max="7" width="17.5555555555556"/>
-    <col min="8" max="8" width="11.7777777777778"/>
-    <col min="9" max="9" width="12.8888888888889"/>
-    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778"/>
+    <col min="4" max="4" width="11.8916666666667"/>
+    <col min="5" max="5" width="17.5583333333333"/>
+    <col min="6" max="6" width="11.775"/>
+    <col min="7" max="7" width="17.5583333333333"/>
+    <col min="8" max="8" width="11.775"/>
+    <col min="9" max="9" width="12.8916666666667"/>
+    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.775"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444"/>
+    <col min="13" max="13" width="16.4416666666667"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5555555555556"/>
-    <col min="20" max="20" width="12.8888888888889"/>
-    <col min="25" max="26" width="12.8888888888889"/>
+    <col min="19" max="19" width="10.5583333333333"/>
+    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="25" max="26" width="12.8916666666667"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="2:28">
+    <row r="1" ht="15" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -39555,11 +39690,11 @@
   <sheetPr/>
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -42047,38 +42182,110 @@
         <v>2327.26005188067</v>
       </c>
     </row>
-    <row r="74" spans="3:11">
-      <c r="C74" s="6"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-    </row>
-    <row r="75" spans="3:11">
-      <c r="C75" s="6"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-    </row>
-    <row r="76" spans="3:11">
-      <c r="C76" s="6"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>2732</v>
+      </c>
+      <c r="B74" s="5">
+        <v>45549</v>
+      </c>
+      <c r="C74" s="6">
+        <v>239.5943445</v>
+      </c>
+      <c r="D74" s="8">
+        <v>2</v>
+      </c>
+      <c r="E74" s="6">
+        <v>41.9676092544987</v>
+      </c>
+      <c r="F74" s="6">
+        <v>15.0185089974293</v>
+      </c>
+      <c r="G74" s="6">
+        <v>17.4046272493573</v>
+      </c>
+      <c r="H74" s="6">
+        <v>16.5624678663239</v>
+      </c>
+      <c r="I74" s="6">
+        <v>21.1943444730077</v>
+      </c>
+      <c r="J74" s="6">
+        <v>38.0375321336761</v>
+      </c>
+      <c r="K74" s="6">
+        <v>2338.95732647815</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>2735</v>
+      </c>
+      <c r="B75" s="5">
+        <v>45550</v>
+      </c>
+      <c r="C75" s="6">
+        <v>260.1033932</v>
+      </c>
+      <c r="D75" s="8">
+        <v>3</v>
+      </c>
+      <c r="E75" s="6">
+        <v>41.639050512332</v>
+      </c>
+      <c r="F75" s="6">
+        <v>26.7277689099428</v>
+      </c>
+      <c r="G75" s="6">
+        <v>13.6452293908656</v>
+      </c>
+      <c r="H75" s="6">
+        <v>15.3332990062304</v>
+      </c>
+      <c r="I75" s="6">
+        <v>17.7247309613305</v>
+      </c>
+      <c r="J75" s="6">
+        <v>19.9754904484836</v>
+      </c>
+      <c r="K75" s="6">
+        <v>2334.60027804953</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>2739</v>
+      </c>
+      <c r="B76" s="5">
+        <v>45551</v>
+      </c>
+      <c r="C76" s="6">
+        <v>257.075718</v>
+      </c>
+      <c r="D76" s="8">
+        <v>4</v>
+      </c>
+      <c r="E76" s="6">
+        <v>53.6445265235942</v>
+      </c>
+      <c r="F76" s="6">
+        <v>29.6089919123734</v>
+      </c>
+      <c r="G76" s="6">
+        <v>19.8554416353563</v>
+      </c>
+      <c r="H76" s="6">
+        <v>12.1919378462714</v>
+      </c>
+      <c r="I76" s="6">
+        <v>13.0627905495765</v>
+      </c>
+      <c r="J76" s="6">
+        <v>14.9786664968477</v>
+      </c>
+      <c r="K76" s="6">
+        <v>2332.14353945106</v>
+      </c>
     </row>
     <row r="77" spans="3:11">
       <c r="C77" s="6"/>
@@ -42163,14 +42370,14 @@
   <sheetPr/>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="12.8888888888889"/>
-    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="3" max="3" width="12.8916666666667"/>
+    <col min="10" max="10" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -43461,17 +43668,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="3:9">
-      <c r="C74" s="8"/>
-      <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="3:9">
-      <c r="C75" s="8"/>
-      <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="3:9">
-      <c r="C76" s="8"/>
-      <c r="I76" s="6"/>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>2732</v>
+      </c>
+      <c r="B74" s="5">
+        <v>45549</v>
+      </c>
+      <c r="C74" s="8">
+        <v>187.733793353913</v>
+      </c>
+      <c r="I74" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>2735</v>
+      </c>
+      <c r="B75" s="5">
+        <v>45550</v>
+      </c>
+      <c r="C75" s="8">
+        <v>200.832883126238</v>
+      </c>
+      <c r="I75" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>2739</v>
+      </c>
+      <c r="B76" s="5">
+        <v>45551</v>
+      </c>
+      <c r="C76" s="8">
+        <v>193.575293056807</v>
+      </c>
+      <c r="I76" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="77" spans="3:9">
       <c r="C77" s="8"/>
@@ -43549,13 +43786,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="20" max="20" width="12.8916666666667"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -44871,10 +45108,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8888888888889"/>
-    <col min="7" max="8" width="12.8888888888889"/>
+    <col min="2" max="5" width="12.8916666666667"/>
+    <col min="7" max="8" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14819,14 +14819,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$76</c:f>
+              <c:f>日活跃!$B$37:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -14946,6 +14946,15 @@
                 </c:pt>
                 <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15082,6 +15091,15 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15176,14 +15194,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$76</c:f>
+              <c:f>日活跃!$B$37:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -15303,6 +15321,15 @@
                 </c:pt>
                 <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15433,6 +15460,15 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>257.075718</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>246.5980707</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>206.495204</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210.6547556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15548,16 +15584,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$76</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$79</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="43"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -15677,6 +15713,15 @@
                       </c:pt>
                       <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45551</c:v>
+                      </c:pt>
+                      <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45552</c:v>
+                      </c:pt>
+                      <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45553</c:v>
+                      </c:pt>
+                      <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45554</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15809,6 +15854,15 @@
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>53.6445265235942</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>52.0036747818098</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>67.6474309120133</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>38.6562335057532</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15911,16 +15965,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$76</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$79</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="43"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16040,6 +16094,15 @@
                       </c:pt>
                       <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45551</c:v>
+                      </c:pt>
+                      <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45552</c:v>
+                      </c:pt>
+                      <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45553</c:v>
+                      </c:pt>
+                      <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45554</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16172,6 +16235,15 @@
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>29.6089919123734</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>38.7231664369928</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41.4980038367813</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>61.6762377282804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16274,16 +16346,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$76</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$79</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="43"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16403,6 +16475,15 @@
                       </c:pt>
                       <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45551</c:v>
+                      </c:pt>
+                      <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45552</c:v>
+                      </c:pt>
+                      <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45553</c:v>
+                      </c:pt>
+                      <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45554</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16553,16 +16634,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$76</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$79</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="43"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16682,6 +16763,15 @@
                       </c:pt>
                       <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45551</c:v>
+                      </c:pt>
+                      <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45552</c:v>
+                      </c:pt>
+                      <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45553</c:v>
+                      </c:pt>
+                      <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45554</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16834,16 +16924,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$76</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$79</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="43"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16963,6 +17053,15 @@
                       </c:pt>
                       <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45551</c:v>
+                      </c:pt>
+                      <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45552</c:v>
+                      </c:pt>
+                      <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45553</c:v>
+                      </c:pt>
+                      <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45554</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17116,16 +17215,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$76</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$79</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="43"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17245,6 +17344,15 @@
                       </c:pt>
                       <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45551</c:v>
+                      </c:pt>
+                      <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45552</c:v>
+                      </c:pt>
+                      <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45553</c:v>
+                      </c:pt>
+                      <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45554</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17395,16 +17503,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$76</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$76</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$79</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="43"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17524,6 +17632,15 @@
                       </c:pt>
                       <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45551</c:v>
+                      </c:pt>
+                      <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45552</c:v>
+                      </c:pt>
+                      <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45553</c:v>
+                      </c:pt>
+                      <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45554</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17916,10 +18033,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$37:$B$76</c:f>
+              <c:f>日活跃2!$B$37:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -18039,16 +18156,25 @@
                 </c:pt>
                 <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$37:$C$76</c:f>
+              <c:f>日活跃2!$C$37:$C$79</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>307.240555796786</c:v>
                 </c:pt>
@@ -18162,6 +18288,15 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>193.575293056807</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>190.073197180553</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>168.043219485395</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>173.709377901578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27866,8 +28001,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9762490" y="450850"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8836660" y="473710"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27896,8 +28031,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9732010" y="554990"/>
-        <a:ext cx="12696190" cy="4979670"/>
+        <a:off x="8806180" y="589280"/>
+        <a:ext cx="11431905" cy="5311140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27926,8 +28061,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9737090" y="5808980"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8811260" y="6186170"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27961,8 +28096,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3729990" y="19135090"/>
-        <a:ext cx="13565505" cy="5667375"/>
+        <a:off x="3373120" y="20403820"/>
+        <a:ext cx="12246610" cy="6044565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27996,8 +28131,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26319480" y="260350"/>
-        <a:ext cx="9759950" cy="5321935"/>
+        <a:off x="23703915" y="275590"/>
+        <a:ext cx="8799830" cy="5819140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28031,8 +28166,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7384415" y="942975"/>
-        <a:ext cx="9032875" cy="6110605"/>
+        <a:off x="6675120" y="1000125"/>
+        <a:ext cx="8149590" cy="6522085"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28066,8 +28201,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6979920" y="117475"/>
-        <a:ext cx="8094345" cy="5195570"/>
+        <a:off x="6337935" y="117475"/>
+        <a:ext cx="7248525" cy="5538470"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28101,8 +28236,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9860280" y="170180"/>
-        <a:ext cx="5621655" cy="6235700"/>
+        <a:off x="8887460" y="170180"/>
+        <a:ext cx="5092065" cy="6658610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28136,8 +28271,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7328535" y="109220"/>
-        <a:ext cx="9937115" cy="4862830"/>
+        <a:off x="6602095" y="109220"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28166,8 +28301,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7577455" y="5078730"/>
-        <a:ext cx="10005060" cy="4865370"/>
+        <a:off x="6851015" y="5410200"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28850,7 +28985,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -28861,9 +28996,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.225" customWidth="1"/>
-    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
-    <col min="17" max="17" width="12.8916666666667"/>
+    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -33276,26 +33411,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.775" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5583333333333"/>
-    <col min="14" max="14" width="12.8916666666667"/>
-    <col min="15" max="15" width="11.775" customWidth="1"/>
-    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556"/>
+    <col min="14" max="14" width="12.8888888888889"/>
+    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.775" customWidth="1"/>
+    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -36185,32 +36320,32 @@
       <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.8916666666667"/>
-    <col min="2" max="2" width="17.5583333333333"/>
+    <col min="1" max="1" width="12.8888888888889"/>
+    <col min="2" max="2" width="17.5555555555556"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8916666666667"/>
-    <col min="5" max="5" width="17.5583333333333"/>
-    <col min="6" max="6" width="11.775"/>
-    <col min="7" max="7" width="17.5583333333333"/>
-    <col min="8" max="8" width="11.775"/>
-    <col min="9" max="9" width="12.8916666666667"/>
-    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.775"/>
+    <col min="4" max="4" width="11.8888888888889"/>
+    <col min="5" max="5" width="17.5555555555556"/>
+    <col min="6" max="6" width="11.7777777777778"/>
+    <col min="7" max="7" width="17.5555555555556"/>
+    <col min="8" max="8" width="11.7777777777778"/>
+    <col min="9" max="9" width="12.8888888888889"/>
+    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4416666666667"/>
+    <col min="13" max="13" width="16.4444444444444"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5583333333333"/>
-    <col min="20" max="20" width="12.8916666666667"/>
-    <col min="25" max="26" width="12.8916666666667"/>
+    <col min="19" max="19" width="10.5555555555556"/>
+    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="25" max="26" width="12.8888888888889"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:28">
+    <row r="1" ht="16.2" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -39688,13 +39823,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -42287,39 +42422,113 @@
         <v>2332.14353945106</v>
       </c>
     </row>
-    <row r="77" spans="3:11">
-      <c r="C77" s="6"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-    </row>
-    <row r="78" spans="3:11">
-      <c r="C78" s="6"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-    </row>
-    <row r="79" spans="4:11">
-      <c r="D79" s="8"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-    </row>
-    <row r="80" spans="4:11">
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>2741</v>
+      </c>
+      <c r="B77" s="5">
+        <v>45552</v>
+      </c>
+      <c r="C77" s="6">
+        <v>246.5980707</v>
+      </c>
+      <c r="D77" s="8">
+        <v>2</v>
+      </c>
+      <c r="E77" s="6">
+        <v>52.0036747818098</v>
+      </c>
+      <c r="F77" s="6">
+        <v>38.7231664369928</v>
+      </c>
+      <c r="G77" s="6">
+        <v>26.0018373909049</v>
+      </c>
+      <c r="H77" s="6">
+        <v>17.8937375593324</v>
+      </c>
+      <c r="I77" s="6">
+        <v>9.22645842903078</v>
+      </c>
+      <c r="J77" s="6">
+        <v>11.8825600979942</v>
+      </c>
+      <c r="K77" s="6">
+        <v>2336.5306997397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>2743</v>
+      </c>
+      <c r="B78" s="5">
+        <v>45553</v>
+      </c>
+      <c r="C78" s="6">
+        <v>206.495204</v>
+      </c>
+      <c r="D78" s="8">
+        <v>2</v>
+      </c>
+      <c r="E78" s="6">
+        <v>67.6474309120133</v>
+      </c>
+      <c r="F78" s="6">
+        <v>41.4980038367813</v>
+      </c>
+      <c r="G78" s="6">
+        <v>33.6815990045108</v>
+      </c>
+      <c r="H78" s="6">
+        <v>28.2811738476694</v>
+      </c>
+      <c r="I78" s="6">
+        <v>14.6379945040701</v>
+      </c>
+      <c r="J78" s="6">
+        <v>10.658733862187</v>
+      </c>
+      <c r="K78" s="6">
+        <v>2334.26271581895</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>2744</v>
+      </c>
+      <c r="B79" s="5">
+        <v>45554</v>
+      </c>
+      <c r="C79" s="6">
+        <v>210.6547556</v>
+      </c>
+      <c r="D79" s="8">
+        <v>1</v>
+      </c>
+      <c r="E79" s="6">
+        <v>38.6562335057532</v>
+      </c>
+      <c r="F79" s="6">
+        <v>61.6762377282804</v>
+      </c>
+      <c r="G79" s="6">
+        <v>34.4576163834055</v>
+      </c>
+      <c r="H79" s="6">
+        <v>26.6395017417925</v>
+      </c>
+      <c r="I79" s="6">
+        <v>23.5991238256096</v>
+      </c>
+      <c r="J79" s="6">
+        <v>16.0705689855378</v>
+      </c>
+      <c r="K79" s="6">
+        <v>2328.06080439143</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11">
+      <c r="C80" s="6"/>
       <c r="D80" s="8"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -42329,7 +42538,8 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
     </row>
-    <row r="81" spans="4:11">
+    <row r="81" spans="3:11">
+      <c r="C81" s="6"/>
       <c r="D81" s="8"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -42339,7 +42549,8 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
     </row>
-    <row r="82" spans="4:11">
+    <row r="82" spans="3:11">
+      <c r="C82" s="6"/>
       <c r="D82" s="8"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -42349,14 +42560,38 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
     </row>
-    <row r="83" spans="4:4">
+    <row r="83" spans="3:4">
+      <c r="C83" s="6"/>
       <c r="D83" s="8"/>
     </row>
-    <row r="84" spans="4:4">
+    <row r="84" spans="3:4">
+      <c r="C84" s="6"/>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="4:4">
+    <row r="85" spans="3:4">
+      <c r="C85" s="6"/>
       <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="6"/>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="6"/>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="6"/>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -42370,14 +42605,14 @@
   <sheetPr/>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M71" sqref="M71"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="12.8916666666667"/>
-    <col min="10" max="10" width="12.8916666666667"/>
+    <col min="3" max="3" width="12.8888888888889"/>
+    <col min="10" max="10" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -43710,17 +43945,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="3:9">
-      <c r="C77" s="8"/>
-      <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="3:9">
-      <c r="C78" s="8"/>
-      <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="3:9">
-      <c r="C79" s="8"/>
-      <c r="I79" s="6"/>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>2741</v>
+      </c>
+      <c r="B77" s="5">
+        <v>45552</v>
+      </c>
+      <c r="C77" s="8">
+        <v>190.073197180553</v>
+      </c>
+      <c r="I77" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>2743</v>
+      </c>
+      <c r="B78" s="5">
+        <v>45553</v>
+      </c>
+      <c r="C78" s="8">
+        <v>168.043219485395</v>
+      </c>
+      <c r="I78" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>2744</v>
+      </c>
+      <c r="B79" s="5">
+        <v>45554</v>
+      </c>
+      <c r="C79" s="8">
+        <v>173.709377901578</v>
+      </c>
+      <c r="I79" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="3:9">
       <c r="C80" s="8"/>
@@ -43786,13 +44051,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="20" max="20" width="12.8888888888889"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -45108,10 +45373,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8916666666667"/>
-    <col min="7" max="8" width="12.8916666666667"/>
+    <col min="2" max="5" width="12.8888888888889"/>
+    <col min="7" max="8" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14819,14 +14819,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$79</c:f>
+              <c:f>日活跃!$B$37:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -14955,6 +14955,9 @@
                 </c:pt>
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14964,14 +14967,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$D$2:$D$98</c15:sqref>
+                    <c15:sqref>日活跃!$D$2:$D$150</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$D$37:$D$98</c:f>
+              <c:f>日活跃!$D$37:$D$150</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -15099,6 +15102,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -15194,14 +15200,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$79</c:f>
+              <c:f>日活跃!$B$37:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -15330,6 +15336,9 @@
                 </c:pt>
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15339,14 +15348,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$C$2:$C$108</c15:sqref>
+                    <c15:sqref>日活跃!$C$2:$C$150</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$C$37:$C$108</c:f>
+              <c:f>日活跃!$C$37:$C$150</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>414.3823378</c:v>
                 </c:pt>
@@ -15469,6 +15478,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>210.6547556</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>198.920832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15584,16 +15596,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$79</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$80</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -15722,6 +15734,9 @@
                       </c:pt>
                       <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45554</c:v>
+                      </c:pt>
+                      <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45555</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15863,6 +15878,9 @@
                       </c:pt>
                       <c:pt idx="42">
                         <c:v>38.6562335057532</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>31.0946910897237</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15965,16 +15983,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$79</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$80</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16103,6 +16121,9 @@
                       </c:pt>
                       <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45554</c:v>
+                      </c:pt>
+                      <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45555</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16244,6 +16265,9 @@
                       </c:pt>
                       <c:pt idx="42">
                         <c:v>61.6762377282804</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>25.5572803477181</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16346,16 +16370,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$79</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$80</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16484,6 +16508,9 @@
                       </c:pt>
                       <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45554</c:v>
+                      </c:pt>
+                      <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45555</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16634,16 +16661,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$79</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$80</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16772,6 +16799,9 @@
                       </c:pt>
                       <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45554</c:v>
+                      </c:pt>
+                      <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45555</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16924,16 +16954,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$79</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$80</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17062,6 +17092,9 @@
                       </c:pt>
                       <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45554</c:v>
+                      </c:pt>
+                      <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45555</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17215,16 +17248,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$79</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$80</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17353,6 +17386,9 @@
                       </c:pt>
                       <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45554</c:v>
+                      </c:pt>
+                      <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45555</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17503,16 +17539,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$79</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$79</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$80</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17641,6 +17677,9 @@
                       </c:pt>
                       <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45554</c:v>
+                      </c:pt>
+                      <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45555</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18033,10 +18072,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$37:$B$79</c:f>
+              <c:f>日活跃2!$B$37:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -18165,16 +18204,19 @@
                 </c:pt>
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$37:$C$79</c:f>
+              <c:f>日活跃2!$C$37:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>307.240555796786</c:v>
                 </c:pt>
@@ -18297,6 +18339,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>173.709377901578</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>162.481577008106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28001,8 +28046,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8836660" y="473710"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9762490" y="450850"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28031,8 +28076,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8806180" y="589280"/>
-        <a:ext cx="11431905" cy="5311140"/>
+        <a:off x="9732010" y="554990"/>
+        <a:ext cx="12696190" cy="4979670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28061,8 +28106,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8811260" y="6186170"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9737090" y="5808980"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28096,8 +28141,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3373120" y="20403820"/>
-        <a:ext cx="12246610" cy="6044565"/>
+        <a:off x="3729990" y="19135090"/>
+        <a:ext cx="13565505" cy="5667375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28131,8 +28176,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23703915" y="275590"/>
-        <a:ext cx="8799830" cy="5819140"/>
+        <a:off x="26319480" y="260350"/>
+        <a:ext cx="9759950" cy="5321935"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28166,8 +28211,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6675120" y="1000125"/>
-        <a:ext cx="8149590" cy="6522085"/>
+        <a:off x="7384415" y="942975"/>
+        <a:ext cx="9032875" cy="6110605"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28201,8 +28246,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6337935" y="117475"/>
-        <a:ext cx="7248525" cy="5538470"/>
+        <a:off x="6979920" y="117475"/>
+        <a:ext cx="8094345" cy="5195570"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28236,8 +28281,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8887460" y="170180"/>
-        <a:ext cx="5092065" cy="6658610"/>
+        <a:off x="9860280" y="170180"/>
+        <a:ext cx="5621655" cy="6235700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28271,8 +28316,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6602095" y="109220"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7328535" y="109220"/>
+        <a:ext cx="9937115" cy="4862830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28301,8 +28346,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6851015" y="5410200"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7577455" y="5078730"/>
+        <a:ext cx="10005060" cy="4865370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28985,7 +29030,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -28996,9 +29041,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="12.8888888888889"/>
+    <col min="14" max="14" width="15.225" customWidth="1"/>
+    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -33411,26 +33456,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="11.775" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556"/>
-    <col min="14" max="14" width="12.8888888888889"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="17.5583333333333"/>
+    <col min="14" max="14" width="12.8916666666667"/>
+    <col min="15" max="15" width="11.775" customWidth="1"/>
+    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="11.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -36320,32 +36365,32 @@
       <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889"/>
-    <col min="2" max="2" width="17.5555555555556"/>
+    <col min="1" max="1" width="12.8916666666667"/>
+    <col min="2" max="2" width="17.5583333333333"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889"/>
-    <col min="5" max="5" width="17.5555555555556"/>
-    <col min="6" max="6" width="11.7777777777778"/>
-    <col min="7" max="7" width="17.5555555555556"/>
-    <col min="8" max="8" width="11.7777777777778"/>
-    <col min="9" max="9" width="12.8888888888889"/>
-    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778"/>
+    <col min="4" max="4" width="11.8916666666667"/>
+    <col min="5" max="5" width="17.5583333333333"/>
+    <col min="6" max="6" width="11.775"/>
+    <col min="7" max="7" width="17.5583333333333"/>
+    <col min="8" max="8" width="11.775"/>
+    <col min="9" max="9" width="12.8916666666667"/>
+    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.775"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444"/>
+    <col min="13" max="13" width="16.4416666666667"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5555555555556"/>
-    <col min="20" max="20" width="12.8888888888889"/>
-    <col min="25" max="26" width="12.8888888888889"/>
+    <col min="19" max="19" width="10.5583333333333"/>
+    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="25" max="26" width="12.8916666666667"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="2:28">
+    <row r="1" ht="15" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -39825,11 +39870,11 @@
   <sheetPr/>
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -42527,16 +42572,40 @@
         <v>2328.06080439143</v>
       </c>
     </row>
-    <row r="80" spans="3:11">
-      <c r="C80" s="6"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>2745</v>
+      </c>
+      <c r="B80" s="5">
+        <v>45555</v>
+      </c>
+      <c r="C80" s="6">
+        <v>198.920832</v>
+      </c>
+      <c r="D80" s="8">
+        <v>1</v>
+      </c>
+      <c r="E80" s="6">
+        <v>31.0946910897237</v>
+      </c>
+      <c r="F80" s="6">
+        <v>25.5572803477181</v>
+      </c>
+      <c r="G80" s="6">
+        <v>51.5405153678982</v>
+      </c>
+      <c r="H80" s="6">
+        <v>34.2183586877781</v>
+      </c>
+      <c r="I80" s="6">
+        <v>25.1313256752561</v>
+      </c>
+      <c r="J80" s="6">
+        <v>23.8534616578702</v>
+      </c>
+      <c r="K80" s="6">
+        <v>2350.27589775432</v>
+      </c>
     </row>
     <row r="81" spans="3:11">
       <c r="C81" s="6"/>
@@ -42605,14 +42674,14 @@
   <sheetPr/>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="12.8888888888889"/>
-    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="3" max="3" width="12.8916666666667"/>
+    <col min="10" max="10" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -43987,9 +44056,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="3:9">
-      <c r="C80" s="8"/>
-      <c r="I80" s="6"/>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>2745</v>
+      </c>
+      <c r="B80" s="5">
+        <v>45555</v>
+      </c>
+      <c r="C80" s="8">
+        <v>162.481577008106</v>
+      </c>
+      <c r="I80" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="3:9">
       <c r="C81" s="8"/>
@@ -44051,13 +44130,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="20" max="20" width="12.8916666666667"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -45373,10 +45452,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8888888888889"/>
-    <col min="7" max="8" width="12.8888888888889"/>
+    <col min="2" max="5" width="12.8916666666667"/>
+    <col min="7" max="8" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14819,14 +14819,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$80</c:f>
+              <c:f>日活跃!$B$37:$B$86</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -14958,6 +14958,24 @@
                 </c:pt>
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45558</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45559</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45560</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15105,6 +15123,24 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -15200,14 +15236,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$80</c:f>
+              <c:f>日活跃!$B$37:$B$86</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -15339,6 +15375,24 @@
                 </c:pt>
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45558</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45559</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45560</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15481,6 +15535,24 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>198.920832</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>223.4994262</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>215.3174569</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>190.2561394</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>179.6835242</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>187.3484041</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>188.1991939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15596,16 +15668,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$80</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$86</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -15737,6 +15809,24 @@
                       </c:pt>
                       <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45555</c:v>
+                      </c:pt>
+                      <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45556</c:v>
+                      </c:pt>
+                      <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45557</c:v>
+                      </c:pt>
+                      <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45558</c:v>
+                      </c:pt>
+                      <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45559</c:v>
+                      </c:pt>
+                      <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45560</c:v>
+                      </c:pt>
+                      <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45561</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15881,6 +15971,24 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>31.0946910897237</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>33.4286534047437</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>39.586859451414</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>56.7863744388698</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>27.9543612334802</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>35.0210542651699</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>24.1828140339999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15983,16 +16091,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$80</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$86</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16124,6 +16232,24 @@
                       </c:pt>
                       <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45555</c:v>
+                      </c:pt>
+                      <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45556</c:v>
+                      </c:pt>
+                      <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45557</c:v>
+                      </c:pt>
+                      <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45558</c:v>
+                      </c:pt>
+                      <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45559</c:v>
+                      </c:pt>
+                      <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45560</c:v>
+                      </c:pt>
+                      <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45561</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16268,6 +16394,24 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>25.5572803477181</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>18.5520275439939</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>19.1360833510525</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>30.6443094797993</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>38.9422026431718</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>20.5001293259531</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>29.5883842298352</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16370,16 +16514,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$80</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$86</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16511,6 +16655,24 @@
                       </c:pt>
                       <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45555</c:v>
+                      </c:pt>
+                      <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45556</c:v>
+                      </c:pt>
+                      <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45557</c:v>
+                      </c:pt>
+                      <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45558</c:v>
+                      </c:pt>
+                      <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45559</c:v>
+                      </c:pt>
+                      <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45560</c:v>
+                      </c:pt>
+                      <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45561</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16661,16 +16823,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$80</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$86</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16802,6 +16964,24 @@
                       </c:pt>
                       <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45555</c:v>
+                      </c:pt>
+                      <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45556</c:v>
+                      </c:pt>
+                      <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45557</c:v>
+                      </c:pt>
+                      <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45558</c:v>
+                      </c:pt>
+                      <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45559</c:v>
+                      </c:pt>
+                      <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45560</c:v>
+                      </c:pt>
+                      <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45561</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16954,16 +17134,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$80</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$86</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17095,6 +17275,24 @@
                       </c:pt>
                       <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45555</c:v>
+                      </c:pt>
+                      <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45556</c:v>
+                      </c:pt>
+                      <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45557</c:v>
+                      </c:pt>
+                      <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45558</c:v>
+                      </c:pt>
+                      <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45559</c:v>
+                      </c:pt>
+                      <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45560</c:v>
+                      </c:pt>
+                      <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45561</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17248,16 +17446,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$80</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$86</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17389,6 +17587,24 @@
                       </c:pt>
                       <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45555</c:v>
+                      </c:pt>
+                      <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45556</c:v>
+                      </c:pt>
+                      <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45557</c:v>
+                      </c:pt>
+                      <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45558</c:v>
+                      </c:pt>
+                      <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45559</c:v>
+                      </c:pt>
+                      <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45560</c:v>
+                      </c:pt>
+                      <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45561</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17539,16 +17755,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$80</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$80</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$86</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17680,6 +17896,24 @@
                       </c:pt>
                       <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45555</c:v>
+                      </c:pt>
+                      <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45556</c:v>
+                      </c:pt>
+                      <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45557</c:v>
+                      </c:pt>
+                      <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45558</c:v>
+                      </c:pt>
+                      <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45559</c:v>
+                      </c:pt>
+                      <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45560</c:v>
+                      </c:pt>
+                      <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45561</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18072,10 +18306,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$37:$B$80</c:f>
+              <c:f>日活跃2!$B$37:$B$86</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -18207,16 +18441,34 @@
                 </c:pt>
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45558</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45559</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45560</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$37:$C$80</c:f>
+              <c:f>日活跃2!$C$37:$C$86</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>307.240555796786</c:v>
                 </c:pt>
@@ -18342,6 +18594,24 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>162.481577008106</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176.20356862305</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>170.678806368576</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>157.479651978669</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>148.963567839196</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>157.643983859134</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>153.615061998541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28046,8 +28316,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9762490" y="450850"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8836660" y="473710"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28076,8 +28346,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9732010" y="554990"/>
-        <a:ext cx="12696190" cy="4979670"/>
+        <a:off x="8806180" y="589280"/>
+        <a:ext cx="11431905" cy="5311140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28106,8 +28376,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9737090" y="5808980"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8811260" y="6186170"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28141,8 +28411,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3729990" y="19135090"/>
-        <a:ext cx="13565505" cy="5667375"/>
+        <a:off x="3373120" y="20403820"/>
+        <a:ext cx="12246610" cy="6044565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28176,8 +28446,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26319480" y="260350"/>
-        <a:ext cx="9759950" cy="5321935"/>
+        <a:off x="23703915" y="275590"/>
+        <a:ext cx="8799830" cy="5819140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28211,8 +28481,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7384415" y="942975"/>
-        <a:ext cx="9032875" cy="6110605"/>
+        <a:off x="6675120" y="1000125"/>
+        <a:ext cx="8149590" cy="6522085"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28246,8 +28516,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6979920" y="117475"/>
-        <a:ext cx="8094345" cy="5195570"/>
+        <a:off x="6337935" y="117475"/>
+        <a:ext cx="7248525" cy="5538470"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28281,8 +28551,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9860280" y="170180"/>
-        <a:ext cx="5621655" cy="6235700"/>
+        <a:off x="8887460" y="170180"/>
+        <a:ext cx="5092065" cy="6658610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28316,8 +28586,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7328535" y="109220"/>
-        <a:ext cx="9937115" cy="4862830"/>
+        <a:off x="6602095" y="109220"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28346,8 +28616,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7577455" y="5078730"/>
-        <a:ext cx="10005060" cy="4865370"/>
+        <a:off x="6851015" y="5410200"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29030,7 +29300,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -29041,9 +29311,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.225" customWidth="1"/>
-    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
-    <col min="17" max="17" width="12.8916666666667"/>
+    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -33456,26 +33726,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.775" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5583333333333"/>
-    <col min="14" max="14" width="12.8916666666667"/>
-    <col min="15" max="15" width="11.775" customWidth="1"/>
-    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556"/>
+    <col min="14" max="14" width="12.8888888888889"/>
+    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.775" customWidth="1"/>
+    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -36365,32 +36635,32 @@
       <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.8916666666667"/>
-    <col min="2" max="2" width="17.5583333333333"/>
+    <col min="1" max="1" width="12.8888888888889"/>
+    <col min="2" max="2" width="17.5555555555556"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8916666666667"/>
-    <col min="5" max="5" width="17.5583333333333"/>
-    <col min="6" max="6" width="11.775"/>
-    <col min="7" max="7" width="17.5583333333333"/>
-    <col min="8" max="8" width="11.775"/>
-    <col min="9" max="9" width="12.8916666666667"/>
-    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.775"/>
+    <col min="4" max="4" width="11.8888888888889"/>
+    <col min="5" max="5" width="17.5555555555556"/>
+    <col min="6" max="6" width="11.7777777777778"/>
+    <col min="7" max="7" width="17.5555555555556"/>
+    <col min="8" max="8" width="11.7777777777778"/>
+    <col min="9" max="9" width="12.8888888888889"/>
+    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4416666666667"/>
+    <col min="13" max="13" width="16.4444444444444"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5583333333333"/>
-    <col min="20" max="20" width="12.8916666666667"/>
-    <col min="25" max="26" width="12.8916666666667"/>
+    <col min="19" max="19" width="10.5555555555556"/>
+    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="25" max="26" width="12.8888888888889"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:28">
+    <row r="1" ht="16.2" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -39868,13 +40138,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -42607,60 +42877,760 @@
         <v>2350.27589775432</v>
       </c>
     </row>
-    <row r="81" spans="3:11">
-      <c r="C81" s="6"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-    </row>
-    <row r="82" spans="3:11">
-      <c r="C82" s="6"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-    </row>
-    <row r="83" spans="3:4">
-      <c r="C83" s="6"/>
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84" spans="3:4">
-      <c r="C84" s="6"/>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85" spans="3:4">
-      <c r="C85" s="6"/>
-      <c r="D85" s="8"/>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="6"/>
-    </row>
-    <row r="87" spans="3:3">
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>2748</v>
+      </c>
+      <c r="B81" s="5">
+        <v>45556</v>
+      </c>
+      <c r="C81" s="6">
+        <v>223.4994262</v>
+      </c>
+      <c r="D81" s="8">
+        <v>3</v>
+      </c>
+      <c r="E81" s="6">
+        <v>33.4286534047437</v>
+      </c>
+      <c r="F81" s="6">
+        <v>18.5520275439939</v>
+      </c>
+      <c r="G81" s="6">
+        <v>22.4024483550115</v>
+      </c>
+      <c r="H81" s="6">
+        <v>35.528882938026</v>
+      </c>
+      <c r="I81" s="6">
+        <v>31.1534047436878</v>
+      </c>
+      <c r="J81" s="6">
+        <v>23.1025248661056</v>
+      </c>
+      <c r="K81" s="6">
+        <v>2354.70734506503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>2750</v>
+      </c>
+      <c r="B82" s="5">
+        <v>45557</v>
+      </c>
+      <c r="C82" s="6">
+        <v>215.3174569</v>
+      </c>
+      <c r="D82" s="8">
+        <v>2</v>
+      </c>
+      <c r="E82" s="6">
+        <v>39.586859451414</v>
+      </c>
+      <c r="F82" s="6">
+        <v>19.1360833510525</v>
+      </c>
+      <c r="G82" s="6">
+        <v>12.4165426323623</v>
+      </c>
+      <c r="H82" s="6">
+        <v>19.1360833510525</v>
+      </c>
+      <c r="I82" s="6">
+        <v>31.4065490112694</v>
+      </c>
+      <c r="J82" s="6">
+        <v>23.3723155432702</v>
+      </c>
+      <c r="K82" s="6">
+        <v>2377.69487561131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>2751</v>
+      </c>
+      <c r="B83" s="5">
+        <v>45558</v>
+      </c>
+      <c r="C83" s="6">
+        <v>190.2561394</v>
+      </c>
+      <c r="D83" s="8">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6">
+        <v>56.7863744388698</v>
+      </c>
+      <c r="F83" s="6">
+        <v>30.6443094797993</v>
+      </c>
+      <c r="G83" s="6">
+        <v>15.9757063638764</v>
+      </c>
+      <c r="H83" s="6">
+        <v>12.0543966200158</v>
+      </c>
+      <c r="I83" s="6">
+        <v>21.2041193556905</v>
+      </c>
+      <c r="J83" s="6">
+        <v>31.9514127277528</v>
+      </c>
+      <c r="K83" s="6">
+        <v>2381.54211777132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>2752</v>
+      </c>
+      <c r="B84" s="5">
+        <v>45559</v>
+      </c>
+      <c r="C84" s="6">
+        <v>179.6835242</v>
+      </c>
+      <c r="D84" s="8">
+        <v>1</v>
+      </c>
+      <c r="E84" s="6">
+        <v>27.9543612334802</v>
+      </c>
+      <c r="F84" s="6">
+        <v>38.9422026431718</v>
+      </c>
+      <c r="G84" s="6">
+        <v>26.984845814978</v>
+      </c>
+      <c r="H84" s="6">
+        <v>15.8354185022026</v>
+      </c>
+      <c r="I84" s="6">
+        <v>12.6037004405286</v>
+      </c>
+      <c r="J84" s="6">
+        <v>19.8750660792952</v>
+      </c>
+      <c r="K84" s="6">
+        <v>2428.63612334802</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>2753</v>
+      </c>
+      <c r="B85" s="5">
+        <v>45560</v>
+      </c>
+      <c r="C85" s="6">
+        <v>187.3484041</v>
+      </c>
+      <c r="D85" s="8">
+        <v>1</v>
+      </c>
+      <c r="E85" s="6">
+        <v>35.0210542651699</v>
+      </c>
+      <c r="F85" s="6">
+        <v>20.5001293259531</v>
+      </c>
+      <c r="G85" s="6">
+        <v>38.0106564585381</v>
+      </c>
+      <c r="H85" s="6">
+        <v>25.0557136206094</v>
+      </c>
+      <c r="I85" s="6">
+        <v>14.9480109668408</v>
+      </c>
+      <c r="J85" s="6">
+        <v>10.9618747090166</v>
+      </c>
+      <c r="K85" s="6">
+        <v>2415.59857224148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>2754</v>
+      </c>
+      <c r="B86" s="5">
+        <v>45561</v>
+      </c>
+      <c r="C86" s="6">
+        <v>188.1991939</v>
+      </c>
+      <c r="D86" s="8">
+        <v>1</v>
+      </c>
+      <c r="E86" s="6">
+        <v>24.1828140339999</v>
+      </c>
+      <c r="F86" s="6">
+        <v>29.5883842298352</v>
+      </c>
+      <c r="G86" s="6">
+        <v>15.2209476566941</v>
+      </c>
+      <c r="H86" s="6">
+        <v>40.1150209269881</v>
+      </c>
+      <c r="I86" s="6">
+        <v>26.1743398956234</v>
+      </c>
+      <c r="J86" s="6">
+        <v>11.9491551697411</v>
+      </c>
+      <c r="K86" s="6">
+        <v>2415.15186276029</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11">
       <c r="C87" s="6"/>
-    </row>
-    <row r="88" spans="3:3">
+      <c r="D87" s="8"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+    </row>
+    <row r="88" spans="3:11">
       <c r="C88" s="6"/>
-    </row>
-    <row r="89" spans="3:3">
+      <c r="D88" s="8"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="3:11">
       <c r="C89" s="6"/>
-    </row>
-    <row r="90" spans="3:3">
+      <c r="D89" s="8"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="3:11">
       <c r="C90" s="6"/>
-    </row>
-    <row r="91" spans="3:3">
+      <c r="D90" s="8"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="3:11">
       <c r="C91" s="6"/>
-    </row>
-    <row r="92" spans="3:3">
+      <c r="D91" s="8"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="3:11">
       <c r="C92" s="6"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="4:11">
+      <c r="D93" s="8"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="4:11">
+      <c r="D94" s="8"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="4:11">
+      <c r="D95" s="8"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="4:11">
+      <c r="D96" s="8"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="4:11">
+      <c r="D97" s="8"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+    </row>
+    <row r="98" spans="4:11">
+      <c r="D98" s="8"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="4:11">
+      <c r="D99" s="8"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="4:11">
+      <c r="D100" s="8"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="4:11">
+      <c r="D101" s="8"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="4:11">
+      <c r="D102" s="8"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="4:11">
+      <c r="D103" s="8"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="4:11">
+      <c r="D104" s="8"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="4:11">
+      <c r="D105" s="8"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="4:11">
+      <c r="D106" s="8"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="4:11">
+      <c r="D107" s="8"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+    </row>
+    <row r="108" spans="4:11">
+      <c r="D108" s="8"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+    </row>
+    <row r="109" spans="4:11">
+      <c r="D109" s="8"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+    </row>
+    <row r="110" spans="4:11">
+      <c r="D110" s="8"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+    </row>
+    <row r="111" spans="4:11">
+      <c r="D111" s="8"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+    </row>
+    <row r="112" spans="4:11">
+      <c r="D112" s="8"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+    </row>
+    <row r="113" spans="5:11">
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+    </row>
+    <row r="114" spans="5:11">
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+    </row>
+    <row r="115" spans="5:11">
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+    </row>
+    <row r="116" spans="5:11">
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+    </row>
+    <row r="117" spans="5:11">
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+    </row>
+    <row r="118" spans="5:11">
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+    </row>
+    <row r="119" spans="5:11">
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+    </row>
+    <row r="120" spans="5:11">
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+    </row>
+    <row r="121" spans="5:11">
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+    </row>
+    <row r="122" spans="5:11">
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+    </row>
+    <row r="123" spans="5:11">
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+    </row>
+    <row r="124" spans="5:11">
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+    </row>
+    <row r="125" spans="5:11">
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+    </row>
+    <row r="126" spans="5:11">
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+    </row>
+    <row r="127" spans="5:11">
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+    </row>
+    <row r="128" spans="5:11">
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+    </row>
+    <row r="129" spans="5:11">
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+    </row>
+    <row r="130" spans="5:11">
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+    </row>
+    <row r="131" spans="5:11">
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+    </row>
+    <row r="132" spans="5:11">
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+    </row>
+    <row r="133" spans="5:11">
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+    </row>
+    <row r="134" spans="5:11">
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+    </row>
+    <row r="135" spans="5:11">
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+    </row>
+    <row r="136" spans="5:11">
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+    </row>
+    <row r="137" spans="5:11">
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+    </row>
+    <row r="138" spans="5:11">
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+    </row>
+    <row r="139" spans="5:11">
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+    </row>
+    <row r="140" spans="5:11">
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+    </row>
+    <row r="141" spans="5:11">
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+    </row>
+    <row r="142" spans="5:11">
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+    </row>
+    <row r="143" spans="5:11">
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -42674,14 +43644,14 @@
   <sheetPr/>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="12.8916666666667"/>
-    <col min="10" max="10" width="12.8916666666667"/>
+    <col min="3" max="3" width="12.8888888888889"/>
+    <col min="10" max="10" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -44070,29 +45040,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="3:9">
-      <c r="C81" s="8"/>
-      <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="3:9">
-      <c r="C82" s="8"/>
-      <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="3:9">
-      <c r="C83" s="8"/>
-      <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="3:9">
-      <c r="C84" s="8"/>
-      <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="3:9">
-      <c r="C85" s="8"/>
-      <c r="I85" s="6"/>
-    </row>
-    <row r="86" spans="3:9">
-      <c r="C86" s="8"/>
-      <c r="I86" s="6"/>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>2748</v>
+      </c>
+      <c r="B81" s="5">
+        <v>45556</v>
+      </c>
+      <c r="C81" s="8">
+        <v>176.20356862305</v>
+      </c>
+      <c r="I81" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>2750</v>
+      </c>
+      <c r="B82" s="5">
+        <v>45557</v>
+      </c>
+      <c r="C82" s="8">
+        <v>170.678806368576</v>
+      </c>
+      <c r="I82" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>2751</v>
+      </c>
+      <c r="B83" s="5">
+        <v>45558</v>
+      </c>
+      <c r="C83" s="8">
+        <v>157.479651978669</v>
+      </c>
+      <c r="I83" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>2752</v>
+      </c>
+      <c r="B84" s="5">
+        <v>45559</v>
+      </c>
+      <c r="C84" s="8">
+        <v>148.963567839196</v>
+      </c>
+      <c r="I84" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>2753</v>
+      </c>
+      <c r="B85" s="5">
+        <v>45560</v>
+      </c>
+      <c r="C85" s="8">
+        <v>157.643983859134</v>
+      </c>
+      <c r="I85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>2754</v>
+      </c>
+      <c r="B86" s="5">
+        <v>45561</v>
+      </c>
+      <c r="C86" s="8">
+        <v>153.615061998541</v>
+      </c>
+      <c r="I86" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="3:9">
       <c r="C87" s="8"/>
@@ -44130,13 +45160,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="20" max="20" width="12.8888888888889"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -45452,10 +46482,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8916666666667"/>
-    <col min="7" max="8" width="12.8916666666667"/>
+    <col min="2" max="5" width="12.8888888888889"/>
+    <col min="7" max="8" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14819,14 +14819,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$86</c:f>
+              <c:f>日活跃!$B$37:$B$87</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -14976,6 +14976,9 @@
                 </c:pt>
                 <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45561</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15142,6 +15145,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15236,14 +15242,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$86</c:f>
+              <c:f>日活跃!$B$37:$B$87</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -15393,6 +15399,9 @@
                 </c:pt>
                 <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45561</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15553,6 +15562,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>188.1991939</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>210.0665802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15668,16 +15680,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$86</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$87</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="51"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -15827,6 +15839,9 @@
                       </c:pt>
                       <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45561</c:v>
+                      </c:pt>
+                      <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45562</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15989,6 +16004,9 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>24.1828140339999</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>25.9905626134301</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16091,16 +16109,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$86</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$87</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="51"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16250,6 +16268,9 @@
                       </c:pt>
                       <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45561</c:v>
+                      </c:pt>
+                      <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45562</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16412,6 +16433,9 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>29.5883842298352</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>17.8506611355976</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16514,16 +16538,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$86</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$87</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="51"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16673,6 +16697,9 @@
                       </c:pt>
                       <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45561</c:v>
+                      </c:pt>
+                      <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45562</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16823,16 +16850,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$86</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$87</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="51"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16982,6 +17009,9 @@
                       </c:pt>
                       <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45561</c:v>
+                      </c:pt>
+                      <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45562</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17134,16 +17164,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$86</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$87</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="51"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17293,6 +17323,9 @@
                       </c:pt>
                       <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45561</c:v>
+                      </c:pt>
+                      <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45562</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17446,16 +17479,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$86</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$87</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="51"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17605,6 +17638,9 @@
                       </c:pt>
                       <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45561</c:v>
+                      </c:pt>
+                      <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45562</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17755,16 +17791,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$86</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$86</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$87</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="51"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17914,6 +17950,9 @@
                       </c:pt>
                       <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45561</c:v>
+                      </c:pt>
+                      <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45562</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18306,10 +18345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$37:$B$86</c:f>
+              <c:f>日活跃2!$B$37:$B$87</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -18459,16 +18498,19 @@
                 </c:pt>
                 <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45561</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$37:$C$86</c:f>
+              <c:f>日活跃2!$C$37:$C$87</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>307.240555796786</c:v>
                 </c:pt>
@@ -18612,6 +18654,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>153.615061998541</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>167.308951454494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28316,8 +28361,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8836660" y="473710"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9762490" y="450850"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28346,8 +28391,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8806180" y="589280"/>
-        <a:ext cx="11431905" cy="5311140"/>
+        <a:off x="9732010" y="554990"/>
+        <a:ext cx="12696190" cy="4979670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28376,8 +28421,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8811260" y="6186170"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9737090" y="5808980"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28411,8 +28456,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3373120" y="20403820"/>
-        <a:ext cx="12246610" cy="6044565"/>
+        <a:off x="3729990" y="19135090"/>
+        <a:ext cx="13565505" cy="5667375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28446,8 +28491,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23703915" y="275590"/>
-        <a:ext cx="8799830" cy="5819140"/>
+        <a:off x="26319480" y="260350"/>
+        <a:ext cx="9759950" cy="5321935"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28481,8 +28526,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6675120" y="1000125"/>
-        <a:ext cx="8149590" cy="6522085"/>
+        <a:off x="7384415" y="942975"/>
+        <a:ext cx="9032875" cy="6110605"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28516,8 +28561,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6337935" y="117475"/>
-        <a:ext cx="7248525" cy="5538470"/>
+        <a:off x="6979920" y="117475"/>
+        <a:ext cx="8094345" cy="5195570"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28551,8 +28596,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8887460" y="170180"/>
-        <a:ext cx="5092065" cy="6658610"/>
+        <a:off x="9860280" y="170180"/>
+        <a:ext cx="5621655" cy="6235700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28586,8 +28631,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6602095" y="109220"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7328535" y="109220"/>
+        <a:ext cx="9937115" cy="4862830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28616,8 +28661,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6851015" y="5410200"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7577455" y="5078730"/>
+        <a:ext cx="10005060" cy="4865370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29300,7 +29345,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -29311,9 +29356,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="12.8888888888889"/>
+    <col min="14" max="14" width="15.225" customWidth="1"/>
+    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -33726,26 +33771,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="11.775" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556"/>
-    <col min="14" max="14" width="12.8888888888889"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="17.5583333333333"/>
+    <col min="14" max="14" width="12.8916666666667"/>
+    <col min="15" max="15" width="11.775" customWidth="1"/>
+    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="11.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -36635,32 +36680,32 @@
       <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889"/>
-    <col min="2" max="2" width="17.5555555555556"/>
+    <col min="1" max="1" width="12.8916666666667"/>
+    <col min="2" max="2" width="17.5583333333333"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889"/>
-    <col min="5" max="5" width="17.5555555555556"/>
-    <col min="6" max="6" width="11.7777777777778"/>
-    <col min="7" max="7" width="17.5555555555556"/>
-    <col min="8" max="8" width="11.7777777777778"/>
-    <col min="9" max="9" width="12.8888888888889"/>
-    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778"/>
+    <col min="4" max="4" width="11.8916666666667"/>
+    <col min="5" max="5" width="17.5583333333333"/>
+    <col min="6" max="6" width="11.775"/>
+    <col min="7" max="7" width="17.5583333333333"/>
+    <col min="8" max="8" width="11.775"/>
+    <col min="9" max="9" width="12.8916666666667"/>
+    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.775"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444"/>
+    <col min="13" max="13" width="16.4416666666667"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5555555555556"/>
-    <col min="20" max="20" width="12.8888888888889"/>
-    <col min="25" max="26" width="12.8888888888889"/>
+    <col min="19" max="19" width="10.5583333333333"/>
+    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="25" max="26" width="12.8916666666667"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="2:28">
+    <row r="1" ht="15" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -40140,11 +40185,11 @@
   <sheetPr/>
   <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -43087,16 +43132,40 @@
         <v>2415.15186276029</v>
       </c>
     </row>
-    <row r="87" spans="3:11">
-      <c r="C87" s="6"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>2756</v>
+      </c>
+      <c r="B87" s="5">
+        <v>45562</v>
+      </c>
+      <c r="C87" s="6">
+        <v>210.0665802</v>
+      </c>
+      <c r="D87" s="8">
+        <v>2</v>
+      </c>
+      <c r="E87" s="6">
+        <v>25.9905626134301</v>
+      </c>
+      <c r="F87" s="6">
+        <v>17.8506611355976</v>
+      </c>
+      <c r="G87" s="6">
+        <v>18.9931034482759</v>
+      </c>
+      <c r="H87" s="6">
+        <v>14.994555353902</v>
+      </c>
+      <c r="I87" s="6">
+        <v>31.9883847549909</v>
+      </c>
+      <c r="J87" s="6">
+        <v>21.8492092299715</v>
+      </c>
+      <c r="K87" s="6">
+        <v>2409.83925330568</v>
+      </c>
     </row>
     <row r="88" spans="3:11">
       <c r="C88" s="6"/>
@@ -43644,14 +43713,14 @@
   <sheetPr/>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="12.8888888888889"/>
-    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="3" max="3" width="12.8916666666667"/>
+    <col min="10" max="10" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -45124,9 +45193,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="3:9">
-      <c r="C87" s="8"/>
-      <c r="I87" s="6"/>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>2756</v>
+      </c>
+      <c r="B87" s="5">
+        <v>45562</v>
+      </c>
+      <c r="C87" s="8">
+        <v>167.308951454494</v>
+      </c>
+      <c r="I87" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="88" spans="3:9">
       <c r="C88" s="8"/>
@@ -45160,13 +45239,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="20" max="20" width="12.8916666666667"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -46482,10 +46561,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8888888888889"/>
-    <col min="7" max="8" width="12.8888888888889"/>
+    <col min="2" max="5" width="12.8916666666667"/>
+    <col min="7" max="8" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14819,14 +14819,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$87</c:f>
+              <c:f>日活跃!$B$37:$B$88</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -14979,6 +14979,9 @@
                 </c:pt>
                 <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45562</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15147,7 +15150,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15242,14 +15248,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$87</c:f>
+              <c:f>日活跃!$B$37:$B$88</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -15402,6 +15408,9 @@
                 </c:pt>
                 <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45562</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15565,6 +15574,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>210.0665802</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>205.2329163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15680,16 +15692,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$87</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$88</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="51"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -15842,6 +15854,9 @@
                       </c:pt>
                       <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45562</c:v>
+                      </c:pt>
+                      <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45563</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16007,6 +16022,9 @@
                       </c:pt>
                       <c:pt idx="50">
                         <c:v>25.9905626134301</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>30.228103946102</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16109,16 +16127,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$87</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$88</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="51"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16271,6 +16289,9 @@
                       </c:pt>
                       <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45562</c:v>
+                      </c:pt>
+                      <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45563</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16436,6 +16457,9 @@
                       </c:pt>
                       <c:pt idx="50">
                         <c:v>17.8506611355976</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>15.9095283926853</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16538,16 +16562,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$87</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$88</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="51"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16700,6 +16724,9 @@
                       </c:pt>
                       <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45562</c:v>
+                      </c:pt>
+                      <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45563</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16850,16 +16877,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$87</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$88</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="51"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17012,6 +17039,9 @@
                       </c:pt>
                       <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45562</c:v>
+                      </c:pt>
+                      <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45563</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17164,16 +17194,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$87</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$88</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="51"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17326,6 +17356,9 @@
                       </c:pt>
                       <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45562</c:v>
+                      </c:pt>
+                      <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45563</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17479,16 +17512,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$87</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$88</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="51"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17641,6 +17674,9 @@
                       </c:pt>
                       <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45562</c:v>
+                      </c:pt>
+                      <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45563</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17791,16 +17827,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$87</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$87</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$88</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="51"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17953,6 +17989,9 @@
                       </c:pt>
                       <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45562</c:v>
+                      </c:pt>
+                      <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45563</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18345,10 +18384,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$37:$B$87</c:f>
+              <c:f>日活跃2!$B$37:$B$88</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -18501,16 +18540,19 @@
                 </c:pt>
                 <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45562</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$37:$C$87</c:f>
+              <c:f>日活跃2!$C$37:$C$88</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>307.240555796786</c:v>
                 </c:pt>
@@ -18657,6 +18699,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>167.308951454494</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>162.808430431802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28361,8 +28406,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9762490" y="450850"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8836660" y="473710"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28391,8 +28436,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9732010" y="554990"/>
-        <a:ext cx="12696190" cy="4979670"/>
+        <a:off x="8806180" y="589280"/>
+        <a:ext cx="11431905" cy="5311140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28421,8 +28466,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9737090" y="5808980"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8811260" y="6186170"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28456,8 +28501,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3729990" y="19135090"/>
-        <a:ext cx="13565505" cy="5667375"/>
+        <a:off x="3373120" y="20403820"/>
+        <a:ext cx="12246610" cy="6044565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28491,8 +28536,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26319480" y="260350"/>
-        <a:ext cx="9759950" cy="5321935"/>
+        <a:off x="23703915" y="275590"/>
+        <a:ext cx="8799830" cy="5819140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28526,8 +28571,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7384415" y="942975"/>
-        <a:ext cx="9032875" cy="6110605"/>
+        <a:off x="6675120" y="1000125"/>
+        <a:ext cx="8149590" cy="6522085"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28561,8 +28606,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6979920" y="117475"/>
-        <a:ext cx="8094345" cy="5195570"/>
+        <a:off x="6337935" y="117475"/>
+        <a:ext cx="7248525" cy="5538470"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28596,8 +28641,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9860280" y="170180"/>
-        <a:ext cx="5621655" cy="6235700"/>
+        <a:off x="8887460" y="170180"/>
+        <a:ext cx="5092065" cy="6658610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28631,8 +28676,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7328535" y="109220"/>
-        <a:ext cx="9937115" cy="4862830"/>
+        <a:off x="6602095" y="109220"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28661,8 +28706,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7577455" y="5078730"/>
-        <a:ext cx="10005060" cy="4865370"/>
+        <a:off x="6851015" y="5410200"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29345,7 +29390,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -29356,9 +29401,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.225" customWidth="1"/>
-    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
-    <col min="17" max="17" width="12.8916666666667"/>
+    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -33771,26 +33816,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.775" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5583333333333"/>
-    <col min="14" max="14" width="12.8916666666667"/>
-    <col min="15" max="15" width="11.775" customWidth="1"/>
-    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556"/>
+    <col min="14" max="14" width="12.8888888888889"/>
+    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.775" customWidth="1"/>
+    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -36680,32 +36725,32 @@
       <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.8916666666667"/>
-    <col min="2" max="2" width="17.5583333333333"/>
+    <col min="1" max="1" width="12.8888888888889"/>
+    <col min="2" max="2" width="17.5555555555556"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8916666666667"/>
-    <col min="5" max="5" width="17.5583333333333"/>
-    <col min="6" max="6" width="11.775"/>
-    <col min="7" max="7" width="17.5583333333333"/>
-    <col min="8" max="8" width="11.775"/>
-    <col min="9" max="9" width="12.8916666666667"/>
-    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.775"/>
+    <col min="4" max="4" width="11.8888888888889"/>
+    <col min="5" max="5" width="17.5555555555556"/>
+    <col min="6" max="6" width="11.7777777777778"/>
+    <col min="7" max="7" width="17.5555555555556"/>
+    <col min="8" max="8" width="11.7777777777778"/>
+    <col min="9" max="9" width="12.8888888888889"/>
+    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4416666666667"/>
+    <col min="13" max="13" width="16.4444444444444"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5583333333333"/>
-    <col min="20" max="20" width="12.8916666666667"/>
-    <col min="25" max="26" width="12.8916666666667"/>
+    <col min="19" max="19" width="10.5555555555556"/>
+    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="25" max="26" width="12.8888888888889"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:28">
+    <row r="1" ht="16.2" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -40185,11 +40230,11 @@
   <sheetPr/>
   <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:B87"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -43134,7 +43179,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="B87" s="5">
         <v>45562</v>
@@ -43143,7 +43188,7 @@
         <v>210.0665802</v>
       </c>
       <c r="D87" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" s="6">
         <v>25.9905626134301</v>
@@ -43167,16 +43212,40 @@
         <v>2409.83925330568</v>
       </c>
     </row>
-    <row r="88" spans="3:11">
-      <c r="C88" s="6"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>2756</v>
+      </c>
+      <c r="B88" s="5">
+        <v>45563</v>
+      </c>
+      <c r="C88" s="6">
+        <v>205.2329163</v>
+      </c>
+      <c r="D88" s="8">
+        <v>1</v>
+      </c>
+      <c r="E88" s="6">
+        <v>30.228103946102</v>
+      </c>
+      <c r="F88" s="6">
+        <v>15.9095283926853</v>
+      </c>
+      <c r="G88" s="6">
+        <v>14.8488931665062</v>
+      </c>
+      <c r="H88" s="6">
+        <v>18.2959576515881</v>
+      </c>
+      <c r="I88" s="6">
+        <v>16.17468719923</v>
+      </c>
+      <c r="J88" s="6">
+        <v>26.5158806544755</v>
+      </c>
+      <c r="K88" s="6">
+        <v>2423.02117420597</v>
+      </c>
     </row>
     <row r="89" spans="3:11">
       <c r="C89" s="6"/>
@@ -43713,14 +43782,14 @@
   <sheetPr/>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="12.8916666666667"/>
-    <col min="10" max="10" width="12.8916666666667"/>
+    <col min="3" max="3" width="12.8888888888889"/>
+    <col min="10" max="10" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -45195,7 +45264,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="B87" s="5">
         <v>45562</v>
@@ -45204,12 +45273,22 @@
         <v>167.308951454494</v>
       </c>
       <c r="I87" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="3:9">
-      <c r="C88" s="8"/>
-      <c r="I88" s="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>2756</v>
+      </c>
+      <c r="B88" s="5">
+        <v>45563</v>
+      </c>
+      <c r="C88" s="8">
+        <v>162.808430431802</v>
+      </c>
+      <c r="I88" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="8"/>
@@ -45239,13 +45318,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="20" max="20" width="12.8888888888889"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -46561,10 +46640,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8916666666667"/>
-    <col min="7" max="8" width="12.8916666666667"/>
+    <col min="2" max="5" width="12.8888888888889"/>
+    <col min="7" max="8" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14819,14 +14819,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$88</c:f>
+              <c:f>日活跃!$B$37:$B$97</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -14982,6 +14982,33 @@
                 </c:pt>
                 <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45563</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45564</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45567</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45568</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45569</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45570</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45571</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15154,6 +15181,27 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15248,14 +15296,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$88</c:f>
+              <c:f>日活跃!$B$37:$B$97</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -15411,6 +15459,33 @@
                 </c:pt>
                 <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45563</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45564</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45567</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45568</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45569</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45570</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45571</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15577,6 +15652,24 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>205.2329163</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>215.5773831</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>236.2980652</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>229.9781604</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>225.9484882</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>220.2139959</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>221.5466342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15692,16 +15785,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$88</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$97</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="61"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -15857,6 +15950,33 @@
                       </c:pt>
                       <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45563</c:v>
+                      </c:pt>
+                      <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45564</c:v>
+                      </c:pt>
+                      <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45565</c:v>
+                      </c:pt>
+                      <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45566</c:v>
+                      </c:pt>
+                      <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45567</c:v>
+                      </c:pt>
+                      <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45568</c:v>
+                      </c:pt>
+                      <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45569</c:v>
+                      </c:pt>
+                      <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45570</c:v>
+                      </c:pt>
+                      <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45571</c:v>
+                      </c:pt>
+                      <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45572</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16025,6 +16145,24 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>30.228103946102</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>38.3056672760512</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>32.5591065640194</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>45.5749403220072</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>39.2525704978113</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>43.7622718052738</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>40.4087591240876</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16127,16 +16265,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$88</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$97</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="61"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16292,6 +16430,33 @@
                       </c:pt>
                       <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45563</c:v>
+                      </c:pt>
+                      <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45564</c:v>
+                      </c:pt>
+                      <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45565</c:v>
+                      </c:pt>
+                      <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45566</c:v>
+                      </c:pt>
+                      <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45567</c:v>
+                      </c:pt>
+                      <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45568</c:v>
+                      </c:pt>
+                      <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45569</c:v>
+                      </c:pt>
+                      <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45570</c:v>
+                      </c:pt>
+                      <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45571</c:v>
+                      </c:pt>
+                      <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45572</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16460,6 +16625,24 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>15.9095283926853</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>28.2252285191956</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>20.9607982171799</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>20.754126669714</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>29.544945535987</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>30.016430020284</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>27.6407137064071</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16562,16 +16745,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$88</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$97</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="61"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16727,6 +16910,33 @@
                       </c:pt>
                       <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45563</c:v>
+                      </c:pt>
+                      <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45564</c:v>
+                      </c:pt>
+                      <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45565</c:v>
+                      </c:pt>
+                      <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45566</c:v>
+                      </c:pt>
+                      <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45567</c:v>
+                      </c:pt>
+                      <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45568</c:v>
+                      </c:pt>
+                      <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45569</c:v>
+                      </c:pt>
+                      <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45570</c:v>
+                      </c:pt>
+                      <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45571</c:v>
+                      </c:pt>
+                      <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45572</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16877,16 +17087,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$88</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$97</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="61"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17042,6 +17252,33 @@
                       </c:pt>
                       <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45563</c:v>
+                      </c:pt>
+                      <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45564</c:v>
+                      </c:pt>
+                      <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45565</c:v>
+                      </c:pt>
+                      <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45566</c:v>
+                      </c:pt>
+                      <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45567</c:v>
+                      </c:pt>
+                      <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45568</c:v>
+                      </c:pt>
+                      <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45569</c:v>
+                      </c:pt>
+                      <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45570</c:v>
+                      </c:pt>
+                      <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45571</c:v>
+                      </c:pt>
+                      <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45572</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17194,16 +17431,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$88</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$97</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="61"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17359,6 +17596,33 @@
                       </c:pt>
                       <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45563</c:v>
+                      </c:pt>
+                      <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45564</c:v>
+                      </c:pt>
+                      <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45565</c:v>
+                      </c:pt>
+                      <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45566</c:v>
+                      </c:pt>
+                      <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45567</c:v>
+                      </c:pt>
+                      <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45568</c:v>
+                      </c:pt>
+                      <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45569</c:v>
+                      </c:pt>
+                      <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45570</c:v>
+                      </c:pt>
+                      <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45571</c:v>
+                      </c:pt>
+                      <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45572</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17512,16 +17776,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$88</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$97</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="61"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17677,6 +17941,33 @@
                       </c:pt>
                       <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45563</c:v>
+                      </c:pt>
+                      <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45564</c:v>
+                      </c:pt>
+                      <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45565</c:v>
+                      </c:pt>
+                      <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45566</c:v>
+                      </c:pt>
+                      <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45567</c:v>
+                      </c:pt>
+                      <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45568</c:v>
+                      </c:pt>
+                      <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45569</c:v>
+                      </c:pt>
+                      <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45570</c:v>
+                      </c:pt>
+                      <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45571</c:v>
+                      </c:pt>
+                      <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45572</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17827,16 +18118,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$88</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$88</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$97</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="61"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17992,6 +18283,33 @@
                       </c:pt>
                       <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45563</c:v>
+                      </c:pt>
+                      <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45564</c:v>
+                      </c:pt>
+                      <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45565</c:v>
+                      </c:pt>
+                      <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45566</c:v>
+                      </c:pt>
+                      <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45567</c:v>
+                      </c:pt>
+                      <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45568</c:v>
+                      </c:pt>
+                      <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45569</c:v>
+                      </c:pt>
+                      <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45570</c:v>
+                      </c:pt>
+                      <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45571</c:v>
+                      </c:pt>
+                      <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45572</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18384,10 +18702,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$37:$B$88</c:f>
+              <c:f>日活跃2!$B$37:$B$95</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -18543,16 +18861,37 @@
                 </c:pt>
                 <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45563</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45564</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45567</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45568</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45569</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$37:$C$88</c:f>
+              <c:f>日活跃2!$C$37:$C$95</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>307.240555796786</c:v>
                 </c:pt>
@@ -18702,6 +19041,24 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>162.808430431802</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>167.958897711349</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>184.367981313448</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>174.292687336165</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>177.572275094271</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>165.241920924354</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>164.995458673932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28406,8 +28763,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8836660" y="473710"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9762490" y="450850"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28436,8 +28793,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8806180" y="589280"/>
-        <a:ext cx="11431905" cy="5311140"/>
+        <a:off x="9732010" y="554990"/>
+        <a:ext cx="12696190" cy="4979670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28466,8 +28823,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8811260" y="6186170"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9737090" y="5808980"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28501,8 +28858,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3373120" y="20403820"/>
-        <a:ext cx="12246610" cy="6044565"/>
+        <a:off x="3729990" y="19135090"/>
+        <a:ext cx="13565505" cy="5667375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28536,8 +28893,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23703915" y="275590"/>
-        <a:ext cx="8799830" cy="5819140"/>
+        <a:off x="26319480" y="260350"/>
+        <a:ext cx="9759950" cy="5321935"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28560,10 +28917,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>529590</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>24130</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -28571,8 +28928,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6675120" y="1000125"/>
-        <a:ext cx="8149590" cy="6522085"/>
+        <a:off x="7384415" y="942975"/>
+        <a:ext cx="9786620" cy="6006465"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28606,8 +28963,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6337935" y="117475"/>
-        <a:ext cx="7248525" cy="5538470"/>
+        <a:off x="6997700" y="117475"/>
+        <a:ext cx="8094345" cy="5195570"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28641,8 +28998,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8887460" y="170180"/>
-        <a:ext cx="5092065" cy="6658610"/>
+        <a:off x="9860280" y="170180"/>
+        <a:ext cx="5621655" cy="6235700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28676,8 +29033,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6602095" y="109220"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7328535" y="109220"/>
+        <a:ext cx="9937115" cy="4862830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28706,8 +29063,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6851015" y="5410200"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7577455" y="5078730"/>
+        <a:ext cx="10005060" cy="4865370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29390,7 +29747,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -29401,9 +29758,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="12.8888888888889"/>
+    <col min="14" max="14" width="15.225" customWidth="1"/>
+    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -33816,26 +34173,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="11.775" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556"/>
-    <col min="14" max="14" width="12.8888888888889"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="17.5583333333333"/>
+    <col min="14" max="14" width="12.8916666666667"/>
+    <col min="15" max="15" width="11.775" customWidth="1"/>
+    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="11.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -36725,32 +37082,32 @@
       <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889"/>
-    <col min="2" max="2" width="17.5555555555556"/>
+    <col min="1" max="1" width="12.8916666666667"/>
+    <col min="2" max="2" width="17.5583333333333"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889"/>
-    <col min="5" max="5" width="17.5555555555556"/>
-    <col min="6" max="6" width="11.7777777777778"/>
-    <col min="7" max="7" width="17.5555555555556"/>
-    <col min="8" max="8" width="11.7777777777778"/>
-    <col min="9" max="9" width="12.8888888888889"/>
-    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778"/>
+    <col min="4" max="4" width="11.8916666666667"/>
+    <col min="5" max="5" width="17.5583333333333"/>
+    <col min="6" max="6" width="11.775"/>
+    <col min="7" max="7" width="17.5583333333333"/>
+    <col min="8" max="8" width="11.775"/>
+    <col min="9" max="9" width="12.8916666666667"/>
+    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.775"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444"/>
+    <col min="13" max="13" width="16.4416666666667"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5555555555556"/>
-    <col min="20" max="20" width="12.8888888888889"/>
-    <col min="25" max="26" width="12.8888888888889"/>
+    <col min="19" max="19" width="10.5583333333333"/>
+    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="25" max="26" width="12.8916666666667"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="2:28">
+    <row r="1" ht="15" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -40228,13 +40585,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="M92" sqref="M92"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A95" sqref="$A95:$XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -43247,9 +43604,17 @@
         <v>2423.02117420597</v>
       </c>
     </row>
-    <row r="89" spans="3:11">
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>2757</v>
+      </c>
+      <c r="B89" s="5">
+        <v>45564</v>
+      </c>
       <c r="C89" s="6"/>
-      <c r="D89" s="8"/>
+      <c r="D89" s="8">
+        <v>1</v>
+      </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -43258,70 +43623,221 @@
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
     </row>
-    <row r="90" spans="3:11">
-      <c r="C90" s="6"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-    </row>
-    <row r="91" spans="3:11">
-      <c r="C91" s="6"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-    </row>
-    <row r="92" spans="3:11">
-      <c r="C92" s="6"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-    </row>
-    <row r="93" spans="4:11">
-      <c r="D93" s="8"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-    </row>
-    <row r="94" spans="4:11">
-      <c r="D94" s="8"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-    </row>
-    <row r="95" spans="4:11">
-      <c r="D95" s="8"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-    </row>
-    <row r="96" spans="4:11">
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>2759</v>
+      </c>
+      <c r="B90" s="5">
+        <v>45565</v>
+      </c>
+      <c r="C90" s="6">
+        <v>215.5773831</v>
+      </c>
+      <c r="D90" s="8">
+        <v>2</v>
+      </c>
+      <c r="E90" s="6">
+        <v>38.3056672760512</v>
+      </c>
+      <c r="F90" s="6">
+        <v>28.2252285191956</v>
+      </c>
+      <c r="G90" s="6">
+        <v>13.5365891877775</v>
+      </c>
+      <c r="H90" s="6">
+        <v>9.93643248890049</v>
+      </c>
+      <c r="I90" s="6">
+        <v>12.3845390441369</v>
+      </c>
+      <c r="J90" s="6">
+        <v>14.544633063463</v>
+      </c>
+      <c r="K90" s="6">
+        <v>2424.20151475581</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>2761</v>
+      </c>
+      <c r="B91" s="5">
+        <v>45566</v>
+      </c>
+      <c r="C91" s="6">
+        <v>236.2980652</v>
+      </c>
+      <c r="D91" s="8">
+        <v>2</v>
+      </c>
+      <c r="E91" s="6">
+        <v>32.5591065640194</v>
+      </c>
+      <c r="F91" s="6">
+        <v>20.9607982171799</v>
+      </c>
+      <c r="G91" s="6">
+        <v>21.3800141815235</v>
+      </c>
+      <c r="H91" s="6">
+        <v>11.4585696920583</v>
+      </c>
+      <c r="I91" s="6">
+        <v>8.38431928687196</v>
+      </c>
+      <c r="J91" s="6">
+        <v>10.2009217990276</v>
+      </c>
+      <c r="K91" s="6">
+        <v>2417.75820502431</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>2764</v>
+      </c>
+      <c r="B92" s="5">
+        <v>45567</v>
+      </c>
+      <c r="C92" s="6">
+        <v>229.9781604</v>
+      </c>
+      <c r="D92" s="8">
+        <v>3</v>
+      </c>
+      <c r="E92" s="6">
+        <v>45.5749403220072</v>
+      </c>
+      <c r="F92" s="6">
+        <v>20.754126669714</v>
+      </c>
+      <c r="G92" s="6">
+        <v>16.6874396871349</v>
+      </c>
+      <c r="H92" s="6">
+        <v>11.7793691909188</v>
+      </c>
+      <c r="I92" s="6">
+        <v>10.7977550916756</v>
+      </c>
+      <c r="J92" s="6">
+        <v>7.43222103712733</v>
+      </c>
+      <c r="K92" s="6">
+        <v>2417.29483467926</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>2766</v>
+      </c>
+      <c r="B93" s="5">
+        <v>45568</v>
+      </c>
+      <c r="C93" s="6">
+        <v>225.9484882</v>
+      </c>
+      <c r="D93" s="8">
+        <v>2</v>
+      </c>
+      <c r="E93" s="6">
+        <v>39.2525704978113</v>
+      </c>
+      <c r="F93" s="6">
+        <v>29.544945535987</v>
+      </c>
+      <c r="G93" s="6">
+        <v>13.7876412501272</v>
+      </c>
+      <c r="H93" s="6">
+        <v>12.943499949099</v>
+      </c>
+      <c r="I93" s="6">
+        <v>15.1945434185076</v>
+      </c>
+      <c r="J93" s="6">
+        <v>9.42624452814822</v>
+      </c>
+      <c r="K93" s="6">
+        <v>2417.33930571109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>2768</v>
+      </c>
+      <c r="B94" s="5">
+        <v>45569</v>
+      </c>
+      <c r="C94" s="6">
+        <v>220.2139959</v>
+      </c>
+      <c r="D94" s="8">
+        <v>2</v>
+      </c>
+      <c r="E94" s="6">
+        <v>43.7622718052738</v>
+      </c>
+      <c r="F94" s="6">
+        <v>30.016430020284</v>
+      </c>
+      <c r="G94" s="6">
+        <v>23.143509127789</v>
+      </c>
+      <c r="H94" s="6">
+        <v>16.4108519269777</v>
+      </c>
+      <c r="I94" s="6">
+        <v>10.2392494929006</v>
+      </c>
+      <c r="J94" s="6">
+        <v>14.8679513184584</v>
+      </c>
+      <c r="K94" s="6">
+        <v>2406.92494929006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>2770</v>
+      </c>
+      <c r="B95" s="5">
+        <v>45570</v>
+      </c>
+      <c r="C95" s="6">
+        <v>221.5466342</v>
+      </c>
+      <c r="D95" s="8">
+        <v>2</v>
+      </c>
+      <c r="E95" s="6">
+        <v>40.4087591240876</v>
+      </c>
+      <c r="F95" s="6">
+        <v>27.6407137064071</v>
+      </c>
+      <c r="G95" s="6">
+        <v>22.5896188158962</v>
+      </c>
+      <c r="H95" s="6">
+        <v>24.4136253041363</v>
+      </c>
+      <c r="I95" s="6">
+        <v>14.5920519059205</v>
+      </c>
+      <c r="J95" s="6">
+        <v>9.82157339821574</v>
+      </c>
+      <c r="K95" s="6">
+        <v>2406.56609894566</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="5">
+        <v>45571</v>
+      </c>
+      <c r="C96" s="6"/>
       <c r="D96" s="8"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -43331,7 +43847,11 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
     </row>
-    <row r="97" spans="4:11">
+    <row r="97" spans="2:11">
+      <c r="B97" s="5">
+        <v>45572</v>
+      </c>
+      <c r="C97" s="6"/>
       <c r="D97" s="8"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -43341,7 +43861,11 @@
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
     </row>
-    <row r="98" spans="4:11">
+    <row r="98" spans="2:11">
+      <c r="B98" s="5">
+        <v>45573</v>
+      </c>
+      <c r="C98" s="6"/>
       <c r="D98" s="8"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -43351,7 +43875,11 @@
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
     </row>
-    <row r="99" spans="4:11">
+    <row r="99" spans="2:11">
+      <c r="B99" s="5">
+        <v>45574</v>
+      </c>
+      <c r="C99" s="6"/>
       <c r="D99" s="8"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -43361,7 +43889,11 @@
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
     </row>
-    <row r="100" spans="4:11">
+    <row r="100" spans="2:11">
+      <c r="B100" s="5">
+        <v>45575</v>
+      </c>
+      <c r="C100" s="6"/>
       <c r="D100" s="8"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -43371,7 +43903,11 @@
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
     </row>
-    <row r="101" spans="4:11">
+    <row r="101" spans="2:11">
+      <c r="B101" s="5">
+        <v>45576</v>
+      </c>
+      <c r="C101" s="6"/>
       <c r="D101" s="8"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -43381,7 +43917,11 @@
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
     </row>
-    <row r="102" spans="4:11">
+    <row r="102" spans="2:11">
+      <c r="B102" s="5">
+        <v>45577</v>
+      </c>
+      <c r="C102" s="6"/>
       <c r="D102" s="8"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -43391,7 +43931,11 @@
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
     </row>
-    <row r="103" spans="4:11">
+    <row r="103" spans="2:11">
+      <c r="B103" s="5">
+        <v>45578</v>
+      </c>
+      <c r="C103" s="6"/>
       <c r="D103" s="8"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -43401,7 +43945,11 @@
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
     </row>
-    <row r="104" spans="4:11">
+    <row r="104" spans="2:11">
+      <c r="B104" s="5">
+        <v>45579</v>
+      </c>
+      <c r="C104" s="6"/>
       <c r="D104" s="8"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -43411,7 +43959,11 @@
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
     </row>
-    <row r="105" spans="4:11">
+    <row r="105" spans="2:11">
+      <c r="B105" s="5">
+        <v>45580</v>
+      </c>
+      <c r="C105" s="6"/>
       <c r="D105" s="8"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -43421,7 +43973,11 @@
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
     </row>
-    <row r="106" spans="4:11">
+    <row r="106" spans="2:11">
+      <c r="B106" s="5">
+        <v>45581</v>
+      </c>
+      <c r="C106" s="6"/>
       <c r="D106" s="8"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -43431,7 +43987,11 @@
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
     </row>
-    <row r="107" spans="4:11">
+    <row r="107" spans="2:11">
+      <c r="B107" s="5">
+        <v>45582</v>
+      </c>
+      <c r="C107" s="6"/>
       <c r="D107" s="8"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -43441,7 +44001,11 @@
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
     </row>
-    <row r="108" spans="4:11">
+    <row r="108" spans="2:11">
+      <c r="B108" s="5">
+        <v>45583</v>
+      </c>
+      <c r="C108" s="6"/>
       <c r="D108" s="8"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -43451,7 +44015,11 @@
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
     </row>
-    <row r="109" spans="4:11">
+    <row r="109" spans="2:11">
+      <c r="B109" s="5">
+        <v>45584</v>
+      </c>
+      <c r="C109" s="6"/>
       <c r="D109" s="8"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -43461,7 +44029,11 @@
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
     </row>
-    <row r="110" spans="4:11">
+    <row r="110" spans="2:11">
+      <c r="B110" s="5">
+        <v>45585</v>
+      </c>
+      <c r="C110" s="6"/>
       <c r="D110" s="8"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
@@ -43471,7 +44043,11 @@
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
     </row>
-    <row r="111" spans="4:11">
+    <row r="111" spans="2:11">
+      <c r="B111" s="5">
+        <v>45586</v>
+      </c>
+      <c r="C111" s="6"/>
       <c r="D111" s="8"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
@@ -43481,7 +44057,11 @@
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
     </row>
-    <row r="112" spans="4:11">
+    <row r="112" spans="2:11">
+      <c r="B112" s="5">
+        <v>45587</v>
+      </c>
+      <c r="C112" s="6"/>
       <c r="D112" s="8"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -43491,7 +44071,11 @@
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
     </row>
-    <row r="113" spans="5:11">
+    <row r="113" spans="2:11">
+      <c r="B113" s="5">
+        <v>45588</v>
+      </c>
+      <c r="C113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
@@ -43500,7 +44084,11 @@
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
     </row>
-    <row r="114" spans="5:11">
+    <row r="114" spans="2:11">
+      <c r="B114" s="5">
+        <v>45589</v>
+      </c>
+      <c r="C114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
@@ -43509,7 +44097,11 @@
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
     </row>
-    <row r="115" spans="5:11">
+    <row r="115" spans="2:11">
+      <c r="B115" s="5">
+        <v>45590</v>
+      </c>
+      <c r="C115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -43518,7 +44110,11 @@
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
     </row>
-    <row r="116" spans="5:11">
+    <row r="116" spans="2:11">
+      <c r="B116" s="5">
+        <v>45591</v>
+      </c>
+      <c r="C116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
@@ -43527,7 +44123,11 @@
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
     </row>
-    <row r="117" spans="5:11">
+    <row r="117" spans="2:11">
+      <c r="B117" s="5">
+        <v>45592</v>
+      </c>
+      <c r="C117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -43536,7 +44136,11 @@
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
     </row>
-    <row r="118" spans="5:11">
+    <row r="118" spans="2:11">
+      <c r="B118" s="5">
+        <v>45593</v>
+      </c>
+      <c r="C118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -43545,7 +44149,11 @@
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
     </row>
-    <row r="119" spans="5:11">
+    <row r="119" spans="2:11">
+      <c r="B119" s="5">
+        <v>45594</v>
+      </c>
+      <c r="C119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
@@ -43554,7 +44162,11 @@
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
     </row>
-    <row r="120" spans="5:11">
+    <row r="120" spans="2:11">
+      <c r="B120" s="5">
+        <v>45595</v>
+      </c>
+      <c r="C120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -43563,7 +44175,11 @@
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
     </row>
-    <row r="121" spans="5:11">
+    <row r="121" spans="2:11">
+      <c r="B121" s="5">
+        <v>45596</v>
+      </c>
+      <c r="C121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
@@ -43572,7 +44188,11 @@
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
     </row>
-    <row r="122" spans="5:11">
+    <row r="122" spans="2:11">
+      <c r="B122" s="5">
+        <v>45597</v>
+      </c>
+      <c r="C122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
@@ -43581,7 +44201,11 @@
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
     </row>
-    <row r="123" spans="5:11">
+    <row r="123" spans="2:11">
+      <c r="B123" s="5">
+        <v>45598</v>
+      </c>
+      <c r="C123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
@@ -43590,7 +44214,11 @@
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
     </row>
-    <row r="124" spans="5:11">
+    <row r="124" spans="2:11">
+      <c r="B124" s="5">
+        <v>45599</v>
+      </c>
+      <c r="C124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
@@ -43599,7 +44227,11 @@
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
     </row>
-    <row r="125" spans="5:11">
+    <row r="125" spans="2:11">
+      <c r="B125" s="5">
+        <v>45600</v>
+      </c>
+      <c r="C125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
@@ -43608,7 +44240,11 @@
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
     </row>
-    <row r="126" spans="5:11">
+    <row r="126" spans="2:11">
+      <c r="B126" s="5">
+        <v>45601</v>
+      </c>
+      <c r="C126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
@@ -43617,7 +44253,11 @@
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
     </row>
-    <row r="127" spans="5:11">
+    <row r="127" spans="2:11">
+      <c r="B127" s="5">
+        <v>45602</v>
+      </c>
+      <c r="C127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
@@ -43626,7 +44266,11 @@
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
     </row>
-    <row r="128" spans="5:11">
+    <row r="128" spans="2:11">
+      <c r="B128" s="5">
+        <v>45603</v>
+      </c>
+      <c r="C128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
@@ -43635,7 +44279,11 @@
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
     </row>
-    <row r="129" spans="5:11">
+    <row r="129" spans="2:11">
+      <c r="B129" s="5">
+        <v>45604</v>
+      </c>
+      <c r="C129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
@@ -43644,7 +44292,11 @@
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
     </row>
-    <row r="130" spans="5:11">
+    <row r="130" spans="2:11">
+      <c r="B130" s="5">
+        <v>45605</v>
+      </c>
+      <c r="C130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -43653,7 +44305,11 @@
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
     </row>
-    <row r="131" spans="5:11">
+    <row r="131" spans="2:11">
+      <c r="B131" s="5">
+        <v>45606</v>
+      </c>
+      <c r="C131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -43662,7 +44318,11 @@
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
     </row>
-    <row r="132" spans="5:11">
+    <row r="132" spans="2:11">
+      <c r="B132" s="5">
+        <v>45607</v>
+      </c>
+      <c r="C132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
@@ -43671,7 +44331,11 @@
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
     </row>
-    <row r="133" spans="5:11">
+    <row r="133" spans="2:11">
+      <c r="B133" s="5">
+        <v>45608</v>
+      </c>
+      <c r="C133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
@@ -43680,7 +44344,11 @@
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
     </row>
-    <row r="134" spans="5:11">
+    <row r="134" spans="2:11">
+      <c r="B134" s="5">
+        <v>45609</v>
+      </c>
+      <c r="C134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
@@ -43689,7 +44357,11 @@
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
     </row>
-    <row r="135" spans="5:11">
+    <row r="135" spans="2:11">
+      <c r="B135" s="5">
+        <v>45610</v>
+      </c>
+      <c r="C135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
@@ -43698,7 +44370,11 @@
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
     </row>
-    <row r="136" spans="5:11">
+    <row r="136" spans="2:11">
+      <c r="B136" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -43707,7 +44383,11 @@
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
     </row>
-    <row r="137" spans="5:11">
+    <row r="137" spans="2:11">
+      <c r="B137" s="5">
+        <v>45612</v>
+      </c>
+      <c r="C137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
@@ -43716,7 +44396,10 @@
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
     </row>
-    <row r="138" spans="5:11">
+    <row r="138" spans="2:11">
+      <c r="B138" s="5">
+        <v>45613</v>
+      </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
@@ -43725,7 +44408,10 @@
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
     </row>
-    <row r="139" spans="5:11">
+    <row r="139" spans="2:11">
+      <c r="B139" s="5">
+        <v>45614</v>
+      </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
@@ -43734,7 +44420,10 @@
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
     </row>
-    <row r="140" spans="5:11">
+    <row r="140" spans="2:11">
+      <c r="B140" s="5">
+        <v>45615</v>
+      </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
@@ -43743,7 +44432,10 @@
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
     </row>
-    <row r="141" spans="5:11">
+    <row r="141" spans="2:11">
+      <c r="B141" s="5">
+        <v>45616</v>
+      </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
@@ -43752,7 +44444,10 @@
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
     </row>
-    <row r="142" spans="5:11">
+    <row r="142" spans="2:11">
+      <c r="B142" s="5">
+        <v>45617</v>
+      </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
@@ -43761,7 +44456,10 @@
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
     </row>
-    <row r="143" spans="5:11">
+    <row r="143" spans="2:11">
+      <c r="B143" s="5">
+        <v>45618</v>
+      </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
@@ -43769,6 +44467,16 @@
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="5">
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="5">
+        <v>45620</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -43780,16 +44488,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="12.8888888888889"/>
-    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="2" max="2" width="9.125"/>
+    <col min="3" max="3" width="12.8916666666667"/>
+    <col min="10" max="10" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -45290,17 +45999,433 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>2757</v>
+      </c>
+      <c r="B89" s="5">
+        <v>45564</v>
+      </c>
       <c r="C89" s="8"/>
-    </row>
-    <row r="90" spans="3:3">
-      <c r="C90" s="8"/>
-    </row>
-    <row r="91" spans="3:3">
-      <c r="C91" s="8"/>
-    </row>
-    <row r="92" spans="3:3">
-      <c r="C92" s="8"/>
+      <c r="I89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>2759</v>
+      </c>
+      <c r="B90" s="5">
+        <v>45565</v>
+      </c>
+      <c r="C90" s="8">
+        <v>167.958897711349</v>
+      </c>
+      <c r="I90" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>2761</v>
+      </c>
+      <c r="B91" s="5">
+        <v>45566</v>
+      </c>
+      <c r="C91" s="8">
+        <v>184.367981313448</v>
+      </c>
+      <c r="I91" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>2764</v>
+      </c>
+      <c r="B92" s="5">
+        <v>45567</v>
+      </c>
+      <c r="C92" s="8">
+        <v>174.292687336165</v>
+      </c>
+      <c r="I92" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>2766</v>
+      </c>
+      <c r="B93" s="5">
+        <v>45568</v>
+      </c>
+      <c r="C93" s="8">
+        <v>177.572275094271</v>
+      </c>
+      <c r="I93" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>2768</v>
+      </c>
+      <c r="B94" s="5">
+        <v>45569</v>
+      </c>
+      <c r="C94" s="8">
+        <v>165.241920924354</v>
+      </c>
+      <c r="I94" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>2770</v>
+      </c>
+      <c r="B95" s="5">
+        <v>45570</v>
+      </c>
+      <c r="C95" s="8">
+        <v>164.995458673932</v>
+      </c>
+      <c r="I95" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="5">
+        <v>45571</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="5">
+        <v>45572</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="5">
+        <v>45573</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="5">
+        <v>45574</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="5">
+        <v>45575</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="B101" s="5">
+        <v>45576</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="B102" s="5">
+        <v>45577</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="5">
+        <v>45578</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="B104" s="5">
+        <v>45579</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="5">
+        <v>45580</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="B106" s="5">
+        <v>45581</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="B107" s="5">
+        <v>45582</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="B108" s="5">
+        <v>45583</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="B109" s="5">
+        <v>45584</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="B110" s="5">
+        <v>45585</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="5">
+        <v>45586</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="5">
+        <v>45587</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="B113" s="5">
+        <v>45588</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="5">
+        <v>45589</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" s="5">
+        <v>45590</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" s="5">
+        <v>45591</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" s="5">
+        <v>45592</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="5">
+        <v>45593</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="2:9">
+      <c r="B119" s="5">
+        <v>45594</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="2:9">
+      <c r="B120" s="5">
+        <v>45595</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121" s="5">
+        <v>45596</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="2:9">
+      <c r="B122" s="5">
+        <v>45597</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123" s="5">
+        <v>45598</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="B124" s="5">
+        <v>45599</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="2:9">
+      <c r="B125" s="5">
+        <v>45600</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="2:9">
+      <c r="B126" s="5">
+        <v>45601</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="2:9">
+      <c r="B127" s="5">
+        <v>45602</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="2:9">
+      <c r="B128" s="5">
+        <v>45603</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="2:9">
+      <c r="B129" s="5">
+        <v>45604</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="I129" s="6"/>
+    </row>
+    <row r="130" spans="2:9">
+      <c r="B130" s="5">
+        <v>45605</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="2:9">
+      <c r="B131" s="5">
+        <v>45606</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132" spans="2:9">
+      <c r="B132" s="5">
+        <v>45607</v>
+      </c>
+      <c r="C132" s="8"/>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="2:9">
+      <c r="B133" s="5">
+        <v>45608</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="B134" s="5">
+        <v>45609</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="B135" s="5">
+        <v>45610</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136" spans="2:9">
+      <c r="B136" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" s="5">
+        <v>45612</v>
+      </c>
+      <c r="C137" s="8"/>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" s="5">
+        <v>45613</v>
+      </c>
+      <c r="C138" s="8"/>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" s="5">
+        <v>45614</v>
+      </c>
+      <c r="C139" s="8"/>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" s="5">
+        <v>45615</v>
+      </c>
+      <c r="C140" s="8"/>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" s="8"/>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="8"/>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" s="8"/>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" s="8"/>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" s="8"/>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="8"/>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -45318,13 +46443,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="20" max="20" width="12.8916666666667"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -46640,10 +47765,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8888888888889"/>
-    <col min="7" max="8" width="12.8888888888889"/>
+    <col min="2" max="5" width="12.8916666666667"/>
+    <col min="7" max="8" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14819,14 +14819,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$97</c:f>
+              <c:f>日活跃!$B$37:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -15009,6 +15009,18 @@
                 </c:pt>
                 <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45572</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45573</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45574</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45575</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15202,6 +15214,24 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15296,14 +15326,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$97</c:f>
+              <c:f>日活跃!$B$37:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -15486,6 +15516,18 @@
                 </c:pt>
                 <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45572</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45573</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45574</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45575</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15670,6 +15712,21 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>221.5466342</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>210.3465636</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>182.9298163</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>176.8097787</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>174.2126894</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>166.5366674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15785,16 +15842,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$97</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$101</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="61"/>
+                      <c:ptCount val="65"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -15977,6 +16034,18 @@
                       </c:pt>
                       <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45572</c:v>
+                      </c:pt>
+                      <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45573</c:v>
+                      </c:pt>
+                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45574</c:v>
+                      </c:pt>
+                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45575</c:v>
+                      </c:pt>
+                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45576</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16163,6 +16232,21 @@
                       </c:pt>
                       <c:pt idx="58">
                         <c:v>40.4087591240876</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>44.443492792981</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>55.3144920709687</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>27.2486065890403</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>22.810172103776</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>35.8739230930868</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16265,16 +16349,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$97</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$101</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="61"/>
+                      <c:ptCount val="65"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16457,6 +16541,18 @@
                       </c:pt>
                       <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45572</c:v>
+                      </c:pt>
+                      <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45573</c:v>
+                      </c:pt>
+                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45574</c:v>
+                      </c:pt>
+                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45575</c:v>
+                      </c:pt>
+                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45576</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16643,6 +16739,21 @@
                       </c:pt>
                       <c:pt idx="58">
                         <c:v>27.6407137064071</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>25.1894714852726</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>29.4720259590726</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>44.8530434302743</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>20.8142820446956</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>14.7287245219584</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16745,16 +16856,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$97</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$101</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="61"/>
+                      <c:ptCount val="65"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16937,6 +17048,18 @@
                       </c:pt>
                       <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45572</c:v>
+                      </c:pt>
+                      <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45573</c:v>
+                      </c:pt>
+                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45574</c:v>
+                      </c:pt>
+                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45575</c:v>
+                      </c:pt>
+                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45576</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17087,16 +17210,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$97</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$101</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="61"/>
+                      <c:ptCount val="65"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17279,6 +17402,18 @@
                       </c:pt>
                       <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45572</c:v>
+                      </c:pt>
+                      <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45573</c:v>
+                      </c:pt>
+                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45574</c:v>
+                      </c:pt>
+                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45575</c:v>
+                      </c:pt>
+                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45576</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17431,16 +17566,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$97</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$101</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="61"/>
+                      <c:ptCount val="65"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17623,6 +17758,18 @@
                       </c:pt>
                       <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45572</c:v>
+                      </c:pt>
+                      <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45573</c:v>
+                      </c:pt>
+                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45574</c:v>
+                      </c:pt>
+                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45575</c:v>
+                      </c:pt>
+                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45576</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17776,16 +17923,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$97</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$101</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="61"/>
+                      <c:ptCount val="65"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17968,6 +18115,18 @@
                       </c:pt>
                       <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45572</c:v>
+                      </c:pt>
+                      <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45573</c:v>
+                      </c:pt>
+                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45574</c:v>
+                      </c:pt>
+                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45575</c:v>
+                      </c:pt>
+                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45576</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18118,16 +18277,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$97</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$97</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$101</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="61"/>
+                      <c:ptCount val="65"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -18310,6 +18469,18 @@
                       </c:pt>
                       <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45572</c:v>
+                      </c:pt>
+                      <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45573</c:v>
+                      </c:pt>
+                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45574</c:v>
+                      </c:pt>
+                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45575</c:v>
+                      </c:pt>
+                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45576</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18702,10 +18873,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$37:$B$95</c:f>
+              <c:f>日活跃2!$B$37:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -18882,16 +19053,34 @@
                 </c:pt>
                 <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45570</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45571</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45572</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45573</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45574</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45575</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$37:$C$95</c:f>
+              <c:f>日活跃2!$C$37:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>307.240555796786</c:v>
                 </c:pt>
@@ -19059,6 +19248,21 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>164.995458673932</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>162.975714152786</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>151.510318949343</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>143.642899350009</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>143.613406795225</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>134.502923976608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28763,8 +28967,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9762490" y="450850"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8836660" y="473710"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28793,8 +28997,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9732010" y="554990"/>
-        <a:ext cx="12696190" cy="4979670"/>
+        <a:off x="8806180" y="589280"/>
+        <a:ext cx="11431905" cy="5311140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28823,8 +29027,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9737090" y="5808980"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8811260" y="6186170"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28858,8 +29062,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3729990" y="19135090"/>
-        <a:ext cx="13565505" cy="5667375"/>
+        <a:off x="3373120" y="20403820"/>
+        <a:ext cx="12246610" cy="6044565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28893,8 +29097,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26319480" y="260350"/>
-        <a:ext cx="9759950" cy="5321935"/>
+        <a:off x="23703915" y="275590"/>
+        <a:ext cx="8799830" cy="5819140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28928,8 +29132,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7384415" y="942975"/>
-        <a:ext cx="9786620" cy="6006465"/>
+        <a:off x="6675120" y="1000125"/>
+        <a:ext cx="8835390" cy="6406515"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28963,8 +29167,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6997700" y="117475"/>
-        <a:ext cx="8094345" cy="5195570"/>
+        <a:off x="6354445" y="117475"/>
+        <a:ext cx="7248525" cy="5538470"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28998,8 +29202,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9860280" y="170180"/>
-        <a:ext cx="5621655" cy="6235700"/>
+        <a:off x="8887460" y="170180"/>
+        <a:ext cx="5092065" cy="6658610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29033,8 +29237,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7328535" y="109220"/>
-        <a:ext cx="9937115" cy="4862830"/>
+        <a:off x="6602095" y="109220"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29063,8 +29267,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7577455" y="5078730"/>
-        <a:ext cx="10005060" cy="4865370"/>
+        <a:off x="6851015" y="5410200"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29747,7 +29951,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -29758,9 +29962,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.225" customWidth="1"/>
-    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
-    <col min="17" max="17" width="12.8916666666667"/>
+    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34173,26 +34377,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.775" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5583333333333"/>
-    <col min="14" max="14" width="12.8916666666667"/>
-    <col min="15" max="15" width="11.775" customWidth="1"/>
-    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556"/>
+    <col min="14" max="14" width="12.8888888888889"/>
+    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.775" customWidth="1"/>
+    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37082,32 +37286,32 @@
       <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.8916666666667"/>
-    <col min="2" max="2" width="17.5583333333333"/>
+    <col min="1" max="1" width="12.8888888888889"/>
+    <col min="2" max="2" width="17.5555555555556"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8916666666667"/>
-    <col min="5" max="5" width="17.5583333333333"/>
-    <col min="6" max="6" width="11.775"/>
-    <col min="7" max="7" width="17.5583333333333"/>
-    <col min="8" max="8" width="11.775"/>
-    <col min="9" max="9" width="12.8916666666667"/>
-    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.775"/>
+    <col min="4" max="4" width="11.8888888888889"/>
+    <col min="5" max="5" width="17.5555555555556"/>
+    <col min="6" max="6" width="11.7777777777778"/>
+    <col min="7" max="7" width="17.5555555555556"/>
+    <col min="8" max="8" width="11.7777777777778"/>
+    <col min="9" max="9" width="12.8888888888889"/>
+    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4416666666667"/>
+    <col min="13" max="13" width="16.4444444444444"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5583333333333"/>
-    <col min="20" max="20" width="12.8916666666667"/>
-    <col min="25" max="26" width="12.8916666666667"/>
+    <col min="19" max="19" width="10.5555555555556"/>
+    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="25" max="26" width="12.8888888888889"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:28">
+    <row r="1" ht="16.2" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -40587,11 +40791,11 @@
   <sheetPr/>
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A95" sqref="$A95:$XFD95"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -43833,12 +44037,17 @@
         <v>2406.56609894566</v>
       </c>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>2772</v>
+      </c>
       <c r="B96" s="5">
         <v>45571</v>
       </c>
       <c r="C96" s="6"/>
-      <c r="D96" s="8"/>
+      <c r="D96" s="8">
+        <v>2</v>
+      </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -43847,75 +44056,180 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>2774</v>
+      </c>
       <c r="B97" s="5">
         <v>45572</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-    </row>
-    <row r="98" spans="2:11">
+      <c r="C97" s="6">
+        <v>210.3465636</v>
+      </c>
+      <c r="D97" s="8">
+        <v>2</v>
+      </c>
+      <c r="E97" s="6">
+        <v>44.443492792981</v>
+      </c>
+      <c r="F97" s="6">
+        <v>25.1894714852726</v>
+      </c>
+      <c r="G97" s="6">
+        <v>26.058073950282</v>
+      </c>
+      <c r="H97" s="6">
+        <v>17.372049300188</v>
+      </c>
+      <c r="I97" s="6">
+        <v>21.1359933152287</v>
+      </c>
+      <c r="J97" s="6">
+        <v>20.5569250052225</v>
+      </c>
+      <c r="K97" s="6">
+        <v>2403.42302068101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>2774</v>
+      </c>
       <c r="B98" s="5">
         <v>45573</v>
       </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-    </row>
-    <row r="99" spans="2:11">
+      <c r="C98" s="6">
+        <v>182.9298163</v>
+      </c>
+      <c r="D98" s="8">
+        <v>0</v>
+      </c>
+      <c r="E98" s="6">
+        <v>55.3144920709687</v>
+      </c>
+      <c r="F98" s="6">
+        <v>29.4720259590726</v>
+      </c>
+      <c r="G98" s="6">
+        <v>25.1165541424609</v>
+      </c>
+      <c r="H98" s="6">
+        <v>17.4218872664468</v>
+      </c>
+      <c r="I98" s="6">
+        <v>17.4218872664468</v>
+      </c>
+      <c r="J98" s="6">
+        <v>18.0026168419951</v>
+      </c>
+      <c r="K98" s="6">
+        <v>2425.56225467106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>2775</v>
+      </c>
       <c r="B99" s="5">
         <v>45574</v>
       </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-    </row>
-    <row r="100" spans="2:11">
+      <c r="C99" s="6">
+        <v>176.8097787</v>
+      </c>
+      <c r="D99" s="8">
+        <v>1</v>
+      </c>
+      <c r="E99" s="6">
+        <v>27.2486065890403</v>
+      </c>
+      <c r="F99" s="6">
+        <v>44.8530434302743</v>
+      </c>
+      <c r="G99" s="6">
+        <v>26.7893604105734</v>
+      </c>
+      <c r="H99" s="6">
+        <v>22.1968986259036</v>
+      </c>
+      <c r="I99" s="6">
+        <v>24.0338833397715</v>
+      </c>
+      <c r="J99" s="6">
+        <v>16.532862424811</v>
+      </c>
+      <c r="K99" s="6">
+        <v>2433.69858175597</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>2776</v>
+      </c>
       <c r="B100" s="5">
         <v>45575</v>
       </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-    </row>
-    <row r="101" spans="2:11">
+      <c r="C100" s="6">
+        <v>174.2126894</v>
+      </c>
+      <c r="D100" s="8">
+        <v>1</v>
+      </c>
+      <c r="E100" s="6">
+        <v>22.810172103776</v>
+      </c>
+      <c r="F100" s="6">
+        <v>20.8142820446956</v>
+      </c>
+      <c r="G100" s="6">
+        <v>38.2070382738248</v>
+      </c>
+      <c r="H100" s="6">
+        <v>28.51271512972</v>
+      </c>
+      <c r="I100" s="6">
+        <v>21.8122270742358</v>
+      </c>
+      <c r="J100" s="6">
+        <v>22.097354225533</v>
+      </c>
+      <c r="K100" s="6">
+        <v>2443.8248137683</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>2776</v>
+      </c>
       <c r="B101" s="5">
         <v>45576</v>
       </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
+      <c r="C101" s="6">
+        <v>166.5366674</v>
+      </c>
+      <c r="D101" s="8">
+        <v>0</v>
+      </c>
+      <c r="E101" s="6">
+        <v>35.8739230930868</v>
+      </c>
+      <c r="F101" s="6">
+        <v>14.7287245219584</v>
+      </c>
+      <c r="G101" s="6">
+        <v>15.7495272115991</v>
+      </c>
+      <c r="H101" s="6">
+        <v>35.290607270435</v>
+      </c>
+      <c r="I101" s="6">
+        <v>23.6242908173986</v>
+      </c>
+      <c r="J101" s="6">
+        <v>17.7911325908804</v>
+      </c>
+      <c r="K101" s="6">
+        <v>2460.13448203404</v>
+      </c>
     </row>
     <row r="102" spans="2:11">
       <c r="B102" s="5">
@@ -44490,15 +44804,15 @@
   <sheetPr/>
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.125"/>
-    <col min="3" max="3" width="12.8916666666667"/>
-    <col min="10" max="10" width="12.8916666666667"/>
+    <col min="2" max="2" width="9.12962962962963"/>
+    <col min="3" max="3" width="12.8888888888889"/>
+    <col min="10" max="10" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -46095,47 +46409,87 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>2772</v>
+      </c>
       <c r="B96" s="5">
         <v>45571</v>
       </c>
       <c r="C96" s="8"/>
-      <c r="I96" s="6"/>
-    </row>
-    <row r="97" spans="2:9">
+      <c r="I96" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>2774</v>
+      </c>
       <c r="B97" s="5">
         <v>45572</v>
       </c>
-      <c r="C97" s="8"/>
-      <c r="I97" s="6"/>
-    </row>
-    <row r="98" spans="2:9">
+      <c r="C97" s="8">
+        <v>162.975714152786</v>
+      </c>
+      <c r="I97" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>2774</v>
+      </c>
       <c r="B98" s="5">
         <v>45573</v>
       </c>
-      <c r="C98" s="8"/>
-      <c r="I98" s="6"/>
-    </row>
-    <row r="99" spans="2:9">
+      <c r="C98" s="8">
+        <v>151.510318949343</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>2775</v>
+      </c>
       <c r="B99" s="5">
         <v>45574</v>
       </c>
-      <c r="C99" s="8"/>
-      <c r="I99" s="6"/>
-    </row>
-    <row r="100" spans="2:9">
+      <c r="C99" s="8">
+        <v>143.642899350009</v>
+      </c>
+      <c r="I99" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>2776</v>
+      </c>
       <c r="B100" s="5">
         <v>45575</v>
       </c>
-      <c r="C100" s="8"/>
-      <c r="I100" s="6"/>
-    </row>
-    <row r="101" spans="2:9">
+      <c r="C100" s="8">
+        <v>143.613406795225</v>
+      </c>
+      <c r="I100" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>2776</v>
+      </c>
       <c r="B101" s="5">
         <v>45576</v>
       </c>
-      <c r="C101" s="8"/>
-      <c r="I101" s="6"/>
+      <c r="C101" s="8">
+        <v>134.502923976608</v>
+      </c>
+      <c r="I101" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" s="5">
@@ -46443,13 +46797,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="20" max="20" width="12.8888888888889"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -47765,10 +48119,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8916666666667"/>
-    <col min="7" max="8" width="12.8916666666667"/>
+    <col min="2" max="5" width="12.8888888888889"/>
+    <col min="7" max="8" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14819,14 +14819,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$101</c:f>
+              <c:f>日活跃!$B$37:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -15021,6 +15021,9 @@
                 </c:pt>
                 <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45576</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15232,6 +15235,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15326,14 +15332,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$101</c:f>
+              <c:f>日活跃!$B$37:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -15528,6 +15534,9 @@
                 </c:pt>
                 <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45576</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15727,6 +15736,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>166.5366674</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>181.9296203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15842,16 +15854,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$101</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$102</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="65"/>
+                      <c:ptCount val="66"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16046,6 +16058,9 @@
                       </c:pt>
                       <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45576</c:v>
+                      </c:pt>
+                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45577</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16247,6 +16262,9 @@
                       </c:pt>
                       <c:pt idx="64">
                         <c:v>35.8739230930868</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>24.8865990004637</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16349,16 +16367,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$101</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$102</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="65"/>
+                      <c:ptCount val="66"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -16553,6 +16571,9 @@
                       </c:pt>
                       <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45576</c:v>
+                      </c:pt>
+                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45577</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16754,6 +16775,9 @@
                       </c:pt>
                       <c:pt idx="64">
                         <c:v>14.7287245219584</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>19.0225153279407</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16856,16 +16880,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$101</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$102</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="65"/>
+                      <c:ptCount val="66"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17060,6 +17084,9 @@
                       </c:pt>
                       <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45576</c:v>
+                      </c:pt>
+                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45577</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17210,16 +17237,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$101</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$102</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="65"/>
+                      <c:ptCount val="66"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17414,6 +17441,9 @@
                       </c:pt>
                       <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45576</c:v>
+                      </c:pt>
+                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45577</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17566,16 +17596,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$101</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$102</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="65"/>
+                      <c:ptCount val="66"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -17770,6 +17800,9 @@
                       </c:pt>
                       <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45576</c:v>
+                      </c:pt>
+                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45577</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17923,16 +17956,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$101</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$102</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="65"/>
+                      <c:ptCount val="66"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -18127,6 +18160,9 @@
                       </c:pt>
                       <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45576</c:v>
+                      </c:pt>
+                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45577</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18277,16 +18313,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$101</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$101</c15:sqref>
+                          <c15:sqref>日活跃!$B$37:$B$102</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="65"/>
+                      <c:ptCount val="66"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45512</c:v>
                       </c:pt>
@@ -18481,6 +18517,9 @@
                       </c:pt>
                       <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45576</c:v>
+                      </c:pt>
+                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45577</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18873,10 +18912,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$37:$B$101</c:f>
+              <c:f>日活跃2!$B$37:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -19071,16 +19110,19 @@
                 </c:pt>
                 <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45576</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$37:$C$101</c:f>
+              <c:f>日活跃2!$C$37:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>307.240555796786</c:v>
                 </c:pt>
@@ -19263,6 +19305,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>134.502923976608</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>149.229412310834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28967,8 +29012,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8836660" y="473710"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9762490" y="450850"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28997,8 +29042,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8806180" y="589280"/>
-        <a:ext cx="11431905" cy="5311140"/>
+        <a:off x="9732010" y="554990"/>
+        <a:ext cx="12696190" cy="4979670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29027,8 +29072,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8811260" y="6186170"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9737090" y="5808980"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29062,8 +29107,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3373120" y="20403820"/>
-        <a:ext cx="12246610" cy="6044565"/>
+        <a:off x="3729990" y="19135090"/>
+        <a:ext cx="13565505" cy="5667375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29097,8 +29142,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23703915" y="275590"/>
-        <a:ext cx="8799830" cy="5819140"/>
+        <a:off x="26319480" y="260350"/>
+        <a:ext cx="9759950" cy="5321935"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29132,8 +29177,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6675120" y="1000125"/>
-        <a:ext cx="8835390" cy="6406515"/>
+        <a:off x="7384415" y="942975"/>
+        <a:ext cx="9786620" cy="6006465"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29167,8 +29212,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6354445" y="117475"/>
-        <a:ext cx="7248525" cy="5538470"/>
+        <a:off x="6998335" y="117475"/>
+        <a:ext cx="8094345" cy="5195570"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29202,8 +29247,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8887460" y="170180"/>
-        <a:ext cx="5092065" cy="6658610"/>
+        <a:off x="9860280" y="170180"/>
+        <a:ext cx="5621655" cy="6235700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29237,8 +29282,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6602095" y="109220"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7328535" y="109220"/>
+        <a:ext cx="9937115" cy="4862830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29267,8 +29312,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6851015" y="5410200"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7577455" y="5078730"/>
+        <a:ext cx="10005060" cy="4865370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29951,7 +29996,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -29962,9 +30007,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="12.8888888888889"/>
+    <col min="14" max="14" width="15.225" customWidth="1"/>
+    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34377,26 +34422,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="11.775" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556"/>
-    <col min="14" max="14" width="12.8888888888889"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="17.5583333333333"/>
+    <col min="14" max="14" width="12.8916666666667"/>
+    <col min="15" max="15" width="11.775" customWidth="1"/>
+    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="11.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37286,32 +37331,32 @@
       <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889"/>
-    <col min="2" max="2" width="17.5555555555556"/>
+    <col min="1" max="1" width="12.8916666666667"/>
+    <col min="2" max="2" width="17.5583333333333"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889"/>
-    <col min="5" max="5" width="17.5555555555556"/>
-    <col min="6" max="6" width="11.7777777777778"/>
-    <col min="7" max="7" width="17.5555555555556"/>
-    <col min="8" max="8" width="11.7777777777778"/>
-    <col min="9" max="9" width="12.8888888888889"/>
-    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778"/>
+    <col min="4" max="4" width="11.8916666666667"/>
+    <col min="5" max="5" width="17.5583333333333"/>
+    <col min="6" max="6" width="11.775"/>
+    <col min="7" max="7" width="17.5583333333333"/>
+    <col min="8" max="8" width="11.775"/>
+    <col min="9" max="9" width="12.8916666666667"/>
+    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.775"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444"/>
+    <col min="13" max="13" width="16.4416666666667"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5555555555556"/>
-    <col min="20" max="20" width="12.8888888888889"/>
-    <col min="25" max="26" width="12.8888888888889"/>
+    <col min="19" max="19" width="10.5583333333333"/>
+    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="25" max="26" width="12.8916666666667"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="2:28">
+    <row r="1" ht="15" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -40791,11 +40836,11 @@
   <sheetPr/>
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -44231,19 +44276,40 @@
         <v>2460.13448203404</v>
       </c>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>2777</v>
+      </c>
       <c r="B102" s="5">
         <v>45577</v>
       </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
+      <c r="C102" s="6">
+        <v>181.9296203</v>
+      </c>
+      <c r="D102" s="8">
+        <v>1</v>
+      </c>
+      <c r="E102" s="6">
+        <v>24.8865990004637</v>
+      </c>
+      <c r="F102" s="6">
+        <v>19.0225153279407</v>
+      </c>
+      <c r="G102" s="6">
+        <v>12.4432995002319</v>
+      </c>
+      <c r="H102" s="6">
+        <v>9.72579731052604</v>
+      </c>
+      <c r="I102" s="6">
+        <v>28.4622597763924</v>
+      </c>
+      <c r="J102" s="6">
+        <v>20.7388325003864</v>
+      </c>
+      <c r="K102" s="6">
+        <v>2475.07238909784</v>
+      </c>
     </row>
     <row r="103" spans="2:11">
       <c r="B103" s="5">
@@ -44804,15 +44870,15 @@
   <sheetPr/>
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.12962962962963"/>
-    <col min="3" max="3" width="12.8888888888889"/>
-    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="2" max="2" width="9.13333333333333"/>
+    <col min="3" max="3" width="12.8916666666667"/>
+    <col min="10" max="10" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -46491,12 +46557,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>2777</v>
+      </c>
       <c r="B102" s="5">
         <v>45577</v>
       </c>
-      <c r="C102" s="8"/>
-      <c r="I102" s="6"/>
+      <c r="C102" s="8">
+        <v>149.229412310834</v>
+      </c>
+      <c r="I102" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="5">
@@ -46797,13 +46870,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="20" max="20" width="12.8916666666667"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -48119,10 +48192,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8888888888889"/>
-    <col min="7" max="8" width="12.8888888888889"/>
+    <col min="2" max="5" width="12.8916666666667"/>
+    <col min="7" max="8" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -15239,6 +15239,21 @@
                 <c:pt idx="65">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15739,6 +15754,21 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>181.9296203</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>199.7499309</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>169.3849743</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>165.5898778</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>176.9475174</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>173.6943035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16266,6 +16296,15 @@
                       <c:pt idx="65">
                         <c:v>24.8865990004637</c:v>
                       </c:pt>
+                      <c:pt idx="66">
+                        <c:v>27.1758168850556</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>52.7167522165189</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>23.5567190226876</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -16778,6 +16817,21 @@
                       </c:pt>
                       <c:pt idx="65">
                         <c:v>19.0225153279407</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>12.4363907779068</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>16.8520765282314</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>38.4528795811518</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>13.1180202380328</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>10.9104461997175</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -29012,8 +29066,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9762490" y="450850"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8836660" y="473710"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29042,8 +29096,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9732010" y="554990"/>
-        <a:ext cx="12696190" cy="4979670"/>
+        <a:off x="8806180" y="589280"/>
+        <a:ext cx="11431905" cy="5311140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29072,8 +29126,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9737090" y="5808980"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8811260" y="6186170"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29107,8 +29161,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3729990" y="19135090"/>
-        <a:ext cx="13565505" cy="5667375"/>
+        <a:off x="3373120" y="20403820"/>
+        <a:ext cx="12246610" cy="6044565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29142,8 +29196,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26319480" y="260350"/>
-        <a:ext cx="9759950" cy="5321935"/>
+        <a:off x="23703915" y="275590"/>
+        <a:ext cx="8799830" cy="5819140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29177,8 +29231,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7384415" y="942975"/>
-        <a:ext cx="9786620" cy="6006465"/>
+        <a:off x="6675120" y="1000125"/>
+        <a:ext cx="8835390" cy="6406515"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29212,8 +29266,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6998335" y="117475"/>
-        <a:ext cx="8094345" cy="5195570"/>
+        <a:off x="6354445" y="117475"/>
+        <a:ext cx="7248525" cy="5538470"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29247,8 +29301,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9860280" y="170180"/>
-        <a:ext cx="5621655" cy="6235700"/>
+        <a:off x="8887460" y="170180"/>
+        <a:ext cx="5092065" cy="6658610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29282,8 +29336,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7328535" y="109220"/>
-        <a:ext cx="9937115" cy="4862830"/>
+        <a:off x="6602095" y="109220"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29312,8 +29366,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7577455" y="5078730"/>
-        <a:ext cx="10005060" cy="4865370"/>
+        <a:off x="6851015" y="5410200"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29996,7 +30050,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -30007,9 +30061,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.225" customWidth="1"/>
-    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
-    <col min="17" max="17" width="12.8916666666667"/>
+    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34422,26 +34476,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.775" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5583333333333"/>
-    <col min="14" max="14" width="12.8916666666667"/>
-    <col min="15" max="15" width="11.775" customWidth="1"/>
-    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556"/>
+    <col min="14" max="14" width="12.8888888888889"/>
+    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.775" customWidth="1"/>
+    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37331,32 +37385,32 @@
       <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.8916666666667"/>
-    <col min="2" max="2" width="17.5583333333333"/>
+    <col min="1" max="1" width="12.8888888888889"/>
+    <col min="2" max="2" width="17.5555555555556"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8916666666667"/>
-    <col min="5" max="5" width="17.5583333333333"/>
-    <col min="6" max="6" width="11.775"/>
-    <col min="7" max="7" width="17.5583333333333"/>
-    <col min="8" max="8" width="11.775"/>
-    <col min="9" max="9" width="12.8916666666667"/>
-    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.775"/>
+    <col min="4" max="4" width="11.8888888888889"/>
+    <col min="5" max="5" width="17.5555555555556"/>
+    <col min="6" max="6" width="11.7777777777778"/>
+    <col min="7" max="7" width="17.5555555555556"/>
+    <col min="8" max="8" width="11.7777777777778"/>
+    <col min="9" max="9" width="12.8888888888889"/>
+    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4416666666667"/>
+    <col min="13" max="13" width="16.4444444444444"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5583333333333"/>
-    <col min="20" max="20" width="12.8916666666667"/>
-    <col min="25" max="26" width="12.8916666666667"/>
+    <col min="19" max="19" width="10.5555555555556"/>
+    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="25" max="26" width="12.8888888888889"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:28">
+    <row r="1" ht="16.2" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -40836,11 +40890,11 @@
   <sheetPr/>
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="P94" sqref="P94"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -44311,75 +44365,180 @@
         <v>2475.07238909784</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>2778</v>
+      </c>
       <c r="B103" s="5">
         <v>45578</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-    </row>
-    <row r="104" spans="2:11">
+      <c r="C103" s="6">
+        <v>199.7499309</v>
+      </c>
+      <c r="D103" s="8">
+        <v>1</v>
+      </c>
+      <c r="E103" s="6">
+        <v>27.1758168850556</v>
+      </c>
+      <c r="F103" s="6">
+        <v>12.4363907779068</v>
+      </c>
+      <c r="G103" s="6">
+        <v>17.8101398794714</v>
+      </c>
+      <c r="H103" s="6">
+        <v>7.52324874219052</v>
+      </c>
+      <c r="I103" s="6">
+        <v>10.5939625145132</v>
+      </c>
+      <c r="J103" s="6">
+        <v>24.258638801349</v>
+      </c>
+      <c r="K103" s="6">
+        <v>2475.60944324653</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>2779</v>
+      </c>
       <c r="B104" s="5">
         <v>45579</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-    </row>
-    <row r="105" spans="2:11">
+      <c r="C104" s="6">
+        <v>169.3849743</v>
+      </c>
+      <c r="D104" s="8">
+        <v>1</v>
+      </c>
+      <c r="E104" s="6">
+        <v>52.7167522165189</v>
+      </c>
+      <c r="F104" s="6">
+        <v>16.8520765282314</v>
+      </c>
+      <c r="G104" s="6">
+        <v>13.2512054751905</v>
+      </c>
+      <c r="H104" s="6">
+        <v>13.2512054751905</v>
+      </c>
+      <c r="I104" s="6">
+        <v>10.0824389485145</v>
+      </c>
+      <c r="J104" s="6">
+        <v>7.48981179032509</v>
+      </c>
+      <c r="K104" s="6">
+        <v>2493.24311712552</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>2780</v>
+      </c>
       <c r="B105" s="5">
         <v>45580</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-    </row>
-    <row r="106" spans="2:11">
+      <c r="C105" s="6">
+        <v>165.5898778</v>
+      </c>
+      <c r="D105" s="8">
+        <v>1</v>
+      </c>
+      <c r="E105" s="6">
+        <v>23.5567190226876</v>
+      </c>
+      <c r="F105" s="6">
+        <v>38.4528795811518</v>
+      </c>
+      <c r="G105" s="6">
+        <v>13.8568935427574</v>
+      </c>
+      <c r="H105" s="6">
+        <v>15.935427574171</v>
+      </c>
+      <c r="I105" s="6">
+        <v>13.5104712041885</v>
+      </c>
+      <c r="J105" s="6">
+        <v>7.96771378708551</v>
+      </c>
+      <c r="K105" s="6">
+        <v>2476.91972076789</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>2781</v>
+      </c>
       <c r="B106" s="5">
         <v>45581</v>
       </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-    </row>
-    <row r="107" spans="2:11">
+      <c r="C106" s="6">
+        <v>176.9475174</v>
+      </c>
+      <c r="D106" s="8">
+        <v>1</v>
+      </c>
+      <c r="E106" s="6">
+        <v>19.9685419178944</v>
+      </c>
+      <c r="F106" s="6">
+        <v>13.1180202380328</v>
+      </c>
+      <c r="G106" s="6">
+        <v>32.7950505950821</v>
+      </c>
+      <c r="H106" s="6">
+        <v>12.6807528967651</v>
+      </c>
+      <c r="I106" s="6">
+        <v>7.8708121428197</v>
+      </c>
+      <c r="J106" s="6">
+        <v>10.6401719708488</v>
+      </c>
+      <c r="K106" s="6">
+        <v>2501.75221517328</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>2782</v>
+      </c>
       <c r="B107" s="5">
         <v>45582</v>
       </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
+      <c r="C107" s="6">
+        <v>173.6943035</v>
+      </c>
+      <c r="D107" s="8">
+        <v>1</v>
+      </c>
+      <c r="E107" s="6">
+        <v>26.3305434953183</v>
+      </c>
+      <c r="F107" s="6">
+        <v>10.9104461997175</v>
+      </c>
+      <c r="G107" s="6">
+        <v>10.6195009677251</v>
+      </c>
+      <c r="H107" s="6">
+        <v>28.658105351258</v>
+      </c>
+      <c r="I107" s="6">
+        <v>13.5289532876497</v>
+      </c>
+      <c r="J107" s="6">
+        <v>8.29193911178532</v>
+      </c>
+      <c r="K107" s="6">
+        <v>2504.45655699116</v>
+      </c>
     </row>
     <row r="108" spans="2:11">
       <c r="B108" s="5">
@@ -44870,15 +45029,15 @@
   <sheetPr/>
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.13333333333333"/>
-    <col min="3" max="3" width="12.8916666666667"/>
-    <col min="10" max="10" width="12.8916666666667"/>
+    <col min="2" max="2" width="9.12962962962963"/>
+    <col min="3" max="3" width="12.8888888888889"/>
+    <col min="10" max="10" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -46571,40 +46730,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>2778</v>
+      </c>
       <c r="B103" s="5">
         <v>45578</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="I103" s="6"/>
-    </row>
-    <row r="104" spans="2:9">
+      <c r="C103" s="8">
+        <v>151.663704581358</v>
+      </c>
+      <c r="I103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>2779</v>
+      </c>
       <c r="B104" s="5">
         <v>45579</v>
       </c>
-      <c r="C104" s="8"/>
-      <c r="I104" s="6"/>
-    </row>
-    <row r="105" spans="2:9">
+      <c r="C104" s="8">
+        <v>140.712290502793</v>
+      </c>
+      <c r="I104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>2780</v>
+      </c>
       <c r="B105" s="5">
         <v>45580</v>
       </c>
-      <c r="C105" s="8"/>
-      <c r="I105" s="6"/>
-    </row>
-    <row r="106" spans="2:9">
+      <c r="C105" s="8">
+        <v>139.773998657417</v>
+      </c>
+      <c r="I105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>2781</v>
+      </c>
       <c r="B106" s="5">
         <v>45581</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="I106" s="6"/>
-    </row>
-    <row r="107" spans="2:9">
+      <c r="C106" s="8">
+        <v>149.985853060454</v>
+      </c>
+      <c r="I106" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>2782</v>
+      </c>
       <c r="B107" s="5">
         <v>45582</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="I107" s="6"/>
+      <c r="C107" s="8">
+        <v>140.536843098405</v>
+      </c>
+      <c r="I107" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" s="5">
@@ -46870,13 +47064,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="20" max="20" width="12.8888888888889"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -48192,10 +48386,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8916666666667"/>
-    <col min="7" max="8" width="12.8916666666667"/>
+    <col min="2" max="5" width="12.8888888888889"/>
+    <col min="7" max="8" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14819,211 +14819,199 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$102</c:f>
+              <c:f>日活跃!$B$47:$B$108</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
+                  <c:v>45522</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
+                  <c:v>45523</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
+                  <c:v>45524</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
+                  <c:v>45525</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
+                  <c:v>45526</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
+                  <c:v>45527</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
+                  <c:v>45528</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
+                  <c:v>45529</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
+                  <c:v>45530</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
+                  <c:v>45531</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
+                  <c:v>45532</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45523</c:v>
+                  <c:v>45533</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45524</c:v>
+                  <c:v>45534</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45525</c:v>
+                  <c:v>45535</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45526</c:v>
+                  <c:v>45536</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45527</c:v>
+                  <c:v>45537</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45528</c:v>
+                  <c:v>45538</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45529</c:v>
+                  <c:v>45539</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45530</c:v>
+                  <c:v>45540</c:v>
                 </c:pt>
                 <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45531</c:v>
+                  <c:v>45541</c:v>
                 </c:pt>
                 <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45532</c:v>
+                  <c:v>45542</c:v>
                 </c:pt>
                 <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45533</c:v>
+                  <c:v>45543</c:v>
                 </c:pt>
                 <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45534</c:v>
+                  <c:v>45544</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45535</c:v>
+                  <c:v>45545</c:v>
                 </c:pt>
                 <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45536</c:v>
+                  <c:v>45546</c:v>
                 </c:pt>
                 <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45537</c:v>
+                  <c:v>45547</c:v>
                 </c:pt>
                 <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45538</c:v>
+                  <c:v>45548</c:v>
                 </c:pt>
                 <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45539</c:v>
+                  <c:v>45549</c:v>
                 </c:pt>
                 <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45540</c:v>
+                  <c:v>45550</c:v>
                 </c:pt>
                 <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45541</c:v>
+                  <c:v>45551</c:v>
                 </c:pt>
                 <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45542</c:v>
+                  <c:v>45552</c:v>
                 </c:pt>
                 <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45543</c:v>
+                  <c:v>45553</c:v>
                 </c:pt>
                 <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45544</c:v>
+                  <c:v>45554</c:v>
                 </c:pt>
                 <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45545</c:v>
+                  <c:v>45555</c:v>
                 </c:pt>
                 <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45546</c:v>
+                  <c:v>45556</c:v>
                 </c:pt>
                 <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45547</c:v>
+                  <c:v>45557</c:v>
                 </c:pt>
                 <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45548</c:v>
+                  <c:v>45558</c:v>
                 </c:pt>
                 <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45549</c:v>
+                  <c:v>45559</c:v>
                 </c:pt>
                 <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45550</c:v>
+                  <c:v>45560</c:v>
                 </c:pt>
                 <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45551</c:v>
+                  <c:v>45561</c:v>
                 </c:pt>
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45552</c:v>
+                  <c:v>45562</c:v>
                 </c:pt>
                 <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45553</c:v>
+                  <c:v>45563</c:v>
                 </c:pt>
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45554</c:v>
+                  <c:v>45564</c:v>
                 </c:pt>
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45555</c:v>
+                  <c:v>45565</c:v>
                 </c:pt>
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45556</c:v>
+                  <c:v>45566</c:v>
                 </c:pt>
                 <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45557</c:v>
+                  <c:v>45567</c:v>
                 </c:pt>
                 <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45558</c:v>
+                  <c:v>45568</c:v>
                 </c:pt>
                 <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45559</c:v>
+                  <c:v>45569</c:v>
                 </c:pt>
                 <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45560</c:v>
+                  <c:v>45570</c:v>
                 </c:pt>
                 <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45561</c:v>
+                  <c:v>45571</c:v>
                 </c:pt>
                 <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45562</c:v>
+                  <c:v>45572</c:v>
                 </c:pt>
                 <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45563</c:v>
+                  <c:v>45573</c:v>
                 </c:pt>
                 <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45564</c:v>
+                  <c:v>45574</c:v>
                 </c:pt>
                 <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45565</c:v>
+                  <c:v>45575</c:v>
                 </c:pt>
                 <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45566</c:v>
+                  <c:v>45576</c:v>
                 </c:pt>
                 <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45567</c:v>
+                  <c:v>45577</c:v>
                 </c:pt>
                 <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45568</c:v>
+                  <c:v>45578</c:v>
                 </c:pt>
                 <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45569</c:v>
+                  <c:v>45579</c:v>
                 </c:pt>
                 <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45570</c:v>
+                  <c:v>45580</c:v>
                 </c:pt>
                 <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45571</c:v>
+                  <c:v>45581</c:v>
                 </c:pt>
                 <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45572</c:v>
+                  <c:v>45582</c:v>
                 </c:pt>
                 <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45573</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45574</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45575</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45576</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45577</c:v>
+                  <c:v>45583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15037,42 +15025,42 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$D$37:$D$150</c:f>
+              <c:f>日活跃!$D$47:$D$150</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
@@ -15081,70 +15069,70 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2</c:v>
@@ -15153,106 +15141,85 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="62">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="63">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15347,211 +15314,199 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$37:$B$102</c:f>
+              <c:f>日活跃!$B$47:$B$108</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45512</c:v>
+                  <c:v>45522</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45513</c:v>
+                  <c:v>45523</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45514</c:v>
+                  <c:v>45524</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45515</c:v>
+                  <c:v>45525</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45516</c:v>
+                  <c:v>45526</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45517</c:v>
+                  <c:v>45527</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45518</c:v>
+                  <c:v>45528</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45519</c:v>
+                  <c:v>45529</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45520</c:v>
+                  <c:v>45530</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45521</c:v>
+                  <c:v>45531</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45522</c:v>
+                  <c:v>45532</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45523</c:v>
+                  <c:v>45533</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45524</c:v>
+                  <c:v>45534</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45525</c:v>
+                  <c:v>45535</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45526</c:v>
+                  <c:v>45536</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45527</c:v>
+                  <c:v>45537</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45528</c:v>
+                  <c:v>45538</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45529</c:v>
+                  <c:v>45539</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45530</c:v>
+                  <c:v>45540</c:v>
                 </c:pt>
                 <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45531</c:v>
+                  <c:v>45541</c:v>
                 </c:pt>
                 <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45532</c:v>
+                  <c:v>45542</c:v>
                 </c:pt>
                 <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45533</c:v>
+                  <c:v>45543</c:v>
                 </c:pt>
                 <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45534</c:v>
+                  <c:v>45544</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45535</c:v>
+                  <c:v>45545</c:v>
                 </c:pt>
                 <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45536</c:v>
+                  <c:v>45546</c:v>
                 </c:pt>
                 <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45537</c:v>
+                  <c:v>45547</c:v>
                 </c:pt>
                 <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45538</c:v>
+                  <c:v>45548</c:v>
                 </c:pt>
                 <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45539</c:v>
+                  <c:v>45549</c:v>
                 </c:pt>
                 <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45540</c:v>
+                  <c:v>45550</c:v>
                 </c:pt>
                 <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45541</c:v>
+                  <c:v>45551</c:v>
                 </c:pt>
                 <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45542</c:v>
+                  <c:v>45552</c:v>
                 </c:pt>
                 <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45543</c:v>
+                  <c:v>45553</c:v>
                 </c:pt>
                 <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45544</c:v>
+                  <c:v>45554</c:v>
                 </c:pt>
                 <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45545</c:v>
+                  <c:v>45555</c:v>
                 </c:pt>
                 <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45546</c:v>
+                  <c:v>45556</c:v>
                 </c:pt>
                 <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45547</c:v>
+                  <c:v>45557</c:v>
                 </c:pt>
                 <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45548</c:v>
+                  <c:v>45558</c:v>
                 </c:pt>
                 <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45549</c:v>
+                  <c:v>45559</c:v>
                 </c:pt>
                 <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45550</c:v>
+                  <c:v>45560</c:v>
                 </c:pt>
                 <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45551</c:v>
+                  <c:v>45561</c:v>
                 </c:pt>
                 <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45552</c:v>
+                  <c:v>45562</c:v>
                 </c:pt>
                 <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45553</c:v>
+                  <c:v>45563</c:v>
                 </c:pt>
                 <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45554</c:v>
+                  <c:v>45564</c:v>
                 </c:pt>
                 <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45555</c:v>
+                  <c:v>45565</c:v>
                 </c:pt>
                 <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45556</c:v>
+                  <c:v>45566</c:v>
                 </c:pt>
                 <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45557</c:v>
+                  <c:v>45567</c:v>
                 </c:pt>
                 <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45558</c:v>
+                  <c:v>45568</c:v>
                 </c:pt>
                 <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45559</c:v>
+                  <c:v>45569</c:v>
                 </c:pt>
                 <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45560</c:v>
+                  <c:v>45570</c:v>
                 </c:pt>
                 <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45561</c:v>
+                  <c:v>45571</c:v>
                 </c:pt>
                 <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45562</c:v>
+                  <c:v>45572</c:v>
                 </c:pt>
                 <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45563</c:v>
+                  <c:v>45573</c:v>
                 </c:pt>
                 <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45564</c:v>
+                  <c:v>45574</c:v>
                 </c:pt>
                 <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45565</c:v>
+                  <c:v>45575</c:v>
                 </c:pt>
                 <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45566</c:v>
+                  <c:v>45576</c:v>
                 </c:pt>
                 <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45567</c:v>
+                  <c:v>45577</c:v>
                 </c:pt>
                 <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45568</c:v>
+                  <c:v>45578</c:v>
                 </c:pt>
                 <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45569</c:v>
+                  <c:v>45579</c:v>
                 </c:pt>
                 <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45570</c:v>
+                  <c:v>45580</c:v>
                 </c:pt>
                 <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45571</c:v>
+                  <c:v>45581</c:v>
                 </c:pt>
                 <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45572</c:v>
+                  <c:v>45582</c:v>
                 </c:pt>
                 <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45573</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45574</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45575</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45576</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                  <c:v>45577</c:v>
+                  <c:v>45583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15565,210 +15520,189 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$C$37:$C$150</c:f>
+              <c:f>日活跃!$C$47:$C$150</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>414.3823378</c:v>
+                  <c:v>388.2156028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>405.1486658</c:v>
+                  <c:v>377.7990798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>366.2605976</c:v>
+                  <c:v>358.783733</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>367.862349</c:v>
+                  <c:v>346.1406395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>346.565179</c:v>
+                  <c:v>344.8693794</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>339.7745003</c:v>
+                  <c:v>337.216788</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>392.4398953</c:v>
+                  <c:v>331.4040209</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>385.5791327</c:v>
+                  <c:v>308.3955467</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>382.9393112</c:v>
+                  <c:v>294.881713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>388.2156028</c:v>
+                  <c:v>285.9820459</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>377.7990798</c:v>
+                  <c:v>295.328359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>358.783733</c:v>
+                  <c:v>292.4988454</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>346.1406395</c:v>
+                  <c:v>305.2892515</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>344.8693794</c:v>
+                  <c:v>293.201641</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>337.216788</c:v>
+                  <c:v>250.2619121</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>246.3209826</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>331.4040209</c:v>
+                  <c:v>278.0655991</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>308.3955467</c:v>
+                  <c:v>258.8856027</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>294.881713</c:v>
+                  <c:v>260.4473441</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>285.9820459</c:v>
+                  <c:v>279.9629154</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>295.328359</c:v>
+                  <c:v>269.6729435</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>292.4988454</c:v>
+                  <c:v>255.1102293</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>305.2892515</c:v>
+                  <c:v>228.6644489</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>293.201641</c:v>
+                  <c:v>226.8383234</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>250.2619121</c:v>
+                  <c:v>213.9532571</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>246.3209826</c:v>
+                  <c:v>232.2835603</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>278.0655991</c:v>
+                  <c:v>239.5943445</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>258.8856027</c:v>
+                  <c:v>260.1033932</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>260.4473441</c:v>
+                  <c:v>257.075718</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>279.9629154</c:v>
+                  <c:v>246.5980707</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>269.6729435</c:v>
+                  <c:v>206.495204</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>255.1102293</c:v>
+                  <c:v>210.6547556</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>228.6644489</c:v>
+                  <c:v>198.920832</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>226.8383234</c:v>
+                  <c:v>223.4994262</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>213.9532571</c:v>
+                  <c:v>215.3174569</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>232.2835603</c:v>
+                  <c:v>190.2561394</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>239.5943445</c:v>
+                  <c:v>179.6835242</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>260.1033932</c:v>
+                  <c:v>187.3484041</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>257.075718</c:v>
+                  <c:v>188.1991939</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>246.5980707</c:v>
+                  <c:v>210.0665802</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>206.495204</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>210.6547556</c:v>
+                  <c:v>205.2329163</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>198.920832</c:v>
+                  <c:v>215.5773831</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>223.4994262</c:v>
+                  <c:v>236.2980652</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>215.3174569</c:v>
+                  <c:v>229.9781604</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>190.2561394</c:v>
+                  <c:v>225.9484882</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>179.6835242</c:v>
+                  <c:v>220.2139959</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>187.3484041</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>188.1991939</c:v>
+                  <c:v>221.5466342</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>210.0665802</c:v>
+                  <c:v>210.3465636</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>205.2329163</c:v>
+                  <c:v>182.9298163</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>176.8097787</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>215.5773831</c:v>
+                  <c:v>174.2126894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>236.2980652</c:v>
+                  <c:v>166.5366674</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>229.9781604</c:v>
+                  <c:v>181.9296203</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>225.9484882</c:v>
+                  <c:v>199.7499309</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>220.2139959</c:v>
+                  <c:v>169.3849743</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>221.5466342</c:v>
+                  <c:v>165.5898778</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>176.9475174</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>210.3465636</c:v>
+                  <c:v>173.6943035</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>182.9298163</c:v>
+                  <c:v>184.1187568</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>176.8097787</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>174.2126894</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>166.5366674</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>181.9296203</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>199.7499309</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>169.3849743</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>165.5898778</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>176.9475174</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>173.6943035</c:v>
+                  <c:v>203.6653977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15884,213 +15818,201 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$102</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$108</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="66"/>
+                      <c:ptCount val="62"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45512</c:v>
+                        <c:v>45522</c:v>
                       </c:pt>
                       <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45513</c:v>
+                        <c:v>45523</c:v>
                       </c:pt>
                       <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45514</c:v>
+                        <c:v>45524</c:v>
                       </c:pt>
                       <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45515</c:v>
+                        <c:v>45525</c:v>
                       </c:pt>
                       <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45516</c:v>
+                        <c:v>45526</c:v>
                       </c:pt>
                       <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45517</c:v>
+                        <c:v>45527</c:v>
                       </c:pt>
                       <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45518</c:v>
+                        <c:v>45528</c:v>
                       </c:pt>
                       <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45519</c:v>
+                        <c:v>45529</c:v>
                       </c:pt>
                       <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45520</c:v>
+                        <c:v>45530</c:v>
                       </c:pt>
                       <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45521</c:v>
+                        <c:v>45531</c:v>
                       </c:pt>
                       <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45522</c:v>
+                        <c:v>45532</c:v>
                       </c:pt>
                       <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45523</c:v>
+                        <c:v>45533</c:v>
                       </c:pt>
                       <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45524</c:v>
+                        <c:v>45534</c:v>
                       </c:pt>
                       <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45525</c:v>
+                        <c:v>45535</c:v>
                       </c:pt>
                       <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45526</c:v>
+                        <c:v>45536</c:v>
                       </c:pt>
                       <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45527</c:v>
+                        <c:v>45537</c:v>
                       </c:pt>
                       <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45528</c:v>
+                        <c:v>45538</c:v>
                       </c:pt>
                       <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45529</c:v>
+                        <c:v>45539</c:v>
                       </c:pt>
                       <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45530</c:v>
+                        <c:v>45540</c:v>
                       </c:pt>
                       <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45531</c:v>
+                        <c:v>45541</c:v>
                       </c:pt>
                       <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45532</c:v>
+                        <c:v>45542</c:v>
                       </c:pt>
                       <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45533</c:v>
+                        <c:v>45543</c:v>
                       </c:pt>
                       <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45534</c:v>
+                        <c:v>45544</c:v>
                       </c:pt>
                       <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45535</c:v>
+                        <c:v>45545</c:v>
                       </c:pt>
                       <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45536</c:v>
+                        <c:v>45546</c:v>
                       </c:pt>
                       <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45537</c:v>
+                        <c:v>45547</c:v>
                       </c:pt>
                       <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45538</c:v>
+                        <c:v>45548</c:v>
                       </c:pt>
                       <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45539</c:v>
+                        <c:v>45549</c:v>
                       </c:pt>
                       <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45540</c:v>
+                        <c:v>45550</c:v>
                       </c:pt>
                       <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45541</c:v>
+                        <c:v>45551</c:v>
                       </c:pt>
                       <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45542</c:v>
+                        <c:v>45552</c:v>
                       </c:pt>
                       <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45543</c:v>
+                        <c:v>45553</c:v>
                       </c:pt>
                       <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45544</c:v>
+                        <c:v>45554</c:v>
                       </c:pt>
                       <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45545</c:v>
+                        <c:v>45555</c:v>
                       </c:pt>
                       <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45546</c:v>
+                        <c:v>45556</c:v>
                       </c:pt>
                       <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45547</c:v>
+                        <c:v>45557</c:v>
                       </c:pt>
                       <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45548</c:v>
+                        <c:v>45558</c:v>
                       </c:pt>
                       <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45549</c:v>
+                        <c:v>45559</c:v>
                       </c:pt>
                       <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45550</c:v>
+                        <c:v>45560</c:v>
                       </c:pt>
                       <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45551</c:v>
+                        <c:v>45561</c:v>
                       </c:pt>
                       <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45552</c:v>
+                        <c:v>45562</c:v>
                       </c:pt>
                       <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45553</c:v>
+                        <c:v>45563</c:v>
                       </c:pt>
                       <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45554</c:v>
+                        <c:v>45564</c:v>
                       </c:pt>
                       <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45555</c:v>
+                        <c:v>45565</c:v>
                       </c:pt>
                       <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45556</c:v>
+                        <c:v>45566</c:v>
                       </c:pt>
                       <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45557</c:v>
+                        <c:v>45567</c:v>
                       </c:pt>
                       <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45558</c:v>
+                        <c:v>45568</c:v>
                       </c:pt>
                       <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45559</c:v>
+                        <c:v>45569</c:v>
                       </c:pt>
                       <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45560</c:v>
+                        <c:v>45570</c:v>
                       </c:pt>
                       <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45561</c:v>
+                        <c:v>45571</c:v>
                       </c:pt>
                       <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45562</c:v>
+                        <c:v>45572</c:v>
                       </c:pt>
                       <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45563</c:v>
+                        <c:v>45573</c:v>
                       </c:pt>
                       <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45564</c:v>
+                        <c:v>45574</c:v>
                       </c:pt>
                       <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45565</c:v>
+                        <c:v>45575</c:v>
                       </c:pt>
                       <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45566</c:v>
+                        <c:v>45576</c:v>
                       </c:pt>
                       <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45567</c:v>
+                        <c:v>45577</c:v>
                       </c:pt>
                       <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45568</c:v>
+                        <c:v>45578</c:v>
                       </c:pt>
                       <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45569</c:v>
+                        <c:v>45579</c:v>
                       </c:pt>
                       <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45570</c:v>
+                        <c:v>45580</c:v>
                       </c:pt>
                       <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45571</c:v>
+                        <c:v>45581</c:v>
                       </c:pt>
                       <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45572</c:v>
+                        <c:v>45582</c:v>
                       </c:pt>
                       <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45573</c:v>
-                      </c:pt>
-                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45574</c:v>
-                      </c:pt>
-                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45575</c:v>
-                      </c:pt>
-                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45576</c:v>
-                      </c:pt>
-                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45577</c:v>
+                        <c:v>45583</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16103,206 +16025,179 @@
                           <c15:sqref>日活跃!$E$2:$E$105</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$E$37:$E$105</c15:sqref>
+                          <c15:sqref>日活跃!$E$47:$E$105</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_ </c:formatCode>
-                      <c:ptCount val="69"/>
+                      <c:ptCount val="59"/>
                       <c:pt idx="0">
-                        <c:v>77.9266220391349</c:v>
+                        <c:v>55.931914893617</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>77.4548919949174</c:v>
+                        <c:v>69.3762781186094</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>85.5385684503127</c:v>
+                        <c:v>62.1933474377057</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>72.7549979175344</c:v>
+                        <c:v>71.8812557924004</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>80.2663499779054</c:v>
+                        <c:v>62.4686271157463</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>71.3598897312198</c:v>
+                        <c:v>62.734474522293</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>52.6219249781913</c:v>
+                        <c:v>64.0298727850977</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>68.2166539522328</c:v>
+                        <c:v>64.4660005709392</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>56.8569603345142</c:v>
+                        <c:v>59.9654636504921</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>55.931914893617</c:v>
+                        <c:v>60.4252387214821</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>69.3762781186094</c:v>
+                        <c:v>44.454845814978</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>62.1933474377057</c:v>
+                        <c:v>61.5423102581208</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>71.8812557924004</c:v>
+                        <c:v>58.5448406405075</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>62.4686271157463</c:v>
+                        <c:v>58.6126153846154</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>62.734474522293</c:v>
+                        <c:v>87.9674796747967</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44.9501002106994</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>64.0298727850977</c:v>
+                        <c:v>32.9435147520725</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>64.4660005709392</c:v>
+                        <c:v>54.1237444196429</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>59.9654636504921</c:v>
+                        <c:v>46.771944216571</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>60.4252387214821</c:v>
+                        <c:v>40.9659309636853</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>44.454845814978</c:v>
+                        <c:v>57.2658427097301</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>61.5423102581208</c:v>
+                        <c:v>76.0559649574852</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>58.5448406405075</c:v>
+                        <c:v>47.3631956263861</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>58.6126153846154</c:v>
+                        <c:v>42.2155688622755</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>87.9674796747967</c:v>
+                        <c:v>36.7637991049229</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>44.9501002106994</c:v>
+                        <c:v>27.8740272373541</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>32.9435147520725</c:v>
+                        <c:v>41.9676092544987</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>54.1237444196429</c:v>
+                        <c:v>41.639050512332</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>46.771944216571</c:v>
+                        <c:v>53.6445265235942</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>40.9659309636853</c:v>
+                        <c:v>52.0036747818098</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>57.2658427097301</c:v>
+                        <c:v>67.6474309120133</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>76.0559649574852</c:v>
+                        <c:v>38.6562335057532</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>47.3631956263861</c:v>
+                        <c:v>31.0946910897237</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>42.2155688622755</c:v>
+                        <c:v>33.4286534047437</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>36.7637991049229</c:v>
+                        <c:v>39.586859451414</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>27.8740272373541</c:v>
+                        <c:v>56.7863744388698</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>41.9676092544987</c:v>
+                        <c:v>27.9543612334802</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>41.639050512332</c:v>
+                        <c:v>35.0210542651699</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>53.6445265235942</c:v>
+                        <c:v>24.1828140339999</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>52.0036747818098</c:v>
+                        <c:v>25.9905626134301</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>67.6474309120133</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>38.6562335057532</c:v>
+                        <c:v>30.228103946102</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>31.0946910897237</c:v>
+                        <c:v>38.3056672760512</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>33.4286534047437</c:v>
+                        <c:v>32.5591065640194</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>39.586859451414</c:v>
+                        <c:v>45.5749403220072</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>56.7863744388698</c:v>
+                        <c:v>39.2525704978113</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>27.9543612334802</c:v>
+                        <c:v>43.7622718052738</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>35.0210542651699</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>24.1828140339999</c:v>
+                        <c:v>40.4087591240876</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>25.9905626134301</c:v>
+                        <c:v>44.443492792981</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>30.228103946102</c:v>
+                        <c:v>55.3144920709687</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>27.2486065890403</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>38.3056672760512</c:v>
+                        <c:v>22.810172103776</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>32.5591065640194</c:v>
+                        <c:v>35.8739230930868</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>45.5749403220072</c:v>
+                        <c:v>24.8865990004637</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>39.2525704978113</c:v>
+                        <c:v>27.1758168850556</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>43.7622718052738</c:v>
+                        <c:v>52.7167522165189</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>40.4087591240876</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>44.443492792981</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>55.3144920709687</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>27.2486065890403</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>22.810172103776</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>35.8739230930868</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>24.8865990004637</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>27.1758168850556</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>52.7167522165189</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
                         <c:v>23.5567190226876</c:v>
                       </c:pt>
                     </c:numCache>
@@ -16406,213 +16301,201 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$102</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$108</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="66"/>
+                      <c:ptCount val="62"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45512</c:v>
+                        <c:v>45522</c:v>
                       </c:pt>
                       <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45513</c:v>
+                        <c:v>45523</c:v>
                       </c:pt>
                       <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45514</c:v>
+                        <c:v>45524</c:v>
                       </c:pt>
                       <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45515</c:v>
+                        <c:v>45525</c:v>
                       </c:pt>
                       <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45516</c:v>
+                        <c:v>45526</c:v>
                       </c:pt>
                       <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45517</c:v>
+                        <c:v>45527</c:v>
                       </c:pt>
                       <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45518</c:v>
+                        <c:v>45528</c:v>
                       </c:pt>
                       <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45519</c:v>
+                        <c:v>45529</c:v>
                       </c:pt>
                       <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45520</c:v>
+                        <c:v>45530</c:v>
                       </c:pt>
                       <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45521</c:v>
+                        <c:v>45531</c:v>
                       </c:pt>
                       <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45522</c:v>
+                        <c:v>45532</c:v>
                       </c:pt>
                       <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45523</c:v>
+                        <c:v>45533</c:v>
                       </c:pt>
                       <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45524</c:v>
+                        <c:v>45534</c:v>
                       </c:pt>
                       <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45525</c:v>
+                        <c:v>45535</c:v>
                       </c:pt>
                       <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45526</c:v>
+                        <c:v>45536</c:v>
                       </c:pt>
                       <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45527</c:v>
+                        <c:v>45537</c:v>
                       </c:pt>
                       <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45528</c:v>
+                        <c:v>45538</c:v>
                       </c:pt>
                       <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45529</c:v>
+                        <c:v>45539</c:v>
                       </c:pt>
                       <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45530</c:v>
+                        <c:v>45540</c:v>
                       </c:pt>
                       <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45531</c:v>
+                        <c:v>45541</c:v>
                       </c:pt>
                       <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45532</c:v>
+                        <c:v>45542</c:v>
                       </c:pt>
                       <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45533</c:v>
+                        <c:v>45543</c:v>
                       </c:pt>
                       <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45534</c:v>
+                        <c:v>45544</c:v>
                       </c:pt>
                       <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45535</c:v>
+                        <c:v>45545</c:v>
                       </c:pt>
                       <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45536</c:v>
+                        <c:v>45546</c:v>
                       </c:pt>
                       <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45537</c:v>
+                        <c:v>45547</c:v>
                       </c:pt>
                       <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45538</c:v>
+                        <c:v>45548</c:v>
                       </c:pt>
                       <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45539</c:v>
+                        <c:v>45549</c:v>
                       </c:pt>
                       <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45540</c:v>
+                        <c:v>45550</c:v>
                       </c:pt>
                       <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45541</c:v>
+                        <c:v>45551</c:v>
                       </c:pt>
                       <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45542</c:v>
+                        <c:v>45552</c:v>
                       </c:pt>
                       <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45543</c:v>
+                        <c:v>45553</c:v>
                       </c:pt>
                       <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45544</c:v>
+                        <c:v>45554</c:v>
                       </c:pt>
                       <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45545</c:v>
+                        <c:v>45555</c:v>
                       </c:pt>
                       <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45546</c:v>
+                        <c:v>45556</c:v>
                       </c:pt>
                       <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45547</c:v>
+                        <c:v>45557</c:v>
                       </c:pt>
                       <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45548</c:v>
+                        <c:v>45558</c:v>
                       </c:pt>
                       <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45549</c:v>
+                        <c:v>45559</c:v>
                       </c:pt>
                       <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45550</c:v>
+                        <c:v>45560</c:v>
                       </c:pt>
                       <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45551</c:v>
+                        <c:v>45561</c:v>
                       </c:pt>
                       <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45552</c:v>
+                        <c:v>45562</c:v>
                       </c:pt>
                       <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45553</c:v>
+                        <c:v>45563</c:v>
                       </c:pt>
                       <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45554</c:v>
+                        <c:v>45564</c:v>
                       </c:pt>
                       <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45555</c:v>
+                        <c:v>45565</c:v>
                       </c:pt>
                       <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45556</c:v>
+                        <c:v>45566</c:v>
                       </c:pt>
                       <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45557</c:v>
+                        <c:v>45567</c:v>
                       </c:pt>
                       <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45558</c:v>
+                        <c:v>45568</c:v>
                       </c:pt>
                       <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45559</c:v>
+                        <c:v>45569</c:v>
                       </c:pt>
                       <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45560</c:v>
+                        <c:v>45570</c:v>
                       </c:pt>
                       <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45561</c:v>
+                        <c:v>45571</c:v>
                       </c:pt>
                       <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45562</c:v>
+                        <c:v>45572</c:v>
                       </c:pt>
                       <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45563</c:v>
+                        <c:v>45573</c:v>
                       </c:pt>
                       <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45564</c:v>
+                        <c:v>45574</c:v>
                       </c:pt>
                       <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45565</c:v>
+                        <c:v>45575</c:v>
                       </c:pt>
                       <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45566</c:v>
+                        <c:v>45576</c:v>
                       </c:pt>
                       <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45567</c:v>
+                        <c:v>45577</c:v>
                       </c:pt>
                       <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45568</c:v>
+                        <c:v>45578</c:v>
                       </c:pt>
                       <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45569</c:v>
+                        <c:v>45579</c:v>
                       </c:pt>
                       <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45570</c:v>
+                        <c:v>45580</c:v>
                       </c:pt>
                       <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45571</c:v>
+                        <c:v>45581</c:v>
                       </c:pt>
                       <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45572</c:v>
+                        <c:v>45582</c:v>
                       </c:pt>
                       <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45573</c:v>
-                      </c:pt>
-                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45574</c:v>
-                      </c:pt>
-                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45575</c:v>
-                      </c:pt>
-                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45576</c:v>
-                      </c:pt>
-                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45577</c:v>
+                        <c:v>45583</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16625,213 +16508,189 @@
                           <c15:sqref>日活跃!$F$2:$F$108</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$F$37:$F$108</c15:sqref>
+                          <c15:sqref>日活跃!$F$47:$F$108</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_ </c:formatCode>
-                      <c:ptCount val="72"/>
+                      <c:ptCount val="62"/>
                       <c:pt idx="0">
-                        <c:v>61.5386199794027</c:v>
+                        <c:v>38.3404255319149</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>54.9466327827192</c:v>
+                        <c:v>40.1175869120654</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>50.2863099374566</c:v>
+                        <c:v>45.3167606958157</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>50.9557476051645</c:v>
+                        <c:v>35.7863762743281</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>50.1302474591251</c:v>
+                        <c:v>49.5493246708839</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>54.3349414197105</c:v>
+                        <c:v>42.3799476797088</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>42.9566734515848</c:v>
+                        <c:v>38.7829395729214</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>35.9687811748137</c:v>
+                        <c:v>41.0377390807879</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>40.4145420756141</c:v>
+                        <c:v>45.4377482300121</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>38.3404255319149</c:v>
+                        <c:v>36.1321402024129</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>40.1175869120654</c:v>
+                        <c:v>37.3420704845815</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>45.3167606958157</c:v>
+                        <c:v>37.4785754605634</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>35.7863762743281</c:v>
+                        <c:v>34.7955184938865</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>49.5493246708839</c:v>
+                        <c:v>37.5508717948718</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>42.3799476797088</c:v>
+                        <c:v>43.9837398373984</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>58.7273755074773</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>38.7829395729214</c:v>
+                        <c:v>25.4055918850729</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>41.0377390807879</c:v>
+                        <c:v>21.9522879464286</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>45.4377482300121</c:v>
+                        <c:v>44.6839109926169</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>36.1321402024129</c:v>
+                        <c:v>33.8186834338509</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>37.3420704845815</c:v>
+                        <c:v>29.1881303562059</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>37.4785754605634</c:v>
+                        <c:v>38.448956454522</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>34.7955184938865</c:v>
+                        <c:v>57.3417917375832</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>37.5508717948718</c:v>
+                        <c:v>29.6916167664671</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>43.9837398373984</c:v>
+                        <c:v>26.0661362506216</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>58.7273755074773</c:v>
+                        <c:v>21.3848357111976</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>25.4055918850729</c:v>
+                        <c:v>15.0185089974293</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>21.9522879464286</c:v>
+                        <c:v>26.7277689099428</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>44.6839109926169</c:v>
+                        <c:v>29.6089919123734</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>33.8186834338509</c:v>
+                        <c:v>38.7231664369928</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>29.1881303562059</c:v>
+                        <c:v>41.4980038367813</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>38.448956454522</c:v>
+                        <c:v>61.6762377282804</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>57.3417917375832</c:v>
+                        <c:v>25.5572803477181</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>29.6916167664671</c:v>
+                        <c:v>18.5520275439939</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>26.0661362506216</c:v>
+                        <c:v>19.1360833510525</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>21.3848357111976</c:v>
+                        <c:v>30.6443094797993</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>15.0185089974293</c:v>
+                        <c:v>38.9422026431718</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>26.7277689099428</c:v>
+                        <c:v>20.5001293259531</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>29.6089919123734</c:v>
+                        <c:v>29.5883842298352</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>38.7231664369928</c:v>
+                        <c:v>17.8506611355976</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>41.4980038367813</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>61.6762377282804</c:v>
+                        <c:v>15.9095283926853</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>25.5572803477181</c:v>
+                        <c:v>28.2252285191956</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>18.5520275439939</c:v>
+                        <c:v>20.9607982171799</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>19.1360833510525</c:v>
+                        <c:v>20.754126669714</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>30.6443094797993</c:v>
+                        <c:v>29.544945535987</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>38.9422026431718</c:v>
+                        <c:v>30.016430020284</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>20.5001293259531</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>29.5883842298352</c:v>
+                        <c:v>27.6407137064071</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>17.8506611355976</c:v>
+                        <c:v>25.1894714852726</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>15.9095283926853</c:v>
+                        <c:v>29.4720259590726</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>44.8530434302743</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>28.2252285191956</c:v>
+                        <c:v>20.8142820446956</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>20.9607982171799</c:v>
+                        <c:v>14.7287245219584</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>20.754126669714</c:v>
+                        <c:v>19.0225153279407</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>29.544945535987</c:v>
+                        <c:v>12.4363907779068</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>30.016430020284</c:v>
+                        <c:v>16.8520765282314</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>27.6407137064071</c:v>
+                        <c:v>38.4528795811518</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>13.1180202380328</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>25.1894714852726</c:v>
+                        <c:v>10.9104461997175</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>29.4720259590726</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>44.8530434302743</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>20.8142820446956</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>14.7287245219584</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>19.0225153279407</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>12.4363907779068</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>16.8520765282314</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>38.4528795811518</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>13.1180202380328</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>10.9104461997175</c:v>
+                        <c:v>17.0639657749601</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16934,213 +16793,201 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$102</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$108</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="66"/>
+                      <c:ptCount val="62"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45512</c:v>
+                        <c:v>45522</c:v>
                       </c:pt>
                       <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45513</c:v>
+                        <c:v>45523</c:v>
                       </c:pt>
                       <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45514</c:v>
+                        <c:v>45524</c:v>
                       </c:pt>
                       <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45515</c:v>
+                        <c:v>45525</c:v>
                       </c:pt>
                       <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45516</c:v>
+                        <c:v>45526</c:v>
                       </c:pt>
                       <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45517</c:v>
+                        <c:v>45527</c:v>
                       </c:pt>
                       <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45518</c:v>
+                        <c:v>45528</c:v>
                       </c:pt>
                       <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45519</c:v>
+                        <c:v>45529</c:v>
                       </c:pt>
                       <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45520</c:v>
+                        <c:v>45530</c:v>
                       </c:pt>
                       <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45521</c:v>
+                        <c:v>45531</c:v>
                       </c:pt>
                       <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45522</c:v>
+                        <c:v>45532</c:v>
                       </c:pt>
                       <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45523</c:v>
+                        <c:v>45533</c:v>
                       </c:pt>
                       <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45524</c:v>
+                        <c:v>45534</c:v>
                       </c:pt>
                       <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45525</c:v>
+                        <c:v>45535</c:v>
                       </c:pt>
                       <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45526</c:v>
+                        <c:v>45536</c:v>
                       </c:pt>
                       <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45527</c:v>
+                        <c:v>45537</c:v>
                       </c:pt>
                       <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45528</c:v>
+                        <c:v>45538</c:v>
                       </c:pt>
                       <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45529</c:v>
+                        <c:v>45539</c:v>
                       </c:pt>
                       <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45530</c:v>
+                        <c:v>45540</c:v>
                       </c:pt>
                       <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45531</c:v>
+                        <c:v>45541</c:v>
                       </c:pt>
                       <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45532</c:v>
+                        <c:v>45542</c:v>
                       </c:pt>
                       <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45533</c:v>
+                        <c:v>45543</c:v>
                       </c:pt>
                       <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45534</c:v>
+                        <c:v>45544</c:v>
                       </c:pt>
                       <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45535</c:v>
+                        <c:v>45545</c:v>
                       </c:pt>
                       <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45536</c:v>
+                        <c:v>45546</c:v>
                       </c:pt>
                       <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45537</c:v>
+                        <c:v>45547</c:v>
                       </c:pt>
                       <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45538</c:v>
+                        <c:v>45548</c:v>
                       </c:pt>
                       <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45539</c:v>
+                        <c:v>45549</c:v>
                       </c:pt>
                       <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45540</c:v>
+                        <c:v>45550</c:v>
                       </c:pt>
                       <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45541</c:v>
+                        <c:v>45551</c:v>
                       </c:pt>
                       <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45542</c:v>
+                        <c:v>45552</c:v>
                       </c:pt>
                       <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45543</c:v>
+                        <c:v>45553</c:v>
                       </c:pt>
                       <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45544</c:v>
+                        <c:v>45554</c:v>
                       </c:pt>
                       <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45545</c:v>
+                        <c:v>45555</c:v>
                       </c:pt>
                       <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45546</c:v>
+                        <c:v>45556</c:v>
                       </c:pt>
                       <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45547</c:v>
+                        <c:v>45557</c:v>
                       </c:pt>
                       <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45548</c:v>
+                        <c:v>45558</c:v>
                       </c:pt>
                       <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45549</c:v>
+                        <c:v>45559</c:v>
                       </c:pt>
                       <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45550</c:v>
+                        <c:v>45560</c:v>
                       </c:pt>
                       <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45551</c:v>
+                        <c:v>45561</c:v>
                       </c:pt>
                       <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45552</c:v>
+                        <c:v>45562</c:v>
                       </c:pt>
                       <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45553</c:v>
+                        <c:v>45563</c:v>
                       </c:pt>
                       <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45554</c:v>
+                        <c:v>45564</c:v>
                       </c:pt>
                       <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45555</c:v>
+                        <c:v>45565</c:v>
                       </c:pt>
                       <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45556</c:v>
+                        <c:v>45566</c:v>
                       </c:pt>
                       <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45557</c:v>
+                        <c:v>45567</c:v>
                       </c:pt>
                       <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45558</c:v>
+                        <c:v>45568</c:v>
                       </c:pt>
                       <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45559</c:v>
+                        <c:v>45569</c:v>
                       </c:pt>
                       <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45560</c:v>
+                        <c:v>45570</c:v>
                       </c:pt>
                       <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45561</c:v>
+                        <c:v>45571</c:v>
                       </c:pt>
                       <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45562</c:v>
+                        <c:v>45572</c:v>
                       </c:pt>
                       <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45563</c:v>
+                        <c:v>45573</c:v>
                       </c:pt>
                       <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45564</c:v>
+                        <c:v>45574</c:v>
                       </c:pt>
                       <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45565</c:v>
+                        <c:v>45575</c:v>
                       </c:pt>
                       <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45566</c:v>
+                        <c:v>45576</c:v>
                       </c:pt>
                       <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45567</c:v>
+                        <c:v>45577</c:v>
                       </c:pt>
                       <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45568</c:v>
+                        <c:v>45578</c:v>
                       </c:pt>
                       <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45569</c:v>
+                        <c:v>45579</c:v>
                       </c:pt>
                       <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45570</c:v>
+                        <c:v>45580</c:v>
                       </c:pt>
                       <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45571</c:v>
+                        <c:v>45581</c:v>
                       </c:pt>
                       <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45572</c:v>
+                        <c:v>45582</c:v>
                       </c:pt>
                       <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45573</c:v>
-                      </c:pt>
-                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45574</c:v>
-                      </c:pt>
-                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45575</c:v>
-                      </c:pt>
-                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45576</c:v>
-                      </c:pt>
-                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45577</c:v>
+                        <c:v>45583</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17153,41 +17000,14 @@
                           <c15:sqref>日活跃!$G$2:$G$47</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$G$37:$G$47</c15:sqref>
+                          <c15:sqref>日活跃!$G$47</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_ </c:formatCode>
-                      <c:ptCount val="11"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>53.177394438723</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>50.7539178314274</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>45.6205698401668</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>41.1460849645981</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>43.7553026955369</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>40.9323225361819</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>35.899505670253</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>36.8990082741623</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>32.4238341367094</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
                         <c:v>35.4836879432624</c:v>
                       </c:pt>
                     </c:numCache>
@@ -17291,213 +17111,201 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$102</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$108</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="66"/>
+                      <c:ptCount val="62"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45512</c:v>
+                        <c:v>45522</c:v>
                       </c:pt>
                       <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45513</c:v>
+                        <c:v>45523</c:v>
                       </c:pt>
                       <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45514</c:v>
+                        <c:v>45524</c:v>
                       </c:pt>
                       <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45515</c:v>
+                        <c:v>45525</c:v>
                       </c:pt>
                       <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45516</c:v>
+                        <c:v>45526</c:v>
                       </c:pt>
                       <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45517</c:v>
+                        <c:v>45527</c:v>
                       </c:pt>
                       <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45518</c:v>
+                        <c:v>45528</c:v>
                       </c:pt>
                       <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45519</c:v>
+                        <c:v>45529</c:v>
                       </c:pt>
                       <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45520</c:v>
+                        <c:v>45530</c:v>
                       </c:pt>
                       <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45521</c:v>
+                        <c:v>45531</c:v>
                       </c:pt>
                       <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45522</c:v>
+                        <c:v>45532</c:v>
                       </c:pt>
                       <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45523</c:v>
+                        <c:v>45533</c:v>
                       </c:pt>
                       <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45524</c:v>
+                        <c:v>45534</c:v>
                       </c:pt>
                       <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45525</c:v>
+                        <c:v>45535</c:v>
                       </c:pt>
                       <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45526</c:v>
+                        <c:v>45536</c:v>
                       </c:pt>
                       <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45527</c:v>
+                        <c:v>45537</c:v>
                       </c:pt>
                       <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45528</c:v>
+                        <c:v>45538</c:v>
                       </c:pt>
                       <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45529</c:v>
+                        <c:v>45539</c:v>
                       </c:pt>
                       <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45530</c:v>
+                        <c:v>45540</c:v>
                       </c:pt>
                       <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45531</c:v>
+                        <c:v>45541</c:v>
                       </c:pt>
                       <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45532</c:v>
+                        <c:v>45542</c:v>
                       </c:pt>
                       <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45533</c:v>
+                        <c:v>45543</c:v>
                       </c:pt>
                       <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45534</c:v>
+                        <c:v>45544</c:v>
                       </c:pt>
                       <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45535</c:v>
+                        <c:v>45545</c:v>
                       </c:pt>
                       <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45536</c:v>
+                        <c:v>45546</c:v>
                       </c:pt>
                       <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45537</c:v>
+                        <c:v>45547</c:v>
                       </c:pt>
                       <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45538</c:v>
+                        <c:v>45548</c:v>
                       </c:pt>
                       <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45539</c:v>
+                        <c:v>45549</c:v>
                       </c:pt>
                       <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45540</c:v>
+                        <c:v>45550</c:v>
                       </c:pt>
                       <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45541</c:v>
+                        <c:v>45551</c:v>
                       </c:pt>
                       <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45542</c:v>
+                        <c:v>45552</c:v>
                       </c:pt>
                       <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45543</c:v>
+                        <c:v>45553</c:v>
                       </c:pt>
                       <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45544</c:v>
+                        <c:v>45554</c:v>
                       </c:pt>
                       <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45545</c:v>
+                        <c:v>45555</c:v>
                       </c:pt>
                       <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45546</c:v>
+                        <c:v>45556</c:v>
                       </c:pt>
                       <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45547</c:v>
+                        <c:v>45557</c:v>
                       </c:pt>
                       <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45548</c:v>
+                        <c:v>45558</c:v>
                       </c:pt>
                       <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45549</c:v>
+                        <c:v>45559</c:v>
                       </c:pt>
                       <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45550</c:v>
+                        <c:v>45560</c:v>
                       </c:pt>
                       <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45551</c:v>
+                        <c:v>45561</c:v>
                       </c:pt>
                       <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45552</c:v>
+                        <c:v>45562</c:v>
                       </c:pt>
                       <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45553</c:v>
+                        <c:v>45563</c:v>
                       </c:pt>
                       <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45554</c:v>
+                        <c:v>45564</c:v>
                       </c:pt>
                       <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45555</c:v>
+                        <c:v>45565</c:v>
                       </c:pt>
                       <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45556</c:v>
+                        <c:v>45566</c:v>
                       </c:pt>
                       <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45557</c:v>
+                        <c:v>45567</c:v>
                       </c:pt>
                       <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45558</c:v>
+                        <c:v>45568</c:v>
                       </c:pt>
                       <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45559</c:v>
+                        <c:v>45569</c:v>
                       </c:pt>
                       <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45560</c:v>
+                        <c:v>45570</c:v>
                       </c:pt>
                       <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45561</c:v>
+                        <c:v>45571</c:v>
                       </c:pt>
                       <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45562</c:v>
+                        <c:v>45572</c:v>
                       </c:pt>
                       <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45563</c:v>
+                        <c:v>45573</c:v>
                       </c:pt>
                       <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45564</c:v>
+                        <c:v>45574</c:v>
                       </c:pt>
                       <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45565</c:v>
+                        <c:v>45575</c:v>
                       </c:pt>
                       <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45566</c:v>
+                        <c:v>45576</c:v>
                       </c:pt>
                       <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45567</c:v>
+                        <c:v>45577</c:v>
                       </c:pt>
                       <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45568</c:v>
+                        <c:v>45578</c:v>
                       </c:pt>
                       <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45569</c:v>
+                        <c:v>45579</c:v>
                       </c:pt>
                       <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45570</c:v>
+                        <c:v>45580</c:v>
                       </c:pt>
                       <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45571</c:v>
+                        <c:v>45581</c:v>
                       </c:pt>
                       <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45572</c:v>
+                        <c:v>45582</c:v>
                       </c:pt>
                       <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45573</c:v>
-                      </c:pt>
-                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45574</c:v>
-                      </c:pt>
-                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45575</c:v>
-                      </c:pt>
-                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45576</c:v>
-                      </c:pt>
-                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45577</c:v>
+                        <c:v>45583</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17510,44 +17318,17 @@
                           <c15:sqref>日活跃!$H$2:$H$48</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$H$37:$H$48</c15:sqref>
+                          <c15:sqref>日活跃!$H$47:$H$48</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_ </c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>61.2041709577755</c:v>
+                        <c:v>30.3716312056738</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>42.3684879288437</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>50.8047255038221</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>37.603706788838</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>34.4826557666814</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>45.6413507925568</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>34.9790055248619</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>26.6665101813274</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>35.0361809628898</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>30.3716312056738</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
                         <c:v>28.3537832310838</c:v>
                       </c:pt>
                     </c:numCache>
@@ -17650,213 +17431,201 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$102</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$108</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="66"/>
+                      <c:ptCount val="62"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45512</c:v>
+                        <c:v>45522</c:v>
                       </c:pt>
                       <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45513</c:v>
+                        <c:v>45523</c:v>
                       </c:pt>
                       <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45514</c:v>
+                        <c:v>45524</c:v>
                       </c:pt>
                       <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45515</c:v>
+                        <c:v>45525</c:v>
                       </c:pt>
                       <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45516</c:v>
+                        <c:v>45526</c:v>
                       </c:pt>
                       <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45517</c:v>
+                        <c:v>45527</c:v>
                       </c:pt>
                       <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45518</c:v>
+                        <c:v>45528</c:v>
                       </c:pt>
                       <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45519</c:v>
+                        <c:v>45529</c:v>
                       </c:pt>
                       <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45520</c:v>
+                        <c:v>45530</c:v>
                       </c:pt>
                       <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45521</c:v>
+                        <c:v>45531</c:v>
                       </c:pt>
                       <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45522</c:v>
+                        <c:v>45532</c:v>
                       </c:pt>
                       <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45523</c:v>
+                        <c:v>45533</c:v>
                       </c:pt>
                       <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45524</c:v>
+                        <c:v>45534</c:v>
                       </c:pt>
                       <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45525</c:v>
+                        <c:v>45535</c:v>
                       </c:pt>
                       <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45526</c:v>
+                        <c:v>45536</c:v>
                       </c:pt>
                       <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45527</c:v>
+                        <c:v>45537</c:v>
                       </c:pt>
                       <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45528</c:v>
+                        <c:v>45538</c:v>
                       </c:pt>
                       <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45529</c:v>
+                        <c:v>45539</c:v>
                       </c:pt>
                       <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45530</c:v>
+                        <c:v>45540</c:v>
                       </c:pt>
                       <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45531</c:v>
+                        <c:v>45541</c:v>
                       </c:pt>
                       <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45532</c:v>
+                        <c:v>45542</c:v>
                       </c:pt>
                       <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45533</c:v>
+                        <c:v>45543</c:v>
                       </c:pt>
                       <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45534</c:v>
+                        <c:v>45544</c:v>
                       </c:pt>
                       <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45535</c:v>
+                        <c:v>45545</c:v>
                       </c:pt>
                       <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45536</c:v>
+                        <c:v>45546</c:v>
                       </c:pt>
                       <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45537</c:v>
+                        <c:v>45547</c:v>
                       </c:pt>
                       <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45538</c:v>
+                        <c:v>45548</c:v>
                       </c:pt>
                       <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45539</c:v>
+                        <c:v>45549</c:v>
                       </c:pt>
                       <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45540</c:v>
+                        <c:v>45550</c:v>
                       </c:pt>
                       <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45541</c:v>
+                        <c:v>45551</c:v>
                       </c:pt>
                       <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45542</c:v>
+                        <c:v>45552</c:v>
                       </c:pt>
                       <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45543</c:v>
+                        <c:v>45553</c:v>
                       </c:pt>
                       <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45544</c:v>
+                        <c:v>45554</c:v>
                       </c:pt>
                       <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45545</c:v>
+                        <c:v>45555</c:v>
                       </c:pt>
                       <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45546</c:v>
+                        <c:v>45556</c:v>
                       </c:pt>
                       <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45547</c:v>
+                        <c:v>45557</c:v>
                       </c:pt>
                       <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45548</c:v>
+                        <c:v>45558</c:v>
                       </c:pt>
                       <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45549</c:v>
+                        <c:v>45559</c:v>
                       </c:pt>
                       <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45550</c:v>
+                        <c:v>45560</c:v>
                       </c:pt>
                       <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45551</c:v>
+                        <c:v>45561</c:v>
                       </c:pt>
                       <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45552</c:v>
+                        <c:v>45562</c:v>
                       </c:pt>
                       <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45553</c:v>
+                        <c:v>45563</c:v>
                       </c:pt>
                       <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45554</c:v>
+                        <c:v>45564</c:v>
                       </c:pt>
                       <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45555</c:v>
+                        <c:v>45565</c:v>
                       </c:pt>
                       <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45556</c:v>
+                        <c:v>45566</c:v>
                       </c:pt>
                       <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45557</c:v>
+                        <c:v>45567</c:v>
                       </c:pt>
                       <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45558</c:v>
+                        <c:v>45568</c:v>
                       </c:pt>
                       <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45559</c:v>
+                        <c:v>45569</c:v>
                       </c:pt>
                       <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45560</c:v>
+                        <c:v>45570</c:v>
                       </c:pt>
                       <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45561</c:v>
+                        <c:v>45571</c:v>
                       </c:pt>
                       <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45562</c:v>
+                        <c:v>45572</c:v>
                       </c:pt>
                       <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45563</c:v>
+                        <c:v>45573</c:v>
                       </c:pt>
                       <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45564</c:v>
+                        <c:v>45574</c:v>
                       </c:pt>
                       <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45565</c:v>
+                        <c:v>45575</c:v>
                       </c:pt>
                       <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45566</c:v>
+                        <c:v>45576</c:v>
                       </c:pt>
                       <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45567</c:v>
+                        <c:v>45577</c:v>
                       </c:pt>
                       <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45568</c:v>
+                        <c:v>45578</c:v>
                       </c:pt>
                       <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45569</c:v>
+                        <c:v>45579</c:v>
                       </c:pt>
                       <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45570</c:v>
+                        <c:v>45580</c:v>
                       </c:pt>
                       <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45571</c:v>
+                        <c:v>45581</c:v>
                       </c:pt>
                       <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45572</c:v>
+                        <c:v>45582</c:v>
                       </c:pt>
                       <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45573</c:v>
-                      </c:pt>
-                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45574</c:v>
-                      </c:pt>
-                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45575</c:v>
-                      </c:pt>
-                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45576</c:v>
-                      </c:pt>
-                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45577</c:v>
+                        <c:v>45583</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17869,44 +17638,17 @@
                           <c15:sqref>日活跃!$I$2:$I$48</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$I$37:$I$48</c15:sqref>
+                          <c15:sqref>日活跃!$I$47:$I$48</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_ </c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>53.8462924819773</c:v>
+                        <c:v>31.1234042553191</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>58.9186785260483</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>43.2876997915219</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>43.5985006247397</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>42.5962218294299</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>35.4988283942109</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>32.6777551613841</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>37.0540461240538</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>30.7334920727104</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>31.1234042553191</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
                         <c:v>26.6947852760736</c:v>
                       </c:pt>
                     </c:numCache>
@@ -18010,213 +17752,201 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$102</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$108</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="66"/>
+                      <c:ptCount val="62"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45512</c:v>
+                        <c:v>45522</c:v>
                       </c:pt>
                       <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45513</c:v>
+                        <c:v>45523</c:v>
                       </c:pt>
                       <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45514</c:v>
+                        <c:v>45524</c:v>
                       </c:pt>
                       <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45515</c:v>
+                        <c:v>45525</c:v>
                       </c:pt>
                       <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45516</c:v>
+                        <c:v>45526</c:v>
                       </c:pt>
                       <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45517</c:v>
+                        <c:v>45527</c:v>
                       </c:pt>
                       <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45518</c:v>
+                        <c:v>45528</c:v>
                       </c:pt>
                       <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45519</c:v>
+                        <c:v>45529</c:v>
                       </c:pt>
                       <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45520</c:v>
+                        <c:v>45530</c:v>
                       </c:pt>
                       <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45521</c:v>
+                        <c:v>45531</c:v>
                       </c:pt>
                       <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45522</c:v>
+                        <c:v>45532</c:v>
                       </c:pt>
                       <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45523</c:v>
+                        <c:v>45533</c:v>
                       </c:pt>
                       <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45524</c:v>
+                        <c:v>45534</c:v>
                       </c:pt>
                       <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45525</c:v>
+                        <c:v>45535</c:v>
                       </c:pt>
                       <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45526</c:v>
+                        <c:v>45536</c:v>
                       </c:pt>
                       <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45527</c:v>
+                        <c:v>45537</c:v>
                       </c:pt>
                       <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45528</c:v>
+                        <c:v>45538</c:v>
                       </c:pt>
                       <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45529</c:v>
+                        <c:v>45539</c:v>
                       </c:pt>
                       <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45530</c:v>
+                        <c:v>45540</c:v>
                       </c:pt>
                       <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45531</c:v>
+                        <c:v>45541</c:v>
                       </c:pt>
                       <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45532</c:v>
+                        <c:v>45542</c:v>
                       </c:pt>
                       <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45533</c:v>
+                        <c:v>45543</c:v>
                       </c:pt>
                       <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45534</c:v>
+                        <c:v>45544</c:v>
                       </c:pt>
                       <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45535</c:v>
+                        <c:v>45545</c:v>
                       </c:pt>
                       <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45536</c:v>
+                        <c:v>45546</c:v>
                       </c:pt>
                       <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45537</c:v>
+                        <c:v>45547</c:v>
                       </c:pt>
                       <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45538</c:v>
+                        <c:v>45548</c:v>
                       </c:pt>
                       <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45539</c:v>
+                        <c:v>45549</c:v>
                       </c:pt>
                       <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45540</c:v>
+                        <c:v>45550</c:v>
                       </c:pt>
                       <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45541</c:v>
+                        <c:v>45551</c:v>
                       </c:pt>
                       <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45542</c:v>
+                        <c:v>45552</c:v>
                       </c:pt>
                       <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45543</c:v>
+                        <c:v>45553</c:v>
                       </c:pt>
                       <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45544</c:v>
+                        <c:v>45554</c:v>
                       </c:pt>
                       <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45545</c:v>
+                        <c:v>45555</c:v>
                       </c:pt>
                       <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45546</c:v>
+                        <c:v>45556</c:v>
                       </c:pt>
                       <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45547</c:v>
+                        <c:v>45557</c:v>
                       </c:pt>
                       <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45548</c:v>
+                        <c:v>45558</c:v>
                       </c:pt>
                       <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45549</c:v>
+                        <c:v>45559</c:v>
                       </c:pt>
                       <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45550</c:v>
+                        <c:v>45560</c:v>
                       </c:pt>
                       <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45551</c:v>
+                        <c:v>45561</c:v>
                       </c:pt>
                       <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45552</c:v>
+                        <c:v>45562</c:v>
                       </c:pt>
                       <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45553</c:v>
+                        <c:v>45563</c:v>
                       </c:pt>
                       <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45554</c:v>
+                        <c:v>45564</c:v>
                       </c:pt>
                       <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45555</c:v>
+                        <c:v>45565</c:v>
                       </c:pt>
                       <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45556</c:v>
+                        <c:v>45566</c:v>
                       </c:pt>
                       <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45557</c:v>
+                        <c:v>45567</c:v>
                       </c:pt>
                       <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45558</c:v>
+                        <c:v>45568</c:v>
                       </c:pt>
                       <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45559</c:v>
+                        <c:v>45569</c:v>
                       </c:pt>
                       <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45560</c:v>
+                        <c:v>45570</c:v>
                       </c:pt>
                       <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45561</c:v>
+                        <c:v>45571</c:v>
                       </c:pt>
                       <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45562</c:v>
+                        <c:v>45572</c:v>
                       </c:pt>
                       <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45563</c:v>
+                        <c:v>45573</c:v>
                       </c:pt>
                       <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45564</c:v>
+                        <c:v>45574</c:v>
                       </c:pt>
                       <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45565</c:v>
+                        <c:v>45575</c:v>
                       </c:pt>
                       <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45566</c:v>
+                        <c:v>45576</c:v>
                       </c:pt>
                       <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45567</c:v>
+                        <c:v>45577</c:v>
                       </c:pt>
                       <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45568</c:v>
+                        <c:v>45578</c:v>
                       </c:pt>
                       <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45569</c:v>
+                        <c:v>45579</c:v>
                       </c:pt>
                       <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45570</c:v>
+                        <c:v>45580</c:v>
                       </c:pt>
                       <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45571</c:v>
+                        <c:v>45581</c:v>
                       </c:pt>
                       <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45572</c:v>
+                        <c:v>45582</c:v>
                       </c:pt>
                       <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45573</c:v>
-                      </c:pt>
-                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45574</c:v>
-                      </c:pt>
-                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45575</c:v>
-                      </c:pt>
-                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45576</c:v>
-                      </c:pt>
-                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45577</c:v>
+                        <c:v>45583</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18229,44 +17959,17 @@
                           <c15:sqref>日活跃!$J$2:$J$48</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$J$37:$J$48</c15:sqref>
+                          <c15:sqref>日活跃!$J$47:$J$48</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_ </c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>43.4783728115345</c:v>
+                        <c:v>28.4170212765957</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>51.857263871241</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>54.1744266851981</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>41.6910662224073</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>44.0450729120636</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>38.7589248793935</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>38.3541727246293</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>30.6974942785048</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>32.1164992159824</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>28.4170212765957</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
                         <c:v>26.2423312883436</c:v>
                       </c:pt>
                     </c:numCache>
@@ -18367,213 +18070,201 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$102</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$37:$B$102</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$108</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="66"/>
+                      <c:ptCount val="62"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45512</c:v>
+                        <c:v>45522</c:v>
                       </c:pt>
                       <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45513</c:v>
+                        <c:v>45523</c:v>
                       </c:pt>
                       <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45514</c:v>
+                        <c:v>45524</c:v>
                       </c:pt>
                       <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45515</c:v>
+                        <c:v>45525</c:v>
                       </c:pt>
                       <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45516</c:v>
+                        <c:v>45526</c:v>
                       </c:pt>
                       <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45517</c:v>
+                        <c:v>45527</c:v>
                       </c:pt>
                       <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45518</c:v>
+                        <c:v>45528</c:v>
                       </c:pt>
                       <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45519</c:v>
+                        <c:v>45529</c:v>
                       </c:pt>
                       <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45520</c:v>
+                        <c:v>45530</c:v>
                       </c:pt>
                       <c:pt idx="9" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45521</c:v>
+                        <c:v>45531</c:v>
                       </c:pt>
                       <c:pt idx="10" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45522</c:v>
+                        <c:v>45532</c:v>
                       </c:pt>
                       <c:pt idx="11" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45523</c:v>
+                        <c:v>45533</c:v>
                       </c:pt>
                       <c:pt idx="12" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45524</c:v>
+                        <c:v>45534</c:v>
                       </c:pt>
                       <c:pt idx="13" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45525</c:v>
+                        <c:v>45535</c:v>
                       </c:pt>
                       <c:pt idx="14" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45526</c:v>
+                        <c:v>45536</c:v>
                       </c:pt>
                       <c:pt idx="15" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45527</c:v>
+                        <c:v>45537</c:v>
                       </c:pt>
                       <c:pt idx="16" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45528</c:v>
+                        <c:v>45538</c:v>
                       </c:pt>
                       <c:pt idx="17" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45529</c:v>
+                        <c:v>45539</c:v>
                       </c:pt>
                       <c:pt idx="18" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45530</c:v>
+                        <c:v>45540</c:v>
                       </c:pt>
                       <c:pt idx="19" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45531</c:v>
+                        <c:v>45541</c:v>
                       </c:pt>
                       <c:pt idx="20" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45532</c:v>
+                        <c:v>45542</c:v>
                       </c:pt>
                       <c:pt idx="21" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45533</c:v>
+                        <c:v>45543</c:v>
                       </c:pt>
                       <c:pt idx="22" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45534</c:v>
+                        <c:v>45544</c:v>
                       </c:pt>
                       <c:pt idx="23" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45535</c:v>
+                        <c:v>45545</c:v>
                       </c:pt>
                       <c:pt idx="24" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45536</c:v>
+                        <c:v>45546</c:v>
                       </c:pt>
                       <c:pt idx="25" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45537</c:v>
+                        <c:v>45547</c:v>
                       </c:pt>
                       <c:pt idx="26" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45538</c:v>
+                        <c:v>45548</c:v>
                       </c:pt>
                       <c:pt idx="27" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45539</c:v>
+                        <c:v>45549</c:v>
                       </c:pt>
                       <c:pt idx="28" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45540</c:v>
+                        <c:v>45550</c:v>
                       </c:pt>
                       <c:pt idx="29" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45541</c:v>
+                        <c:v>45551</c:v>
                       </c:pt>
                       <c:pt idx="30" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45542</c:v>
+                        <c:v>45552</c:v>
                       </c:pt>
                       <c:pt idx="31" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45543</c:v>
+                        <c:v>45553</c:v>
                       </c:pt>
                       <c:pt idx="32" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45544</c:v>
+                        <c:v>45554</c:v>
                       </c:pt>
                       <c:pt idx="33" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45545</c:v>
+                        <c:v>45555</c:v>
                       </c:pt>
                       <c:pt idx="34" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45546</c:v>
+                        <c:v>45556</c:v>
                       </c:pt>
                       <c:pt idx="35" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45547</c:v>
+                        <c:v>45557</c:v>
                       </c:pt>
                       <c:pt idx="36" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45548</c:v>
+                        <c:v>45558</c:v>
                       </c:pt>
                       <c:pt idx="37" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45549</c:v>
+                        <c:v>45559</c:v>
                       </c:pt>
                       <c:pt idx="38" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45550</c:v>
+                        <c:v>45560</c:v>
                       </c:pt>
                       <c:pt idx="39" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45551</c:v>
+                        <c:v>45561</c:v>
                       </c:pt>
                       <c:pt idx="40" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45552</c:v>
+                        <c:v>45562</c:v>
                       </c:pt>
                       <c:pt idx="41" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45553</c:v>
+                        <c:v>45563</c:v>
                       </c:pt>
                       <c:pt idx="42" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45554</c:v>
+                        <c:v>45564</c:v>
                       </c:pt>
                       <c:pt idx="43" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45555</c:v>
+                        <c:v>45565</c:v>
                       </c:pt>
                       <c:pt idx="44" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45556</c:v>
+                        <c:v>45566</c:v>
                       </c:pt>
                       <c:pt idx="45" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45557</c:v>
+                        <c:v>45567</c:v>
                       </c:pt>
                       <c:pt idx="46" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45558</c:v>
+                        <c:v>45568</c:v>
                       </c:pt>
                       <c:pt idx="47" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45559</c:v>
+                        <c:v>45569</c:v>
                       </c:pt>
                       <c:pt idx="48" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45560</c:v>
+                        <c:v>45570</c:v>
                       </c:pt>
                       <c:pt idx="49" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45561</c:v>
+                        <c:v>45571</c:v>
                       </c:pt>
                       <c:pt idx="50" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45562</c:v>
+                        <c:v>45572</c:v>
                       </c:pt>
                       <c:pt idx="51" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45563</c:v>
+                        <c:v>45573</c:v>
                       </c:pt>
                       <c:pt idx="52" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45564</c:v>
+                        <c:v>45574</c:v>
                       </c:pt>
                       <c:pt idx="53" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45565</c:v>
+                        <c:v>45575</c:v>
                       </c:pt>
                       <c:pt idx="54" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45566</c:v>
+                        <c:v>45576</c:v>
                       </c:pt>
                       <c:pt idx="55" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45567</c:v>
+                        <c:v>45577</c:v>
                       </c:pt>
                       <c:pt idx="56" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45568</c:v>
+                        <c:v>45578</c:v>
                       </c:pt>
                       <c:pt idx="57" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45569</c:v>
+                        <c:v>45579</c:v>
                       </c:pt>
                       <c:pt idx="58" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45570</c:v>
+                        <c:v>45580</c:v>
                       </c:pt>
                       <c:pt idx="59" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45571</c:v>
+                        <c:v>45581</c:v>
                       </c:pt>
                       <c:pt idx="60" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45572</c:v>
+                        <c:v>45582</c:v>
                       </c:pt>
                       <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45573</c:v>
-                      </c:pt>
-                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45574</c:v>
-                      </c:pt>
-                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45575</c:v>
-                      </c:pt>
-                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45576</c:v>
-                      </c:pt>
-                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
-                        <c:v>45577</c:v>
+                        <c:v>45583</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18586,44 +18277,17 @@
                           <c15:sqref>日活跃!$K$2:$K$48</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$K$37:$K$48</c15:sqref>
+                          <c15:sqref>日活跃!$K$47:$K$48</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_ </c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>1832.44618949537</c:v>
+                        <c:v>2041.06382978723</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1863.55146124524</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1915.02710215427</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1961.38754685548</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1981.15897039328</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2001.69924190214</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2008.07106717069</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2020.9183733349</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2035.47917997561</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2041.06382978723</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
                         <c:v>2055.64928425358</c:v>
                       </c:pt>
                     </c:numCache>
@@ -18966,10 +18630,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$37:$B$102</c:f>
+              <c:f>日活跃2!$B$37:$B$108</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -19167,16 +18831,34 @@
                 </c:pt>
                 <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45577</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45578</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45579</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45580</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45581</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45582</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$37:$C$102</c:f>
+              <c:f>日活跃2!$C$37:$C$108</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>307.240555796786</c:v>
                 </c:pt>
@@ -19362,6 +19044,24 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>149.229412310834</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>151.663704581358</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>140.712290502793</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>139.773998657417</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>149.985853060454</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>140.536843098405</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>143.056975555349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29066,8 +28766,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8836660" y="473710"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9762490" y="450850"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29096,8 +28796,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8806180" y="589280"/>
-        <a:ext cx="11431905" cy="5311140"/>
+        <a:off x="9732010" y="554990"/>
+        <a:ext cx="12696190" cy="4979670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29126,8 +28826,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8811260" y="6186170"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9737090" y="5808980"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29161,8 +28861,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3373120" y="20403820"/>
-        <a:ext cx="12246610" cy="6044565"/>
+        <a:off x="3729990" y="19135090"/>
+        <a:ext cx="13565505" cy="5667375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29196,8 +28896,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23703915" y="275590"/>
-        <a:ext cx="8799830" cy="5819140"/>
+        <a:off x="26319480" y="260350"/>
+        <a:ext cx="9759950" cy="5321935"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29231,8 +28931,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6675120" y="1000125"/>
-        <a:ext cx="8835390" cy="6406515"/>
+        <a:off x="7384415" y="942975"/>
+        <a:ext cx="9786620" cy="6006465"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29266,8 +28966,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6354445" y="117475"/>
-        <a:ext cx="7248525" cy="5538470"/>
+        <a:off x="6998335" y="117475"/>
+        <a:ext cx="8094345" cy="5195570"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29301,8 +29001,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8887460" y="170180"/>
-        <a:ext cx="5092065" cy="6658610"/>
+        <a:off x="9860280" y="170180"/>
+        <a:ext cx="5621655" cy="6235700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29336,8 +29036,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6602095" y="109220"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7328535" y="109220"/>
+        <a:ext cx="9937115" cy="4862830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29366,8 +29066,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6851015" y="5410200"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7577455" y="5078730"/>
+        <a:ext cx="10005060" cy="4865370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -30050,7 +29750,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -30061,9 +29761,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="12.8888888888889"/>
+    <col min="14" max="14" width="15.225" customWidth="1"/>
+    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34476,26 +34176,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="11.775" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556"/>
-    <col min="14" max="14" width="12.8888888888889"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="17.5583333333333"/>
+    <col min="14" max="14" width="12.8916666666667"/>
+    <col min="15" max="15" width="11.775" customWidth="1"/>
+    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="11.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37385,32 +37085,32 @@
       <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889"/>
-    <col min="2" max="2" width="17.5555555555556"/>
+    <col min="1" max="1" width="12.8916666666667"/>
+    <col min="2" max="2" width="17.5583333333333"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889"/>
-    <col min="5" max="5" width="17.5555555555556"/>
-    <col min="6" max="6" width="11.7777777777778"/>
-    <col min="7" max="7" width="17.5555555555556"/>
-    <col min="8" max="8" width="11.7777777777778"/>
-    <col min="9" max="9" width="12.8888888888889"/>
-    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778"/>
+    <col min="4" max="4" width="11.8916666666667"/>
+    <col min="5" max="5" width="17.5583333333333"/>
+    <col min="6" max="6" width="11.775"/>
+    <col min="7" max="7" width="17.5583333333333"/>
+    <col min="8" max="8" width="11.775"/>
+    <col min="9" max="9" width="12.8916666666667"/>
+    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.775"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444"/>
+    <col min="13" max="13" width="16.4416666666667"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5555555555556"/>
-    <col min="20" max="20" width="12.8888888888889"/>
-    <col min="25" max="26" width="12.8888888888889"/>
+    <col min="19" max="19" width="10.5583333333333"/>
+    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="25" max="26" width="12.8916666666667"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="2:28">
+    <row r="1" ht="15" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -40890,11 +40590,11 @@
   <sheetPr/>
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J110" sqref="J110"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -44540,40 +44240,87 @@
         <v>2504.45655699116</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>2784</v>
+      </c>
       <c r="B108" s="5">
         <v>45583</v>
       </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-    </row>
-    <row r="109" spans="2:11">
+      <c r="C108" s="6">
+        <v>184.1187568</v>
+      </c>
+      <c r="D108" s="8">
+        <v>2</v>
+      </c>
+      <c r="E108" s="6">
+        <v>31.2600381423638</v>
+      </c>
+      <c r="F108" s="6">
+        <v>17.0639657749601</v>
+      </c>
+      <c r="G108" s="6">
+        <v>9.60744291531364</v>
+      </c>
+      <c r="H108" s="6">
+        <v>10.1810215968249</v>
+      </c>
+      <c r="I108" s="6">
+        <v>24.5204886346065</v>
+      </c>
+      <c r="J108" s="6">
+        <v>12.3319416524921</v>
+      </c>
+      <c r="K108" s="6">
+        <v>2491.05221380341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>2786</v>
+      </c>
       <c r="B109" s="5">
         <v>45584</v>
       </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-    </row>
-    <row r="110" spans="2:11">
+      <c r="C109" s="6">
+        <v>203.6653977</v>
+      </c>
+      <c r="D109" s="8">
+        <v>2</v>
+      </c>
+      <c r="E109" s="6">
+        <v>32.7984360530919</v>
+      </c>
+      <c r="F109" s="6">
+        <v>21.0540179030765</v>
+      </c>
+      <c r="G109" s="6">
+        <v>15.7547072744109</v>
+      </c>
+      <c r="H109" s="6">
+        <v>8.16380286037658</v>
+      </c>
+      <c r="I109" s="6">
+        <v>6.58833213293549</v>
+      </c>
+      <c r="J109" s="6">
+        <v>14.7521349933121</v>
+      </c>
+      <c r="K109" s="6">
+        <v>2478.6451280996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>2788</v>
+      </c>
       <c r="B110" s="5">
         <v>45585</v>
       </c>
       <c r="C110" s="6"/>
-      <c r="D110" s="8"/>
+      <c r="D110" s="8">
+        <v>2</v>
+      </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
@@ -45029,15 +44776,15 @@
   <sheetPr/>
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.12962962962963"/>
-    <col min="3" max="3" width="12.8888888888889"/>
-    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="2" max="2" width="9.13333333333333"/>
+    <col min="3" max="3" width="12.8916666666667"/>
+    <col min="10" max="10" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -46800,26 +46547,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>2784</v>
+      </c>
       <c r="B108" s="5">
         <v>45583</v>
       </c>
-      <c r="C108" s="8"/>
-      <c r="I108" s="6"/>
-    </row>
-    <row r="109" spans="2:9">
+      <c r="C108" s="8">
+        <v>143.056975555349</v>
+      </c>
+      <c r="I108" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>2786</v>
+      </c>
       <c r="B109" s="5">
         <v>45584</v>
       </c>
-      <c r="C109" s="8"/>
-      <c r="I109" s="6"/>
-    </row>
-    <row r="110" spans="2:9">
+      <c r="C109" s="8">
+        <v>157.600333673185</v>
+      </c>
+      <c r="I109" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>2788</v>
+      </c>
       <c r="B110" s="5">
         <v>45585</v>
       </c>
       <c r="C110" s="8"/>
-      <c r="I110" s="6"/>
+      <c r="I110" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="5">
@@ -47064,13 +46830,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="20" max="20" width="12.8916666666667"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -48386,10 +48152,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8888888888889"/>
-    <col min="7" max="8" width="12.8888888888889"/>
+    <col min="2" max="5" width="12.8916666666667"/>
+    <col min="7" max="8" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14819,14 +14819,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$47:$B$108</c:f>
+              <c:f>日活跃!$B$47:$B$114</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45522</c:v>
                 </c:pt>
@@ -15012,6 +15012,24 @@
                 </c:pt>
                 <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45583</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45584</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45585</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45586</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45587</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45588</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15219,6 +15237,18 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -15314,14 +15344,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$47:$B$108</c:f>
+              <c:f>日活跃!$B$47:$B$114</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45522</c:v>
                 </c:pt>
@@ -15507,6 +15537,24 @@
                 </c:pt>
                 <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45583</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45584</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45585</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45586</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45587</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45588</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15703,6 +15751,18 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>203.6653977</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>210.9084355</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>174.4983715</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>160.8754524</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>159.0835669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15818,16 +15878,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$108</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$114</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="62"/>
+                      <c:ptCount val="68"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -16013,6 +16073,24 @@
                       </c:pt>
                       <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45583</c:v>
+                      </c:pt>
+                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45584</c:v>
+                      </c:pt>
+                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45585</c:v>
+                      </c:pt>
+                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45586</c:v>
+                      </c:pt>
+                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45587</c:v>
+                      </c:pt>
+                      <c:pt idx="66" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45588</c:v>
+                      </c:pt>
+                      <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45589</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16301,16 +16379,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$108</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$114</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="62"/>
+                      <c:ptCount val="68"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -16496,6 +16574,24 @@
                       </c:pt>
                       <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45583</c:v>
+                      </c:pt>
+                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45584</c:v>
+                      </c:pt>
+                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45585</c:v>
+                      </c:pt>
+                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45586</c:v>
+                      </c:pt>
+                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45587</c:v>
+                      </c:pt>
+                      <c:pt idx="66" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45588</c:v>
+                      </c:pt>
+                      <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45589</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16793,16 +16889,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$108</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$114</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="62"/>
+                      <c:ptCount val="68"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -16988,6 +17084,24 @@
                       </c:pt>
                       <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45583</c:v>
+                      </c:pt>
+                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45584</c:v>
+                      </c:pt>
+                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45585</c:v>
+                      </c:pt>
+                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45586</c:v>
+                      </c:pt>
+                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45587</c:v>
+                      </c:pt>
+                      <c:pt idx="66" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45588</c:v>
+                      </c:pt>
+                      <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45589</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17111,16 +17225,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$108</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$114</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="62"/>
+                      <c:ptCount val="68"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -17306,6 +17420,24 @@
                       </c:pt>
                       <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45583</c:v>
+                      </c:pt>
+                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45584</c:v>
+                      </c:pt>
+                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45585</c:v>
+                      </c:pt>
+                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45586</c:v>
+                      </c:pt>
+                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45587</c:v>
+                      </c:pt>
+                      <c:pt idx="66" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45588</c:v>
+                      </c:pt>
+                      <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45589</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17431,16 +17563,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$108</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$114</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="62"/>
+                      <c:ptCount val="68"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -17626,6 +17758,24 @@
                       </c:pt>
                       <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45583</c:v>
+                      </c:pt>
+                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45584</c:v>
+                      </c:pt>
+                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45585</c:v>
+                      </c:pt>
+                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45586</c:v>
+                      </c:pt>
+                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45587</c:v>
+                      </c:pt>
+                      <c:pt idx="66" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45588</c:v>
+                      </c:pt>
+                      <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45589</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17752,16 +17902,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$108</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$114</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="62"/>
+                      <c:ptCount val="68"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -17947,6 +18097,24 @@
                       </c:pt>
                       <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45583</c:v>
+                      </c:pt>
+                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45584</c:v>
+                      </c:pt>
+                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45585</c:v>
+                      </c:pt>
+                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45586</c:v>
+                      </c:pt>
+                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45587</c:v>
+                      </c:pt>
+                      <c:pt idx="66" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45588</c:v>
+                      </c:pt>
+                      <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45589</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18070,16 +18238,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$108</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$108</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$114</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="62"/>
+                      <c:ptCount val="68"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -18265,6 +18433,24 @@
                       </c:pt>
                       <c:pt idx="61" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45583</c:v>
+                      </c:pt>
+                      <c:pt idx="62" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45584</c:v>
+                      </c:pt>
+                      <c:pt idx="63" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45585</c:v>
+                      </c:pt>
+                      <c:pt idx="64" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45586</c:v>
+                      </c:pt>
+                      <c:pt idx="65" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45587</c:v>
+                      </c:pt>
+                      <c:pt idx="66" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45588</c:v>
+                      </c:pt>
+                      <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45589</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18630,10 +18816,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$37:$B$108</c:f>
+              <c:f>日活跃2!$B$37:$B$120</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -18849,16 +19035,52 @@
                 </c:pt>
                 <c:pt idx="71" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45583</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45584</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45585</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45586</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45587</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45588</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45589</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45590</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45591</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45592</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45593</c:v>
+                </c:pt>
+                <c:pt idx="82" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45594</c:v>
+                </c:pt>
+                <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$37:$C$108</c:f>
+              <c:f>日活跃2!$C$37:$C$120</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>307.240555796786</c:v>
                 </c:pt>
@@ -19062,6 +19284,21 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>143.056975555349</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>157.600333673185</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>158.113711758201</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>135.430669010443</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>131.422142214221</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>133.226427196921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28766,8 +29003,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9762490" y="450850"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8836660" y="473710"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28796,8 +29033,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9732010" y="554990"/>
-        <a:ext cx="12696190" cy="4979670"/>
+        <a:off x="8806180" y="589280"/>
+        <a:ext cx="11431905" cy="5311140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28826,8 +29063,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9737090" y="5808980"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8811260" y="6186170"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28861,8 +29098,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3729990" y="19135090"/>
-        <a:ext cx="13565505" cy="5667375"/>
+        <a:off x="3373120" y="20403820"/>
+        <a:ext cx="12246610" cy="6044565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28896,8 +29133,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26319480" y="260350"/>
-        <a:ext cx="9759950" cy="5321935"/>
+        <a:off x="23703915" y="275590"/>
+        <a:ext cx="8799830" cy="5819140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28931,8 +29168,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7384415" y="942975"/>
-        <a:ext cx="9786620" cy="6006465"/>
+        <a:off x="6675120" y="1000125"/>
+        <a:ext cx="8835390" cy="6406515"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28966,8 +29203,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6998335" y="117475"/>
-        <a:ext cx="8094345" cy="5195570"/>
+        <a:off x="6354445" y="117475"/>
+        <a:ext cx="7248525" cy="5538470"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29001,8 +29238,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9860280" y="170180"/>
-        <a:ext cx="5621655" cy="6235700"/>
+        <a:off x="8887460" y="170180"/>
+        <a:ext cx="5092065" cy="6658610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29036,8 +29273,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7328535" y="109220"/>
-        <a:ext cx="9937115" cy="4862830"/>
+        <a:off x="6602095" y="109220"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29066,8 +29303,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7577455" y="5078730"/>
-        <a:ext cx="10005060" cy="4865370"/>
+        <a:off x="6851015" y="5410200"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29750,7 +29987,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -29761,9 +29998,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.225" customWidth="1"/>
-    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
-    <col min="17" max="17" width="12.8916666666667"/>
+    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34176,26 +34413,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.775" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5583333333333"/>
-    <col min="14" max="14" width="12.8916666666667"/>
-    <col min="15" max="15" width="11.775" customWidth="1"/>
-    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556"/>
+    <col min="14" max="14" width="12.8888888888889"/>
+    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.775" customWidth="1"/>
+    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37085,32 +37322,32 @@
       <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.8916666666667"/>
-    <col min="2" max="2" width="17.5583333333333"/>
+    <col min="1" max="1" width="12.8888888888889"/>
+    <col min="2" max="2" width="17.5555555555556"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8916666666667"/>
-    <col min="5" max="5" width="17.5583333333333"/>
-    <col min="6" max="6" width="11.775"/>
-    <col min="7" max="7" width="17.5583333333333"/>
-    <col min="8" max="8" width="11.775"/>
-    <col min="9" max="9" width="12.8916666666667"/>
-    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.775"/>
+    <col min="4" max="4" width="11.8888888888889"/>
+    <col min="5" max="5" width="17.5555555555556"/>
+    <col min="6" max="6" width="11.7777777777778"/>
+    <col min="7" max="7" width="17.5555555555556"/>
+    <col min="8" max="8" width="11.7777777777778"/>
+    <col min="9" max="9" width="12.8888888888889"/>
+    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4416666666667"/>
+    <col min="13" max="13" width="16.4444444444444"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5583333333333"/>
-    <col min="20" max="20" width="12.8916666666667"/>
-    <col min="25" max="26" width="12.8916666666667"/>
+    <col min="19" max="19" width="10.5555555555556"/>
+    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="25" max="26" width="12.8888888888889"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:28">
+    <row r="1" ht="16.2" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -40590,11 +40827,11 @@
   <sheetPr/>
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="Z45" sqref="Z45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -44317,24 +44554,45 @@
       <c r="B110" s="5">
         <v>45585</v>
       </c>
-      <c r="C110" s="6"/>
+      <c r="C110" s="6">
+        <v>210.9084355</v>
+      </c>
       <c r="D110" s="8">
         <v>2</v>
       </c>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-    </row>
-    <row r="111" spans="2:11">
+      <c r="E110" s="6">
+        <v>43.6164383561644</v>
+      </c>
+      <c r="F110" s="6">
+        <v>21.6647440519106</v>
+      </c>
+      <c r="G110" s="6">
+        <v>13.056236481615</v>
+      </c>
+      <c r="H110" s="6">
+        <v>12.7692862292718</v>
+      </c>
+      <c r="I110" s="6">
+        <v>8.32155731795241</v>
+      </c>
+      <c r="J110" s="6">
+        <v>5.73900504686373</v>
+      </c>
+      <c r="K110" s="6">
+        <v>2468.63302090844</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>2791</v>
+      </c>
       <c r="B111" s="5">
         <v>45586</v>
       </c>
       <c r="C111" s="6"/>
-      <c r="D111" s="8"/>
+      <c r="D111" s="8">
+        <v>3</v>
+      </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
@@ -44343,51 +44601,117 @@
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>2793</v>
+      </c>
       <c r="B112" s="5">
         <v>45587</v>
       </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-    </row>
-    <row r="113" spans="2:11">
+      <c r="C112" s="6">
+        <v>174.4983715</v>
+      </c>
+      <c r="D112" s="8">
+        <v>2</v>
+      </c>
+      <c r="E112" s="6">
+        <v>27.4327672443876</v>
+      </c>
+      <c r="F112" s="6">
+        <v>39.7693963010352</v>
+      </c>
+      <c r="G112" s="6">
+        <v>33.2764336396417</v>
+      </c>
+      <c r="H112" s="6">
+        <v>13.7975456554612</v>
+      </c>
+      <c r="I112" s="6">
+        <v>9.9017680586251</v>
+      </c>
+      <c r="J112" s="6">
+        <v>9.73944399209026</v>
+      </c>
+      <c r="K112" s="6">
+        <v>2478.68849598697</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>2795</v>
+      </c>
       <c r="B113" s="5">
         <v>45588</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-    </row>
-    <row r="114" spans="2:11">
+      <c r="C113" s="6">
+        <v>160.8754524</v>
+      </c>
+      <c r="D113" s="8">
+        <v>2</v>
+      </c>
+      <c r="E113" s="6">
+        <v>32.287394451146</v>
+      </c>
+      <c r="F113" s="6">
+        <v>14.8802774427021</v>
+      </c>
+      <c r="G113" s="6">
+        <v>37.6218335343788</v>
+      </c>
+      <c r="H113" s="6">
+        <v>29.479794933655</v>
+      </c>
+      <c r="I113" s="6">
+        <v>16.0033172496984</v>
+      </c>
+      <c r="J113" s="6">
+        <v>10.1073582629674</v>
+      </c>
+      <c r="K113" s="6">
+        <v>2488.93697225573</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>2797</v>
+      </c>
       <c r="B114" s="5">
         <v>45589</v>
       </c>
-      <c r="C114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
+      <c r="C114" s="6">
+        <v>159.0835669</v>
+      </c>
+      <c r="D114" s="8">
+        <v>2</v>
+      </c>
+      <c r="E114" s="6">
+        <v>27.059872611465</v>
+      </c>
+      <c r="F114" s="6">
+        <v>23.6417834394904</v>
+      </c>
+      <c r="G114" s="6">
+        <v>15.2389808917197</v>
+      </c>
+      <c r="H114" s="6">
+        <v>30.1931210191083</v>
+      </c>
+      <c r="I114" s="6">
+        <v>31.1900636942675</v>
+      </c>
+      <c r="J114" s="6">
+        <v>16.5207643312102</v>
+      </c>
+      <c r="K114" s="6">
+        <v>2468.85732484076</v>
+      </c>
     </row>
     <row r="115" spans="2:11">
       <c r="B115" s="5">
         <v>45590</v>
       </c>
       <c r="C115" s="6"/>
+      <c r="D115" s="8"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -44401,6 +44725,7 @@
         <v>45591</v>
       </c>
       <c r="C116" s="6"/>
+      <c r="D116" s="8"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
@@ -44414,6 +44739,7 @@
         <v>45592</v>
       </c>
       <c r="C117" s="6"/>
+      <c r="D117" s="8"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -44427,6 +44753,7 @@
         <v>45593</v>
       </c>
       <c r="C118" s="6"/>
+      <c r="D118" s="8"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -44440,6 +44767,7 @@
         <v>45594</v>
       </c>
       <c r="C119" s="6"/>
+      <c r="D119" s="8"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
@@ -44453,6 +44781,7 @@
         <v>45595</v>
       </c>
       <c r="C120" s="6"/>
+      <c r="D120" s="8"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -44466,6 +44795,7 @@
         <v>45596</v>
       </c>
       <c r="C121" s="6"/>
+      <c r="D121" s="8"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
@@ -44479,6 +44809,7 @@
         <v>45597</v>
       </c>
       <c r="C122" s="6"/>
+      <c r="D122" s="8"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
@@ -44492,6 +44823,7 @@
         <v>45598</v>
       </c>
       <c r="C123" s="6"/>
+      <c r="D123" s="8"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
@@ -44505,6 +44837,7 @@
         <v>45599</v>
       </c>
       <c r="C124" s="6"/>
+      <c r="D124" s="8"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
@@ -44518,6 +44851,7 @@
         <v>45600</v>
       </c>
       <c r="C125" s="6"/>
+      <c r="D125" s="8"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
@@ -44531,6 +44865,7 @@
         <v>45601</v>
       </c>
       <c r="C126" s="6"/>
+      <c r="D126" s="8"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
@@ -44544,6 +44879,7 @@
         <v>45602</v>
       </c>
       <c r="C127" s="6"/>
+      <c r="D127" s="8"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
@@ -44557,6 +44893,7 @@
         <v>45603</v>
       </c>
       <c r="C128" s="6"/>
+      <c r="D128" s="8"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
@@ -44570,6 +44907,7 @@
         <v>45604</v>
       </c>
       <c r="C129" s="6"/>
+      <c r="D129" s="8"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
@@ -44583,6 +44921,7 @@
         <v>45605</v>
       </c>
       <c r="C130" s="6"/>
+      <c r="D130" s="8"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -44596,6 +44935,7 @@
         <v>45606</v>
       </c>
       <c r="C131" s="6"/>
+      <c r="D131" s="8"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -44609,6 +44949,7 @@
         <v>45607</v>
       </c>
       <c r="C132" s="6"/>
+      <c r="D132" s="8"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
@@ -44622,6 +44963,7 @@
         <v>45608</v>
       </c>
       <c r="C133" s="6"/>
+      <c r="D133" s="8"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
@@ -44635,6 +44977,7 @@
         <v>45609</v>
       </c>
       <c r="C134" s="6"/>
+      <c r="D134" s="8"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
@@ -44648,6 +44991,7 @@
         <v>45610</v>
       </c>
       <c r="C135" s="6"/>
+      <c r="D135" s="8"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
@@ -44661,6 +45005,7 @@
         <v>45611</v>
       </c>
       <c r="C136" s="6"/>
+      <c r="D136" s="8"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -44674,6 +45019,7 @@
         <v>45612</v>
       </c>
       <c r="C137" s="6"/>
+      <c r="D137" s="8"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
@@ -44686,6 +45032,7 @@
       <c r="B138" s="5">
         <v>45613</v>
       </c>
+      <c r="D138" s="8"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
@@ -44698,6 +45045,7 @@
       <c r="B139" s="5">
         <v>45614</v>
       </c>
+      <c r="D139" s="8"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
@@ -44710,6 +45058,7 @@
       <c r="B140" s="5">
         <v>45615</v>
       </c>
+      <c r="D140" s="8"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
@@ -44722,6 +45071,7 @@
       <c r="B141" s="5">
         <v>45616</v>
       </c>
+      <c r="D141" s="8"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
@@ -44734,6 +45084,7 @@
       <c r="B142" s="5">
         <v>45617</v>
       </c>
+      <c r="D142" s="8"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
@@ -44746,6 +45097,7 @@
       <c r="B143" s="5">
         <v>45618</v>
       </c>
+      <c r="D143" s="8"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
@@ -44754,15 +45106,17 @@
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="2:4">
       <c r="B144" s="5">
         <v>45619</v>
       </c>
-    </row>
-    <row r="145" spans="2:2">
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" spans="2:4">
       <c r="B145" s="5">
         <v>45620</v>
       </c>
+      <c r="D145" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -44776,15 +45130,15 @@
   <sheetPr/>
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.13333333333333"/>
-    <col min="3" max="3" width="12.8916666666667"/>
-    <col min="10" max="10" width="12.8916666666667"/>
+    <col min="2" max="2" width="9.12962962962963"/>
+    <col min="3" max="3" width="12.8888888888889"/>
+    <col min="10" max="10" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -46582,38 +46936,66 @@
       <c r="B110" s="5">
         <v>45585</v>
       </c>
-      <c r="C110" s="8"/>
+      <c r="C110" s="8">
+        <v>158.113711758201</v>
+      </c>
       <c r="I110" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>2791</v>
+      </c>
       <c r="B111" s="5">
         <v>45586</v>
       </c>
       <c r="C111" s="8"/>
-      <c r="I111" s="6"/>
-    </row>
-    <row r="112" spans="2:9">
+      <c r="I111" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>2793</v>
+      </c>
       <c r="B112" s="5">
         <v>45587</v>
       </c>
-      <c r="C112" s="8"/>
-      <c r="I112" s="6"/>
-    </row>
-    <row r="113" spans="2:9">
+      <c r="C112" s="8">
+        <v>135.430669010443</v>
+      </c>
+      <c r="I112" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>2795</v>
+      </c>
       <c r="B113" s="5">
         <v>45588</v>
       </c>
-      <c r="C113" s="8"/>
-      <c r="I113" s="6"/>
-    </row>
-    <row r="114" spans="2:9">
+      <c r="C113" s="8">
+        <v>131.422142214221</v>
+      </c>
+      <c r="I113" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>2797</v>
+      </c>
       <c r="B114" s="5">
         <v>45589</v>
       </c>
-      <c r="C114" s="8"/>
-      <c r="I114" s="6"/>
+      <c r="C114" s="8">
+        <v>133.226427196921</v>
+      </c>
+      <c r="I114" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="115" spans="2:9">
       <c r="B115" s="5">
@@ -46830,13 +47212,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="20" max="20" width="12.8888888888889"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -48152,10 +48534,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8916666666667"/>
-    <col min="7" max="8" width="12.8916666666667"/>
+    <col min="2" max="5" width="12.8888888888889"/>
+    <col min="7" max="8" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -3068,6 +3068,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{53151cea-7e8a-4906-b0a8-bbd2de6ad596}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4455,6 +4460,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{478b2f04-be4a-4bc6-be61-9f6b5dfbd9e8}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6873,6 +6883,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{1ad4972d-c146-4367-8712-f68daf3005da}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -9399,6 +9414,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{c96e4365-e5b3-47b8-8031-b0d4c41f626e}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11249,6 +11269,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{242d423a-f975-4e62-8976-c258646b9388}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14635,6 +14660,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{5738acee-9c69-4ec7-9b10-c08de980b0a5}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14819,14 +14849,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$47:$B$114</c:f>
+              <c:f>日活跃!$B$47:$B$120</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45522</c:v>
                 </c:pt>
@@ -15030,6 +15060,24 @@
                 </c:pt>
                 <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45589</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45590</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45591</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45592</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45593</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45594</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15250,6 +15298,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15344,14 +15398,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$47:$B$114</c:f>
+              <c:f>日活跃!$B$47:$B$120</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45522</c:v>
                 </c:pt>
@@ -15555,6 +15609,24 @@
                 </c:pt>
                 <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45589</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45590</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45591</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45592</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45593</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45594</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15763,6 +15835,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>159.0835669</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>177.523051478189</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>192.21635883905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15878,16 +15956,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$114</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$120</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="68"/>
+                      <c:ptCount val="74"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -16091,6 +16169,24 @@
                       </c:pt>
                       <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45589</c:v>
+                      </c:pt>
+                      <c:pt idx="68" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45590</c:v>
+                      </c:pt>
+                      <c:pt idx="69" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45591</c:v>
+                      </c:pt>
+                      <c:pt idx="70" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45592</c:v>
+                      </c:pt>
+                      <c:pt idx="71" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45593</c:v>
+                      </c:pt>
+                      <c:pt idx="72" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45594</c:v>
+                      </c:pt>
+                      <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45595</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16379,16 +16475,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$114</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$120</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="68"/>
+                      <c:ptCount val="74"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -16592,6 +16688,24 @@
                       </c:pt>
                       <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45589</c:v>
+                      </c:pt>
+                      <c:pt idx="68" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45590</c:v>
+                      </c:pt>
+                      <c:pt idx="69" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45591</c:v>
+                      </c:pt>
+                      <c:pt idx="70" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45592</c:v>
+                      </c:pt>
+                      <c:pt idx="71" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45593</c:v>
+                      </c:pt>
+                      <c:pt idx="72" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45594</c:v>
+                      </c:pt>
+                      <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45595</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16889,16 +17003,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$114</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$120</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="68"/>
+                      <c:ptCount val="74"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -17102,6 +17216,24 @@
                       </c:pt>
                       <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45589</c:v>
+                      </c:pt>
+                      <c:pt idx="68" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45590</c:v>
+                      </c:pt>
+                      <c:pt idx="69" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45591</c:v>
+                      </c:pt>
+                      <c:pt idx="70" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45592</c:v>
+                      </c:pt>
+                      <c:pt idx="71" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45593</c:v>
+                      </c:pt>
+                      <c:pt idx="72" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45594</c:v>
+                      </c:pt>
+                      <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45595</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17225,16 +17357,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$114</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$120</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="68"/>
+                      <c:ptCount val="74"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -17438,6 +17570,24 @@
                       </c:pt>
                       <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45589</c:v>
+                      </c:pt>
+                      <c:pt idx="68" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45590</c:v>
+                      </c:pt>
+                      <c:pt idx="69" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45591</c:v>
+                      </c:pt>
+                      <c:pt idx="70" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45592</c:v>
+                      </c:pt>
+                      <c:pt idx="71" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45593</c:v>
+                      </c:pt>
+                      <c:pt idx="72" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45594</c:v>
+                      </c:pt>
+                      <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45595</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17563,16 +17713,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$114</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$120</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="68"/>
+                      <c:ptCount val="74"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -17776,6 +17926,24 @@
                       </c:pt>
                       <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45589</c:v>
+                      </c:pt>
+                      <c:pt idx="68" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45590</c:v>
+                      </c:pt>
+                      <c:pt idx="69" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45591</c:v>
+                      </c:pt>
+                      <c:pt idx="70" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45592</c:v>
+                      </c:pt>
+                      <c:pt idx="71" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45593</c:v>
+                      </c:pt>
+                      <c:pt idx="72" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45594</c:v>
+                      </c:pt>
+                      <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45595</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17902,16 +18070,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$114</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$120</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="68"/>
+                      <c:ptCount val="74"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -18115,6 +18283,24 @@
                       </c:pt>
                       <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45589</c:v>
+                      </c:pt>
+                      <c:pt idx="68" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45590</c:v>
+                      </c:pt>
+                      <c:pt idx="69" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45591</c:v>
+                      </c:pt>
+                      <c:pt idx="70" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45592</c:v>
+                      </c:pt>
+                      <c:pt idx="71" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45593</c:v>
+                      </c:pt>
+                      <c:pt idx="72" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45594</c:v>
+                      </c:pt>
+                      <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45595</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18238,16 +18424,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$114</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$114</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$120</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="68"/>
+                      <c:ptCount val="74"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -18451,6 +18637,24 @@
                       </c:pt>
                       <c:pt idx="67" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45589</c:v>
+                      </c:pt>
+                      <c:pt idx="68" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45590</c:v>
+                      </c:pt>
+                      <c:pt idx="69" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45591</c:v>
+                      </c:pt>
+                      <c:pt idx="70" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45592</c:v>
+                      </c:pt>
+                      <c:pt idx="71" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45593</c:v>
+                      </c:pt>
+                      <c:pt idx="72" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45594</c:v>
+                      </c:pt>
+                      <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45595</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18677,6 +18881,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{75ac2e42-571b-485e-92dd-fb3e1d218a2b}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -19299,6 +19508,12 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>133.226427196921</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>126.040658276863</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>148.594215741561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19487,6 +19702,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{b82a0cb9-19b6-4acc-a730-4f00d69eb7d3}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -22055,6 +22275,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{fee02826-0b19-42af-903c-9e2a1e5f2288}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -23439,6 +23664,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{e5ee4d0f-e2b3-4125-9e98-6ca68e42e51c}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -29003,8 +29233,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8836660" y="473710"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9762490" y="450850"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29033,8 +29263,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8806180" y="589280"/>
-        <a:ext cx="11431905" cy="5311140"/>
+        <a:off x="9732010" y="554990"/>
+        <a:ext cx="12696190" cy="4979670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29063,8 +29293,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8811260" y="6186170"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9737090" y="5808980"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29098,8 +29328,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3373120" y="20403820"/>
-        <a:ext cx="12246610" cy="6044565"/>
+        <a:off x="3729990" y="19135090"/>
+        <a:ext cx="13565505" cy="5667375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29133,8 +29363,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23703915" y="275590"/>
-        <a:ext cx="8799830" cy="5819140"/>
+        <a:off x="26319480" y="260350"/>
+        <a:ext cx="9759950" cy="5321935"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29152,15 +29382,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>605790</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>558165</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -29168,8 +29398,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6675120" y="1000125"/>
-        <a:ext cx="8835390" cy="6406515"/>
+        <a:off x="7336790" y="12700000"/>
+        <a:ext cx="9786620" cy="6006465"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29187,15 +29417,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>577215</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:colOff>558165</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -29203,8 +29433,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6354445" y="117475"/>
-        <a:ext cx="7248525" cy="5538470"/>
+        <a:off x="6979285" y="13481050"/>
+        <a:ext cx="8094345" cy="5195570"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29238,8 +29468,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8887460" y="170180"/>
-        <a:ext cx="5092065" cy="6658610"/>
+        <a:off x="9860280" y="170180"/>
+        <a:ext cx="5621655" cy="6235700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29273,8 +29503,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6602095" y="109220"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7328535" y="109220"/>
+        <a:ext cx="9937115" cy="4862830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29303,8 +29533,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6851015" y="5410200"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7577455" y="5078730"/>
+        <a:ext cx="10005060" cy="4865370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29987,7 +30217,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -29998,9 +30228,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="12.8888888888889"/>
+    <col min="14" max="14" width="15.225" customWidth="1"/>
+    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34413,26 +34643,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="11.775" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556"/>
-    <col min="14" max="14" width="12.8888888888889"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="17.5583333333333"/>
+    <col min="14" max="14" width="12.8916666666667"/>
+    <col min="15" max="15" width="11.775" customWidth="1"/>
+    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="11.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37322,32 +37552,32 @@
       <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889"/>
-    <col min="2" max="2" width="17.5555555555556"/>
+    <col min="1" max="1" width="12.8916666666667"/>
+    <col min="2" max="2" width="17.5583333333333"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889"/>
-    <col min="5" max="5" width="17.5555555555556"/>
-    <col min="6" max="6" width="11.7777777777778"/>
-    <col min="7" max="7" width="17.5555555555556"/>
-    <col min="8" max="8" width="11.7777777777778"/>
-    <col min="9" max="9" width="12.8888888888889"/>
-    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778"/>
+    <col min="4" max="4" width="11.8916666666667"/>
+    <col min="5" max="5" width="17.5583333333333"/>
+    <col min="6" max="6" width="11.775"/>
+    <col min="7" max="7" width="17.5583333333333"/>
+    <col min="8" max="8" width="11.775"/>
+    <col min="9" max="9" width="12.8916666666667"/>
+    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.775"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444"/>
+    <col min="13" max="13" width="16.4416666666667"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5555555555556"/>
-    <col min="20" max="20" width="12.8888888888889"/>
-    <col min="25" max="26" width="12.8888888888889"/>
+    <col min="19" max="19" width="10.5583333333333"/>
+    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="25" max="26" width="12.8916666666667"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="2:28">
+    <row r="1" ht="15" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -40827,11 +41057,11 @@
   <sheetPr/>
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="Z45" sqref="Z45"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="O121" sqref="O121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -44706,33 +44936,75 @@
         <v>2468.85732484076</v>
       </c>
     </row>
-    <row r="115" spans="2:11">
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>2780</v>
+      </c>
       <c r="B115" s="5">
         <v>45590</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-    </row>
-    <row r="116" spans="2:11">
+      <c r="C115" s="6">
+        <v>177.523051478189</v>
+      </c>
+      <c r="D115" s="8">
+        <v>3</v>
+      </c>
+      <c r="E115" s="6">
+        <v>17.3475294604093</v>
+      </c>
+      <c r="F115" s="6">
+        <v>15.0345255323548</v>
+      </c>
+      <c r="G115" s="6">
+        <v>23.7082902625594</v>
+      </c>
+      <c r="H115" s="6">
+        <v>16.7692784783957</v>
+      </c>
+      <c r="I115" s="6">
+        <v>25.4430432086004</v>
+      </c>
+      <c r="J115" s="6">
+        <v>27.1777961546413</v>
+      </c>
+      <c r="K115" s="6">
+        <v>2474.33595203639</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>2783</v>
+      </c>
       <c r="B116" s="5">
         <v>45591</v>
       </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
+      <c r="C116" s="6">
+        <v>192.21635883905</v>
+      </c>
+      <c r="D116" s="8">
+        <v>3</v>
+      </c>
+      <c r="E116" s="6">
+        <v>30.3430079155673</v>
+      </c>
+      <c r="F116" s="6">
+        <v>13.5883905013193</v>
+      </c>
+      <c r="G116" s="6">
+        <v>13.1926121372032</v>
+      </c>
+      <c r="H116" s="6">
+        <v>17.0184696569921</v>
+      </c>
+      <c r="I116" s="6">
+        <v>8.44327176781002</v>
+      </c>
+      <c r="J116" s="6">
+        <v>20.1846965699208</v>
+      </c>
+      <c r="K116" s="6">
+        <v>2485.62005277045</v>
+      </c>
     </row>
     <row r="117" spans="2:11">
       <c r="B117" s="5">
@@ -45130,15 +45402,15 @@
   <sheetPr/>
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.12962962962963"/>
-    <col min="3" max="3" width="12.8888888888889"/>
-    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="2" max="2" width="9.13333333333333"/>
+    <col min="3" max="3" width="12.8916666666667"/>
+    <col min="10" max="10" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -46997,19 +47269,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="2:9">
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>2780</v>
+      </c>
       <c r="B115" s="5">
         <v>45590</v>
       </c>
-      <c r="C115" s="8"/>
-      <c r="I115" s="6"/>
-    </row>
-    <row r="116" spans="2:9">
+      <c r="C115" s="8">
+        <v>126.040658276863</v>
+      </c>
+      <c r="I115" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>2783</v>
+      </c>
       <c r="B116" s="5">
         <v>45591</v>
       </c>
-      <c r="C116" s="8"/>
-      <c r="I116" s="6"/>
+      <c r="C116" s="8">
+        <v>148.594215741561</v>
+      </c>
+      <c r="I116" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="117" spans="2:9">
       <c r="B117" s="5">
@@ -47212,13 +47498,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="20" max="20" width="12.8916666666667"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -48534,10 +48820,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8888888888889"/>
-    <col min="7" max="8" width="12.8888888888889"/>
+    <col min="2" max="5" width="12.8916666666667"/>
+    <col min="7" max="8" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -3070,7 +3070,7 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
-        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{53151cea-7e8a-4906-b0a8-bbd2de6ad596}"/>
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{99e13f69-9591-4423-853c-853608e63f6b}"/>
       </c:ext>
     </c:extLst>
   </c:chart>
@@ -4462,7 +4462,7 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
-        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{478b2f04-be4a-4bc6-be61-9f6b5dfbd9e8}"/>
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{ff487b5b-51fb-460a-a583-e80bd6535cf6}"/>
       </c:ext>
     </c:extLst>
   </c:chart>
@@ -6885,7 +6885,7 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
-        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{1ad4972d-c146-4367-8712-f68daf3005da}"/>
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{be8998f0-469b-47a1-b23e-2a18de5ccf0b}"/>
       </c:ext>
     </c:extLst>
   </c:chart>
@@ -9416,7 +9416,7 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
-        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{c96e4365-e5b3-47b8-8031-b0d4c41f626e}"/>
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{253baf92-aa89-4ba0-b411-6da06da74719}"/>
       </c:ext>
     </c:extLst>
   </c:chart>
@@ -11271,7 +11271,7 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
-        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{242d423a-f975-4e62-8976-c258646b9388}"/>
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{439ee387-f548-4466-805b-1c42634ac35c}"/>
       </c:ext>
     </c:extLst>
   </c:chart>
@@ -14662,7 +14662,7 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
-        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{5738acee-9c69-4ec7-9b10-c08de980b0a5}"/>
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{2350a438-197a-4069-ae58-fecfd36bf662}"/>
       </c:ext>
     </c:extLst>
   </c:chart>
@@ -15305,6 +15305,21 @@
                 <c:pt idx="69">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="70">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15841,6 +15856,21 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>192.21635883905</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>180.2857143</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>161.190326197213</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>165.094705150861</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>158.893369758467</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>164.305858464315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18883,7 +18913,7 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
-        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{75ac2e42-571b-485e-92dd-fb3e1d218a2b}"/>
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{172c2b72-a053-4557-a7ff-8a58d9a4ae19}"/>
       </c:ext>
     </c:extLst>
   </c:chart>
@@ -19514,6 +19544,18 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>148.594215741561</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>136.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>126.915629322268</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>132.788695076175</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>130.624804013797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19704,7 +19746,7 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
-        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{b82a0cb9-19b6-4acc-a730-4f00d69eb7d3}"/>
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{ec808459-027e-4703-946c-851885513e0e}"/>
       </c:ext>
     </c:extLst>
   </c:chart>
@@ -22277,7 +22319,7 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
-        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{fee02826-0b19-42af-903c-9e2a1e5f2288}"/>
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{853d8065-7550-4bd4-810f-ce9fcca3d884}"/>
       </c:ext>
     </c:extLst>
   </c:chart>
@@ -23666,7 +23708,7 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
-        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{e5ee4d0f-e2b3-4125-9e98-6ca68e42e51c}"/>
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{42aac172-5ef0-4c18-ba75-173919d55883}"/>
       </c:ext>
     </c:extLst>
   </c:chart>
@@ -29233,8 +29275,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9762490" y="450850"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8836660" y="473710"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29263,8 +29305,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9732010" y="554990"/>
-        <a:ext cx="12696190" cy="4979670"/>
+        <a:off x="8806180" y="589280"/>
+        <a:ext cx="11431905" cy="5311140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29293,8 +29335,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9737090" y="5808980"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8811260" y="6186170"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29328,8 +29370,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3729990" y="19135090"/>
-        <a:ext cx="13565505" cy="5667375"/>
+        <a:off x="3373120" y="20403820"/>
+        <a:ext cx="12246610" cy="6044565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29363,8 +29405,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26319480" y="260350"/>
-        <a:ext cx="9759950" cy="5321935"/>
+        <a:off x="23703915" y="275590"/>
+        <a:ext cx="8799830" cy="5819140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29398,8 +29440,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7336790" y="12700000"/>
-        <a:ext cx="9786620" cy="6006465"/>
+        <a:off x="6627495" y="13545820"/>
+        <a:ext cx="8835390" cy="6406515"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29433,8 +29475,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6979285" y="13481050"/>
-        <a:ext cx="8094345" cy="5195570"/>
+        <a:off x="6335395" y="14372590"/>
+        <a:ext cx="7248525" cy="5538470"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29468,8 +29510,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9860280" y="170180"/>
-        <a:ext cx="5621655" cy="6235700"/>
+        <a:off x="8887460" y="170180"/>
+        <a:ext cx="5092065" cy="6658610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29503,8 +29545,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7328535" y="109220"/>
-        <a:ext cx="9937115" cy="4862830"/>
+        <a:off x="6602095" y="109220"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29533,8 +29575,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7577455" y="5078730"/>
-        <a:ext cx="10005060" cy="4865370"/>
+        <a:off x="6851015" y="5410200"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -30217,7 +30259,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -30228,9 +30270,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.225" customWidth="1"/>
-    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
-    <col min="17" max="17" width="12.8916666666667"/>
+    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34643,26 +34685,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.775" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5583333333333"/>
-    <col min="14" max="14" width="12.8916666666667"/>
-    <col min="15" max="15" width="11.775" customWidth="1"/>
-    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556"/>
+    <col min="14" max="14" width="12.8888888888889"/>
+    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.775" customWidth="1"/>
+    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37552,32 +37594,32 @@
       <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.8916666666667"/>
-    <col min="2" max="2" width="17.5583333333333"/>
+    <col min="1" max="1" width="12.8888888888889"/>
+    <col min="2" max="2" width="17.5555555555556"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8916666666667"/>
-    <col min="5" max="5" width="17.5583333333333"/>
-    <col min="6" max="6" width="11.775"/>
-    <col min="7" max="7" width="17.5583333333333"/>
-    <col min="8" max="8" width="11.775"/>
-    <col min="9" max="9" width="12.8916666666667"/>
-    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.775"/>
+    <col min="4" max="4" width="11.8888888888889"/>
+    <col min="5" max="5" width="17.5555555555556"/>
+    <col min="6" max="6" width="11.7777777777778"/>
+    <col min="7" max="7" width="17.5555555555556"/>
+    <col min="8" max="8" width="11.7777777777778"/>
+    <col min="9" max="9" width="12.8888888888889"/>
+    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4416666666667"/>
+    <col min="13" max="13" width="16.4444444444444"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5583333333333"/>
-    <col min="20" max="20" width="12.8916666666667"/>
-    <col min="25" max="26" width="12.8916666666667"/>
+    <col min="19" max="19" width="10.5555555555556"/>
+    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="25" max="26" width="12.8888888888889"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:28">
+    <row r="1" ht="16.2" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -41057,11 +41099,11 @@
   <sheetPr/>
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="O121" sqref="O121"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -44938,7 +44980,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115">
-        <v>2780</v>
+        <v>2800</v>
       </c>
       <c r="B115" s="5">
         <v>45590</v>
@@ -44973,7 +45015,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116">
-        <v>2783</v>
+        <v>2803</v>
       </c>
       <c r="B116" s="5">
         <v>45591</v>
@@ -45006,75 +45048,180 @@
         <v>2485.62005277045</v>
       </c>
     </row>
-    <row r="117" spans="2:11">
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>2806</v>
+      </c>
       <c r="B117" s="5">
         <v>45592</v>
       </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
-    </row>
-    <row r="118" spans="2:11">
+      <c r="C117" s="6">
+        <v>180.2857143</v>
+      </c>
+      <c r="D117" s="8">
+        <v>3</v>
+      </c>
+      <c r="E117" s="6">
+        <v>37</v>
+      </c>
+      <c r="F117" s="6">
+        <v>16.5714285714286</v>
+      </c>
+      <c r="G117" s="6">
+        <v>8.42857142857143</v>
+      </c>
+      <c r="H117" s="6">
+        <v>10.8571428571429</v>
+      </c>
+      <c r="I117" s="6">
+        <v>15.2857142857143</v>
+      </c>
+      <c r="J117" s="6">
+        <v>9.28571428571429</v>
+      </c>
+      <c r="K117" s="6">
+        <v>2506.28571428571</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>2809</v>
+      </c>
       <c r="B118" s="5">
         <v>45593</v>
       </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
-    </row>
-    <row r="119" spans="2:11">
+      <c r="C118" s="6">
+        <v>161.190326197213</v>
+      </c>
+      <c r="D118" s="8">
+        <v>3</v>
+      </c>
+      <c r="E118" s="6">
+        <v>45.3909561689178</v>
+      </c>
+      <c r="F118" s="6">
+        <v>30.5602477176873</v>
+      </c>
+      <c r="G118" s="6">
+        <v>17.3773957610379</v>
+      </c>
+      <c r="H118" s="6">
+        <v>7.64006192942182</v>
+      </c>
+      <c r="I118" s="6">
+        <v>10.3365543751001</v>
+      </c>
+      <c r="J118" s="6">
+        <v>17.8268111686509</v>
+      </c>
+      <c r="K118" s="6">
+        <v>2495.60375847525</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>2812</v>
+      </c>
       <c r="B119" s="5">
         <v>45594</v>
       </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-    </row>
-    <row r="120" spans="2:11">
+      <c r="C119" s="6">
+        <v>165.094705150861</v>
+      </c>
+      <c r="D119" s="8">
+        <v>3</v>
+      </c>
+      <c r="E119" s="6">
+        <v>25.9224425682309</v>
+      </c>
+      <c r="F119" s="6">
+        <v>31.8055501014464</v>
+      </c>
+      <c r="G119" s="6">
+        <v>29.5993847764906</v>
+      </c>
+      <c r="H119" s="6">
+        <v>15.0754630538648</v>
+      </c>
+      <c r="I119" s="6">
+        <v>6.98619019569344</v>
+      </c>
+      <c r="J119" s="6">
+        <v>11.2146737351921</v>
+      </c>
+      <c r="K119" s="6">
+        <v>2504.36533804568</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>2814</v>
+      </c>
       <c r="B120" s="5">
         <v>45595</v>
       </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-    </row>
-    <row r="121" spans="2:11">
+      <c r="C120" s="6">
+        <v>158.893369758467</v>
+      </c>
+      <c r="D120" s="8">
+        <v>2</v>
+      </c>
+      <c r="E120" s="6">
+        <v>18.2776115519709</v>
+      </c>
+      <c r="F120" s="6">
+        <v>15.9624474220546</v>
+      </c>
+      <c r="G120" s="6">
+        <v>31.1937903820303</v>
+      </c>
+      <c r="H120" s="6">
+        <v>26.6853128658775</v>
+      </c>
+      <c r="I120" s="6">
+        <v>15.3531937036555</v>
+      </c>
+      <c r="J120" s="6">
+        <v>6.4580894150297</v>
+      </c>
+      <c r="K120" s="6">
+        <v>2517.43636442479</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>2817</v>
+      </c>
       <c r="B121" s="5">
         <v>45596</v>
       </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
+      <c r="C121" s="6">
+        <v>164.305858464315</v>
+      </c>
+      <c r="D121" s="8">
+        <v>3</v>
+      </c>
+      <c r="E121" s="6">
+        <v>19.3363164623599</v>
+      </c>
+      <c r="F121" s="6">
+        <v>10.5662931488306</v>
+      </c>
+      <c r="G121" s="6">
+        <v>13.3135293675265</v>
+      </c>
+      <c r="H121" s="6">
+        <v>29.0573061592841</v>
+      </c>
+      <c r="I121" s="6">
+        <v>23.7741595848688</v>
+      </c>
+      <c r="J121" s="6">
+        <v>13.7361810934797</v>
+      </c>
+      <c r="K121" s="6">
+        <v>2517.10235391442</v>
+      </c>
     </row>
     <row r="122" spans="2:11">
       <c r="B122" s="5">
@@ -45402,15 +45549,15 @@
   <sheetPr/>
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="K119" sqref="K119"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.13333333333333"/>
-    <col min="3" max="3" width="12.8916666666667"/>
-    <col min="10" max="10" width="12.8916666666667"/>
+    <col min="2" max="2" width="9.12962962962963"/>
+    <col min="3" max="3" width="12.8888888888889"/>
+    <col min="10" max="10" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -47271,7 +47418,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115">
-        <v>2780</v>
+        <v>2800</v>
       </c>
       <c r="B115" s="5">
         <v>45590</v>
@@ -47285,7 +47432,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116">
-        <v>2783</v>
+        <v>2803</v>
       </c>
       <c r="B116" s="5">
         <v>45591</v>
@@ -47297,40 +47444,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>2806</v>
+      </c>
       <c r="B117" s="5">
         <v>45592</v>
       </c>
-      <c r="C117" s="8"/>
-      <c r="I117" s="6"/>
-    </row>
-    <row r="118" spans="2:9">
+      <c r="C117" s="8">
+        <v>136.142857142857</v>
+      </c>
+      <c r="I117" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>2809</v>
+      </c>
       <c r="B118" s="5">
         <v>45593</v>
       </c>
-      <c r="C118" s="8"/>
-      <c r="I118" s="6"/>
-    </row>
-    <row r="119" spans="2:9">
+      <c r="C118" s="8">
+        <v>126.915629322268</v>
+      </c>
+      <c r="I118" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>2812</v>
+      </c>
       <c r="B119" s="5">
         <v>45594</v>
       </c>
-      <c r="C119" s="8"/>
-      <c r="I119" s="6"/>
-    </row>
-    <row r="120" spans="2:9">
+      <c r="C119" s="8">
+        <v>132.788695076175</v>
+      </c>
+      <c r="I119" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>2814</v>
+      </c>
       <c r="B120" s="5">
         <v>45595</v>
       </c>
-      <c r="C120" s="8"/>
-      <c r="I120" s="6"/>
-    </row>
-    <row r="121" spans="2:9">
+      <c r="C120" s="8">
+        <v>130.624804013797</v>
+      </c>
+      <c r="I120" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>2817</v>
+      </c>
       <c r="B121" s="5">
         <v>45596</v>
       </c>
-      <c r="C121" s="8"/>
-      <c r="I121" s="6"/>
+      <c r="C121" s="8">
+        <v>130.956261885357</v>
+      </c>
+      <c r="I121" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="122" spans="2:9">
       <c r="B122" s="5">
@@ -47498,13 +47680,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="20" max="20" width="12.8888888888889"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -48820,10 +49002,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8916666666667"/>
-    <col min="7" max="8" width="12.8916666666667"/>
+    <col min="2" max="5" width="12.8888888888889"/>
+    <col min="7" max="8" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14849,14 +14849,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$47:$B$120</c:f>
+              <c:f>日活跃!$B$47:$B$130</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45522</c:v>
                 </c:pt>
@@ -15078,6 +15078,36 @@
                 </c:pt>
                 <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45595</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45598</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45599</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45600</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45601</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45602</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45603</c:v>
+                </c:pt>
+                <c:pt idx="82" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45604</c:v>
+                </c:pt>
+                <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15318,6 +15348,12 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -15413,14 +15449,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$47:$B$120</c:f>
+              <c:f>日活跃!$B$47:$B$130</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45522</c:v>
                 </c:pt>
@@ -15642,6 +15678,36 @@
                 </c:pt>
                 <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45595</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45598</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45599</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45600</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45601</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45602</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45603</c:v>
+                </c:pt>
+                <c:pt idx="82" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45604</c:v>
+                </c:pt>
+                <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15871,6 +15937,12 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>164.305858464315</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>188.605620815459</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>188.814159292035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15986,16 +16058,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$120</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$130</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="84"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -16217,6 +16289,36 @@
                       </c:pt>
                       <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45595</c:v>
+                      </c:pt>
+                      <c:pt idx="74" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45596</c:v>
+                      </c:pt>
+                      <c:pt idx="75" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45597</c:v>
+                      </c:pt>
+                      <c:pt idx="76" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45598</c:v>
+                      </c:pt>
+                      <c:pt idx="77" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45599</c:v>
+                      </c:pt>
+                      <c:pt idx="78" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45600</c:v>
+                      </c:pt>
+                      <c:pt idx="79" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45601</c:v>
+                      </c:pt>
+                      <c:pt idx="80" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45602</c:v>
+                      </c:pt>
+                      <c:pt idx="81" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45603</c:v>
+                      </c:pt>
+                      <c:pt idx="82" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45604</c:v>
+                      </c:pt>
+                      <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45605</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16505,16 +16607,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$120</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$130</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="84"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -16736,6 +16838,36 @@
                       </c:pt>
                       <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45595</c:v>
+                      </c:pt>
+                      <c:pt idx="74" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45596</c:v>
+                      </c:pt>
+                      <c:pt idx="75" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45597</c:v>
+                      </c:pt>
+                      <c:pt idx="76" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45598</c:v>
+                      </c:pt>
+                      <c:pt idx="77" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45599</c:v>
+                      </c:pt>
+                      <c:pt idx="78" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45600</c:v>
+                      </c:pt>
+                      <c:pt idx="79" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45601</c:v>
+                      </c:pt>
+                      <c:pt idx="80" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45602</c:v>
+                      </c:pt>
+                      <c:pt idx="81" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45603</c:v>
+                      </c:pt>
+                      <c:pt idx="82" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45604</c:v>
+                      </c:pt>
+                      <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45605</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17033,16 +17165,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$120</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$130</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="84"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -17264,6 +17396,36 @@
                       </c:pt>
                       <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45595</c:v>
+                      </c:pt>
+                      <c:pt idx="74" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45596</c:v>
+                      </c:pt>
+                      <c:pt idx="75" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45597</c:v>
+                      </c:pt>
+                      <c:pt idx="76" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45598</c:v>
+                      </c:pt>
+                      <c:pt idx="77" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45599</c:v>
+                      </c:pt>
+                      <c:pt idx="78" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45600</c:v>
+                      </c:pt>
+                      <c:pt idx="79" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45601</c:v>
+                      </c:pt>
+                      <c:pt idx="80" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45602</c:v>
+                      </c:pt>
+                      <c:pt idx="81" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45603</c:v>
+                      </c:pt>
+                      <c:pt idx="82" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45604</c:v>
+                      </c:pt>
+                      <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45605</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17387,16 +17549,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$120</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$130</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="84"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -17618,6 +17780,36 @@
                       </c:pt>
                       <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45595</c:v>
+                      </c:pt>
+                      <c:pt idx="74" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45596</c:v>
+                      </c:pt>
+                      <c:pt idx="75" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45597</c:v>
+                      </c:pt>
+                      <c:pt idx="76" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45598</c:v>
+                      </c:pt>
+                      <c:pt idx="77" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45599</c:v>
+                      </c:pt>
+                      <c:pt idx="78" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45600</c:v>
+                      </c:pt>
+                      <c:pt idx="79" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45601</c:v>
+                      </c:pt>
+                      <c:pt idx="80" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45602</c:v>
+                      </c:pt>
+                      <c:pt idx="81" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45603</c:v>
+                      </c:pt>
+                      <c:pt idx="82" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45604</c:v>
+                      </c:pt>
+                      <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45605</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17743,16 +17935,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$120</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$130</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="84"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -17974,6 +18166,36 @@
                       </c:pt>
                       <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45595</c:v>
+                      </c:pt>
+                      <c:pt idx="74" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45596</c:v>
+                      </c:pt>
+                      <c:pt idx="75" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45597</c:v>
+                      </c:pt>
+                      <c:pt idx="76" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45598</c:v>
+                      </c:pt>
+                      <c:pt idx="77" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45599</c:v>
+                      </c:pt>
+                      <c:pt idx="78" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45600</c:v>
+                      </c:pt>
+                      <c:pt idx="79" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45601</c:v>
+                      </c:pt>
+                      <c:pt idx="80" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45602</c:v>
+                      </c:pt>
+                      <c:pt idx="81" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45603</c:v>
+                      </c:pt>
+                      <c:pt idx="82" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45604</c:v>
+                      </c:pt>
+                      <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45605</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18100,16 +18322,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$120</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$130</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="84"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -18331,6 +18553,36 @@
                       </c:pt>
                       <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45595</c:v>
+                      </c:pt>
+                      <c:pt idx="74" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45596</c:v>
+                      </c:pt>
+                      <c:pt idx="75" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45597</c:v>
+                      </c:pt>
+                      <c:pt idx="76" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45598</c:v>
+                      </c:pt>
+                      <c:pt idx="77" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45599</c:v>
+                      </c:pt>
+                      <c:pt idx="78" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45600</c:v>
+                      </c:pt>
+                      <c:pt idx="79" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45601</c:v>
+                      </c:pt>
+                      <c:pt idx="80" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45602</c:v>
+                      </c:pt>
+                      <c:pt idx="81" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45603</c:v>
+                      </c:pt>
+                      <c:pt idx="82" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45604</c:v>
+                      </c:pt>
+                      <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45605</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18454,16 +18706,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$120</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$120</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$130</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="84"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -18685,6 +18937,36 @@
                       </c:pt>
                       <c:pt idx="73" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45595</c:v>
+                      </c:pt>
+                      <c:pt idx="74" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45596</c:v>
+                      </c:pt>
+                      <c:pt idx="75" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45597</c:v>
+                      </c:pt>
+                      <c:pt idx="76" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45598</c:v>
+                      </c:pt>
+                      <c:pt idx="77" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45599</c:v>
+                      </c:pt>
+                      <c:pt idx="78" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45600</c:v>
+                      </c:pt>
+                      <c:pt idx="79" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45601</c:v>
+                      </c:pt>
+                      <c:pt idx="80" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45602</c:v>
+                      </c:pt>
+                      <c:pt idx="81" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45603</c:v>
+                      </c:pt>
+                      <c:pt idx="82" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45604</c:v>
+                      </c:pt>
+                      <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45605</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19055,10 +19337,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$37:$B$120</c:f>
+              <c:f>日活跃2!$B$37:$B$130</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -19310,16 +19592,46 @@
                 </c:pt>
                 <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45595</c:v>
+                </c:pt>
+                <c:pt idx="84" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="85" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="86" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45598</c:v>
+                </c:pt>
+                <c:pt idx="87" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45599</c:v>
+                </c:pt>
+                <c:pt idx="88" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45600</c:v>
+                </c:pt>
+                <c:pt idx="89" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45601</c:v>
+                </c:pt>
+                <c:pt idx="90" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45602</c:v>
+                </c:pt>
+                <c:pt idx="91" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45603</c:v>
+                </c:pt>
+                <c:pt idx="92" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45604</c:v>
+                </c:pt>
+                <c:pt idx="93" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$37:$C$120</c:f>
+              <c:f>日活跃2!$C$37:$C$130</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>307.240555796786</c:v>
                 </c:pt>
@@ -19556,6 +19868,15 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>130.624804013797</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>130.956261885357</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>149.796998477488</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>144.745843880413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29275,8 +29596,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8836660" y="473710"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9762490" y="450850"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29305,8 +29626,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8806180" y="589280"/>
-        <a:ext cx="11431905" cy="5311140"/>
+        <a:off x="9732010" y="554990"/>
+        <a:ext cx="12696190" cy="4979670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29335,8 +29656,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8811260" y="6186170"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9737090" y="5808980"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29370,8 +29691,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3373120" y="20403820"/>
-        <a:ext cx="12246610" cy="6044565"/>
+        <a:off x="3729990" y="19135090"/>
+        <a:ext cx="13565505" cy="5667375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29405,8 +29726,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23703915" y="275590"/>
-        <a:ext cx="8799830" cy="5819140"/>
+        <a:off x="26319480" y="260350"/>
+        <a:ext cx="9759950" cy="5321935"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29440,8 +29761,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6627495" y="13545820"/>
-        <a:ext cx="8835390" cy="6406515"/>
+        <a:off x="7336790" y="12700000"/>
+        <a:ext cx="9786620" cy="6006465"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29475,8 +29796,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6335395" y="14372590"/>
-        <a:ext cx="7248525" cy="5538470"/>
+        <a:off x="6979285" y="13481050"/>
+        <a:ext cx="8094345" cy="5195570"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29510,8 +29831,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8887460" y="170180"/>
-        <a:ext cx="5092065" cy="6658610"/>
+        <a:off x="9860280" y="170180"/>
+        <a:ext cx="5621655" cy="6235700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29545,8 +29866,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6602095" y="109220"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7328535" y="109220"/>
+        <a:ext cx="9937115" cy="4862830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29575,8 +29896,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6851015" y="5410200"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7577455" y="5078730"/>
+        <a:ext cx="10005060" cy="4865370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -30259,7 +30580,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -30270,9 +30591,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="12.8888888888889"/>
+    <col min="14" max="14" width="15.225" customWidth="1"/>
+    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -34685,26 +35006,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="11.775" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556"/>
-    <col min="14" max="14" width="12.8888888888889"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="17.5583333333333"/>
+    <col min="14" max="14" width="12.8916666666667"/>
+    <col min="15" max="15" width="11.775" customWidth="1"/>
+    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="11.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37591,35 +37912,35 @@
   <dimension ref="A1:AB89"/>
   <sheetViews>
     <sheetView topLeftCell="M34" workbookViewId="0">
-      <selection activeCell="Y52" sqref="Y52"/>
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889"/>
-    <col min="2" max="2" width="17.5555555555556"/>
+    <col min="1" max="1" width="12.8916666666667"/>
+    <col min="2" max="2" width="17.5583333333333"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889"/>
-    <col min="5" max="5" width="17.5555555555556"/>
-    <col min="6" max="6" width="11.7777777777778"/>
-    <col min="7" max="7" width="17.5555555555556"/>
-    <col min="8" max="8" width="11.7777777777778"/>
-    <col min="9" max="9" width="12.8888888888889"/>
-    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778"/>
+    <col min="4" max="4" width="11.8916666666667"/>
+    <col min="5" max="5" width="17.5583333333333"/>
+    <col min="6" max="6" width="11.775"/>
+    <col min="7" max="7" width="17.5583333333333"/>
+    <col min="8" max="8" width="11.775"/>
+    <col min="9" max="9" width="12.8916666666667"/>
+    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.775"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444"/>
+    <col min="13" max="13" width="16.4416666666667"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5555555555556"/>
-    <col min="20" max="20" width="12.8888888888889"/>
-    <col min="25" max="26" width="12.8888888888889"/>
+    <col min="19" max="19" width="10.5583333333333"/>
+    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="25" max="26" width="12.8916666666667"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="2:28">
+    <row r="1" ht="15" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -41099,11 +41420,11 @@
   <sheetPr/>
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="M123" sqref="M123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -45223,33 +45544,75 @@
         <v>2517.10235391442</v>
       </c>
     </row>
-    <row r="122" spans="2:11">
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>2820</v>
+      </c>
       <c r="B122" s="5">
         <v>45597</v>
       </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-    </row>
-    <row r="123" spans="2:11">
+      <c r="C122" s="6">
+        <v>188.605620815459</v>
+      </c>
+      <c r="D122" s="8">
+        <v>3</v>
+      </c>
+      <c r="E122" s="6">
+        <v>28.2343743735718</v>
+      </c>
+      <c r="F122" s="6">
+        <v>13.4395622018201</v>
+      </c>
+      <c r="G122" s="6">
+        <v>9.03499979954296</v>
+      </c>
+      <c r="H122" s="6">
+        <v>11.0678747544401</v>
+      </c>
+      <c r="I122" s="6">
+        <v>20.2158120514774</v>
+      </c>
+      <c r="J122" s="6">
+        <v>19.8769995589945</v>
+      </c>
+      <c r="K122" s="6">
+        <v>2506.87363188069</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>2823</v>
+      </c>
       <c r="B123" s="5">
         <v>45598</v>
       </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
+      <c r="C123" s="6">
+        <v>188.814159292035</v>
+      </c>
+      <c r="D123" s="8">
+        <v>3</v>
+      </c>
+      <c r="E123" s="6">
+        <v>38.3362831858407</v>
+      </c>
+      <c r="F123" s="6">
+        <v>14.7610619469027</v>
+      </c>
+      <c r="G123" s="6">
+        <v>10.8318584070796</v>
+      </c>
+      <c r="H123" s="6">
+        <v>9.23893805309735</v>
+      </c>
+      <c r="I123" s="6">
+        <v>9.13274336283186</v>
+      </c>
+      <c r="J123" s="6">
+        <v>16.0353982300885</v>
+      </c>
+      <c r="K123" s="6">
+        <v>2515.75221238938</v>
+      </c>
     </row>
     <row r="124" spans="2:11">
       <c r="B124" s="5">
@@ -45549,15 +45912,15 @@
   <sheetPr/>
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.12962962962963"/>
-    <col min="3" max="3" width="12.8888888888889"/>
-    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="2" max="2" width="9.13333333333333"/>
+    <col min="3" max="3" width="12.8916666666667"/>
+    <col min="10" max="10" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -47514,19 +47877,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>2820</v>
+      </c>
       <c r="B122" s="5">
         <v>45597</v>
       </c>
-      <c r="C122" s="8"/>
-      <c r="I122" s="6"/>
-    </row>
-    <row r="123" spans="2:9">
+      <c r="C122" s="8">
+        <v>149.796998477488</v>
+      </c>
+      <c r="I122" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>2823</v>
+      </c>
       <c r="B123" s="5">
         <v>45598</v>
       </c>
-      <c r="C123" s="8"/>
-      <c r="I123" s="6"/>
+      <c r="C123" s="8">
+        <v>144.745843880413</v>
+      </c>
+      <c r="I123" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="124" spans="2:9">
       <c r="B124" s="5">
@@ -47680,13 +48057,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="20" max="20" width="12.8916666666667"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -49002,10 +49379,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8888888888889"/>
-    <col min="7" max="8" width="12.8888888888889"/>
+    <col min="2" max="5" width="12.8916666666667"/>
+    <col min="7" max="8" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -15356,6 +15356,30 @@
                 <c:pt idx="76">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15943,6 +15967,30 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>188.814159292035</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>186.545910314734</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>150.666217967893</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>152.341502026342</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>181.349454049136</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>177.777126692262</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>198.488667911766</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>214.282330769623</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>211.38692517144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19877,6 +19925,27 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>144.745843880413</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>140.635550303848</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>121.148777606107</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>129.509046905612</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>145.751607054557</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>134.049419140697</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>148.04093297686</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>152.778294862248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29596,8 +29665,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9762490" y="450850"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8836660" y="473710"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29626,8 +29695,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9732010" y="554990"/>
-        <a:ext cx="12696190" cy="4979670"/>
+        <a:off x="8806180" y="589280"/>
+        <a:ext cx="11431905" cy="5311140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29656,8 +29725,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9737090" y="5808980"/>
-        <a:ext cx="12436475" cy="5271770"/>
+        <a:off x="8811260" y="6186170"/>
+        <a:ext cx="11172190" cy="5626100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29691,8 +29760,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3729990" y="19135090"/>
-        <a:ext cx="13565505" cy="5667375"/>
+        <a:off x="3373120" y="20403820"/>
+        <a:ext cx="12246610" cy="6044565"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29726,8 +29795,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26319480" y="260350"/>
-        <a:ext cx="9759950" cy="5321935"/>
+        <a:off x="23703915" y="275590"/>
+        <a:ext cx="8799830" cy="5819140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29761,8 +29830,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7336790" y="12700000"/>
-        <a:ext cx="9786620" cy="6006465"/>
+        <a:off x="6627495" y="13545820"/>
+        <a:ext cx="8835390" cy="6406515"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29796,8 +29865,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6979285" y="13481050"/>
-        <a:ext cx="8094345" cy="5195570"/>
+        <a:off x="6335395" y="14372590"/>
+        <a:ext cx="7248525" cy="5538470"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29831,8 +29900,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9860280" y="170180"/>
-        <a:ext cx="5621655" cy="6235700"/>
+        <a:off x="8887460" y="170180"/>
+        <a:ext cx="5092065" cy="6658610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29866,8 +29935,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7328535" y="109220"/>
-        <a:ext cx="9937115" cy="4862830"/>
+        <a:off x="6602095" y="109220"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29896,8 +29965,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7577455" y="5078730"/>
-        <a:ext cx="10005060" cy="4865370"/>
+        <a:off x="6851015" y="5410200"/>
+        <a:ext cx="8985885" cy="5188585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -30580,7 +30649,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -30591,9 +30660,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.225" customWidth="1"/>
-    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
-    <col min="17" max="17" width="12.8916666666667"/>
+    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -35006,26 +35075,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.775" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5583333333333"/>
-    <col min="14" max="14" width="12.8916666666667"/>
-    <col min="15" max="15" width="11.775" customWidth="1"/>
-    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556"/>
+    <col min="14" max="14" width="12.8888888888889"/>
+    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.775" customWidth="1"/>
+    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37915,32 +37984,32 @@
       <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.8916666666667"/>
-    <col min="2" max="2" width="17.5583333333333"/>
+    <col min="1" max="1" width="12.8888888888889"/>
+    <col min="2" max="2" width="17.5555555555556"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8916666666667"/>
-    <col min="5" max="5" width="17.5583333333333"/>
-    <col min="6" max="6" width="11.775"/>
-    <col min="7" max="7" width="17.5583333333333"/>
-    <col min="8" max="8" width="11.775"/>
-    <col min="9" max="9" width="12.8916666666667"/>
-    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.775"/>
+    <col min="4" max="4" width="11.8888888888889"/>
+    <col min="5" max="5" width="17.5555555555556"/>
+    <col min="6" max="6" width="11.7777777777778"/>
+    <col min="7" max="7" width="17.5555555555556"/>
+    <col min="8" max="8" width="11.7777777777778"/>
+    <col min="9" max="9" width="12.8888888888889"/>
+    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.7777777777778"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4416666666667"/>
+    <col min="13" max="13" width="16.4444444444444"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5583333333333"/>
-    <col min="20" max="20" width="12.8916666666667"/>
-    <col min="25" max="26" width="12.8916666666667"/>
+    <col min="19" max="19" width="10.5555555555556"/>
+    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="25" max="26" width="12.8888888888889"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:28">
+    <row r="1" ht="16.2" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -41420,11 +41489,11 @@
   <sheetPr/>
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="M123" sqref="M123"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -45614,117 +45683,285 @@
         <v>2515.75221238938</v>
       </c>
     </row>
-    <row r="124" spans="2:11">
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>2826</v>
+      </c>
       <c r="B124" s="5">
         <v>45599</v>
       </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-    </row>
-    <row r="125" spans="2:11">
+      <c r="C124" s="6">
+        <v>186.545910314734</v>
+      </c>
+      <c r="D124" s="8">
+        <v>0</v>
+      </c>
+      <c r="E124" s="6">
+        <v>37.9126357812645</v>
+      </c>
+      <c r="F124" s="6">
+        <v>23.8757775508309</v>
+      </c>
+      <c r="G124" s="6">
+        <v>11.4131464116609</v>
+      </c>
+      <c r="H124" s="6">
+        <v>9.5765481385201</v>
+      </c>
+      <c r="I124" s="6">
+        <v>10.1012905022746</v>
+      </c>
+      <c r="J124" s="6">
+        <v>8.39587782007242</v>
+      </c>
+      <c r="K124" s="6">
+        <v>2520.07520193111</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>2827</v>
+      </c>
       <c r="B125" s="5">
         <v>45600</v>
       </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-    </row>
-    <row r="126" spans="2:11">
+      <c r="C125" s="6">
+        <v>150.666217967893</v>
+      </c>
+      <c r="D125" s="8">
+        <v>0</v>
+      </c>
+      <c r="E125" s="6">
+        <v>48.7656795293648</v>
+      </c>
+      <c r="F125" s="6">
+        <v>27.3426064413202</v>
+      </c>
+      <c r="G125" s="6">
+        <v>23.9600159537342</v>
+      </c>
+      <c r="H125" s="6">
+        <v>11.1343603549706</v>
+      </c>
+      <c r="I125" s="6">
+        <v>9.02024130022933</v>
+      </c>
+      <c r="J125" s="6">
+        <v>8.03365240801675</v>
+      </c>
+      <c r="K125" s="6">
+        <v>2527.07697676737</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>2827</v>
+      </c>
       <c r="B126" s="5">
         <v>45601</v>
       </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-    </row>
-    <row r="127" spans="2:11">
+      <c r="C126" s="6">
+        <v>152.341502026342</v>
+      </c>
+      <c r="D126" s="8">
+        <v>0</v>
+      </c>
+      <c r="E126" s="6">
+        <v>22.9138804457953</v>
+      </c>
+      <c r="F126" s="6">
+        <v>41.7104229989868</v>
+      </c>
+      <c r="G126" s="6">
+        <v>25.599100810537</v>
+      </c>
+      <c r="H126" s="6">
+        <v>20.0496453900709</v>
+      </c>
+      <c r="I126" s="6">
+        <v>9.30876393110436</v>
+      </c>
+      <c r="J126" s="6">
+        <v>8.05566109422493</v>
+      </c>
+      <c r="K126" s="6">
+        <v>2530.19364235056</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>2829</v>
+      </c>
       <c r="B127" s="5">
         <v>45602</v>
       </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-    </row>
-    <row r="128" spans="2:11">
+      <c r="C127" s="6">
+        <v>181.349454049136</v>
+      </c>
+      <c r="D127" s="8">
+        <v>0</v>
+      </c>
+      <c r="E127" s="6">
+        <v>16.860737033667</v>
+      </c>
+      <c r="F127" s="6">
+        <v>16.860737033667</v>
+      </c>
+      <c r="G127" s="6">
+        <v>33.5927661510464</v>
+      </c>
+      <c r="H127" s="6">
+        <v>24.3257961783439</v>
+      </c>
+      <c r="I127" s="6">
+        <v>15.7023657870792</v>
+      </c>
+      <c r="J127" s="6">
+        <v>8.75213830755232</v>
+      </c>
+      <c r="K127" s="6">
+        <v>2509.80436760692</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>2829</v>
+      </c>
       <c r="B128" s="5">
         <v>45603</v>
       </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
-      <c r="K128" s="6"/>
-    </row>
-    <row r="129" spans="2:11">
+      <c r="C128" s="6">
+        <v>177.777126692262</v>
+      </c>
+      <c r="D128" s="8">
+        <v>0</v>
+      </c>
+      <c r="E128" s="6">
+        <v>21.150333400687</v>
+      </c>
+      <c r="F128" s="6">
+        <v>11.7184279652455</v>
+      </c>
+      <c r="G128" s="6">
+        <v>12.4329662558093</v>
+      </c>
+      <c r="H128" s="6">
+        <v>30.296423519903</v>
+      </c>
+      <c r="I128" s="6">
+        <v>18.863810870883</v>
+      </c>
+      <c r="J128" s="6">
+        <v>12.7187815720348</v>
+      </c>
+      <c r="K128" s="6">
+        <v>2521.8914427157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>2831</v>
+      </c>
       <c r="B129" s="5">
         <v>45604</v>
       </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-    </row>
-    <row r="130" spans="2:11">
+      <c r="C129" s="6">
+        <v>198.488667911766</v>
+      </c>
+      <c r="D129" s="8">
+        <v>0</v>
+      </c>
+      <c r="E129" s="6">
+        <v>23.7214678713846</v>
+      </c>
+      <c r="F129" s="6">
+        <v>16.862248245924</v>
+      </c>
+      <c r="G129" s="6">
+        <v>8.28822371409823</v>
+      </c>
+      <c r="H129" s="6">
+        <v>10.4317298470547</v>
+      </c>
+      <c r="I129" s="6">
+        <v>24.7217707334309</v>
+      </c>
+      <c r="J129" s="6">
+        <v>18.8628539700167</v>
+      </c>
+      <c r="K129" s="6">
+        <v>2507.75927515017</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>2833</v>
+      </c>
       <c r="B130" s="5">
         <v>45605</v>
       </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
-      <c r="K130" s="6"/>
-    </row>
-    <row r="131" spans="2:11">
+      <c r="C130" s="6">
+        <v>214.282330769623</v>
+      </c>
+      <c r="D130" s="8">
+        <v>0</v>
+      </c>
+      <c r="E130" s="6">
+        <v>23.376254265777</v>
+      </c>
+      <c r="F130" s="6">
+        <v>13.2754036571079</v>
+      </c>
+      <c r="G130" s="6">
+        <v>9.52365914531656</v>
+      </c>
+      <c r="H130" s="6">
+        <v>7.50348902358275</v>
+      </c>
+      <c r="I130" s="6">
+        <v>9.37936127947843</v>
+      </c>
+      <c r="J130" s="6">
+        <v>21.5003820098813</v>
+      </c>
+      <c r="K130" s="6">
+        <v>2512.081546376</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>2834</v>
+      </c>
       <c r="B131" s="5">
         <v>45606</v>
       </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
+      <c r="C131" s="6">
+        <v>211.38692517144</v>
+      </c>
+      <c r="D131" s="8">
+        <v>0</v>
+      </c>
+      <c r="E131" s="6">
+        <v>34.5879891085115</v>
+      </c>
+      <c r="F131" s="6">
+        <v>12.8633017345704</v>
+      </c>
+      <c r="G131" s="6">
+        <v>8.71846006454215</v>
+      </c>
+      <c r="H131" s="6">
+        <v>10.5764925373134</v>
+      </c>
+      <c r="I131" s="6">
+        <v>5.71702299314239</v>
+      </c>
+      <c r="J131" s="6">
+        <v>9.43308793868495</v>
+      </c>
+      <c r="K131" s="6">
+        <v>2519.49203307785</v>
+      </c>
     </row>
     <row r="132" spans="2:11">
       <c r="B132" s="5">
@@ -45912,15 +46149,15 @@
   <sheetPr/>
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.13333333333333"/>
-    <col min="3" max="3" width="12.8916666666667"/>
-    <col min="10" max="10" width="12.8916666666667"/>
+    <col min="2" max="2" width="9.12962962962963"/>
+    <col min="3" max="3" width="12.8888888888889"/>
+    <col min="10" max="10" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -47905,61 +48142,117 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>2826</v>
+      </c>
       <c r="B124" s="5">
         <v>45599</v>
       </c>
-      <c r="C124" s="8"/>
-      <c r="I124" s="6"/>
-    </row>
-    <row r="125" spans="2:9">
+      <c r="C124" s="8">
+        <v>140.635550303848</v>
+      </c>
+      <c r="I124" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>2827</v>
+      </c>
       <c r="B125" s="5">
         <v>45600</v>
       </c>
-      <c r="C125" s="8"/>
-      <c r="I125" s="6"/>
-    </row>
-    <row r="126" spans="2:9">
+      <c r="C125" s="8">
+        <v>121.148777606107</v>
+      </c>
+      <c r="I125" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>2827</v>
+      </c>
       <c r="B126" s="5">
         <v>45601</v>
       </c>
-      <c r="C126" s="8"/>
-      <c r="I126" s="6"/>
-    </row>
-    <row r="127" spans="2:9">
+      <c r="C126" s="8">
+        <v>129.509046905612</v>
+      </c>
+      <c r="I126" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>2829</v>
+      </c>
       <c r="B127" s="5">
         <v>45602</v>
       </c>
-      <c r="C127" s="8"/>
-      <c r="I127" s="6"/>
-    </row>
-    <row r="128" spans="2:9">
+      <c r="C127" s="8">
+        <v>145.751607054557</v>
+      </c>
+      <c r="I127" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>2829</v>
+      </c>
       <c r="B128" s="5">
         <v>45603</v>
       </c>
-      <c r="C128" s="8"/>
-      <c r="I128" s="6"/>
-    </row>
-    <row r="129" spans="2:9">
+      <c r="C128" s="8">
+        <v>134.049419140697</v>
+      </c>
+      <c r="I128" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>2831</v>
+      </c>
       <c r="B129" s="5">
         <v>45604</v>
       </c>
-      <c r="C129" s="8"/>
-      <c r="I129" s="6"/>
-    </row>
-    <row r="130" spans="2:9">
+      <c r="C129" s="8">
+        <v>148.04093297686</v>
+      </c>
+      <c r="I129" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>2833</v>
+      </c>
       <c r="B130" s="5">
         <v>45605</v>
       </c>
-      <c r="C130" s="8"/>
-      <c r="I130" s="6"/>
-    </row>
-    <row r="131" spans="2:9">
+      <c r="C130" s="8">
+        <v>152.778294862248</v>
+      </c>
+      <c r="I130" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131">
+        <v>2834</v>
+      </c>
       <c r="B131" s="5">
         <v>45606</v>
       </c>
-      <c r="C131" s="8"/>
-      <c r="I131" s="6"/>
+      <c r="C131" s="8">
+        <v>151.355463347164</v>
+      </c>
+      <c r="I131" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="2:9">
       <c r="B132" s="5">
@@ -48057,13 +48350,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="20" max="20" width="12.8888888888889"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -49379,10 +49672,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8916666666667"/>
-    <col min="7" max="8" width="12.8916666666667"/>
+    <col min="2" max="5" width="12.8888888888889"/>
+    <col min="7" max="8" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">

--- a/doc/绝区零下载UID.xlsx
+++ b/doc/绝区零下载UID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -14849,14 +14849,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$140</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$47:$B$130</c:f>
+              <c:f>日活跃!$B$47:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45522</c:v>
                 </c:pt>
@@ -15108,6 +15108,36 @@
                 </c:pt>
                 <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45605</c:v>
+                </c:pt>
+                <c:pt idx="84" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45606</c:v>
+                </c:pt>
+                <c:pt idx="85" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45607</c:v>
+                </c:pt>
+                <c:pt idx="86" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45608</c:v>
+                </c:pt>
+                <c:pt idx="87" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45609</c:v>
+                </c:pt>
+                <c:pt idx="88" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45610</c:v>
+                </c:pt>
+                <c:pt idx="89" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45611</c:v>
+                </c:pt>
+                <c:pt idx="90" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45612</c:v>
+                </c:pt>
+                <c:pt idx="91" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45613</c:v>
+                </c:pt>
+                <c:pt idx="92" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45614</c:v>
+                </c:pt>
+                <c:pt idx="93" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15378,6 +15408,24 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -15473,14 +15521,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
+                    <c15:sqref>日活跃!$B$2:$B$140</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>日活跃!$B$47:$B$130</c:f>
+              <c:f>日活跃!$B$47:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45522</c:v>
                 </c:pt>
@@ -15732,6 +15780,36 @@
                 </c:pt>
                 <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45605</c:v>
+                </c:pt>
+                <c:pt idx="84" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45606</c:v>
+                </c:pt>
+                <c:pt idx="85" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45607</c:v>
+                </c:pt>
+                <c:pt idx="86" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45608</c:v>
+                </c:pt>
+                <c:pt idx="87" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45609</c:v>
+                </c:pt>
+                <c:pt idx="88" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45610</c:v>
+                </c:pt>
+                <c:pt idx="89" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45611</c:v>
+                </c:pt>
+                <c:pt idx="90" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45612</c:v>
+                </c:pt>
+                <c:pt idx="91" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45613</c:v>
+                </c:pt>
+                <c:pt idx="92" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45614</c:v>
+                </c:pt>
+                <c:pt idx="93" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15991,6 +16069,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>211.38692517144</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>181.047506228897</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>174.216008374484</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>170.998263395599</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>165.40380857258</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>175.919373043435</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>191.446135572765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16106,16 +16202,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$140</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$130</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="84"/>
+                      <c:ptCount val="94"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -16367,6 +16463,36 @@
                       </c:pt>
                       <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45605</c:v>
+                      </c:pt>
+                      <c:pt idx="84" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45606</c:v>
+                      </c:pt>
+                      <c:pt idx="85" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45607</c:v>
+                      </c:pt>
+                      <c:pt idx="86" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45608</c:v>
+                      </c:pt>
+                      <c:pt idx="87" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45609</c:v>
+                      </c:pt>
+                      <c:pt idx="88" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45610</c:v>
+                      </c:pt>
+                      <c:pt idx="89" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45611</c:v>
+                      </c:pt>
+                      <c:pt idx="90" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45612</c:v>
+                      </c:pt>
+                      <c:pt idx="91" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45613</c:v>
+                      </c:pt>
+                      <c:pt idx="92" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45614</c:v>
+                      </c:pt>
+                      <c:pt idx="93" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45615</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16655,16 +16781,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$140</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$130</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="84"/>
+                      <c:ptCount val="94"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -16916,6 +17042,36 @@
                       </c:pt>
                       <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45605</c:v>
+                      </c:pt>
+                      <c:pt idx="84" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45606</c:v>
+                      </c:pt>
+                      <c:pt idx="85" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45607</c:v>
+                      </c:pt>
+                      <c:pt idx="86" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45608</c:v>
+                      </c:pt>
+                      <c:pt idx="87" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45609</c:v>
+                      </c:pt>
+                      <c:pt idx="88" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45610</c:v>
+                      </c:pt>
+                      <c:pt idx="89" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45611</c:v>
+                      </c:pt>
+                      <c:pt idx="90" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45612</c:v>
+                      </c:pt>
+                      <c:pt idx="91" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45613</c:v>
+                      </c:pt>
+                      <c:pt idx="92" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45614</c:v>
+                      </c:pt>
+                      <c:pt idx="93" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45615</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17213,16 +17369,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$140</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$130</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="84"/>
+                      <c:ptCount val="94"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -17474,6 +17630,36 @@
                       </c:pt>
                       <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45605</c:v>
+                      </c:pt>
+                      <c:pt idx="84" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45606</c:v>
+                      </c:pt>
+                      <c:pt idx="85" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45607</c:v>
+                      </c:pt>
+                      <c:pt idx="86" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45608</c:v>
+                      </c:pt>
+                      <c:pt idx="87" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45609</c:v>
+                      </c:pt>
+                      <c:pt idx="88" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45610</c:v>
+                      </c:pt>
+                      <c:pt idx="89" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45611</c:v>
+                      </c:pt>
+                      <c:pt idx="90" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45612</c:v>
+                      </c:pt>
+                      <c:pt idx="91" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45613</c:v>
+                      </c:pt>
+                      <c:pt idx="92" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45614</c:v>
+                      </c:pt>
+                      <c:pt idx="93" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45615</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17597,16 +17783,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$140</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$130</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="84"/>
+                      <c:ptCount val="94"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -17858,6 +18044,36 @@
                       </c:pt>
                       <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45605</c:v>
+                      </c:pt>
+                      <c:pt idx="84" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45606</c:v>
+                      </c:pt>
+                      <c:pt idx="85" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45607</c:v>
+                      </c:pt>
+                      <c:pt idx="86" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45608</c:v>
+                      </c:pt>
+                      <c:pt idx="87" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45609</c:v>
+                      </c:pt>
+                      <c:pt idx="88" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45610</c:v>
+                      </c:pt>
+                      <c:pt idx="89" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45611</c:v>
+                      </c:pt>
+                      <c:pt idx="90" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45612</c:v>
+                      </c:pt>
+                      <c:pt idx="91" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45613</c:v>
+                      </c:pt>
+                      <c:pt idx="92" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45614</c:v>
+                      </c:pt>
+                      <c:pt idx="93" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45615</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17983,16 +18199,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$140</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$130</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="84"/>
+                      <c:ptCount val="94"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -18244,6 +18460,36 @@
                       </c:pt>
                       <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45605</c:v>
+                      </c:pt>
+                      <c:pt idx="84" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45606</c:v>
+                      </c:pt>
+                      <c:pt idx="85" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45607</c:v>
+                      </c:pt>
+                      <c:pt idx="86" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45608</c:v>
+                      </c:pt>
+                      <c:pt idx="87" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45609</c:v>
+                      </c:pt>
+                      <c:pt idx="88" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45610</c:v>
+                      </c:pt>
+                      <c:pt idx="89" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45611</c:v>
+                      </c:pt>
+                      <c:pt idx="90" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45612</c:v>
+                      </c:pt>
+                      <c:pt idx="91" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45613</c:v>
+                      </c:pt>
+                      <c:pt idx="92" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45614</c:v>
+                      </c:pt>
+                      <c:pt idx="93" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45615</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18370,16 +18616,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$140</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$130</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="84"/>
+                      <c:ptCount val="94"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -18631,6 +18877,36 @@
                       </c:pt>
                       <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45605</c:v>
+                      </c:pt>
+                      <c:pt idx="84" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45606</c:v>
+                      </c:pt>
+                      <c:pt idx="85" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45607</c:v>
+                      </c:pt>
+                      <c:pt idx="86" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45608</c:v>
+                      </c:pt>
+                      <c:pt idx="87" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45609</c:v>
+                      </c:pt>
+                      <c:pt idx="88" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45610</c:v>
+                      </c:pt>
+                      <c:pt idx="89" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45611</c:v>
+                      </c:pt>
+                      <c:pt idx="90" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45612</c:v>
+                      </c:pt>
+                      <c:pt idx="91" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45613</c:v>
+                      </c:pt>
+                      <c:pt idx="92" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45614</c:v>
+                      </c:pt>
+                      <c:pt idx="93" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45615</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18754,16 +19030,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>日活跃!$B$2:$B$130</c15:sqref>
+                          <c15:sqref>日活跃!$B$2:$B$140</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>日活跃!$B$47:$B$130</c15:sqref>
+                          <c15:sqref>日活跃!$B$47:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="84"/>
+                      <c:ptCount val="94"/>
                       <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45522</c:v>
                       </c:pt>
@@ -19015,6 +19291,36 @@
                       </c:pt>
                       <c:pt idx="83" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                         <c:v>45605</c:v>
+                      </c:pt>
+                      <c:pt idx="84" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45606</c:v>
+                      </c:pt>
+                      <c:pt idx="85" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45607</c:v>
+                      </c:pt>
+                      <c:pt idx="86" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45608</c:v>
+                      </c:pt>
+                      <c:pt idx="87" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45609</c:v>
+                      </c:pt>
+                      <c:pt idx="88" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45610</c:v>
+                      </c:pt>
+                      <c:pt idx="89" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45611</c:v>
+                      </c:pt>
+                      <c:pt idx="90" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45612</c:v>
+                      </c:pt>
+                      <c:pt idx="91" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45613</c:v>
+                      </c:pt>
+                      <c:pt idx="92" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45614</c:v>
+                      </c:pt>
+                      <c:pt idx="93" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                        <c:v>45615</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19385,10 +19691,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>日活跃2!$B$37:$B$130</c:f>
+              <c:f>日活跃2!$B$37:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45512</c:v>
                 </c:pt>
@@ -19670,16 +19976,46 @@
                 </c:pt>
                 <c:pt idx="93" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
                   <c:v>45605</c:v>
+                </c:pt>
+                <c:pt idx="94" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45606</c:v>
+                </c:pt>
+                <c:pt idx="95" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45607</c:v>
+                </c:pt>
+                <c:pt idx="96" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45608</c:v>
+                </c:pt>
+                <c:pt idx="97" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45609</c:v>
+                </c:pt>
+                <c:pt idx="98" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45610</c:v>
+                </c:pt>
+                <c:pt idx="99" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45611</c:v>
+                </c:pt>
+                <c:pt idx="100" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45612</c:v>
+                </c:pt>
+                <c:pt idx="101" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45613</c:v>
+                </c:pt>
+                <c:pt idx="102" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45614</c:v>
+                </c:pt>
+                <c:pt idx="103" c:formatCode="m&quot;月&quot;d&quot;日&quot;">
+                  <c:v>45615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>日活跃2!$C$37:$C$130</c:f>
+              <c:f>日活跃2!$C$37:$C$140</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>307.240555796786</c:v>
                 </c:pt>
@@ -19946,6 +20282,27 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>152.778294862248</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>151.355463347164</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>143.156051248963</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>141.935632607893</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>137.336345196385</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>132.46519775053</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>138.921161825726</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>148.013641810305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29665,8 +30022,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8836660" y="473710"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9762490" y="450850"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29695,8 +30052,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8806180" y="589280"/>
-        <a:ext cx="11431905" cy="5311140"/>
+        <a:off x="9732010" y="554990"/>
+        <a:ext cx="12696190" cy="4979670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29725,8 +30082,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8811260" y="6186170"/>
-        <a:ext cx="11172190" cy="5626100"/>
+        <a:off x="9737090" y="5808980"/>
+        <a:ext cx="12436475" cy="5271770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29760,8 +30117,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3373120" y="20403820"/>
-        <a:ext cx="12246610" cy="6044565"/>
+        <a:off x="3729990" y="19135090"/>
+        <a:ext cx="13565505" cy="5667375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29795,8 +30152,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23703915" y="275590"/>
-        <a:ext cx="8799830" cy="5819140"/>
+        <a:off x="26319480" y="260350"/>
+        <a:ext cx="9759950" cy="5321935"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29830,8 +30187,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6627495" y="13545820"/>
-        <a:ext cx="8835390" cy="6406515"/>
+        <a:off x="7336790" y="12700000"/>
+        <a:ext cx="9786620" cy="6006465"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29865,8 +30222,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6335395" y="14372590"/>
-        <a:ext cx="7248525" cy="5538470"/>
+        <a:off x="6979285" y="13481050"/>
+        <a:ext cx="8094345" cy="5195570"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29900,8 +30257,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8887460" y="170180"/>
-        <a:ext cx="5092065" cy="6658610"/>
+        <a:off x="9860280" y="170180"/>
+        <a:ext cx="5621655" cy="6235700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29935,8 +30292,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6602095" y="109220"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7328535" y="109220"/>
+        <a:ext cx="9937115" cy="4862830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -29965,8 +30322,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6851015" y="5410200"/>
-        <a:ext cx="8985885" cy="5188585"/>
+        <a:off x="7577455" y="5078730"/>
+        <a:ext cx="10005060" cy="4865370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -30649,7 +31006,7 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="15" customWidth="1"/>
@@ -30660,9 +31017,9 @@
     <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
     <col min="10" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="12.8888888888889"/>
+    <col min="14" max="14" width="15.225" customWidth="1"/>
+    <col min="15" max="15" width="17.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:15">
@@ -35075,26 +35432,26 @@
       <selection activeCell="F162" sqref="F161:F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="16.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="11.775" customWidth="1"/>
     <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556"/>
-    <col min="14" max="14" width="12.8888888888889"/>
-    <col min="15" max="15" width="11.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="17.5583333333333"/>
+    <col min="14" max="14" width="12.8916666666667"/>
+    <col min="15" max="15" width="11.775" customWidth="1"/>
+    <col min="17" max="17" width="16.4416666666667" customWidth="1"/>
     <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="11.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
@@ -37984,32 +38341,32 @@
       <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889"/>
-    <col min="2" max="2" width="17.5555555555556"/>
+    <col min="1" max="1" width="12.8916666666667"/>
+    <col min="2" max="2" width="17.5583333333333"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889"/>
-    <col min="5" max="5" width="17.5555555555556"/>
-    <col min="6" max="6" width="11.7777777777778"/>
-    <col min="7" max="7" width="17.5555555555556"/>
-    <col min="8" max="8" width="11.7777777777778"/>
-    <col min="9" max="9" width="12.8888888888889"/>
-    <col min="10" max="10" width="13.7777777777778" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.7777777777778"/>
+    <col min="4" max="4" width="11.8916666666667"/>
+    <col min="5" max="5" width="17.5583333333333"/>
+    <col min="6" max="6" width="11.775"/>
+    <col min="7" max="7" width="17.5583333333333"/>
+    <col min="8" max="8" width="11.775"/>
+    <col min="9" max="9" width="12.8916666666667"/>
+    <col min="10" max="10" width="13.775" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.775"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444"/>
+    <col min="13" max="13" width="16.4416666666667"/>
     <col min="14" max="14" width="14.3333333333333" style="10"/>
     <col min="15" max="16" width="9.66666666666667"/>
     <col min="17" max="17" width="20.6666666666667"/>
     <col min="18" max="18" width="14.3333333333333"/>
-    <col min="19" max="19" width="10.5555555555556"/>
-    <col min="20" max="20" width="12.8888888888889"/>
-    <col min="25" max="26" width="12.8888888888889"/>
+    <col min="19" max="19" width="10.5583333333333"/>
+    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="25" max="26" width="12.8916666666667"/>
     <col min="27" max="27" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="2:28">
+    <row r="1" ht="15" spans="2:28">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -41487,13 +41844,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
@@ -45963,89 +46320,215 @@
         <v>2519.49203307785</v>
       </c>
     </row>
-    <row r="132" spans="2:11">
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>2835</v>
+      </c>
       <c r="B132" s="5">
         <v>45607</v>
       </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
-    </row>
-    <row r="133" spans="2:11">
+      <c r="C132" s="6">
+        <v>181.047506228897</v>
+      </c>
+      <c r="D132" s="8">
+        <v>0</v>
+      </c>
+      <c r="E132" s="6">
+        <v>60.0157479211813</v>
+      </c>
+      <c r="F132" s="6">
+        <v>24.7207723580104</v>
+      </c>
+      <c r="G132" s="6">
+        <v>8.57367827445447</v>
+      </c>
+      <c r="H132" s="6">
+        <v>8.14499436073174</v>
+      </c>
+      <c r="I132" s="6">
+        <v>8.71657291236204</v>
+      </c>
+      <c r="J132" s="6">
+        <v>6.1444694300257</v>
+      </c>
+      <c r="K132" s="6">
+        <v>2519.80404486217</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>2836</v>
+      </c>
       <c r="B133" s="5">
         <v>45608</v>
       </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
-    </row>
-    <row r="134" spans="2:11">
+      <c r="C133" s="6">
+        <v>174.216008374484</v>
+      </c>
+      <c r="D133" s="8">
+        <v>0</v>
+      </c>
+      <c r="E133" s="6">
+        <v>20.7229870502872</v>
+      </c>
+      <c r="F133" s="6">
+        <v>47.5914116396251</v>
+      </c>
+      <c r="G133" s="6">
+        <v>20.0084012899325</v>
+      </c>
+      <c r="H133" s="6">
+        <v>10.8617035573919</v>
+      </c>
+      <c r="I133" s="6">
+        <v>7.28877475561826</v>
+      </c>
+      <c r="J133" s="6">
+        <v>10.8617035573919</v>
+      </c>
+      <c r="K133" s="6">
+        <v>2524.4885741812</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>2837</v>
+      </c>
       <c r="B134" s="5">
         <v>45609</v>
       </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-    </row>
-    <row r="135" spans="2:11">
+      <c r="C134" s="6">
+        <v>170.998263395599</v>
+      </c>
+      <c r="D134" s="8">
+        <v>0</v>
+      </c>
+      <c r="E134" s="6">
+        <v>21.714065193092</v>
+      </c>
+      <c r="F134" s="6">
+        <v>13.142723669503</v>
+      </c>
+      <c r="G134" s="6">
+        <v>43.428130386184</v>
+      </c>
+      <c r="H134" s="6">
+        <v>19.5712298121948</v>
+      </c>
+      <c r="I134" s="6">
+        <v>9.42847567594784</v>
+      </c>
+      <c r="J134" s="6">
+        <v>7.2856402950506</v>
+      </c>
+      <c r="K134" s="6">
+        <v>2531.68857468405</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>2838</v>
+      </c>
       <c r="B135" s="5">
         <v>45610</v>
       </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-    </row>
-    <row r="136" spans="2:11">
+      <c r="C135" s="6">
+        <v>165.40380857258</v>
+      </c>
+      <c r="D135" s="8">
+        <v>0</v>
+      </c>
+      <c r="E135" s="6">
+        <v>26.5904134783923</v>
+      </c>
+      <c r="F135" s="6">
+        <v>14.5818396494409</v>
+      </c>
+      <c r="G135" s="6">
+        <v>11.0078593432054</v>
+      </c>
+      <c r="H135" s="6">
+        <v>44.7462334340687</v>
+      </c>
+      <c r="I135" s="6">
+        <v>16.7262278331822</v>
+      </c>
+      <c r="J135" s="6">
+        <v>8.57755273496525</v>
+      </c>
+      <c r="K135" s="6">
+        <v>2531.52173051274</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>2839</v>
+      </c>
       <c r="B136" s="5">
         <v>45611</v>
       </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-    </row>
-    <row r="137" spans="2:11">
+      <c r="C136" s="6">
+        <v>175.919373043435</v>
+      </c>
+      <c r="D136" s="8">
+        <v>0</v>
+      </c>
+      <c r="E136" s="6">
+        <v>22.1506927877598</v>
+      </c>
+      <c r="F136" s="6">
+        <v>15.5769387991343</v>
+      </c>
+      <c r="G136" s="6">
+        <v>11.2897079369873</v>
+      </c>
+      <c r="H136" s="6">
+        <v>12.2900618048216</v>
+      </c>
+      <c r="I136" s="6">
+        <v>40.4428777995873</v>
+      </c>
+      <c r="J136" s="6">
+        <v>17.1489234485882</v>
+      </c>
+      <c r="K136" s="6">
+        <v>2525.46479319543</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>2841</v>
+      </c>
       <c r="B137" s="5">
         <v>45612</v>
       </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
+      <c r="C137" s="6">
+        <v>191.446135572765</v>
+      </c>
+      <c r="D137" s="8">
+        <v>0</v>
+      </c>
+      <c r="E137" s="6">
+        <v>26.859607080358</v>
+      </c>
+      <c r="F137" s="6">
+        <v>12.429711787187</v>
+      </c>
+      <c r="G137" s="6">
+        <v>10.7152687820577</v>
+      </c>
+      <c r="H137" s="6">
+        <v>9.14369602735593</v>
+      </c>
+      <c r="I137" s="6">
+        <v>8.57221502564618</v>
+      </c>
+      <c r="J137" s="6">
+        <v>29.2884013376245</v>
+      </c>
+      <c r="K137" s="6">
+        <v>2530.2321350699</v>
+      </c>
     </row>
     <row r="138" spans="2:11">
       <c r="B138" s="5">
@@ -46136,6 +46619,116 @@
         <v>45620</v>
       </c>
       <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="5">
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="5">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="5">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="5">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="5">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="5">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="5">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="5">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="5">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="5">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="5">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="5">
+        <v>45632</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="5">
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="5">
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="5">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="5">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="5">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="5">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="5">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="5">
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="5">
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="5">
+        <v>45642</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -46147,17 +46740,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="K129" sqref="K129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.12962962962963"/>
-    <col min="3" max="3" width="12.8888888888889"/>
-    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="2" max="2" width="9.13333333333333"/>
+    <col min="3" max="3" width="12.8916666666667"/>
+    <col min="10" max="10" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -48254,85 +48847,265 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:9">
+    <row r="132" spans="1:9">
+      <c r="A132">
+        <v>2835</v>
+      </c>
       <c r="B132" s="5">
         <v>45607</v>
       </c>
-      <c r="C132" s="8"/>
-      <c r="I132" s="6"/>
-    </row>
-    <row r="133" spans="2:9">
+      <c r="C132" s="8">
+        <v>143.156051248963</v>
+      </c>
+      <c r="I132" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>2836</v>
+      </c>
       <c r="B133" s="5">
         <v>45608</v>
       </c>
-      <c r="C133" s="8"/>
-      <c r="I133" s="6"/>
-    </row>
-    <row r="134" spans="2:9">
+      <c r="C133" s="8">
+        <v>141.935632607893</v>
+      </c>
+      <c r="I133" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134">
+        <v>2837</v>
+      </c>
       <c r="B134" s="5">
         <v>45609</v>
       </c>
-      <c r="C134" s="8"/>
-      <c r="I134" s="6"/>
-    </row>
-    <row r="135" spans="2:9">
+      <c r="C134" s="8">
+        <v>137.336345196385</v>
+      </c>
+      <c r="I134" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135">
+        <v>2838</v>
+      </c>
       <c r="B135" s="5">
         <v>45610</v>
       </c>
-      <c r="C135" s="8"/>
-      <c r="I135" s="6"/>
-    </row>
-    <row r="136" spans="2:9">
+      <c r="C135" s="8">
+        <v>132.46519775053</v>
+      </c>
+      <c r="I135" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136">
+        <v>2839</v>
+      </c>
       <c r="B136" s="5">
         <v>45611</v>
       </c>
-      <c r="C136" s="8"/>
-      <c r="I136" s="6"/>
-    </row>
-    <row r="137" spans="2:3">
+      <c r="C136" s="8">
+        <v>138.921161825726</v>
+      </c>
+      <c r="I136" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137">
+        <v>2841</v>
+      </c>
       <c r="B137" s="5">
         <v>45612</v>
       </c>
-      <c r="C137" s="8"/>
-    </row>
-    <row r="138" spans="2:3">
+      <c r="C137" s="8">
+        <v>148.013641810305</v>
+      </c>
+      <c r="I137" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
       <c r="B138" s="5">
         <v>45613</v>
       </c>
       <c r="C138" s="8"/>
-    </row>
-    <row r="139" spans="2:3">
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="2:9">
       <c r="B139" s="5">
         <v>45614</v>
       </c>
       <c r="C139" s="8"/>
-    </row>
-    <row r="140" spans="2:3">
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="2:9">
       <c r="B140" s="5">
         <v>45615</v>
       </c>
       <c r="C140" s="8"/>
-    </row>
-    <row r="141" spans="3:3">
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="2:9">
+      <c r="B141" s="5">
+        <v>45616</v>
+      </c>
       <c r="C141" s="8"/>
-    </row>
-    <row r="142" spans="3:3">
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="2:9">
+      <c r="B142" s="5">
+        <v>45617</v>
+      </c>
       <c r="C142" s="8"/>
-    </row>
-    <row r="143" spans="3:3">
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="2:9">
+      <c r="B143" s="5">
+        <v>45618</v>
+      </c>
       <c r="C143" s="8"/>
-    </row>
-    <row r="144" spans="3:3">
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="2:9">
+      <c r="B144" s="5">
+        <v>45619</v>
+      </c>
       <c r="C144" s="8"/>
-    </row>
-    <row r="145" spans="3:3">
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="2:9">
+      <c r="B145" s="5">
+        <v>45620</v>
+      </c>
       <c r="C145" s="8"/>
-    </row>
-    <row r="146" spans="3:3">
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146" s="5">
+        <v>45621</v>
+      </c>
       <c r="C146" s="8"/>
-    </row>
-    <row r="147" spans="3:3">
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="2:9">
+      <c r="B147" s="5">
+        <v>45622</v>
+      </c>
       <c r="C147" s="8"/>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="2:9">
+      <c r="B148" s="5">
+        <v>45623</v>
+      </c>
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="B149" s="5">
+        <v>45624</v>
+      </c>
+      <c r="I149" s="6"/>
+    </row>
+    <row r="150" spans="2:9">
+      <c r="B150" s="5">
+        <v>45625</v>
+      </c>
+      <c r="I150" s="6"/>
+    </row>
+    <row r="151" spans="2:9">
+      <c r="B151" s="5">
+        <v>45626</v>
+      </c>
+      <c r="I151" s="6"/>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152" s="5">
+        <v>45627</v>
+      </c>
+      <c r="I152" s="6"/>
+    </row>
+    <row r="153" spans="2:9">
+      <c r="B153" s="5">
+        <v>45628</v>
+      </c>
+      <c r="I153" s="6"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="5">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="5">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="5">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="5">
+        <v>45632</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="5">
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="5">
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="5">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="5">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="5">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="5">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="5">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="5">
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="5">
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="5">
+        <v>45642</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -48350,13 +49123,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="20" max="20" width="12.8916666666667"/>
     <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
     <col min="22" max="27" width="6.66666666666667" customWidth="1"/>
   </cols>
@@ -49672,10 +50445,10 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="5" width="12.8888888888889"/>
-    <col min="7" max="8" width="12.8888888888889"/>
+    <col min="2" max="5" width="12.8916666666667"/>
+    <col min="7" max="8" width="12.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:8">
